--- a/Assets/06.Table/Dosul.xlsx
+++ b/Assets/06.Table/Dosul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1C7054-E81D-4C45-8186-2D1204597867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AC2A3-F218-49D1-80D3-4E70164A85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dosul" sheetId="2" r:id="rId1"/>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4231,7 +4231,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B151" si="6">B131</f>
+        <f t="shared" ref="B132:B195" si="6">B131</f>
         <v>9031</v>
       </c>
       <c r="C132" s="1">
@@ -4239,7 +4239,7 @@
         <v>2352200</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D151" si="7">D131</f>
+        <f t="shared" ref="D132:D195" si="7">D131</f>
         <v>60</v>
       </c>
       <c r="E132">
@@ -4472,7 +4472,7 @@
         <v>40902.154600000009</v>
       </c>
       <c r="F141">
-        <f t="shared" ref="F141:F151" si="8">IF(F131=0,0,F131+2)</f>
+        <f t="shared" ref="F141:F201" si="8">IF(F131=0,0,F131+2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4722,6 +4722,1254 @@
         <v>46240.953600000015</v>
       </c>
       <c r="F151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C152" s="1">
+        <f>VLOOKUP(A152,balance!L:R,2,FALSE)</f>
+        <v>3496400</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E152">
+        <f>VLOOKUP(A152,balance!L:R,6,FALSE)/100</f>
+        <v>46835.341600000014</v>
+      </c>
+      <c r="F152">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C153" s="1">
+        <f>VLOOKUP(A153,balance!L:R,2,FALSE)</f>
+        <v>3566400</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E153">
+        <f>VLOOKUP(A153,balance!L:R,6,FALSE)/100</f>
+        <v>47138.485600000015</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C154" s="1">
+        <f>VLOOKUP(A154,balance!L:R,2,FALSE)</f>
+        <v>3637800</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E154">
+        <f>VLOOKUP(A154,balance!L:R,6,FALSE)/100</f>
+        <v>47447.698600000011</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C155" s="1">
+        <f>VLOOKUP(A155,balance!L:R,2,FALSE)</f>
+        <v>3710600</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E155">
+        <f>VLOOKUP(A155,balance!L:R,6,FALSE)/100</f>
+        <v>47763.099600000009</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C156" s="1">
+        <f>VLOOKUP(A156,balance!L:R,2,FALSE)</f>
+        <v>3784900</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E156">
+        <f>VLOOKUP(A156,balance!L:R,6,FALSE)/100</f>
+        <v>48084.816100000011</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C157" s="1">
+        <f>VLOOKUP(A157,balance!L:R,2,FALSE)</f>
+        <v>3860600</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E157">
+        <f>VLOOKUP(A157,balance!L:R,6,FALSE)/100</f>
+        <v>48412.967100000009</v>
+      </c>
+      <c r="F157">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C158" s="1">
+        <f>VLOOKUP(A158,balance!L:R,2,FALSE)</f>
+        <v>3937900</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E158">
+        <f>VLOOKUP(A158,balance!L:R,6,FALSE)/100</f>
+        <v>48747.688600000016</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C159" s="1">
+        <f>VLOOKUP(A159,balance!L:R,2,FALSE)</f>
+        <v>4016700</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <f>VLOOKUP(A159,balance!L:R,6,FALSE)/100</f>
+        <v>49089.108100000012</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C160" s="1">
+        <f>VLOOKUP(A160,balance!L:R,2,FALSE)</f>
+        <v>4097100</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E160">
+        <f>VLOOKUP(A160,balance!L:R,6,FALSE)/100</f>
+        <v>49437.361600000011</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C161" s="1">
+        <f>VLOOKUP(A161,balance!L:R,2,FALSE)</f>
+        <v>4179100</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E161">
+        <f>VLOOKUP(A161,balance!L:R,6,FALSE)/100</f>
+        <v>49792.585100000004</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C162" s="1">
+        <f>VLOOKUP(A162,balance!L:R,2,FALSE)</f>
+        <v>4262700</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E162">
+        <f>VLOOKUP(A162,balance!L:R,6,FALSE)/100</f>
+        <v>50154.914600000011</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C163" s="1">
+        <f>VLOOKUP(A163,balance!L:R,2,FALSE)</f>
+        <v>4348000</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E163">
+        <f>VLOOKUP(A163,balance!L:R,6,FALSE)/100</f>
+        <v>50524.494600000005</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C164" s="1">
+        <f>VLOOKUP(A164,balance!L:R,2,FALSE)</f>
+        <v>4435000</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E164">
+        <f>VLOOKUP(A164,balance!L:R,6,FALSE)/100</f>
+        <v>50901.469600000011</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C165" s="1">
+        <f>VLOOKUP(A165,balance!L:R,2,FALSE)</f>
+        <v>4523700</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E165">
+        <f>VLOOKUP(A165,balance!L:R,6,FALSE)/100</f>
+        <v>51285.984100000009</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C166" s="1">
+        <f>VLOOKUP(A166,balance!L:R,2,FALSE)</f>
+        <v>4614200</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E166">
+        <f>VLOOKUP(A166,balance!L:R,6,FALSE)/100</f>
+        <v>51678.191100000011</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C167" s="1">
+        <f>VLOOKUP(A167,balance!L:R,2,FALSE)</f>
+        <v>4706500</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E167">
+        <f>VLOOKUP(A167,balance!L:R,6,FALSE)/100</f>
+        <v>52078.243600000016</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C168" s="1">
+        <f>VLOOKUP(A168,balance!L:R,2,FALSE)</f>
+        <v>4800700</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E168">
+        <f>VLOOKUP(A168,balance!L:R,6,FALSE)/100</f>
+        <v>52486.303100000012</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C169" s="1">
+        <f>VLOOKUP(A169,balance!L:R,2,FALSE)</f>
+        <v>4896800</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E169">
+        <f>VLOOKUP(A169,balance!L:R,6,FALSE)/100</f>
+        <v>52902.531100000015</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C170" s="1">
+        <f>VLOOKUP(A170,balance!L:R,2,FALSE)</f>
+        <v>4994800</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E170">
+        <f>VLOOKUP(A170,balance!L:R,6,FALSE)/100</f>
+        <v>53327.089100000012</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C171" s="1">
+        <f>VLOOKUP(A171,balance!L:R,2,FALSE)</f>
+        <v>5094700</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E171">
+        <f>VLOOKUP(A171,balance!L:R,6,FALSE)/100</f>
+        <v>53760.138600000013</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C172" s="1">
+        <f>VLOOKUP(A172,balance!L:R,2,FALSE)</f>
+        <v>5196600</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E172">
+        <f>VLOOKUP(A172,balance!L:R,6,FALSE)/100</f>
+        <v>54201.849600000009</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C173" s="1">
+        <f>VLOOKUP(A173,balance!L:R,2,FALSE)</f>
+        <v>5300600</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E173">
+        <f>VLOOKUP(A173,balance!L:R,6,FALSE)/100</f>
+        <v>54652.400600000008</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C174" s="1">
+        <f>VLOOKUP(A174,balance!L:R,2,FALSE)</f>
+        <v>5406700</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E174">
+        <f>VLOOKUP(A174,balance!L:R,6,FALSE)/100</f>
+        <v>55111.970100000006</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C175" s="1">
+        <f>VLOOKUP(A175,balance!L:R,2,FALSE)</f>
+        <v>5514900</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E175">
+        <f>VLOOKUP(A175,balance!L:R,6,FALSE)/100</f>
+        <v>55580.736600000011</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C176" s="1">
+        <f>VLOOKUP(A176,balance!L:R,2,FALSE)</f>
+        <v>5625200</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E176">
+        <f>VLOOKUP(A176,balance!L:R,6,FALSE)/100</f>
+        <v>56058.878600000011</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C177" s="1">
+        <f>VLOOKUP(A177,balance!L:R,2,FALSE)</f>
+        <v>5737800</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E177">
+        <f>VLOOKUP(A177,balance!L:R,6,FALSE)/100</f>
+        <v>56546.591600000014</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C178" s="1">
+        <f>VLOOKUP(A178,balance!L:R,2,FALSE)</f>
+        <v>5852600</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E178">
+        <f>VLOOKUP(A178,balance!L:R,6,FALSE)/100</f>
+        <v>57044.062600000005</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C179" s="1">
+        <f>VLOOKUP(A179,balance!L:R,2,FALSE)</f>
+        <v>5969700</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E179">
+        <f>VLOOKUP(A179,balance!L:R,6,FALSE)/100</f>
+        <v>57551.487100000006</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C180" s="1">
+        <f>VLOOKUP(A180,balance!L:R,2,FALSE)</f>
+        <v>6089100</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E180">
+        <f>VLOOKUP(A180,balance!L:R,6,FALSE)/100</f>
+        <v>58069.060600000004</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C181" s="1">
+        <f>VLOOKUP(A181,balance!L:R,2,FALSE)</f>
+        <v>6210900</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E181">
+        <f>VLOOKUP(A181,balance!L:R,6,FALSE)/100</f>
+        <v>58596.987100000006</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C182" s="1">
+        <f>VLOOKUP(A182,balance!L:R,2,FALSE)</f>
+        <v>6335200</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E182">
+        <f>VLOOKUP(A182,balance!L:R,6,FALSE)/100</f>
+        <v>59135.479100000011</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C183" s="1">
+        <f>VLOOKUP(A183,balance!L:R,2,FALSE)</f>
+        <v>6462000</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E183">
+        <f>VLOOKUP(A183,balance!L:R,6,FALSE)/100</f>
+        <v>59684.749100000008</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C184" s="1">
+        <f>VLOOKUP(A184,balance!L:R,2,FALSE)</f>
+        <v>6591300</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E184">
+        <f>VLOOKUP(A184,balance!L:R,6,FALSE)/100</f>
+        <v>60245.009600000012</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C185" s="1">
+        <f>VLOOKUP(A185,balance!L:R,2,FALSE)</f>
+        <v>6723200</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E185">
+        <f>VLOOKUP(A185,balance!L:R,6,FALSE)/100</f>
+        <v>60816.481600000014</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C186" s="1">
+        <f>VLOOKUP(A186,balance!L:R,2,FALSE)</f>
+        <v>6857700</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E186">
+        <f>VLOOKUP(A186,balance!L:R,6,FALSE)/100</f>
+        <v>61399.386100000011</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C187" s="1">
+        <f>VLOOKUP(A187,balance!L:R,2,FALSE)</f>
+        <v>6994900</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E187">
+        <f>VLOOKUP(A187,balance!L:R,6,FALSE)/100</f>
+        <v>61993.952600000019</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C188" s="1">
+        <f>VLOOKUP(A188,balance!L:R,2,FALSE)</f>
+        <v>7134800</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E188">
+        <f>VLOOKUP(A188,balance!L:R,6,FALSE)/100</f>
+        <v>62600.410600000017</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C189" s="1">
+        <f>VLOOKUP(A189,balance!L:R,2,FALSE)</f>
+        <v>7277500</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E189">
+        <f>VLOOKUP(A189,balance!L:R,6,FALSE)/100</f>
+        <v>63218.998100000012</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C190" s="1">
+        <f>VLOOKUP(A190,balance!L:R,2,FALSE)</f>
+        <v>7423100</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E190">
+        <f>VLOOKUP(A190,balance!L:R,6,FALSE)/100</f>
+        <v>63849.96160000001</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C191" s="1">
+        <f>VLOOKUP(A191,balance!L:R,2,FALSE)</f>
+        <v>7571600</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E191">
+        <f>VLOOKUP(A191,balance!L:R,6,FALSE)/100</f>
+        <v>64493.547600000005</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C192" s="1">
+        <f>VLOOKUP(A192,balance!L:R,2,FALSE)</f>
+        <v>7723100</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E192">
+        <f>VLOOKUP(A192,balance!L:R,6,FALSE)/100</f>
+        <v>65150.011100000003</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="8"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C193" s="1">
+        <f>VLOOKUP(A193,balance!L:R,2,FALSE)</f>
+        <v>7877600</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E193">
+        <f>VLOOKUP(A193,balance!L:R,6,FALSE)/100</f>
+        <v>65819.607099999994</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C194" s="1">
+        <f>VLOOKUP(A194,balance!L:R,2,FALSE)</f>
+        <v>8035200</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E194">
+        <f>VLOOKUP(A194,balance!L:R,6,FALSE)/100</f>
+        <v>66502.599100000007</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="6"/>
+        <v>9031</v>
+      </c>
+      <c r="C195" s="1">
+        <f>VLOOKUP(A195,balance!L:R,2,FALSE)</f>
+        <v>8196000</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E195">
+        <f>VLOOKUP(A195,balance!L:R,6,FALSE)/100</f>
+        <v>67199.259099999996</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ref="B196:B201" si="9">B195</f>
+        <v>9031</v>
+      </c>
+      <c r="C196" s="1">
+        <f>VLOOKUP(A196,balance!L:R,2,FALSE)</f>
+        <v>8360000</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ref="D196:D201" si="10">D195</f>
+        <v>60</v>
+      </c>
+      <c r="E196">
+        <f>VLOOKUP(A196,balance!L:R,6,FALSE)/100</f>
+        <v>67909.859100000001</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C197" s="1">
+        <f>VLOOKUP(A197,balance!L:R,2,FALSE)</f>
+        <v>8527200</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E197">
+        <f>VLOOKUP(A197,balance!L:R,6,FALSE)/100</f>
+        <v>68634.671100000007</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C198" s="1">
+        <f>VLOOKUP(A198,balance!L:R,2,FALSE)</f>
+        <v>8697800</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E198">
+        <f>VLOOKUP(A198,balance!L:R,6,FALSE)/100</f>
+        <v>69373.984100000001</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C199" s="1">
+        <f>VLOOKUP(A199,balance!L:R,2,FALSE)</f>
+        <v>8871800</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E199">
+        <f>VLOOKUP(A199,balance!L:R,6,FALSE)/100</f>
+        <v>70128.087100000004</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C200" s="1">
+        <f>VLOOKUP(A200,balance!L:R,2,FALSE)</f>
+        <v>9049300</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E200">
+        <f>VLOOKUP(A200,balance!L:R,6,FALSE)/100</f>
+        <v>70897.277600000001</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C201" s="1">
+        <f>VLOOKUP(A201,balance!L:R,2,FALSE)</f>
+        <v>9230300</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E201">
+        <f>VLOOKUP(A201,balance!L:R,6,FALSE)/100</f>
+        <v>71681.853099999993</v>
+      </c>
+      <c r="F201">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4730,7 +5978,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C152:C1048576" formula="1"/>
+    <ignoredError sqref="C202:C1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4739,10 +5987,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="Q154" sqref="Q154"/>
+      <selection pane="topRight" activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14693,8 +15941,48 @@
         <v>5500</v>
       </c>
       <c r="K155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="O155" s="1"/>
+      <c r="L155" s="2">
+        <v>150</v>
+      </c>
+      <c r="M155" s="1">
+        <f t="shared" ref="M155:M214" si="35">ROUNDUP((M154)*N155,-2)</f>
+        <v>3496400</v>
+      </c>
+      <c r="N155">
+        <v>1.02</v>
+      </c>
+      <c r="O155" s="1">
+        <f>SUM($M$5:M155)</f>
+        <v>150651400</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ref="P155:P214" si="36">IF(L155&lt;=$A$27,ROUNDUP(M155*N155/$B$26,2),IF(L155&lt;=$A$28,ROUNDUP(M155*N155/$B$27,2),IF(L155&lt;=$A$29,ROUNDUP(M155*N155/$B$28,2),IF(L155&lt;=$A$30,ROUNDUP(M155*N155/$B$29,2),IF(L155&lt;=$A$31,ROUNDUP(M155*N155/$B$30,2),ROUNDUP(M155*N155/$B$31,2))))))</f>
+        <v>59438.8</v>
+      </c>
+      <c r="Q155">
+        <f>SUM($P$5:P155)</f>
+        <v>4683534.1600000011</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ref="R155:R214" si="37">(Q155-Q154)*100/Q154</f>
+        <v>1.2854146675729412</v>
+      </c>
+      <c r="T155">
+        <f t="shared" ref="T155:T214" si="38">M155/$I$215</f>
+        <v>4.389704959196485</v>
+      </c>
+      <c r="U155">
+        <f t="shared" ref="U155:U214" si="39">O155/$I$215</f>
+        <v>189.14174513496548</v>
+      </c>
+      <c r="W155">
+        <f t="shared" ref="W155:W214" si="40">M155/$I$255</f>
+        <v>3.1357847533632288</v>
+      </c>
+      <c r="X155">
+        <f t="shared" ref="X155:X214" si="41">O155/$I$255</f>
+        <v>135.11336322869954</v>
+      </c>
     </row>
     <row r="156" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F156" s="2">
@@ -14717,8 +16005,48 @@
         <v>5500</v>
       </c>
       <c r="K156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="L156" s="2">
+        <v>151</v>
+      </c>
+      <c r="M156" s="1">
+        <f t="shared" si="35"/>
+        <v>3566400</v>
+      </c>
+      <c r="N156">
+        <v>1.02</v>
+      </c>
+      <c r="O156" s="1">
+        <f>SUM($M$5:M156)</f>
+        <v>154217800</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="36"/>
+        <v>30314.400000000001</v>
+      </c>
+      <c r="Q156">
+        <f>SUM($P$5:P156)</f>
+        <v>4713848.5600000015</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="37"/>
+        <v>0.64725480725436546</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="38"/>
+        <v>4.4775894538606407</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="39"/>
+        <v>193.61933458882612</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="40"/>
+        <v>3.1985650224215245</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="41"/>
+        <v>138.31192825112109</v>
+      </c>
     </row>
     <row r="157" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F157" s="2">
@@ -14741,8 +16069,48 @@
         <v>5500</v>
       </c>
       <c r="K157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="L157" s="2">
+        <v>152</v>
+      </c>
+      <c r="M157" s="1">
+        <f t="shared" si="35"/>
+        <v>3637800</v>
+      </c>
+      <c r="N157">
+        <v>1.02</v>
+      </c>
+      <c r="O157" s="1">
+        <f>SUM($M$5:M157)</f>
+        <v>157855600</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="36"/>
+        <v>30921.3</v>
+      </c>
+      <c r="Q157">
+        <f>SUM($P$5:P157)</f>
+        <v>4744769.8600000013</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="37"/>
+        <v>0.65596719127522851</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="38"/>
+        <v>4.5672316384180789</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="39"/>
+        <v>198.18656622724419</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="40"/>
+        <v>3.2626008968609868</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="41"/>
+        <v>141.57452914798208</v>
+      </c>
     </row>
     <row r="158" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F158" s="2">
@@ -14765,8 +16133,48 @@
         <v>5500</v>
       </c>
       <c r="K158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="O158" s="1"/>
+      <c r="L158" s="2">
+        <v>153</v>
+      </c>
+      <c r="M158" s="1">
+        <f t="shared" si="35"/>
+        <v>3710600</v>
+      </c>
+      <c r="N158">
+        <v>1.02</v>
+      </c>
+      <c r="O158" s="1">
+        <f>SUM($M$5:M158)</f>
+        <v>161566200</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="36"/>
+        <v>31540.1</v>
+      </c>
+      <c r="Q158">
+        <f>SUM($P$5:P158)</f>
+        <v>4776309.9600000009</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="37"/>
+        <v>0.66473403201055614</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="38"/>
+        <v>4.6586315128688014</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="39"/>
+        <v>202.84519774011301</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="40"/>
+        <v>3.3278923766816142</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="41"/>
+        <v>144.90242152466368</v>
+      </c>
     </row>
     <row r="159" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F159" s="2">
@@ -14789,8 +16197,48 @@
         <v>5500</v>
       </c>
       <c r="K159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="O159" s="1"/>
+      <c r="L159" s="2">
+        <v>154</v>
+      </c>
+      <c r="M159" s="1">
+        <f t="shared" si="35"/>
+        <v>3784900</v>
+      </c>
+      <c r="N159">
+        <v>1.02</v>
+      </c>
+      <c r="O159" s="1">
+        <f>SUM($M$5:M159)</f>
+        <v>165351100</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="36"/>
+        <v>32171.65</v>
+      </c>
+      <c r="Q159">
+        <f>SUM($P$5:P159)</f>
+        <v>4808481.6100000013</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="37"/>
+        <v>0.67356704798112321</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="38"/>
+        <v>4.7519146264908976</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="39"/>
+        <v>207.59711236660388</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="40"/>
+        <v>3.394529147982063</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="41"/>
+        <v>148.29695067264575</v>
+      </c>
     </row>
     <row r="160" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F160" s="2">
@@ -14813,10 +16261,50 @@
         <v>5500</v>
       </c>
       <c r="K160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="O160" s="1"/>
-    </row>
-    <row r="161" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L160" s="2">
+        <v>155</v>
+      </c>
+      <c r="M160" s="1">
+        <f t="shared" si="35"/>
+        <v>3860600</v>
+      </c>
+      <c r="N160">
+        <v>1.02</v>
+      </c>
+      <c r="O160" s="1">
+        <f>SUM($M$5:M160)</f>
+        <v>169211700</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="36"/>
+        <v>32815.1</v>
+      </c>
+      <c r="Q160">
+        <f>SUM($P$5:P160)</f>
+        <v>4841296.7100000009</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="37"/>
+        <v>0.68244204015994181</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="38"/>
+        <v>4.8469554300062772</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="39"/>
+        <v>212.44406779661017</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="40"/>
+        <v>3.4624215246636769</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="41"/>
+        <v>151.7593721973094</v>
+      </c>
+    </row>
+    <row r="161" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F161" s="2">
         <v>156</v>
       </c>
@@ -14837,10 +16325,50 @@
         <v>5500</v>
       </c>
       <c r="K161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L161" s="2">
+        <v>156</v>
+      </c>
+      <c r="M161" s="1">
+        <f t="shared" si="35"/>
+        <v>3937900</v>
+      </c>
+      <c r="N161">
+        <v>1.02</v>
+      </c>
+      <c r="O161" s="1">
+        <f>SUM($M$5:M161)</f>
+        <v>173149600</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="36"/>
+        <v>33472.15</v>
+      </c>
+      <c r="Q161">
+        <f>SUM($P$5:P161)</f>
+        <v>4874768.8600000013</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="37"/>
+        <v>0.69138811366098585</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="38"/>
+        <v>4.9440050219711233</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="39"/>
+        <v>217.38807281858129</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="40"/>
+        <v>3.531748878923767</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="41"/>
+        <v>155.2911210762332</v>
+      </c>
+    </row>
+    <row r="162" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F162" s="2">
         <v>157</v>
       </c>
@@ -14861,10 +16389,50 @@
         <v>5500</v>
       </c>
       <c r="K162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="O162" s="1"/>
-    </row>
-    <row r="163" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L162" s="2">
+        <v>157</v>
+      </c>
+      <c r="M162" s="1">
+        <f t="shared" si="35"/>
+        <v>4016700</v>
+      </c>
+      <c r="N162">
+        <v>1.02</v>
+      </c>
+      <c r="O162" s="1">
+        <f>SUM($M$5:M162)</f>
+        <v>177166300</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="36"/>
+        <v>34141.949999999997</v>
+      </c>
+      <c r="Q162">
+        <f>SUM($P$5:P162)</f>
+        <v>4908910.8100000015</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="37"/>
+        <v>0.70038089970075379</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="38"/>
+        <v>5.042937853107345</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="39"/>
+        <v>222.43101067168863</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="40"/>
+        <v>3.602421524663677</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="41"/>
+        <v>158.89354260089686</v>
+      </c>
+    </row>
+    <row r="163" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F163" s="2">
         <v>158</v>
       </c>
@@ -14885,10 +16453,50 @@
         <v>5500</v>
       </c>
       <c r="K163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="O163" s="1"/>
-    </row>
-    <row r="164" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L163" s="2">
+        <v>158</v>
+      </c>
+      <c r="M163" s="1">
+        <f t="shared" si="35"/>
+        <v>4097100</v>
+      </c>
+      <c r="N163">
+        <v>1.02</v>
+      </c>
+      <c r="O163" s="1">
+        <f>SUM($M$5:M163)</f>
+        <v>181263400</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="36"/>
+        <v>34825.35</v>
+      </c>
+      <c r="Q163">
+        <f>SUM($P$5:P163)</f>
+        <v>4943736.1600000011</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="37"/>
+        <v>0.7094313045789401</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="38"/>
+        <v>5.1438794726930324</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="39"/>
+        <v>227.57489014438167</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="40"/>
+        <v>3.6745291479820628</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="41"/>
+        <v>162.56807174887894</v>
+      </c>
+    </row>
+    <row r="164" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F164" s="2">
         <v>159</v>
       </c>
@@ -14909,10 +16517,50 @@
         <v>5500</v>
       </c>
       <c r="K164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="O164" s="1"/>
-    </row>
-    <row r="165" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L164" s="2">
+        <v>159</v>
+      </c>
+      <c r="M164" s="1">
+        <f t="shared" si="35"/>
+        <v>4179100</v>
+      </c>
+      <c r="N164">
+        <v>1.02</v>
+      </c>
+      <c r="O164" s="1">
+        <f>SUM($M$5:M164)</f>
+        <v>185442500</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="36"/>
+        <v>35522.35</v>
+      </c>
+      <c r="Q164">
+        <f>SUM($P$5:P164)</f>
+        <v>4979258.5100000007</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="37"/>
+        <v>0.71853247928990649</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="38"/>
+        <v>5.2468298807281855</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="39"/>
+        <v>232.82172002510987</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="40"/>
+        <v>3.7480717488789237</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="41"/>
+        <v>166.31614349775785</v>
+      </c>
+    </row>
+    <row r="165" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F165" s="2">
         <v>160</v>
       </c>
@@ -14933,10 +16581,50 @@
         <v>5500</v>
       </c>
       <c r="K165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="O165" s="1"/>
-    </row>
-    <row r="166" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L165" s="2">
+        <v>160</v>
+      </c>
+      <c r="M165" s="1">
+        <f t="shared" si="35"/>
+        <v>4262700</v>
+      </c>
+      <c r="N165">
+        <v>1.02</v>
+      </c>
+      <c r="O165" s="1">
+        <f>SUM($M$5:M165)</f>
+        <v>189705200</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="36"/>
+        <v>36232.949999999997</v>
+      </c>
+      <c r="Q165">
+        <f>SUM($P$5:P165)</f>
+        <v>5015491.4600000009</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="37"/>
+        <v>0.72767762363075583</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="38"/>
+        <v>5.3517890772128061</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="39"/>
+        <v>238.17350910232267</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="40"/>
+        <v>3.8230493273542603</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="41"/>
+        <v>170.1391928251121</v>
+      </c>
+    </row>
+    <row r="166" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F166" s="2">
         <v>161</v>
       </c>
@@ -14957,10 +16645,50 @@
         <v>5500</v>
       </c>
       <c r="K166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="O166" s="1"/>
-    </row>
-    <row r="167" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L166" s="2">
+        <v>161</v>
+      </c>
+      <c r="M166" s="1">
+        <f t="shared" si="35"/>
+        <v>4348000</v>
+      </c>
+      <c r="N166">
+        <v>1.02</v>
+      </c>
+      <c r="O166" s="1">
+        <f>SUM($M$5:M166)</f>
+        <v>194053200</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="36"/>
+        <v>36958</v>
+      </c>
+      <c r="Q166">
+        <f>SUM($P$5:P166)</f>
+        <v>5052449.4600000009</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="37"/>
+        <v>0.73687694007159155</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="38"/>
+        <v>5.4588826114249844</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="39"/>
+        <v>243.63239171374764</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="40"/>
+        <v>3.8995515695067264</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="41"/>
+        <v>174.03874439461885</v>
+      </c>
+    </row>
+    <row r="167" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F167" s="2">
         <v>162</v>
       </c>
@@ -14981,10 +16709,50 @@
         <v>5500</v>
       </c>
       <c r="K167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="O167" s="1"/>
-    </row>
-    <row r="168" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L167" s="2">
+        <v>162</v>
+      </c>
+      <c r="M167" s="1">
+        <f t="shared" si="35"/>
+        <v>4435000</v>
+      </c>
+      <c r="N167">
+        <v>1.02</v>
+      </c>
+      <c r="O167" s="1">
+        <f>SUM($M$5:M167)</f>
+        <v>198488200</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="36"/>
+        <v>37697.5</v>
+      </c>
+      <c r="Q167">
+        <f>SUM($P$5:P167)</f>
+        <v>5090146.9600000009</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="37"/>
+        <v>0.74612324771280336</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="38"/>
+        <v>5.5681104833647206</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="39"/>
+        <v>249.20050219711237</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="40"/>
+        <v>3.977578475336323</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="41"/>
+        <v>178.01632286995516</v>
+      </c>
+    </row>
+    <row r="168" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F168" s="2">
         <v>163</v>
       </c>
@@ -15005,10 +16773,50 @@
         <v>5500</v>
       </c>
       <c r="K168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="O168" s="1"/>
-    </row>
-    <row r="169" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L168" s="2">
+        <v>163</v>
+      </c>
+      <c r="M168" s="1">
+        <f t="shared" si="35"/>
+        <v>4523700</v>
+      </c>
+      <c r="N168">
+        <v>1.02</v>
+      </c>
+      <c r="O168" s="1">
+        <f>SUM($M$5:M168)</f>
+        <v>203011900</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="36"/>
+        <v>38451.449999999997</v>
+      </c>
+      <c r="Q168">
+        <f>SUM($P$5:P168)</f>
+        <v>5128598.4100000011</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="37"/>
+        <v>0.75540942731445571</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="38"/>
+        <v>5.6794726930320154</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="39"/>
+        <v>254.87997489014438</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="40"/>
+        <v>4.0571300448430492</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="41"/>
+        <v>182.0734529147982</v>
+      </c>
+    </row>
+    <row r="169" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F169" s="2">
         <v>164</v>
       </c>
@@ -15029,10 +16837,50 @@
         <v>5500</v>
       </c>
       <c r="K169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="O169" s="1"/>
-    </row>
-    <row r="170" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L169" s="2">
+        <v>164</v>
+      </c>
+      <c r="M169" s="1">
+        <f t="shared" si="35"/>
+        <v>4614200</v>
+      </c>
+      <c r="N169">
+        <v>1.02</v>
+      </c>
+      <c r="O169" s="1">
+        <f>SUM($M$5:M169)</f>
+        <v>207626100</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="36"/>
+        <v>39220.699999999997</v>
+      </c>
+      <c r="Q169">
+        <f>SUM($P$5:P169)</f>
+        <v>5167819.1100000013</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="37"/>
+        <v>0.76474500174405702</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="38"/>
+        <v>5.7930947897049592</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="39"/>
+        <v>260.67306967984933</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="40"/>
+        <v>4.1382959641255601</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="41"/>
+        <v>186.21174887892377</v>
+      </c>
+    </row>
+    <row r="170" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F170" s="2">
         <v>165</v>
       </c>
@@ -15053,10 +16901,50 @@
         <v>6000</v>
       </c>
       <c r="K170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="O170" s="1"/>
-    </row>
-    <row r="171" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L170" s="2">
+        <v>165</v>
+      </c>
+      <c r="M170" s="1">
+        <f t="shared" si="35"/>
+        <v>4706500</v>
+      </c>
+      <c r="N170">
+        <v>1.02</v>
+      </c>
+      <c r="O170" s="1">
+        <f>SUM($M$5:M170)</f>
+        <v>212332600</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="36"/>
+        <v>40005.25</v>
+      </c>
+      <c r="Q170">
+        <f>SUM($P$5:P170)</f>
+        <v>5207824.3600000013</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="37"/>
+        <v>0.77412249052192517</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="38"/>
+        <v>5.9089767733835528</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="39"/>
+        <v>266.58204645323292</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="40"/>
+        <v>4.2210762331838563</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="41"/>
+        <v>190.43282511210762</v>
+      </c>
+    </row>
+    <row r="171" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F171" s="2">
         <v>166</v>
       </c>
@@ -15077,10 +16965,50 @@
         <v>6000</v>
       </c>
       <c r="K171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="O171" s="1"/>
-    </row>
-    <row r="172" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L171" s="2">
+        <v>166</v>
+      </c>
+      <c r="M171" s="1">
+        <f t="shared" si="35"/>
+        <v>4800700</v>
+      </c>
+      <c r="N171">
+        <v>1.02</v>
+      </c>
+      <c r="O171" s="1">
+        <f>SUM($M$5:M171)</f>
+        <v>217133300</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="36"/>
+        <v>40805.949999999997</v>
+      </c>
+      <c r="Q171">
+        <f>SUM($P$5:P171)</f>
+        <v>5248630.3100000015</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="37"/>
+        <v>0.78355081084186518</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="38"/>
+        <v>6.0272441933458882</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="39"/>
+        <v>272.60929064657876</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="40"/>
+        <v>4.305560538116592</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="41"/>
+        <v>194.73838565022422</v>
+      </c>
+    </row>
+    <row r="172" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F172" s="2">
         <v>167</v>
       </c>
@@ -15101,10 +17029,50 @@
         <v>6000</v>
       </c>
       <c r="K172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="O172" s="1"/>
-    </row>
-    <row r="173" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L172" s="2">
+        <v>167</v>
+      </c>
+      <c r="M172" s="1">
+        <f t="shared" si="35"/>
+        <v>4896800</v>
+      </c>
+      <c r="N172">
+        <v>1.02</v>
+      </c>
+      <c r="O172" s="1">
+        <f>SUM($M$5:M172)</f>
+        <v>222030100</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="36"/>
+        <v>41622.800000000003</v>
+      </c>
+      <c r="Q172">
+        <f>SUM($P$5:P172)</f>
+        <v>5290253.1100000013</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="37"/>
+        <v>0.79302213228273266</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="38"/>
+        <v>6.1478970495919647</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="39"/>
+        <v>278.75718769617077</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="40"/>
+        <v>4.3917488789237664</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="41"/>
+        <v>199.13013452914799</v>
+      </c>
+    </row>
+    <row r="173" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F173" s="2">
         <v>168</v>
       </c>
@@ -15125,10 +17093,50 @@
         <v>6000</v>
       </c>
       <c r="K173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="O173" s="1"/>
-    </row>
-    <row r="174" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L173" s="2">
+        <v>168</v>
+      </c>
+      <c r="M173" s="1">
+        <f t="shared" si="35"/>
+        <v>4994800</v>
+      </c>
+      <c r="N173">
+        <v>1.02</v>
+      </c>
+      <c r="O173" s="1">
+        <f>SUM($M$5:M173)</f>
+        <v>227024900</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="36"/>
+        <v>42455.8</v>
+      </c>
+      <c r="Q173">
+        <f>SUM($P$5:P173)</f>
+        <v>5332708.9100000011</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="37"/>
+        <v>0.80252870925489239</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="38"/>
+        <v>6.2709353421217831</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="39"/>
+        <v>285.02812303829251</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="40"/>
+        <v>4.4796412556053813</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="41"/>
+        <v>203.60977578475337</v>
+      </c>
+    </row>
+    <row r="174" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F174" s="2">
         <v>169</v>
       </c>
@@ -15149,10 +17157,50 @@
         <v>6000</v>
       </c>
       <c r="K174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="O174" s="1"/>
-    </row>
-    <row r="175" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L174" s="2">
+        <v>169</v>
+      </c>
+      <c r="M174" s="1">
+        <f t="shared" si="35"/>
+        <v>5094700</v>
+      </c>
+      <c r="N174">
+        <v>1.02</v>
+      </c>
+      <c r="O174" s="1">
+        <f>SUM($M$5:M174)</f>
+        <v>232119600</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="36"/>
+        <v>43304.95</v>
+      </c>
+      <c r="Q174">
+        <f>SUM($P$5:P174)</f>
+        <v>5376013.8600000013</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="37"/>
+        <v>0.81206288831542794</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="38"/>
+        <v>6.3963590709353424</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="39"/>
+        <v>291.42448210922788</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="40"/>
+        <v>4.5692376681614348</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="41"/>
+        <v>208.1790134529148</v>
+      </c>
+    </row>
+    <row r="175" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F175" s="2">
         <v>170</v>
       </c>
@@ -15173,10 +17221,50 @@
         <v>6000</v>
       </c>
       <c r="K175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="O175" s="1"/>
-    </row>
-    <row r="176" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L175" s="2">
+        <v>170</v>
+      </c>
+      <c r="M175" s="1">
+        <f t="shared" si="35"/>
+        <v>5196600</v>
+      </c>
+      <c r="N175">
+        <v>1.02</v>
+      </c>
+      <c r="O175" s="1">
+        <f>SUM($M$5:M175)</f>
+        <v>237316200</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="36"/>
+        <v>44171.1</v>
+      </c>
+      <c r="Q175">
+        <f>SUM($P$5:P175)</f>
+        <v>5420184.9600000009</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="37"/>
+        <v>0.8216329263704617</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="38"/>
+        <v>6.5242937853107348</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="39"/>
+        <v>297.94877589453858</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="40"/>
+        <v>4.6606278026905832</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="41"/>
+        <v>212.83964125560539</v>
+      </c>
+    </row>
+    <row r="176" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F176" s="2">
         <v>171</v>
       </c>
@@ -15197,10 +17285,50 @@
         <v>6000</v>
       </c>
       <c r="K176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="O176" s="1"/>
-    </row>
-    <row r="177" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L176" s="2">
+        <v>171</v>
+      </c>
+      <c r="M176" s="1">
+        <f t="shared" si="35"/>
+        <v>5300600</v>
+      </c>
+      <c r="N176">
+        <v>1.02</v>
+      </c>
+      <c r="O176" s="1">
+        <f>SUM($M$5:M176)</f>
+        <v>242616800</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="36"/>
+        <v>45055.1</v>
+      </c>
+      <c r="Q176">
+        <f>SUM($P$5:P176)</f>
+        <v>5465240.0600000005</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="37"/>
+        <v>0.83124654107743989</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="38"/>
+        <v>6.6548650345260514</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="39"/>
+        <v>304.60364092906468</v>
+      </c>
+      <c r="W176">
+        <f t="shared" si="40"/>
+        <v>4.7539013452914798</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="41"/>
+        <v>217.59354260089685</v>
+      </c>
+    </row>
+    <row r="177" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F177" s="2">
         <v>172</v>
       </c>
@@ -15221,10 +17349,50 @@
         <v>6000</v>
       </c>
       <c r="K177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="O177" s="1"/>
-    </row>
-    <row r="178" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L177" s="2">
+        <v>172</v>
+      </c>
+      <c r="M177" s="1">
+        <f t="shared" si="35"/>
+        <v>5406700</v>
+      </c>
+      <c r="N177">
+        <v>1.02</v>
+      </c>
+      <c r="O177" s="1">
+        <f>SUM($M$5:M177)</f>
+        <v>248023500</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="36"/>
+        <v>45956.95</v>
+      </c>
+      <c r="Q177">
+        <f>SUM($P$5:P177)</f>
+        <v>5511197.0100000007</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="37"/>
+        <v>0.84089535858375786</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="38"/>
+        <v>6.7880728185812931</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="39"/>
+        <v>311.39171374764595</v>
+      </c>
+      <c r="W177">
+        <f t="shared" si="40"/>
+        <v>4.8490582959641255</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="41"/>
+        <v>222.44260089686099</v>
+      </c>
+    </row>
+    <row r="178" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F178" s="2">
         <v>173</v>
       </c>
@@ -15245,10 +17413,50 @@
         <v>6000</v>
       </c>
       <c r="K178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="O178" s="1"/>
-    </row>
-    <row r="179" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L178" s="2">
+        <v>173</v>
+      </c>
+      <c r="M178" s="1">
+        <f t="shared" si="35"/>
+        <v>5514900</v>
+      </c>
+      <c r="N178">
+        <v>1.02</v>
+      </c>
+      <c r="O178" s="1">
+        <f>SUM($M$5:M178)</f>
+        <v>253538400</v>
+      </c>
+      <c r="P178">
+        <f t="shared" si="36"/>
+        <v>46876.65</v>
+      </c>
+      <c r="Q178">
+        <f>SUM($P$5:P178)</f>
+        <v>5558073.6600000011</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="37"/>
+        <v>0.85057111758014192</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="38"/>
+        <v>6.9239171374764599</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="39"/>
+        <v>318.3156308851224</v>
+      </c>
+      <c r="W178">
+        <f t="shared" si="40"/>
+        <v>4.9460986547085204</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="41"/>
+        <v>227.38869955156952</v>
+      </c>
+    </row>
+    <row r="179" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F179" s="2">
         <v>174</v>
       </c>
@@ -15269,10 +17477,50 @@
         <v>6000</v>
       </c>
       <c r="K179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="O179" s="1"/>
-    </row>
-    <row r="180" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L179" s="2">
+        <v>174</v>
+      </c>
+      <c r="M179" s="1">
+        <f t="shared" si="35"/>
+        <v>5625200</v>
+      </c>
+      <c r="N179">
+        <v>1.02</v>
+      </c>
+      <c r="O179" s="1">
+        <f>SUM($M$5:M179)</f>
+        <v>259163600</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="36"/>
+        <v>47814.2</v>
+      </c>
+      <c r="Q179">
+        <f>SUM($P$5:P179)</f>
+        <v>5605887.8600000013</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="37"/>
+        <v>0.86026567701155976</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="38"/>
+        <v>7.0623979912115509</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="39"/>
+        <v>325.37802887633399</v>
+      </c>
+      <c r="W179">
+        <f t="shared" si="40"/>
+        <v>5.0450224215246635</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="41"/>
+        <v>232.43372197309418</v>
+      </c>
+    </row>
+    <row r="180" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F180" s="2">
         <v>175</v>
       </c>
@@ -15285,15 +17533,57 @@
         <v>34815000</v>
       </c>
       <c r="I180" s="1">
-        <f t="shared" ref="I180:I221" si="35">I179+500+QUOTIENT(F180,15)*500</f>
+        <f t="shared" ref="I180:I221" si="42">I179+500+QUOTIENT(F180,15)*500</f>
         <v>562500</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" ref="J180:J221" si="36">I180-I179</f>
+        <f t="shared" ref="J180:J221" si="43">I180-I179</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="181" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L180" s="2">
+        <v>175</v>
+      </c>
+      <c r="M180" s="1">
+        <f t="shared" si="35"/>
+        <v>5737800</v>
+      </c>
+      <c r="N180">
+        <v>1.02</v>
+      </c>
+      <c r="O180" s="1">
+        <f>SUM($M$5:M180)</f>
+        <v>264901400</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="36"/>
+        <v>48771.3</v>
+      </c>
+      <c r="Q180">
+        <f>SUM($P$5:P180)</f>
+        <v>5654659.1600000011</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="37"/>
+        <v>0.87000134890318337</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="38"/>
+        <v>7.2037664783427493</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="39"/>
+        <v>332.58179535467673</v>
+      </c>
+      <c r="W180">
+        <f t="shared" si="40"/>
+        <v>5.1460089686098653</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="41"/>
+        <v>237.57973094170404</v>
+      </c>
+    </row>
+    <row r="181" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F181" s="2">
         <v>176</v>
       </c>
@@ -15306,15 +17596,57 @@
         <v>35383500</v>
       </c>
       <c r="I181" s="1">
+        <f t="shared" si="42"/>
+        <v>568500</v>
+      </c>
+      <c r="J181" s="1">
+        <f t="shared" si="43"/>
+        <v>6000</v>
+      </c>
+      <c r="L181" s="2">
+        <v>176</v>
+      </c>
+      <c r="M181" s="1">
         <f t="shared" si="35"/>
-        <v>568500</v>
-      </c>
-      <c r="J181" s="1">
+        <v>5852600</v>
+      </c>
+      <c r="N181">
+        <v>1.02</v>
+      </c>
+      <c r="O181" s="1">
+        <f>SUM($M$5:M181)</f>
+        <v>270754000</v>
+      </c>
+      <c r="P181">
         <f t="shared" si="36"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="182" spans="6:15" x14ac:dyDescent="0.3">
+        <v>49747.1</v>
+      </c>
+      <c r="Q181">
+        <f>SUM($P$5:P181)</f>
+        <v>5704406.2600000007</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="37"/>
+        <v>0.87975417425512203</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="38"/>
+        <v>7.3478970495919649</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="39"/>
+        <v>339.92969240426868</v>
+      </c>
+      <c r="W181">
+        <f t="shared" si="40"/>
+        <v>5.2489686098654706</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="41"/>
+        <v>242.82869955156951</v>
+      </c>
+    </row>
+    <row r="182" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F182" s="2">
         <v>177</v>
       </c>
@@ -15327,15 +17659,57 @@
         <v>35958000</v>
       </c>
       <c r="I182" s="1">
+        <f t="shared" si="42"/>
+        <v>574500</v>
+      </c>
+      <c r="J182" s="1">
+        <f t="shared" si="43"/>
+        <v>6000</v>
+      </c>
+      <c r="L182" s="2">
+        <v>177</v>
+      </c>
+      <c r="M182" s="1">
         <f t="shared" si="35"/>
-        <v>574500</v>
-      </c>
-      <c r="J182" s="1">
+        <v>5969700</v>
+      </c>
+      <c r="N182">
+        <v>1.02</v>
+      </c>
+      <c r="O182" s="1">
+        <f>SUM($M$5:M182)</f>
+        <v>276723700</v>
+      </c>
+      <c r="P182">
         <f t="shared" si="36"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="183" spans="6:15" x14ac:dyDescent="0.3">
+        <v>50742.45</v>
+      </c>
+      <c r="Q182">
+        <f>SUM($P$5:P182)</f>
+        <v>5755148.7100000009</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="37"/>
+        <v>0.88953078878361969</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="38"/>
+        <v>7.4949152542372879</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="39"/>
+        <v>347.42460765850598</v>
+      </c>
+      <c r="W182">
+        <f t="shared" si="40"/>
+        <v>5.3539910313901347</v>
+      </c>
+      <c r="X182">
+        <f t="shared" si="41"/>
+        <v>248.18269058295965</v>
+      </c>
+    </row>
+    <row r="183" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F183" s="20">
         <v>178</v>
       </c>
@@ -15348,15 +17722,57 @@
         <v>36538500</v>
       </c>
       <c r="I183" s="1">
+        <f t="shared" si="42"/>
+        <v>580500</v>
+      </c>
+      <c r="J183" s="1">
+        <f t="shared" si="43"/>
+        <v>6000</v>
+      </c>
+      <c r="L183" s="2">
+        <v>178</v>
+      </c>
+      <c r="M183" s="1">
         <f t="shared" si="35"/>
-        <v>580500</v>
-      </c>
-      <c r="J183" s="1">
+        <v>6089100</v>
+      </c>
+      <c r="N183">
+        <v>1.02</v>
+      </c>
+      <c r="O183" s="1">
+        <f>SUM($M$5:M183)</f>
+        <v>282812800</v>
+      </c>
+      <c r="P183">
         <f t="shared" si="36"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="184" spans="6:15" x14ac:dyDescent="0.3">
+        <v>51757.35</v>
+      </c>
+      <c r="Q183">
+        <f>SUM($P$5:P183)</f>
+        <v>5806906.0600000005</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="37"/>
+        <v>0.89932254765315389</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="38"/>
+        <v>7.6448210922787192</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="39"/>
+        <v>355.06942875078471</v>
+      </c>
+      <c r="W183">
+        <f t="shared" si="40"/>
+        <v>5.4610762331838565</v>
+      </c>
+      <c r="X183">
+        <f t="shared" si="41"/>
+        <v>253.64376681614351</v>
+      </c>
+    </row>
+    <row r="184" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F184" s="2">
         <v>179</v>
       </c>
@@ -15369,15 +17785,57 @@
         <v>37125000</v>
       </c>
       <c r="I184" s="1">
+        <f t="shared" si="42"/>
+        <v>586500</v>
+      </c>
+      <c r="J184" s="1">
+        <f t="shared" si="43"/>
+        <v>6000</v>
+      </c>
+      <c r="L184" s="2">
+        <v>179</v>
+      </c>
+      <c r="M184" s="1">
         <f t="shared" si="35"/>
-        <v>586500</v>
-      </c>
-      <c r="J184" s="1">
+        <v>6210900</v>
+      </c>
+      <c r="N184">
+        <v>1.02</v>
+      </c>
+      <c r="O184" s="1">
+        <f>SUM($M$5:M184)</f>
+        <v>289023700</v>
+      </c>
+      <c r="P184">
         <f t="shared" si="36"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="185" spans="6:15" x14ac:dyDescent="0.3">
+        <v>52792.65</v>
+      </c>
+      <c r="Q184">
+        <f>SUM($P$5:P184)</f>
+        <v>5859698.7100000009</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="37"/>
+        <v>0.90913559569448876</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="38"/>
+        <v>7.79774011299435</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="39"/>
+        <v>362.86716886377906</v>
+      </c>
+      <c r="W184">
+        <f t="shared" si="40"/>
+        <v>5.5703139013452914</v>
+      </c>
+      <c r="X184">
+        <f t="shared" si="41"/>
+        <v>259.2140807174888</v>
+      </c>
+    </row>
+    <row r="185" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F185" s="2">
         <v>180</v>
       </c>
@@ -15390,15 +17848,57 @@
         <v>37718000</v>
       </c>
       <c r="I185" s="1">
+        <f t="shared" si="42"/>
+        <v>593000</v>
+      </c>
+      <c r="J185" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L185" s="2">
+        <v>180</v>
+      </c>
+      <c r="M185" s="1">
         <f t="shared" si="35"/>
-        <v>593000</v>
-      </c>
-      <c r="J185" s="1">
+        <v>6335200</v>
+      </c>
+      <c r="N185">
+        <v>1.02</v>
+      </c>
+      <c r="O185" s="1">
+        <f>SUM($M$5:M185)</f>
+        <v>295358900</v>
+      </c>
+      <c r="P185">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="186" spans="6:15" x14ac:dyDescent="0.3">
+        <v>53849.2</v>
+      </c>
+      <c r="Q185">
+        <f>SUM($P$5:P185)</f>
+        <v>5913547.9100000011</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="37"/>
+        <v>0.91897557647635741</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="38"/>
+        <v>7.9537978656622723</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="39"/>
+        <v>370.8209667294413</v>
+      </c>
+      <c r="W185">
+        <f t="shared" si="40"/>
+        <v>5.6817937219730945</v>
+      </c>
+      <c r="X185">
+        <f t="shared" si="41"/>
+        <v>264.89587443946186</v>
+      </c>
+    </row>
+    <row r="186" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F186" s="2">
         <v>181</v>
       </c>
@@ -15411,15 +17911,57 @@
         <v>38317500</v>
       </c>
       <c r="I186" s="1">
+        <f t="shared" si="42"/>
+        <v>599500</v>
+      </c>
+      <c r="J186" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L186" s="2">
+        <v>181</v>
+      </c>
+      <c r="M186" s="1">
         <f t="shared" si="35"/>
-        <v>599500</v>
-      </c>
-      <c r="J186" s="1">
+        <v>6462000</v>
+      </c>
+      <c r="N186">
+        <v>1.02</v>
+      </c>
+      <c r="O186" s="1">
+        <f>SUM($M$5:M186)</f>
+        <v>301820900</v>
+      </c>
+      <c r="P186">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="187" spans="6:15" x14ac:dyDescent="0.3">
+        <v>54927</v>
+      </c>
+      <c r="Q186">
+        <f>SUM($P$5:P186)</f>
+        <v>5968474.9100000011</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="37"/>
+        <v>0.92883326280517087</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="38"/>
+        <v>8.1129943502824862</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="39"/>
+        <v>378.93396107972382</v>
+      </c>
+      <c r="W186">
+        <f t="shared" si="40"/>
+        <v>5.7955156950672642</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="41"/>
+        <v>270.69139013452917</v>
+      </c>
+    </row>
+    <row r="187" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F187" s="2">
         <v>182</v>
       </c>
@@ -15432,15 +17974,57 @@
         <v>38923500</v>
       </c>
       <c r="I187" s="1">
+        <f t="shared" si="42"/>
+        <v>606000</v>
+      </c>
+      <c r="J187" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L187" s="2">
+        <v>182</v>
+      </c>
+      <c r="M187" s="1">
         <f t="shared" si="35"/>
-        <v>606000</v>
-      </c>
-      <c r="J187" s="1">
+        <v>6591300</v>
+      </c>
+      <c r="N187">
+        <v>1.02</v>
+      </c>
+      <c r="O187" s="1">
+        <f>SUM($M$5:M187)</f>
+        <v>308412200</v>
+      </c>
+      <c r="P187">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="188" spans="6:15" x14ac:dyDescent="0.3">
+        <v>56026.05</v>
+      </c>
+      <c r="Q187">
+        <f>SUM($P$5:P187)</f>
+        <v>6024500.9600000009</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="37"/>
+        <v>0.9386995982194688</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="38"/>
+        <v>8.2753295668549907</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="39"/>
+        <v>387.20929064657878</v>
+      </c>
+      <c r="W187">
+        <f t="shared" si="40"/>
+        <v>5.911479820627803</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="41"/>
+        <v>276.60286995515696</v>
+      </c>
+    </row>
+    <row r="188" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F188" s="2">
         <v>183</v>
       </c>
@@ -15453,15 +18037,57 @@
         <v>39536000</v>
       </c>
       <c r="I188" s="1">
+        <f t="shared" si="42"/>
+        <v>612500</v>
+      </c>
+      <c r="J188" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L188" s="2">
+        <v>183</v>
+      </c>
+      <c r="M188" s="1">
         <f t="shared" si="35"/>
-        <v>612500</v>
-      </c>
-      <c r="J188" s="1">
+        <v>6723200</v>
+      </c>
+      <c r="N188">
+        <v>1.02</v>
+      </c>
+      <c r="O188" s="1">
+        <f>SUM($M$5:M188)</f>
+        <v>315135400</v>
+      </c>
+      <c r="P188">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="189" spans="6:15" x14ac:dyDescent="0.3">
+        <v>57147.199999999997</v>
+      </c>
+      <c r="Q188">
+        <f>SUM($P$5:P188)</f>
+        <v>6081648.1600000011</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="37"/>
+        <v>0.9485798139867867</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="38"/>
+        <v>8.4409290646578778</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="39"/>
+        <v>395.65021971123667</v>
+      </c>
+      <c r="W188">
+        <f t="shared" si="40"/>
+        <v>6.0297757847533635</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="41"/>
+        <v>282.63264573991029</v>
+      </c>
+    </row>
+    <row r="189" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F189" s="2">
         <v>184</v>
       </c>
@@ -15474,15 +18100,57 @@
         <v>40155000</v>
       </c>
       <c r="I189" s="1">
+        <f t="shared" si="42"/>
+        <v>619000</v>
+      </c>
+      <c r="J189" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L189" s="2">
+        <v>184</v>
+      </c>
+      <c r="M189" s="1">
         <f t="shared" si="35"/>
-        <v>619000</v>
-      </c>
-      <c r="J189" s="1">
+        <v>6857700</v>
+      </c>
+      <c r="N189">
+        <v>1.02</v>
+      </c>
+      <c r="O189" s="1">
+        <f>SUM($M$5:M189)</f>
+        <v>321993100</v>
+      </c>
+      <c r="P189">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="190" spans="6:15" x14ac:dyDescent="0.3">
+        <v>58290.45</v>
+      </c>
+      <c r="Q189">
+        <f>SUM($P$5:P189)</f>
+        <v>6139938.6100000013</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="37"/>
+        <v>0.95846468698051379</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="38"/>
+        <v>8.6097928436911495</v>
+      </c>
+      <c r="U189">
+        <f t="shared" si="39"/>
+        <v>404.26001255492781</v>
+      </c>
+      <c r="W189">
+        <f t="shared" si="40"/>
+        <v>6.1504035874439458</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="41"/>
+        <v>288.78304932735426</v>
+      </c>
+    </row>
+    <row r="190" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F190" s="2">
         <v>185</v>
       </c>
@@ -15495,15 +18163,57 @@
         <v>40780500</v>
       </c>
       <c r="I190" s="1">
+        <f t="shared" si="42"/>
+        <v>625500</v>
+      </c>
+      <c r="J190" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L190" s="2">
+        <v>185</v>
+      </c>
+      <c r="M190" s="1">
         <f t="shared" si="35"/>
-        <v>625500</v>
-      </c>
-      <c r="J190" s="1">
+        <v>6994900</v>
+      </c>
+      <c r="N190">
+        <v>1.02</v>
+      </c>
+      <c r="O190" s="1">
+        <f>SUM($M$5:M190)</f>
+        <v>328988000</v>
+      </c>
+      <c r="P190">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="191" spans="6:15" x14ac:dyDescent="0.3">
+        <v>59456.65</v>
+      </c>
+      <c r="Q190">
+        <f>SUM($P$5:P190)</f>
+        <v>6199395.2600000016</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="37"/>
+        <v>0.96835903054738137</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="38"/>
+        <v>8.7820464532328941</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="39"/>
+        <v>413.04205900816072</v>
+      </c>
+      <c r="W190">
+        <f t="shared" si="40"/>
+        <v>6.2734529147982059</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="41"/>
+        <v>295.05650224215248</v>
+      </c>
+    </row>
+    <row r="191" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F191" s="2">
         <v>186</v>
       </c>
@@ -15516,15 +18226,57 @@
         <v>41412500</v>
       </c>
       <c r="I191" s="1">
+        <f t="shared" si="42"/>
+        <v>632000</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L191" s="2">
+        <v>186</v>
+      </c>
+      <c r="M191" s="1">
         <f t="shared" si="35"/>
-        <v>632000</v>
-      </c>
-      <c r="J191" s="1">
+        <v>7134800</v>
+      </c>
+      <c r="N191">
+        <v>1.02</v>
+      </c>
+      <c r="O191" s="1">
+        <f>SUM($M$5:M191)</f>
+        <v>336122800</v>
+      </c>
+      <c r="P191">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="192" spans="6:15" x14ac:dyDescent="0.3">
+        <v>60645.8</v>
+      </c>
+      <c r="Q191">
+        <f>SUM($P$5:P191)</f>
+        <v>6260041.0600000015</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="37"/>
+        <v>0.97825348209850715</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="38"/>
+        <v>8.9576898932831135</v>
+      </c>
+      <c r="U191">
+        <f t="shared" si="39"/>
+        <v>421.99974890144381</v>
+      </c>
+      <c r="W191">
+        <f t="shared" si="40"/>
+        <v>6.3989237668161438</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="41"/>
+        <v>301.45542600896863</v>
+      </c>
+    </row>
+    <row r="192" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F192" s="2">
         <v>187</v>
       </c>
@@ -15537,15 +18289,57 @@
         <v>42051000</v>
       </c>
       <c r="I192" s="1">
+        <f t="shared" si="42"/>
+        <v>638500</v>
+      </c>
+      <c r="J192" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L192" s="2">
+        <v>187</v>
+      </c>
+      <c r="M192" s="1">
         <f t="shared" si="35"/>
-        <v>638500</v>
-      </c>
-      <c r="J192" s="1">
+        <v>7277500</v>
+      </c>
+      <c r="N192">
+        <v>1.02</v>
+      </c>
+      <c r="O192" s="1">
+        <f>SUM($M$5:M192)</f>
+        <v>343400300</v>
+      </c>
+      <c r="P192">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="193" spans="6:10" x14ac:dyDescent="0.3">
+        <v>61858.75</v>
+      </c>
+      <c r="Q192">
+        <f>SUM($P$5:P192)</f>
+        <v>6321899.8100000015</v>
+      </c>
+      <c r="R192">
+        <f t="shared" si="37"/>
+        <v>0.98815246429070525</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="38"/>
+        <v>9.1368487131198997</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="39"/>
+        <v>431.1365976145637</v>
+      </c>
+      <c r="W192">
+        <f t="shared" si="40"/>
+        <v>6.5269058295964122</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="41"/>
+        <v>307.98233183856502</v>
+      </c>
+    </row>
+    <row r="193" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F193" s="2">
         <v>188</v>
       </c>
@@ -15558,15 +18352,57 @@
         <v>42696000</v>
       </c>
       <c r="I193" s="1">
+        <f t="shared" si="42"/>
+        <v>645000</v>
+      </c>
+      <c r="J193" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L193" s="2">
+        <v>188</v>
+      </c>
+      <c r="M193" s="1">
         <f t="shared" si="35"/>
-        <v>645000</v>
-      </c>
-      <c r="J193" s="1">
+        <v>7423100</v>
+      </c>
+      <c r="N193">
+        <v>1.02</v>
+      </c>
+      <c r="O193" s="1">
+        <f>SUM($M$5:M193)</f>
+        <v>350823400</v>
+      </c>
+      <c r="P193">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="194" spans="6:10" x14ac:dyDescent="0.3">
+        <v>63096.35</v>
+      </c>
+      <c r="Q193">
+        <f>SUM($P$5:P193)</f>
+        <v>6384996.1600000011</v>
+      </c>
+      <c r="R193">
+        <f t="shared" si="37"/>
+        <v>0.9980599486912719</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="38"/>
+        <v>9.3196484620213429</v>
+      </c>
+      <c r="U193">
+        <f t="shared" si="39"/>
+        <v>440.45624607658505</v>
+      </c>
+      <c r="W193">
+        <f t="shared" si="40"/>
+        <v>6.657488789237668</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="41"/>
+        <v>314.63982062780269</v>
+      </c>
+    </row>
+    <row r="194" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F194" s="2">
         <v>189</v>
       </c>
@@ -15579,15 +18415,57 @@
         <v>43347500</v>
       </c>
       <c r="I194" s="1">
+        <f t="shared" si="42"/>
+        <v>651500</v>
+      </c>
+      <c r="J194" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L194" s="2">
+        <v>189</v>
+      </c>
+      <c r="M194" s="1">
         <f t="shared" si="35"/>
-        <v>651500</v>
-      </c>
-      <c r="J194" s="1">
+        <v>7571600</v>
+      </c>
+      <c r="N194">
+        <v>1.02</v>
+      </c>
+      <c r="O194" s="1">
+        <f>SUM($M$5:M194)</f>
+        <v>358395000</v>
+      </c>
+      <c r="P194">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="195" spans="6:10" x14ac:dyDescent="0.3">
+        <v>64358.6</v>
+      </c>
+      <c r="Q194">
+        <f>SUM($P$5:P194)</f>
+        <v>6449354.7600000007</v>
+      </c>
+      <c r="R194">
+        <f t="shared" si="37"/>
+        <v>1.0079661504447892</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="38"/>
+        <v>9.506089139987445</v>
+      </c>
+      <c r="U194">
+        <f t="shared" si="39"/>
+        <v>449.96233521657251</v>
+      </c>
+      <c r="W194">
+        <f t="shared" si="40"/>
+        <v>6.7906726457399103</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="41"/>
+        <v>321.4304932735426</v>
+      </c>
+    </row>
+    <row r="195" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F195" s="2">
         <v>190</v>
       </c>
@@ -15600,15 +18478,57 @@
         <v>44005500</v>
       </c>
       <c r="I195" s="1">
+        <f t="shared" si="42"/>
+        <v>658000</v>
+      </c>
+      <c r="J195" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L195" s="2">
+        <v>190</v>
+      </c>
+      <c r="M195" s="1">
         <f t="shared" si="35"/>
-        <v>658000</v>
-      </c>
-      <c r="J195" s="1">
+        <v>7723100</v>
+      </c>
+      <c r="N195">
+        <v>1.02</v>
+      </c>
+      <c r="O195" s="1">
+        <f>SUM($M$5:M195)</f>
+        <v>366118100</v>
+      </c>
+      <c r="P195">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="196" spans="6:10" x14ac:dyDescent="0.3">
+        <v>65646.350000000006</v>
+      </c>
+      <c r="Q195">
+        <f>SUM($P$5:P195)</f>
+        <v>6515001.1100000003</v>
+      </c>
+      <c r="R195">
+        <f t="shared" si="37"/>
+        <v>1.0178746935608116</v>
+      </c>
+      <c r="T195">
+        <f t="shared" si="38"/>
+        <v>9.6962962962962962</v>
+      </c>
+      <c r="U195">
+        <f t="shared" si="39"/>
+        <v>459.65863151286879</v>
+      </c>
+      <c r="W195">
+        <f t="shared" si="40"/>
+        <v>6.9265470852017934</v>
+      </c>
+      <c r="X195">
+        <f t="shared" si="41"/>
+        <v>328.35704035874437</v>
+      </c>
+    </row>
+    <row r="196" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F196" s="2">
         <v>191</v>
       </c>
@@ -15621,15 +18541,57 @@
         <v>44670000</v>
       </c>
       <c r="I196" s="1">
+        <f t="shared" si="42"/>
+        <v>664500</v>
+      </c>
+      <c r="J196" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L196" s="2">
+        <v>191</v>
+      </c>
+      <c r="M196" s="1">
         <f t="shared" si="35"/>
-        <v>664500</v>
-      </c>
-      <c r="J196" s="1">
+        <v>7877600</v>
+      </c>
+      <c r="N196">
+        <v>1.02</v>
+      </c>
+      <c r="O196" s="1">
+        <f>SUM($M$5:M196)</f>
+        <v>373995700</v>
+      </c>
+      <c r="P196">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="197" spans="6:10" x14ac:dyDescent="0.3">
+        <v>66959.600000000006</v>
+      </c>
+      <c r="Q196">
+        <f>SUM($P$5:P196)</f>
+        <v>6581960.71</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="37"/>
+        <v>1.0277757266567775</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="38"/>
+        <v>9.8902699309478965</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="39"/>
+        <v>469.5489014438167</v>
+      </c>
+      <c r="W196">
+        <f t="shared" si="40"/>
+        <v>7.0651121076233183</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="41"/>
+        <v>335.42215246636772</v>
+      </c>
+    </row>
+    <row r="197" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F197" s="2">
         <v>192</v>
       </c>
@@ -15642,20 +18604,62 @@
         <v>45341000</v>
       </c>
       <c r="I197" s="1">
+        <f t="shared" si="42"/>
+        <v>671000</v>
+      </c>
+      <c r="J197" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L197" s="2">
+        <v>192</v>
+      </c>
+      <c r="M197" s="1">
         <f t="shared" si="35"/>
-        <v>671000</v>
-      </c>
-      <c r="J197" s="1">
+        <v>8035200</v>
+      </c>
+      <c r="N197">
+        <v>1.02</v>
+      </c>
+      <c r="O197" s="1">
+        <f>SUM($M$5:M197)</f>
+        <v>382030900</v>
+      </c>
+      <c r="P197">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="198" spans="6:10" x14ac:dyDescent="0.3">
+        <v>68299.199999999997</v>
+      </c>
+      <c r="Q197">
+        <f>SUM($P$5:P197)</f>
+        <v>6650259.9100000001</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="37"/>
+        <v>1.0376725569970804</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="38"/>
+        <v>10.08813559322034</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="39"/>
+        <v>479.63703703703703</v>
+      </c>
+      <c r="W197">
+        <f t="shared" si="40"/>
+        <v>7.2064573991031393</v>
+      </c>
+      <c r="X197">
+        <f t="shared" si="41"/>
+        <v>342.62860986547088</v>
+      </c>
+    </row>
+    <row r="198" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F198" s="2">
         <v>193</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" ref="G198:G255" si="37">I198</f>
+        <f t="shared" ref="G198:G255" si="44">I198</f>
         <v>677500</v>
       </c>
       <c r="H198" s="1">
@@ -15663,20 +18667,62 @@
         <v>46018500</v>
       </c>
       <c r="I198" s="1">
+        <f t="shared" si="42"/>
+        <v>677500</v>
+      </c>
+      <c r="J198" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L198" s="2">
+        <v>193</v>
+      </c>
+      <c r="M198" s="1">
         <f t="shared" si="35"/>
-        <v>677500</v>
-      </c>
-      <c r="J198" s="1">
+        <v>8196000</v>
+      </c>
+      <c r="N198">
+        <v>1.02</v>
+      </c>
+      <c r="O198" s="1">
+        <f>SUM($M$5:M198)</f>
+        <v>390226900</v>
+      </c>
+      <c r="P198">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="199" spans="6:10" x14ac:dyDescent="0.3">
+        <v>69666</v>
+      </c>
+      <c r="Q198">
+        <f>SUM($P$5:P198)</f>
+        <v>6719925.9100000001</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="37"/>
+        <v>1.0475680791850435</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="38"/>
+        <v>10.290018832391715</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="39"/>
+        <v>489.92705586942873</v>
+      </c>
+      <c r="W198">
+        <f t="shared" si="40"/>
+        <v>7.3506726457399107</v>
+      </c>
+      <c r="X198">
+        <f t="shared" si="41"/>
+        <v>349.97928251121078</v>
+      </c>
+    </row>
+    <row r="199" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F199" s="2">
         <v>194</v>
       </c>
       <c r="G199" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>684000</v>
       </c>
       <c r="H199" s="1">
@@ -15684,20 +18730,62 @@
         <v>46702500</v>
       </c>
       <c r="I199" s="1">
+        <f t="shared" si="42"/>
+        <v>684000</v>
+      </c>
+      <c r="J199" s="1">
+        <f t="shared" si="43"/>
+        <v>6500</v>
+      </c>
+      <c r="L199" s="2">
+        <v>194</v>
+      </c>
+      <c r="M199" s="1">
         <f t="shared" si="35"/>
-        <v>684000</v>
-      </c>
-      <c r="J199" s="1">
+        <v>8360000</v>
+      </c>
+      <c r="N199">
+        <v>1.02</v>
+      </c>
+      <c r="O199" s="1">
+        <f>SUM($M$5:M199)</f>
+        <v>398586900</v>
+      </c>
+      <c r="P199">
         <f t="shared" si="36"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="200" spans="6:10" x14ac:dyDescent="0.3">
+        <v>71060</v>
+      </c>
+      <c r="Q199">
+        <f>SUM($P$5:P199)</f>
+        <v>6790985.9100000001</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="37"/>
+        <v>1.0574521349149815</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="38"/>
+        <v>10.495919648462021</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="39"/>
+        <v>500.42297551789079</v>
+      </c>
+      <c r="W199">
+        <f t="shared" si="40"/>
+        <v>7.4977578475336326</v>
+      </c>
+      <c r="X199">
+        <f t="shared" si="41"/>
+        <v>357.47704035874438</v>
+      </c>
+    </row>
+    <row r="200" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F200" s="2">
         <v>195</v>
       </c>
       <c r="G200" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>691000</v>
       </c>
       <c r="H200" s="1">
@@ -15705,20 +18793,62 @@
         <v>47393500</v>
       </c>
       <c r="I200" s="1">
+        <f t="shared" si="42"/>
+        <v>691000</v>
+      </c>
+      <c r="J200" s="1">
+        <f t="shared" si="43"/>
+        <v>7000</v>
+      </c>
+      <c r="L200" s="2">
+        <v>195</v>
+      </c>
+      <c r="M200" s="1">
         <f t="shared" si="35"/>
-        <v>691000</v>
-      </c>
-      <c r="J200" s="1">
+        <v>8527200</v>
+      </c>
+      <c r="N200">
+        <v>1.02</v>
+      </c>
+      <c r="O200" s="1">
+        <f>SUM($M$5:M200)</f>
+        <v>407114100</v>
+      </c>
+      <c r="P200">
         <f t="shared" si="36"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="201" spans="6:10" x14ac:dyDescent="0.3">
+        <v>72481.2</v>
+      </c>
+      <c r="Q200">
+        <f>SUM($P$5:P200)</f>
+        <v>6863467.1100000003</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="37"/>
+        <v>1.0673148341136844</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="38"/>
+        <v>10.705838041431262</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="39"/>
+        <v>511.12881355932205</v>
+      </c>
+      <c r="W200">
+        <f t="shared" si="40"/>
+        <v>7.6477130044843049</v>
+      </c>
+      <c r="X200">
+        <f t="shared" si="41"/>
+        <v>365.12475336322871</v>
+      </c>
+    </row>
+    <row r="201" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F201" s="2">
         <v>196</v>
       </c>
       <c r="G201" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>698000</v>
       </c>
       <c r="H201" s="1">
@@ -15726,20 +18856,62 @@
         <v>48091500</v>
       </c>
       <c r="I201" s="1">
+        <f t="shared" si="42"/>
+        <v>698000</v>
+      </c>
+      <c r="J201" s="1">
+        <f t="shared" si="43"/>
+        <v>7000</v>
+      </c>
+      <c r="L201" s="2">
+        <v>196</v>
+      </c>
+      <c r="M201" s="1">
         <f t="shared" si="35"/>
-        <v>698000</v>
-      </c>
-      <c r="J201" s="1">
+        <v>8697800</v>
+      </c>
+      <c r="N201">
+        <v>1.02</v>
+      </c>
+      <c r="O201" s="1">
+        <f>SUM($M$5:M201)</f>
+        <v>415811900</v>
+      </c>
+      <c r="P201">
         <f t="shared" si="36"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="202" spans="6:10" x14ac:dyDescent="0.3">
+        <v>73931.3</v>
+      </c>
+      <c r="Q201">
+        <f>SUM($P$5:P201)</f>
+        <v>6937398.4100000001</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="37"/>
+        <v>1.0771713306862456</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="38"/>
+        <v>10.920025109855619</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="39"/>
+        <v>522.0488386691776</v>
+      </c>
+      <c r="W201">
+        <f t="shared" si="40"/>
+        <v>7.8007174887892381</v>
+      </c>
+      <c r="X201">
+        <f t="shared" si="41"/>
+        <v>372.92547085201795</v>
+      </c>
+    </row>
+    <row r="202" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F202" s="2">
         <v>197</v>
       </c>
       <c r="G202" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>705000</v>
       </c>
       <c r="H202" s="1">
@@ -15747,20 +18919,62 @@
         <v>48796500</v>
       </c>
       <c r="I202" s="1">
+        <f t="shared" si="42"/>
+        <v>705000</v>
+      </c>
+      <c r="J202" s="1">
+        <f t="shared" si="43"/>
+        <v>7000</v>
+      </c>
+      <c r="L202" s="2">
+        <v>197</v>
+      </c>
+      <c r="M202" s="1">
         <f t="shared" si="35"/>
-        <v>705000</v>
-      </c>
-      <c r="J202" s="1">
+        <v>8871800</v>
+      </c>
+      <c r="N202">
+        <v>1.02</v>
+      </c>
+      <c r="O202" s="1">
+        <f>SUM($M$5:M202)</f>
+        <v>424683700</v>
+      </c>
+      <c r="P202">
         <f t="shared" si="36"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="203" spans="6:10" x14ac:dyDescent="0.3">
+        <v>75410.3</v>
+      </c>
+      <c r="Q202">
+        <f>SUM($P$5:P202)</f>
+        <v>7012808.71</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="37"/>
+        <v>1.0870112330769224</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="38"/>
+        <v>11.138480853735091</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="39"/>
+        <v>533.18731952291273</v>
+      </c>
+      <c r="W202">
+        <f t="shared" si="40"/>
+        <v>7.9567713004484304</v>
+      </c>
+      <c r="X202">
+        <f t="shared" si="41"/>
+        <v>380.88224215246635</v>
+      </c>
+    </row>
+    <row r="203" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F203" s="2">
         <v>198</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>712000</v>
       </c>
       <c r="H203" s="1">
@@ -15768,20 +18982,62 @@
         <v>49508500</v>
       </c>
       <c r="I203" s="1">
+        <f t="shared" si="42"/>
+        <v>712000</v>
+      </c>
+      <c r="J203" s="1">
+        <f t="shared" si="43"/>
+        <v>7000</v>
+      </c>
+      <c r="L203" s="2">
+        <v>198</v>
+      </c>
+      <c r="M203" s="1">
         <f t="shared" si="35"/>
-        <v>712000</v>
-      </c>
-      <c r="J203" s="1">
+        <v>9049300</v>
+      </c>
+      <c r="N203">
+        <v>1.02</v>
+      </c>
+      <c r="O203" s="1">
+        <f>SUM($M$5:M203)</f>
+        <v>433733000</v>
+      </c>
+      <c r="P203">
         <f t="shared" si="36"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="204" spans="6:10" x14ac:dyDescent="0.3">
+        <v>76919.05</v>
+      </c>
+      <c r="Q203">
+        <f>SUM($P$5:P203)</f>
+        <v>7089727.7599999998</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="37"/>
+        <v>1.0968365626502283</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="38"/>
+        <v>11.361330822347771</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="39"/>
+        <v>544.54865034526051</v>
+      </c>
+      <c r="W203">
+        <f t="shared" si="40"/>
+        <v>8.1159641255605379</v>
+      </c>
+      <c r="X203">
+        <f t="shared" si="41"/>
+        <v>388.99820627802688</v>
+      </c>
+    </row>
+    <row r="204" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F204" s="2">
         <v>199</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>719000</v>
       </c>
       <c r="H204" s="1">
@@ -15789,20 +19045,62 @@
         <v>50227500</v>
       </c>
       <c r="I204" s="1">
+        <f t="shared" si="42"/>
+        <v>719000</v>
+      </c>
+      <c r="J204" s="1">
+        <f t="shared" si="43"/>
+        <v>7000</v>
+      </c>
+      <c r="L204" s="2">
+        <v>199</v>
+      </c>
+      <c r="M204" s="1">
         <f t="shared" si="35"/>
-        <v>719000</v>
-      </c>
-      <c r="J204" s="1">
+        <v>9230300</v>
+      </c>
+      <c r="N204">
+        <v>1.02</v>
+      </c>
+      <c r="O204" s="1">
+        <f>SUM($M$5:M204)</f>
+        <v>442963300</v>
+      </c>
+      <c r="P204">
         <f t="shared" si="36"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="205" spans="6:10" x14ac:dyDescent="0.3">
+        <v>78457.55</v>
+      </c>
+      <c r="Q204">
+        <f>SUM($P$5:P204)</f>
+        <v>7168185.3099999996</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="37"/>
+        <v>1.1066369916579113</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="38"/>
+        <v>11.58857501569366</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="39"/>
+        <v>556.13722536095418</v>
+      </c>
+      <c r="W204">
+        <f t="shared" si="40"/>
+        <v>8.2782959641255598</v>
+      </c>
+      <c r="X204">
+        <f t="shared" si="41"/>
+        <v>397.27650224215245</v>
+      </c>
+    </row>
+    <row r="205" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F205" s="2">
         <v>200</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>726000</v>
       </c>
       <c r="H205" s="1">
@@ -15810,20 +19108,22 @@
         <v>50953500</v>
       </c>
       <c r="I205" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>726000</v>
       </c>
       <c r="J205" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="206" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M205" s="1"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F206" s="2">
         <v>201</v>
       </c>
       <c r="G206" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>733000</v>
       </c>
       <c r="H206" s="1">
@@ -15831,20 +19131,22 @@
         <v>51686500</v>
       </c>
       <c r="I206" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>733000</v>
       </c>
       <c r="J206" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="207" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M206" s="1"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F207" s="2">
         <v>202</v>
       </c>
       <c r="G207" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>740000</v>
       </c>
       <c r="H207" s="1">
@@ -15852,20 +19154,22 @@
         <v>52426500</v>
       </c>
       <c r="I207" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>740000</v>
       </c>
       <c r="J207" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="208" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M207" s="1"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F208" s="2">
         <v>203</v>
       </c>
       <c r="G208" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>747000</v>
       </c>
       <c r="H208" s="1">
@@ -15873,20 +19177,22 @@
         <v>53173500</v>
       </c>
       <c r="I208" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>747000</v>
       </c>
       <c r="J208" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="209" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M208" s="1"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F209" s="2">
         <v>204</v>
       </c>
       <c r="G209" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>754000</v>
       </c>
       <c r="H209" s="1">
@@ -15894,20 +19200,22 @@
         <v>53927500</v>
       </c>
       <c r="I209" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>754000</v>
       </c>
       <c r="J209" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="210" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M209" s="1"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F210" s="2">
         <v>205</v>
       </c>
       <c r="G210" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>761000</v>
       </c>
       <c r="H210" s="1">
@@ -15915,20 +19223,22 @@
         <v>54688500</v>
       </c>
       <c r="I210" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>761000</v>
       </c>
       <c r="J210" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="211" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F211" s="2">
         <v>206</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>768000</v>
       </c>
       <c r="H211" s="1">
@@ -15936,20 +19246,22 @@
         <v>55456500</v>
       </c>
       <c r="I211" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>768000</v>
       </c>
       <c r="J211" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="212" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F212" s="2">
         <v>207</v>
       </c>
       <c r="G212" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>775000</v>
       </c>
       <c r="H212" s="1">
@@ -15957,20 +19269,22 @@
         <v>56231500</v>
       </c>
       <c r="I212" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>775000</v>
       </c>
       <c r="J212" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="213" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F213" s="2">
         <v>208</v>
       </c>
       <c r="G213" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>782000</v>
       </c>
       <c r="H213" s="1">
@@ -15978,20 +19292,22 @@
         <v>57013500</v>
       </c>
       <c r="I213" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>782000</v>
       </c>
       <c r="J213" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="214" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F214" s="2">
         <v>209</v>
       </c>
       <c r="G214" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>789000</v>
       </c>
       <c r="H214" s="1">
@@ -15999,20 +19315,22 @@
         <v>57802500</v>
       </c>
       <c r="I214" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>789000</v>
       </c>
       <c r="J214" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="215" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F215" s="20">
         <v>210</v>
       </c>
       <c r="G215" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>796500</v>
       </c>
       <c r="H215" s="3">
@@ -16020,20 +19338,20 @@
         <v>58599000</v>
       </c>
       <c r="I215" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>796500</v>
       </c>
       <c r="J215" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="216" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F216" s="2">
         <v>211</v>
       </c>
       <c r="G216" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>804000</v>
       </c>
       <c r="H216" s="1">
@@ -16041,20 +19359,20 @@
         <v>59403000</v>
       </c>
       <c r="I216" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>804000</v>
       </c>
       <c r="J216" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="217" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F217" s="2">
         <v>212</v>
       </c>
       <c r="G217" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>811500</v>
       </c>
       <c r="H217" s="1">
@@ -16062,20 +19380,20 @@
         <v>60214500</v>
       </c>
       <c r="I217" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>811500</v>
       </c>
       <c r="J217" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="218" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F218" s="2">
         <v>213</v>
       </c>
       <c r="G218" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>819000</v>
       </c>
       <c r="H218" s="1">
@@ -16083,20 +19401,20 @@
         <v>61033500</v>
       </c>
       <c r="I218" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>819000</v>
       </c>
       <c r="J218" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="219" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F219" s="2">
         <v>214</v>
       </c>
       <c r="G219" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>826500</v>
       </c>
       <c r="H219" s="1">
@@ -16104,20 +19422,20 @@
         <v>61860000</v>
       </c>
       <c r="I219" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>826500</v>
       </c>
       <c r="J219" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="220" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F220" s="2">
         <v>215</v>
       </c>
       <c r="G220" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>834000</v>
       </c>
       <c r="H220" s="1">
@@ -16125,20 +19443,20 @@
         <v>62694000</v>
       </c>
       <c r="I220" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>834000</v>
       </c>
       <c r="J220" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="221" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F221" s="2">
         <v>216</v>
       </c>
       <c r="G221" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>841500</v>
       </c>
       <c r="H221" s="1">
@@ -16146,20 +19464,20 @@
         <v>63535500</v>
       </c>
       <c r="I221" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>841500</v>
       </c>
       <c r="J221" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="222" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F222" s="2">
         <v>217</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>849000</v>
       </c>
       <c r="H222" s="1">
@@ -16167,20 +19485,20 @@
         <v>64384500</v>
       </c>
       <c r="I222" s="1">
-        <f t="shared" ref="I222:I255" si="38">I221+500+QUOTIENT(F222,15)*500</f>
+        <f t="shared" ref="I222:I255" si="45">I221+500+QUOTIENT(F222,15)*500</f>
         <v>849000</v>
       </c>
       <c r="J222" s="1">
-        <f t="shared" ref="J222:J255" si="39">I222-I221</f>
+        <f t="shared" ref="J222:J255" si="46">I222-I221</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="223" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F223" s="2">
         <v>218</v>
       </c>
       <c r="G223" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>856500</v>
       </c>
       <c r="H223" s="1">
@@ -16188,20 +19506,20 @@
         <v>65241000</v>
       </c>
       <c r="I223" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>856500</v>
       </c>
       <c r="J223" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="224" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F224" s="2">
         <v>219</v>
       </c>
       <c r="G224" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>864000</v>
       </c>
       <c r="H224" s="1">
@@ -16209,11 +19527,11 @@
         <v>66105000</v>
       </c>
       <c r="I224" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>864000</v>
       </c>
       <c r="J224" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16222,7 +19540,7 @@
         <v>220</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>871500</v>
       </c>
       <c r="H225" s="1">
@@ -16230,11 +19548,11 @@
         <v>66976500</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>871500</v>
       </c>
       <c r="J225" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16243,7 +19561,7 @@
         <v>221</v>
       </c>
       <c r="G226" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>879000</v>
       </c>
       <c r="H226" s="1">
@@ -16251,11 +19569,11 @@
         <v>67855500</v>
       </c>
       <c r="I226" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>879000</v>
       </c>
       <c r="J226" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16264,7 +19582,7 @@
         <v>222</v>
       </c>
       <c r="G227" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>886500</v>
       </c>
       <c r="H227" s="1">
@@ -16272,11 +19590,11 @@
         <v>68742000</v>
       </c>
       <c r="I227" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>886500</v>
       </c>
       <c r="J227" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16285,7 +19603,7 @@
         <v>223</v>
       </c>
       <c r="G228" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>894000</v>
       </c>
       <c r="H228" s="1">
@@ -16293,11 +19611,11 @@
         <v>69636000</v>
       </c>
       <c r="I228" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>894000</v>
       </c>
       <c r="J228" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16306,7 +19624,7 @@
         <v>224</v>
       </c>
       <c r="G229" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>901500</v>
       </c>
       <c r="H229" s="1">
@@ -16314,11 +19632,11 @@
         <v>70537500</v>
       </c>
       <c r="I229" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>901500</v>
       </c>
       <c r="J229" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>7500</v>
       </c>
     </row>
@@ -16327,7 +19645,7 @@
         <v>225</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>909500</v>
       </c>
       <c r="H230" s="1">
@@ -16335,11 +19653,11 @@
         <v>71447000</v>
       </c>
       <c r="I230" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>909500</v>
       </c>
       <c r="J230" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16348,7 +19666,7 @@
         <v>226</v>
       </c>
       <c r="G231" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>917500</v>
       </c>
       <c r="H231" s="1">
@@ -16356,11 +19674,11 @@
         <v>72364500</v>
       </c>
       <c r="I231" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>917500</v>
       </c>
       <c r="J231" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16369,7 +19687,7 @@
         <v>227</v>
       </c>
       <c r="G232" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>925500</v>
       </c>
       <c r="H232" s="1">
@@ -16377,11 +19695,11 @@
         <v>73290000</v>
       </c>
       <c r="I232" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>925500</v>
       </c>
       <c r="J232" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16390,7 +19708,7 @@
         <v>228</v>
       </c>
       <c r="G233" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>933500</v>
       </c>
       <c r="H233" s="1">
@@ -16398,11 +19716,11 @@
         <v>74223500</v>
       </c>
       <c r="I233" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>933500</v>
       </c>
       <c r="J233" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16411,7 +19729,7 @@
         <v>229</v>
       </c>
       <c r="G234" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>941500</v>
       </c>
       <c r="H234" s="1">
@@ -16419,11 +19737,11 @@
         <v>75165000</v>
       </c>
       <c r="I234" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>941500</v>
       </c>
       <c r="J234" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16432,7 +19750,7 @@
         <v>230</v>
       </c>
       <c r="G235" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>949500</v>
       </c>
       <c r="H235" s="1">
@@ -16440,11 +19758,11 @@
         <v>76114500</v>
       </c>
       <c r="I235" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>949500</v>
       </c>
       <c r="J235" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16453,7 +19771,7 @@
         <v>231</v>
       </c>
       <c r="G236" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>957500</v>
       </c>
       <c r="H236" s="1">
@@ -16461,11 +19779,11 @@
         <v>77072000</v>
       </c>
       <c r="I236" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>957500</v>
       </c>
       <c r="J236" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16474,7 +19792,7 @@
         <v>232</v>
       </c>
       <c r="G237" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>965500</v>
       </c>
       <c r="H237" s="1">
@@ -16482,11 +19800,11 @@
         <v>78037500</v>
       </c>
       <c r="I237" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>965500</v>
       </c>
       <c r="J237" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16495,7 +19813,7 @@
         <v>233</v>
       </c>
       <c r="G238" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>973500</v>
       </c>
       <c r="H238" s="1">
@@ -16503,11 +19821,11 @@
         <v>79011000</v>
       </c>
       <c r="I238" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>973500</v>
       </c>
       <c r="J238" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16516,7 +19834,7 @@
         <v>234</v>
       </c>
       <c r="G239" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>981500</v>
       </c>
       <c r="H239" s="1">
@@ -16524,11 +19842,11 @@
         <v>79992500</v>
       </c>
       <c r="I239" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>981500</v>
       </c>
       <c r="J239" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16537,7 +19855,7 @@
         <v>235</v>
       </c>
       <c r="G240" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>989500</v>
       </c>
       <c r="H240" s="1">
@@ -16545,11 +19863,11 @@
         <v>80982000</v>
       </c>
       <c r="I240" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>989500</v>
       </c>
       <c r="J240" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16558,7 +19876,7 @@
         <v>236</v>
       </c>
       <c r="G241" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>997500</v>
       </c>
       <c r="H241" s="1">
@@ -16566,11 +19884,11 @@
         <v>81979500</v>
       </c>
       <c r="I241" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>997500</v>
       </c>
       <c r="J241" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16579,7 +19897,7 @@
         <v>237</v>
       </c>
       <c r="G242" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1005500</v>
       </c>
       <c r="H242" s="1">
@@ -16587,11 +19905,11 @@
         <v>82985000</v>
       </c>
       <c r="I242" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1005500</v>
       </c>
       <c r="J242" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16600,7 +19918,7 @@
         <v>238</v>
       </c>
       <c r="G243" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1013500</v>
       </c>
       <c r="H243" s="8">
@@ -16608,11 +19926,11 @@
         <v>83998500</v>
       </c>
       <c r="I243" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1013500</v>
       </c>
       <c r="J243" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16621,7 +19939,7 @@
         <v>239</v>
       </c>
       <c r="G244" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1021500</v>
       </c>
       <c r="H244" s="1">
@@ -16629,11 +19947,11 @@
         <v>85020000</v>
       </c>
       <c r="I244" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1021500</v>
       </c>
       <c r="J244" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8000</v>
       </c>
     </row>
@@ -16642,7 +19960,7 @@
         <v>240</v>
       </c>
       <c r="G245" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1030000</v>
       </c>
       <c r="H245" s="1">
@@ -16650,11 +19968,11 @@
         <v>86050000</v>
       </c>
       <c r="I245" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1030000</v>
       </c>
       <c r="J245" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16663,7 +19981,7 @@
         <v>241</v>
       </c>
       <c r="G246" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1038500</v>
       </c>
       <c r="H246" s="1">
@@ -16671,11 +19989,11 @@
         <v>87088500</v>
       </c>
       <c r="I246" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1038500</v>
       </c>
       <c r="J246" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16684,7 +20002,7 @@
         <v>242</v>
       </c>
       <c r="G247" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1047000</v>
       </c>
       <c r="H247" s="1">
@@ -16692,11 +20010,11 @@
         <v>88135500</v>
       </c>
       <c r="I247" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1047000</v>
       </c>
       <c r="J247" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16705,7 +20023,7 @@
         <v>243</v>
       </c>
       <c r="G248" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1055500</v>
       </c>
       <c r="H248" s="1">
@@ -16713,11 +20031,11 @@
         <v>89191000</v>
       </c>
       <c r="I248" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1055500</v>
       </c>
       <c r="J248" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16726,7 +20044,7 @@
         <v>244</v>
       </c>
       <c r="G249" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1064000</v>
       </c>
       <c r="H249" s="1">
@@ -16734,11 +20052,11 @@
         <v>90255000</v>
       </c>
       <c r="I249" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1064000</v>
       </c>
       <c r="J249" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16747,7 +20065,7 @@
         <v>245</v>
       </c>
       <c r="G250" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1072500</v>
       </c>
       <c r="H250" s="1">
@@ -16755,11 +20073,11 @@
         <v>91327500</v>
       </c>
       <c r="I250" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1072500</v>
       </c>
       <c r="J250" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16768,7 +20086,7 @@
         <v>246</v>
       </c>
       <c r="G251" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1081000</v>
       </c>
       <c r="H251" s="1">
@@ -16776,11 +20094,11 @@
         <v>92408500</v>
       </c>
       <c r="I251" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1081000</v>
       </c>
       <c r="J251" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16789,7 +20107,7 @@
         <v>247</v>
       </c>
       <c r="G252" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1089500</v>
       </c>
       <c r="H252" s="1">
@@ -16797,11 +20115,11 @@
         <v>93498000</v>
       </c>
       <c r="I252" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1089500</v>
       </c>
       <c r="J252" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16810,7 +20128,7 @@
         <v>248</v>
       </c>
       <c r="G253" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1098000</v>
       </c>
       <c r="H253" s="1">
@@ -16818,11 +20136,11 @@
         <v>94596000</v>
       </c>
       <c r="I253" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1098000</v>
       </c>
       <c r="J253" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16831,7 +20149,7 @@
         <v>249</v>
       </c>
       <c r="G254" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1106500</v>
       </c>
       <c r="H254" s="1">
@@ -16839,11 +20157,11 @@
         <v>95702500</v>
       </c>
       <c r="I254" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1106500</v>
       </c>
       <c r="J254" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>
@@ -16852,7 +20170,7 @@
         <v>250</v>
       </c>
       <c r="G255" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1115000</v>
       </c>
       <c r="H255" s="1">
@@ -16860,11 +20178,11 @@
         <v>96817500</v>
       </c>
       <c r="I255" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1115000</v>
       </c>
       <c r="J255" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>8500</v>
       </c>
     </row>

--- a/Assets/06.Table/Dosul.xlsx
+++ b/Assets/06.Table/Dosul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AC2A3-F218-49D1-80D3-4E70164A85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B2052-C4EA-47AB-9210-9843B3BC0CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="555" yWindow="1440" windowWidth="28800" windowHeight="15435" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dosul" sheetId="2" r:id="rId1"/>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4472,7 +4472,7 @@
         <v>40902.154600000009</v>
       </c>
       <c r="F141">
-        <f t="shared" ref="F141:F201" si="8">IF(F131=0,0,F131+2)</f>
+        <f t="shared" ref="F141:F204" si="8">IF(F131=0,0,F131+2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B201" si="9">B195</f>
+        <f t="shared" ref="B196:B252" si="9">B195</f>
         <v>9031</v>
       </c>
       <c r="C196" s="1">
@@ -5837,7 +5837,7 @@
         <v>8360000</v>
       </c>
       <c r="D196">
-        <f t="shared" ref="D196:D201" si="10">D195</f>
+        <f t="shared" ref="D196:D252" si="10">D195</f>
         <v>60</v>
       </c>
       <c r="E196">
@@ -5972,13 +5972,1286 @@
       <c r="F201">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C202" s="1">
+        <f>VLOOKUP(A202,balance!L:R,2,FALSE)</f>
+        <v>9415000</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E202">
+        <f>VLOOKUP(A202,balance!L:R,6,FALSE)/100</f>
+        <v>72482.128100000002</v>
+      </c>
+      <c r="F202">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C203" s="1">
+        <f>VLOOKUP(A203,balance!L:R,2,FALSE)</f>
+        <v>9603300</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E203">
+        <f>VLOOKUP(A203,balance!L:R,6,FALSE)/100</f>
+        <v>73298.408599999995</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C204" s="1">
+        <f>VLOOKUP(A204,balance!L:R,2,FALSE)</f>
+        <v>9795400</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E204">
+        <f>VLOOKUP(A204,balance!L:R,6,FALSE)/100</f>
+        <v>74131.017599999992</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C205" s="1">
+        <f>VLOOKUP(A205,balance!L:R,2,FALSE)</f>
+        <v>9991400</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E205">
+        <f>VLOOKUP(A205,balance!L:R,6,FALSE)/100</f>
+        <v>74980.286600000007</v>
+      </c>
+      <c r="F205">
+        <f t="shared" ref="F205:F252" si="11">IF(F195=0,0,F195+2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C206" s="1">
+        <f>VLOOKUP(A206,balance!L:R,2,FALSE)</f>
+        <v>10191300</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E206">
+        <f>VLOOKUP(A206,balance!L:R,6,FALSE)/100</f>
+        <v>75846.547099999996</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C207" s="1">
+        <f>VLOOKUP(A207,balance!L:R,2,FALSE)</f>
+        <v>10395200</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E207">
+        <f>VLOOKUP(A207,balance!L:R,6,FALSE)/100</f>
+        <v>76730.1391</v>
+      </c>
+      <c r="F207">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C208" s="1">
+        <f>VLOOKUP(A208,balance!L:R,2,FALSE)</f>
+        <v>10603200</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E208">
+        <f>VLOOKUP(A208,balance!L:R,6,FALSE)/100</f>
+        <v>77631.411099999998</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C209" s="1">
+        <f>VLOOKUP(A209,balance!L:R,2,FALSE)</f>
+        <v>10815300</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E209">
+        <f>VLOOKUP(A209,balance!L:R,6,FALSE)/100</f>
+        <v>78550.711599999995</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C210" s="1">
+        <f>VLOOKUP(A210,balance!L:R,2,FALSE)</f>
+        <v>11031700</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E210">
+        <f>VLOOKUP(A210,balance!L:R,6,FALSE)/100</f>
+        <v>79488.406100000007</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C211" s="1">
+        <f>VLOOKUP(A211,balance!L:R,2,FALSE)</f>
+        <v>11252400</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E211">
+        <f>VLOOKUP(A211,balance!L:R,6,FALSE)/100</f>
+        <v>80444.860100000005</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C212" s="1">
+        <f>VLOOKUP(A212,balance!L:R,2,FALSE)</f>
+        <v>11477500</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E212">
+        <f>VLOOKUP(A212,balance!L:R,6,FALSE)/100</f>
+        <v>81420.447600000014</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="11"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C213" s="1">
+        <f>VLOOKUP(A213,balance!L:R,2,FALSE)</f>
+        <v>11707100</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E213">
+        <f>VLOOKUP(A213,balance!L:R,6,FALSE)/100</f>
+        <v>82415.551099999997</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C214" s="1">
+        <f>VLOOKUP(A214,balance!L:R,2,FALSE)</f>
+        <v>11941300</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E214">
+        <f>VLOOKUP(A214,balance!L:R,6,FALSE)/100</f>
+        <v>83430.561600000001</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C215" s="1">
+        <f>VLOOKUP(A215,balance!L:R,2,FALSE)</f>
+        <v>12180200</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E215">
+        <f>VLOOKUP(A215,balance!L:R,6,FALSE)/100</f>
+        <v>84465.878599999996</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C216" s="1">
+        <f>VLOOKUP(A216,balance!L:R,2,FALSE)</f>
+        <v>12423900</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E216">
+        <f>VLOOKUP(A216,balance!L:R,6,FALSE)/100</f>
+        <v>85521.910099999994</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C217" s="1">
+        <f>VLOOKUP(A217,balance!L:R,2,FALSE)</f>
+        <v>12672400</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E217">
+        <f>VLOOKUP(A217,balance!L:R,6,FALSE)/100</f>
+        <v>86599.064100000003</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C218" s="1">
+        <f>VLOOKUP(A218,balance!L:R,2,FALSE)</f>
+        <v>12925900</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E218">
+        <f>VLOOKUP(A218,balance!L:R,6,FALSE)/100</f>
+        <v>87697.765599999999</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C219" s="1">
+        <f>VLOOKUP(A219,balance!L:R,2,FALSE)</f>
+        <v>13184500</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E219">
+        <f>VLOOKUP(A219,balance!L:R,6,FALSE)/100</f>
+        <v>88818.448100000009</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C220" s="1">
+        <f>VLOOKUP(A220,balance!L:R,2,FALSE)</f>
+        <v>13448200</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E220">
+        <f>VLOOKUP(A220,balance!L:R,6,FALSE)/100</f>
+        <v>89961.545100000003</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C221" s="1">
+        <f>VLOOKUP(A221,balance!L:R,2,FALSE)</f>
+        <v>13717200</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E221">
+        <f>VLOOKUP(A221,balance!L:R,6,FALSE)/100</f>
+        <v>91127.507099999988</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C222" s="1">
+        <f>VLOOKUP(A222,balance!L:R,2,FALSE)</f>
+        <v>13991600</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E222">
+        <f>VLOOKUP(A222,balance!L:R,6,FALSE)/100</f>
+        <v>92316.793099999981</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C223" s="1">
+        <f>VLOOKUP(A223,balance!L:R,2,FALSE)</f>
+        <v>14271500</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E223">
+        <f>VLOOKUP(A223,balance!L:R,6,FALSE)/100</f>
+        <v>93529.87059999998</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C224" s="1">
+        <f>VLOOKUP(A224,balance!L:R,2,FALSE)</f>
+        <v>14557000</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E224">
+        <f>VLOOKUP(A224,balance!L:R,6,FALSE)/100</f>
+        <v>94767.215599999981</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C225" s="1">
+        <f>VLOOKUP(A225,balance!L:R,2,FALSE)</f>
+        <v>14848200</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E225">
+        <f>VLOOKUP(A225,balance!L:R,6,FALSE)/100</f>
+        <v>96029.312599999976</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C226" s="1">
+        <f>VLOOKUP(A226,balance!L:R,2,FALSE)</f>
+        <v>15145200</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E226">
+        <f>VLOOKUP(A226,balance!L:R,6,FALSE)/100</f>
+        <v>97316.654599999965</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C227" s="1">
+        <f>VLOOKUP(A227,balance!L:R,2,FALSE)</f>
+        <v>15448200</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E227">
+        <f>VLOOKUP(A227,balance!L:R,6,FALSE)/100</f>
+        <v>98629.75159999996</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C228" s="1">
+        <f>VLOOKUP(A228,balance!L:R,2,FALSE)</f>
+        <v>15757200</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E228">
+        <f>VLOOKUP(A228,balance!L:R,6,FALSE)/100</f>
+        <v>99969.113599999953</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C229" s="1">
+        <f>VLOOKUP(A229,balance!L:R,2,FALSE)</f>
+        <v>16072400</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E229">
+        <f>VLOOKUP(A229,balance!L:R,6,FALSE)/100</f>
+        <v>101335.26759999996</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C230" s="1">
+        <f>VLOOKUP(A230,balance!L:R,2,FALSE)</f>
+        <v>16393900</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E230">
+        <f>VLOOKUP(A230,balance!L:R,6,FALSE)/100</f>
+        <v>102728.74909999996</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C231" s="1">
+        <f>VLOOKUP(A231,balance!L:R,2,FALSE)</f>
+        <v>16721800</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E231">
+        <f>VLOOKUP(A231,balance!L:R,6,FALSE)/100</f>
+        <v>104150.10209999997</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C232" s="1">
+        <f>VLOOKUP(A232,balance!L:R,2,FALSE)</f>
+        <v>17056300</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E232">
+        <f>VLOOKUP(A232,balance!L:R,6,FALSE)/100</f>
+        <v>105599.88759999997</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C233" s="1">
+        <f>VLOOKUP(A233,balance!L:R,2,FALSE)</f>
+        <v>17397500</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E233">
+        <f>VLOOKUP(A233,balance!L:R,6,FALSE)/100</f>
+        <v>107078.67509999998</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C234" s="1">
+        <f>VLOOKUP(A234,balance!L:R,2,FALSE)</f>
+        <v>17745500</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E234">
+        <f>VLOOKUP(A234,balance!L:R,6,FALSE)/100</f>
+        <v>108587.04259999999</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C235" s="1">
+        <f>VLOOKUP(A235,balance!L:R,2,FALSE)</f>
+        <v>18100500</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E235">
+        <f>VLOOKUP(A235,balance!L:R,6,FALSE)/100</f>
+        <v>110125.58509999998</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C236" s="1">
+        <f>VLOOKUP(A236,balance!L:R,2,FALSE)</f>
+        <v>18462600</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E236">
+        <f>VLOOKUP(A236,balance!L:R,6,FALSE)/100</f>
+        <v>111694.90609999998</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C237" s="1">
+        <f>VLOOKUP(A237,balance!L:R,2,FALSE)</f>
+        <v>18831900</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E237">
+        <f>VLOOKUP(A237,balance!L:R,6,FALSE)/100</f>
+        <v>113295.61759999998</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C238" s="1">
+        <f>VLOOKUP(A238,balance!L:R,2,FALSE)</f>
+        <v>19208600</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E238">
+        <f>VLOOKUP(A238,balance!L:R,6,FALSE)/100</f>
+        <v>114928.34859999997</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C239" s="1">
+        <f>VLOOKUP(A239,balance!L:R,2,FALSE)</f>
+        <v>19592800</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E239">
+        <f>VLOOKUP(A239,balance!L:R,6,FALSE)/100</f>
+        <v>116593.73659999999</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C240" s="1">
+        <f>VLOOKUP(A240,balance!L:R,2,FALSE)</f>
+        <v>19984700</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E240">
+        <f>VLOOKUP(A240,balance!L:R,6,FALSE)/100</f>
+        <v>118292.43609999998</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C241" s="1">
+        <f>VLOOKUP(A241,balance!L:R,2,FALSE)</f>
+        <v>20384400</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E241">
+        <f>VLOOKUP(A241,balance!L:R,6,FALSE)/100</f>
+        <v>120025.11009999998</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C242" s="1">
+        <f>VLOOKUP(A242,balance!L:R,2,FALSE)</f>
+        <v>20792100</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E242">
+        <f>VLOOKUP(A242,balance!L:R,6,FALSE)/100</f>
+        <v>121792.43859999998</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C243" s="1">
+        <f>VLOOKUP(A243,balance!L:R,2,FALSE)</f>
+        <v>21208000</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E243">
+        <f>VLOOKUP(A243,balance!L:R,6,FALSE)/100</f>
+        <v>123595.11859999997</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C244" s="1">
+        <f>VLOOKUP(A244,balance!L:R,2,FALSE)</f>
+        <v>21632200</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E244">
+        <f>VLOOKUP(A244,balance!L:R,6,FALSE)/100</f>
+        <v>125433.85559999997</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C245" s="1">
+        <f>VLOOKUP(A245,balance!L:R,2,FALSE)</f>
+        <v>22064900</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E245">
+        <f>VLOOKUP(A245,balance!L:R,6,FALSE)/100</f>
+        <v>127309.37209999998</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C246" s="1">
+        <f>VLOOKUP(A246,balance!L:R,2,FALSE)</f>
+        <v>22506200</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E246">
+        <f>VLOOKUP(A246,balance!L:R,6,FALSE)/100</f>
+        <v>129222.39909999997</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C247" s="1">
+        <f>VLOOKUP(A247,balance!L:R,2,FALSE)</f>
+        <v>22956400</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E247">
+        <f>VLOOKUP(A247,balance!L:R,6,FALSE)/100</f>
+        <v>131173.69309999997</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C248" s="1">
+        <f>VLOOKUP(A248,balance!L:R,2,FALSE)</f>
+        <v>23415600</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E248">
+        <f>VLOOKUP(A248,balance!L:R,6,FALSE)/100</f>
+        <v>133164.01909999998</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C249" s="1">
+        <f>VLOOKUP(A249,balance!L:R,2,FALSE)</f>
+        <v>23884000</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E249">
+        <f>VLOOKUP(A249,balance!L:R,6,FALSE)/100</f>
+        <v>135194.15909999996</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C250" s="1">
+        <f>VLOOKUP(A250,balance!L:R,2,FALSE)</f>
+        <v>24361700</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E250">
+        <f>VLOOKUP(A250,balance!L:R,6,FALSE)/100</f>
+        <v>137264.90359999996</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C251" s="1">
+        <f>VLOOKUP(A251,balance!L:R,2,FALSE)</f>
+        <v>24849000</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E251">
+        <f>VLOOKUP(A251,balance!L:R,6,FALSE)/100</f>
+        <v>139377.06859999997</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C252" s="1">
+        <f>VLOOKUP(A252,balance!L:R,2,FALSE)</f>
+        <v>25346000</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E252">
+        <f>VLOOKUP(A252,balance!L:R,6,FALSE)/100</f>
+        <v>141531.47859999994</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="11"/>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C202:C1048576" formula="1"/>
+    <ignoredError sqref="C253:C1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5987,10 +7260,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="M205" sqref="M205"/>
+      <selection pane="topRight" activeCell="M246" sqref="M246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15945,7 +17218,7 @@
         <v>150</v>
       </c>
       <c r="M155" s="1">
-        <f t="shared" ref="M155:M214" si="35">ROUNDUP((M154)*N155,-2)</f>
+        <f t="shared" ref="M155:M204" si="35">ROUNDUP((M154)*N155,-2)</f>
         <v>3496400</v>
       </c>
       <c r="N155">
@@ -15956,7 +17229,7 @@
         <v>150651400</v>
       </c>
       <c r="P155">
-        <f t="shared" ref="P155:P214" si="36">IF(L155&lt;=$A$27,ROUNDUP(M155*N155/$B$26,2),IF(L155&lt;=$A$28,ROUNDUP(M155*N155/$B$27,2),IF(L155&lt;=$A$29,ROUNDUP(M155*N155/$B$28,2),IF(L155&lt;=$A$30,ROUNDUP(M155*N155/$B$29,2),IF(L155&lt;=$A$31,ROUNDUP(M155*N155/$B$30,2),ROUNDUP(M155*N155/$B$31,2))))))</f>
+        <f t="shared" ref="P155:P204" si="36">IF(L155&lt;=$A$27,ROUNDUP(M155*N155/$B$26,2),IF(L155&lt;=$A$28,ROUNDUP(M155*N155/$B$27,2),IF(L155&lt;=$A$29,ROUNDUP(M155*N155/$B$28,2),IF(L155&lt;=$A$30,ROUNDUP(M155*N155/$B$29,2),IF(L155&lt;=$A$31,ROUNDUP(M155*N155/$B$30,2),ROUNDUP(M155*N155/$B$31,2))))))</f>
         <v>59438.8</v>
       </c>
       <c r="Q155">
@@ -15964,23 +17237,23 @@
         <v>4683534.1600000011</v>
       </c>
       <c r="R155">
-        <f t="shared" ref="R155:R214" si="37">(Q155-Q154)*100/Q154</f>
+        <f t="shared" ref="R155:R204" si="37">(Q155-Q154)*100/Q154</f>
         <v>1.2854146675729412</v>
       </c>
       <c r="T155">
-        <f t="shared" ref="T155:T214" si="38">M155/$I$215</f>
+        <f t="shared" ref="T155:T204" si="38">M155/$I$215</f>
         <v>4.389704959196485</v>
       </c>
       <c r="U155">
-        <f t="shared" ref="U155:U214" si="39">O155/$I$215</f>
+        <f t="shared" ref="U155:U204" si="39">O155/$I$215</f>
         <v>189.14174513496548</v>
       </c>
       <c r="W155">
-        <f t="shared" ref="W155:W214" si="40">M155/$I$255</f>
+        <f t="shared" ref="W155:W204" si="40">M155/$I$255</f>
         <v>3.1357847533632288</v>
       </c>
       <c r="X155">
-        <f t="shared" ref="X155:X214" si="41">O155/$I$255</f>
+        <f t="shared" ref="X155:X204" si="41">O155/$I$255</f>
         <v>135.11336322869954</v>
       </c>
     </row>
@@ -19115,8 +20388,32 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M205" s="1"/>
-      <c r="O205" s="1"/>
+      <c r="L205" s="2">
+        <v>200</v>
+      </c>
+      <c r="M205" s="1">
+        <f t="shared" ref="M205:M255" si="45">ROUNDUP((M204)*N205,-2)</f>
+        <v>9415000</v>
+      </c>
+      <c r="N205">
+        <v>1.02</v>
+      </c>
+      <c r="O205" s="1">
+        <f>SUM($M$5:M205)</f>
+        <v>452378300</v>
+      </c>
+      <c r="P205">
+        <f t="shared" ref="P205:P255" si="46">IF(L205&lt;=$A$27,ROUNDUP(M205*N205/$B$26,2),IF(L205&lt;=$A$28,ROUNDUP(M205*N205/$B$27,2),IF(L205&lt;=$A$29,ROUNDUP(M205*N205/$B$28,2),IF(L205&lt;=$A$30,ROUNDUP(M205*N205/$B$29,2),IF(L205&lt;=$A$31,ROUNDUP(M205*N205/$B$30,2),ROUNDUP(M205*N205/$B$31,2))))))</f>
+        <v>80027.5</v>
+      </c>
+      <c r="Q205">
+        <f>SUM($P$5:P205)</f>
+        <v>7248212.8099999996</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ref="R205:R255" si="47">(Q205-Q204)*100/Q204</f>
+        <v>1.1164262158283964</v>
+      </c>
     </row>
     <row r="206" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F206" s="2">
@@ -19138,8 +20435,32 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M206" s="1"/>
-      <c r="O206" s="1"/>
+      <c r="L206" s="2">
+        <v>201</v>
+      </c>
+      <c r="M206" s="1">
+        <f t="shared" si="45"/>
+        <v>9603300</v>
+      </c>
+      <c r="N206">
+        <v>1.02</v>
+      </c>
+      <c r="O206" s="1">
+        <f>SUM($M$5:M206)</f>
+        <v>461981600</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="46"/>
+        <v>81628.05</v>
+      </c>
+      <c r="Q206">
+        <f>SUM($P$5:P206)</f>
+        <v>7329840.8599999994</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="47"/>
+        <v>1.12618175182966</v>
+      </c>
     </row>
     <row r="207" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F207" s="2">
@@ -19161,8 +20482,32 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M207" s="1"/>
-      <c r="O207" s="1"/>
+      <c r="L207" s="2">
+        <v>202</v>
+      </c>
+      <c r="M207" s="1">
+        <f t="shared" si="45"/>
+        <v>9795400</v>
+      </c>
+      <c r="N207">
+        <v>1.02</v>
+      </c>
+      <c r="O207" s="1">
+        <f>SUM($M$5:M207)</f>
+        <v>471777000</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="46"/>
+        <v>83260.899999999994</v>
+      </c>
+      <c r="Q207">
+        <f>SUM($P$5:P207)</f>
+        <v>7413101.7599999998</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="47"/>
+        <v>1.1359168853769681</v>
+      </c>
     </row>
     <row r="208" spans="6:24" x14ac:dyDescent="0.3">
       <c r="F208" s="2">
@@ -19184,10 +20529,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M208" s="1"/>
-      <c r="O208" s="1"/>
-    </row>
-    <row r="209" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L208" s="2">
+        <v>203</v>
+      </c>
+      <c r="M208" s="1">
+        <f t="shared" si="45"/>
+        <v>9991400</v>
+      </c>
+      <c r="N208">
+        <v>1.02</v>
+      </c>
+      <c r="O208" s="1">
+        <f>SUM($M$5:M208)</f>
+        <v>481768400</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="46"/>
+        <v>84926.9</v>
+      </c>
+      <c r="Q208">
+        <f>SUM($P$5:P208)</f>
+        <v>7498028.6600000001</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="47"/>
+        <v>1.1456324592527969</v>
+      </c>
+    </row>
+    <row r="209" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F209" s="2">
         <v>204</v>
       </c>
@@ -19207,10 +20576,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M209" s="1"/>
-      <c r="O209" s="1"/>
-    </row>
-    <row r="210" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L209" s="2">
+        <v>204</v>
+      </c>
+      <c r="M209" s="1">
+        <f t="shared" si="45"/>
+        <v>10191300</v>
+      </c>
+      <c r="N209">
+        <v>1.02</v>
+      </c>
+      <c r="O209" s="1">
+        <f>SUM($M$5:M209)</f>
+        <v>491959700</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="46"/>
+        <v>86626.05</v>
+      </c>
+      <c r="Q209">
+        <f>SUM($P$5:P209)</f>
+        <v>7584654.71</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="47"/>
+        <v>1.1553176698580372</v>
+      </c>
+    </row>
+    <row r="210" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F210" s="2">
         <v>205</v>
       </c>
@@ -19230,10 +20623,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M210" s="1"/>
-      <c r="O210" s="1"/>
-    </row>
-    <row r="211" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L210" s="2">
+        <v>205</v>
+      </c>
+      <c r="M210" s="1">
+        <f t="shared" si="45"/>
+        <v>10395200</v>
+      </c>
+      <c r="N210">
+        <v>1.02</v>
+      </c>
+      <c r="O210" s="1">
+        <f>SUM($M$5:M210)</f>
+        <v>502354900</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="46"/>
+        <v>88359.2</v>
+      </c>
+      <c r="Q210">
+        <f>SUM($P$5:P210)</f>
+        <v>7673013.9100000001</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="47"/>
+        <v>1.1649732700883912</v>
+      </c>
+    </row>
+    <row r="211" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F211" s="2">
         <v>206</v>
       </c>
@@ -19253,10 +20670,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M211" s="1"/>
-      <c r="O211" s="1"/>
-    </row>
-    <row r="212" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L211" s="2">
+        <v>206</v>
+      </c>
+      <c r="M211" s="1">
+        <f t="shared" si="45"/>
+        <v>10603200</v>
+      </c>
+      <c r="N211">
+        <v>1.02</v>
+      </c>
+      <c r="O211" s="1">
+        <f>SUM($M$5:M211)</f>
+        <v>512958100</v>
+      </c>
+      <c r="P211">
+        <f t="shared" si="46"/>
+        <v>90127.2</v>
+      </c>
+      <c r="Q211">
+        <f>SUM($P$5:P211)</f>
+        <v>7763141.1100000003</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="47"/>
+        <v>1.1745997212717185</v>
+      </c>
+    </row>
+    <row r="212" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F212" s="2">
         <v>207</v>
       </c>
@@ -19276,10 +20717,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M212" s="1"/>
-      <c r="O212" s="1"/>
-    </row>
-    <row r="213" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L212" s="2">
+        <v>207</v>
+      </c>
+      <c r="M212" s="1">
+        <f t="shared" si="45"/>
+        <v>10815300</v>
+      </c>
+      <c r="N212">
+        <v>1.02</v>
+      </c>
+      <c r="O212" s="1">
+        <f>SUM($M$5:M212)</f>
+        <v>523773400</v>
+      </c>
+      <c r="P212">
+        <f t="shared" si="46"/>
+        <v>91930.05</v>
+      </c>
+      <c r="Q212">
+        <f>SUM($P$5:P212)</f>
+        <v>7855071.1600000001</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="47"/>
+        <v>1.1841862552463613</v>
+      </c>
+    </row>
+    <row r="213" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F213" s="2">
         <v>208</v>
       </c>
@@ -19299,10 +20764,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M213" s="1"/>
-      <c r="O213" s="1"/>
-    </row>
-    <row r="214" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L213" s="2">
+        <v>208</v>
+      </c>
+      <c r="M213" s="1">
+        <f t="shared" si="45"/>
+        <v>11031700</v>
+      </c>
+      <c r="N213">
+        <v>1.02</v>
+      </c>
+      <c r="O213" s="1">
+        <f>SUM($M$5:M213)</f>
+        <v>534805100</v>
+      </c>
+      <c r="P213">
+        <f t="shared" si="46"/>
+        <v>93769.45</v>
+      </c>
+      <c r="Q213">
+        <f>SUM($P$5:P213)</f>
+        <v>7948840.6100000003</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="47"/>
+        <v>1.193744118799303</v>
+      </c>
+    </row>
+    <row r="214" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F214" s="2">
         <v>209</v>
       </c>
@@ -19322,10 +20811,34 @@
         <f t="shared" si="43"/>
         <v>7000</v>
       </c>
-      <c r="M214" s="1"/>
-      <c r="O214" s="1"/>
-    </row>
-    <row r="215" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L214" s="2">
+        <v>209</v>
+      </c>
+      <c r="M214" s="1">
+        <f t="shared" si="45"/>
+        <v>11252400</v>
+      </c>
+      <c r="N214">
+        <v>1.02</v>
+      </c>
+      <c r="O214" s="1">
+        <f>SUM($M$5:M214)</f>
+        <v>546057500</v>
+      </c>
+      <c r="P214">
+        <f t="shared" si="46"/>
+        <v>95645.4</v>
+      </c>
+      <c r="Q214">
+        <f>SUM($P$5:P214)</f>
+        <v>8044486.0100000007</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="47"/>
+        <v>1.2032622704709179</v>
+      </c>
+    </row>
+    <row r="215" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F215" s="20">
         <v>210</v>
       </c>
@@ -19345,8 +20858,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="216" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L215" s="2">
+        <v>210</v>
+      </c>
+      <c r="M215" s="1">
+        <f t="shared" si="45"/>
+        <v>11477500</v>
+      </c>
+      <c r="N215">
+        <v>1.02</v>
+      </c>
+      <c r="O215" s="1">
+        <f>SUM($M$5:M215)</f>
+        <v>557535000</v>
+      </c>
+      <c r="P215">
+        <f t="shared" si="46"/>
+        <v>97558.75</v>
+      </c>
+      <c r="Q215">
+        <f>SUM($P$5:P215)</f>
+        <v>8142044.7600000007</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="47"/>
+        <v>1.2127406260477789</v>
+      </c>
+    </row>
+    <row r="216" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F216" s="2">
         <v>211</v>
       </c>
@@ -19366,8 +20905,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="217" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L216" s="2">
+        <v>211</v>
+      </c>
+      <c r="M216" s="1">
+        <f t="shared" si="45"/>
+        <v>11707100</v>
+      </c>
+      <c r="N216">
+        <v>1.02</v>
+      </c>
+      <c r="O216" s="1">
+        <f>SUM($M$5:M216)</f>
+        <v>569242100</v>
+      </c>
+      <c r="P216">
+        <f t="shared" si="46"/>
+        <v>99510.35</v>
+      </c>
+      <c r="Q216">
+        <f>SUM($P$5:P216)</f>
+        <v>8241555.1100000003</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="47"/>
+        <v>1.222178862106865</v>
+      </c>
+    </row>
+    <row r="217" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F217" s="2">
         <v>212</v>
       </c>
@@ -19387,8 +20952,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="218" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L217" s="2">
+        <v>212</v>
+      </c>
+      <c r="M217" s="1">
+        <f t="shared" si="45"/>
+        <v>11941300</v>
+      </c>
+      <c r="N217">
+        <v>1.02</v>
+      </c>
+      <c r="O217" s="1">
+        <f>SUM($M$5:M217)</f>
+        <v>581183400</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="46"/>
+        <v>101501.05</v>
+      </c>
+      <c r="Q217">
+        <f>SUM($P$5:P217)</f>
+        <v>8343056.1600000001</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="47"/>
+        <v>1.2315764275705949</v>
+      </c>
+    </row>
+    <row r="218" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F218" s="2">
         <v>213</v>
       </c>
@@ -19408,8 +20999,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="219" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L218" s="2">
+        <v>213</v>
+      </c>
+      <c r="M218" s="1">
+        <f t="shared" si="45"/>
+        <v>12180200</v>
+      </c>
+      <c r="N218">
+        <v>1.02</v>
+      </c>
+      <c r="O218" s="1">
+        <f>SUM($M$5:M218)</f>
+        <v>593363600</v>
+      </c>
+      <c r="P218">
+        <f t="shared" si="46"/>
+        <v>103531.7</v>
+      </c>
+      <c r="Q218">
+        <f>SUM($P$5:P218)</f>
+        <v>8446587.8599999994</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="47"/>
+        <v>1.2409325553431161</v>
+      </c>
+    </row>
+    <row r="219" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F219" s="2">
         <v>214</v>
       </c>
@@ -19429,8 +21046,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="220" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L219" s="2">
+        <v>214</v>
+      </c>
+      <c r="M219" s="1">
+        <f t="shared" si="45"/>
+        <v>12423900</v>
+      </c>
+      <c r="N219">
+        <v>1.02</v>
+      </c>
+      <c r="O219" s="1">
+        <f>SUM($M$5:M219)</f>
+        <v>605787500</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="46"/>
+        <v>105603.15</v>
+      </c>
+      <c r="Q219">
+        <f>SUM($P$5:P219)</f>
+        <v>8552191.0099999998</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="47"/>
+        <v>1.2502462740025342</v>
+      </c>
+    </row>
+    <row r="220" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F220" s="2">
         <v>215</v>
       </c>
@@ -19450,8 +21093,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="221" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L220" s="2">
+        <v>215</v>
+      </c>
+      <c r="M220" s="1">
+        <f t="shared" si="45"/>
+        <v>12672400</v>
+      </c>
+      <c r="N220">
+        <v>1.02</v>
+      </c>
+      <c r="O220" s="1">
+        <f>SUM($M$5:M220)</f>
+        <v>618459900</v>
+      </c>
+      <c r="P220">
+        <f t="shared" si="46"/>
+        <v>107715.4</v>
+      </c>
+      <c r="Q220">
+        <f>SUM($P$5:P220)</f>
+        <v>8659906.4100000001</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="47"/>
+        <v>1.2595064805504195</v>
+      </c>
+    </row>
+    <row r="221" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F221" s="2">
         <v>216</v>
       </c>
@@ -19471,8 +21140,34 @@
         <f t="shared" si="43"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="222" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L221" s="2">
+        <v>216</v>
+      </c>
+      <c r="M221" s="1">
+        <f t="shared" si="45"/>
+        <v>12925900</v>
+      </c>
+      <c r="N221">
+        <v>1.02</v>
+      </c>
+      <c r="O221" s="1">
+        <f>SUM($M$5:M221)</f>
+        <v>631385800</v>
+      </c>
+      <c r="P221">
+        <f t="shared" si="46"/>
+        <v>109870.15</v>
+      </c>
+      <c r="Q221">
+        <f>SUM($P$5:P221)</f>
+        <v>8769776.5600000005</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="47"/>
+        <v>1.2687221408435565</v>
+      </c>
+    </row>
+    <row r="222" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F222" s="2">
         <v>217</v>
       </c>
@@ -19485,15 +21180,41 @@
         <v>64384500</v>
       </c>
       <c r="I222" s="1">
-        <f t="shared" ref="I222:I255" si="45">I221+500+QUOTIENT(F222,15)*500</f>
+        <f t="shared" ref="I222:I255" si="48">I221+500+QUOTIENT(F222,15)*500</f>
         <v>849000</v>
       </c>
       <c r="J222" s="1">
-        <f t="shared" ref="J222:J255" si="46">I222-I221</f>
+        <f t="shared" ref="J222:J255" si="49">I222-I221</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="223" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L222" s="2">
+        <v>217</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="45"/>
+        <v>13184500</v>
+      </c>
+      <c r="N222">
+        <v>1.02</v>
+      </c>
+      <c r="O222" s="1">
+        <f>SUM($M$5:M222)</f>
+        <v>644570300</v>
+      </c>
+      <c r="P222">
+        <f t="shared" si="46"/>
+        <v>112068.25</v>
+      </c>
+      <c r="Q222">
+        <f>SUM($P$5:P222)</f>
+        <v>8881844.8100000005</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="47"/>
+        <v>1.2778917368448894</v>
+      </c>
+    </row>
+    <row r="223" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F223" s="2">
         <v>218</v>
       </c>
@@ -19506,15 +21227,41 @@
         <v>65241000</v>
       </c>
       <c r="I223" s="1">
+        <f t="shared" si="48"/>
+        <v>856500</v>
+      </c>
+      <c r="J223" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L223" s="2">
+        <v>218</v>
+      </c>
+      <c r="M223" s="1">
         <f t="shared" si="45"/>
-        <v>856500</v>
-      </c>
-      <c r="J223" s="1">
+        <v>13448200</v>
+      </c>
+      <c r="N223">
+        <v>1.02</v>
+      </c>
+      <c r="O223" s="1">
+        <f>SUM($M$5:M223)</f>
+        <v>658018500</v>
+      </c>
+      <c r="P223">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="224" spans="6:15" x14ac:dyDescent="0.3">
+        <v>114309.7</v>
+      </c>
+      <c r="Q223">
+        <f>SUM($P$5:P223)</f>
+        <v>8996154.5099999998</v>
+      </c>
+      <c r="R223">
+        <f t="shared" si="47"/>
+        <v>1.2870040227599884</v>
+      </c>
+    </row>
+    <row r="224" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F224" s="2">
         <v>219</v>
       </c>
@@ -19527,15 +21274,41 @@
         <v>66105000</v>
       </c>
       <c r="I224" s="1">
+        <f t="shared" si="48"/>
+        <v>864000</v>
+      </c>
+      <c r="J224" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L224" s="2">
+        <v>219</v>
+      </c>
+      <c r="M224" s="1">
         <f t="shared" si="45"/>
-        <v>864000</v>
-      </c>
-      <c r="J224" s="1">
+        <v>13717200</v>
+      </c>
+      <c r="N224">
+        <v>1.02</v>
+      </c>
+      <c r="O224" s="1">
+        <f>SUM($M$5:M224)</f>
+        <v>671735700</v>
+      </c>
+      <c r="P224">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="225" spans="6:10" x14ac:dyDescent="0.3">
+        <v>116596.2</v>
+      </c>
+      <c r="Q224">
+        <f>SUM($P$5:P224)</f>
+        <v>9112750.709999999</v>
+      </c>
+      <c r="R224">
+        <f t="shared" si="47"/>
+        <v>1.2960671125689598</v>
+      </c>
+    </row>
+    <row r="225" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F225" s="2">
         <v>220</v>
       </c>
@@ -19548,15 +21321,41 @@
         <v>66976500</v>
       </c>
       <c r="I225" s="1">
+        <f t="shared" si="48"/>
+        <v>871500</v>
+      </c>
+      <c r="J225" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L225" s="2">
+        <v>220</v>
+      </c>
+      <c r="M225" s="1">
         <f t="shared" si="45"/>
-        <v>871500</v>
-      </c>
-      <c r="J225" s="1">
+        <v>13991600</v>
+      </c>
+      <c r="N225">
+        <v>1.02</v>
+      </c>
+      <c r="O225" s="1">
+        <f>SUM($M$5:M225)</f>
+        <v>685727300</v>
+      </c>
+      <c r="P225">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="226" spans="6:10" x14ac:dyDescent="0.3">
+        <v>118928.6</v>
+      </c>
+      <c r="Q225">
+        <f>SUM($P$5:P225)</f>
+        <v>9231679.3099999987</v>
+      </c>
+      <c r="R225">
+        <f t="shared" si="47"/>
+        <v>1.3050790456661097</v>
+      </c>
+    </row>
+    <row r="226" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F226" s="2">
         <v>221</v>
       </c>
@@ -19569,15 +21368,41 @@
         <v>67855500</v>
       </c>
       <c r="I226" s="1">
+        <f t="shared" si="48"/>
+        <v>879000</v>
+      </c>
+      <c r="J226" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L226" s="2">
+        <v>221</v>
+      </c>
+      <c r="M226" s="1">
         <f t="shared" si="45"/>
-        <v>879000</v>
-      </c>
-      <c r="J226" s="1">
+        <v>14271500</v>
+      </c>
+      <c r="N226">
+        <v>1.02</v>
+      </c>
+      <c r="O226" s="1">
+        <f>SUM($M$5:M226)</f>
+        <v>699998800</v>
+      </c>
+      <c r="P226">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="227" spans="6:10" x14ac:dyDescent="0.3">
+        <v>121307.75</v>
+      </c>
+      <c r="Q226">
+        <f>SUM($P$5:P226)</f>
+        <v>9352987.0599999987</v>
+      </c>
+      <c r="R226">
+        <f t="shared" si="47"/>
+        <v>1.3140377381674886</v>
+      </c>
+    </row>
+    <row r="227" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F227" s="2">
         <v>222</v>
       </c>
@@ -19590,15 +21415,41 @@
         <v>68742000</v>
       </c>
       <c r="I227" s="1">
+        <f t="shared" si="48"/>
+        <v>886500</v>
+      </c>
+      <c r="J227" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L227" s="2">
+        <v>222</v>
+      </c>
+      <c r="M227" s="1">
         <f t="shared" si="45"/>
-        <v>886500</v>
-      </c>
-      <c r="J227" s="1">
+        <v>14557000</v>
+      </c>
+      <c r="N227">
+        <v>1.02</v>
+      </c>
+      <c r="O227" s="1">
+        <f>SUM($M$5:M227)</f>
+        <v>714555800</v>
+      </c>
+      <c r="P227">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="228" spans="6:10" x14ac:dyDescent="0.3">
+        <v>123734.5</v>
+      </c>
+      <c r="Q227">
+        <f>SUM($P$5:P227)</f>
+        <v>9476721.5599999987</v>
+      </c>
+      <c r="R227">
+        <f t="shared" si="47"/>
+        <v>1.3229409942111052</v>
+      </c>
+    </row>
+    <row r="228" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F228" s="2">
         <v>223</v>
       </c>
@@ -19611,15 +21462,41 @@
         <v>69636000</v>
       </c>
       <c r="I228" s="1">
+        <f t="shared" si="48"/>
+        <v>894000</v>
+      </c>
+      <c r="J228" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L228" s="2">
+        <v>223</v>
+      </c>
+      <c r="M228" s="1">
         <f t="shared" si="45"/>
-        <v>894000</v>
-      </c>
-      <c r="J228" s="1">
+        <v>14848200</v>
+      </c>
+      <c r="N228">
+        <v>1.02</v>
+      </c>
+      <c r="O228" s="1">
+        <f>SUM($M$5:M228)</f>
+        <v>729404000</v>
+      </c>
+      <c r="P228">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="229" spans="6:10" x14ac:dyDescent="0.3">
+        <v>126209.7</v>
+      </c>
+      <c r="Q228">
+        <f>SUM($P$5:P228)</f>
+        <v>9602931.2599999979</v>
+      </c>
+      <c r="R228">
+        <f t="shared" si="47"/>
+        <v>1.3317865171085523</v>
+      </c>
+    </row>
+    <row r="229" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F229" s="2">
         <v>224</v>
       </c>
@@ -19632,15 +21509,41 @@
         <v>70537500</v>
       </c>
       <c r="I229" s="1">
+        <f t="shared" si="48"/>
+        <v>901500</v>
+      </c>
+      <c r="J229" s="1">
+        <f t="shared" si="49"/>
+        <v>7500</v>
+      </c>
+      <c r="L229" s="2">
+        <v>224</v>
+      </c>
+      <c r="M229" s="1">
         <f t="shared" si="45"/>
-        <v>901500</v>
-      </c>
-      <c r="J229" s="1">
+        <v>15145200</v>
+      </c>
+      <c r="N229">
+        <v>1.02</v>
+      </c>
+      <c r="O229" s="1">
+        <f>SUM($M$5:M229)</f>
+        <v>744549200</v>
+      </c>
+      <c r="P229">
         <f t="shared" si="46"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="230" spans="6:10" x14ac:dyDescent="0.3">
+        <v>128734.2</v>
+      </c>
+      <c r="Q229">
+        <f>SUM($P$5:P229)</f>
+        <v>9731665.4599999972</v>
+      </c>
+      <c r="R229">
+        <f t="shared" si="47"/>
+        <v>1.340571920328411</v>
+      </c>
+    </row>
+    <row r="230" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F230" s="2">
         <v>225</v>
       </c>
@@ -19653,15 +21556,41 @@
         <v>71447000</v>
       </c>
       <c r="I230" s="1">
+        <f t="shared" si="48"/>
+        <v>909500</v>
+      </c>
+      <c r="J230" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L230" s="2">
+        <v>225</v>
+      </c>
+      <c r="M230" s="1">
         <f t="shared" si="45"/>
-        <v>909500</v>
-      </c>
-      <c r="J230" s="1">
+        <v>15448200</v>
+      </c>
+      <c r="N230">
+        <v>1.02</v>
+      </c>
+      <c r="O230" s="1">
+        <f>SUM($M$5:M230)</f>
+        <v>759997400</v>
+      </c>
+      <c r="P230">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="231" spans="6:10" x14ac:dyDescent="0.3">
+        <v>131309.70000000001</v>
+      </c>
+      <c r="Q230">
+        <f>SUM($P$5:P230)</f>
+        <v>9862975.1599999964</v>
+      </c>
+      <c r="R230">
+        <f t="shared" si="47"/>
+        <v>1.3493034726658113</v>
+      </c>
+    </row>
+    <row r="231" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F231" s="2">
         <v>226</v>
       </c>
@@ -19674,15 +21603,41 @@
         <v>72364500</v>
       </c>
       <c r="I231" s="1">
+        <f t="shared" si="48"/>
+        <v>917500</v>
+      </c>
+      <c r="J231" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L231" s="2">
+        <v>226</v>
+      </c>
+      <c r="M231" s="1">
         <f t="shared" si="45"/>
-        <v>917500</v>
-      </c>
-      <c r="J231" s="1">
+        <v>15757200</v>
+      </c>
+      <c r="N231">
+        <v>1.02</v>
+      </c>
+      <c r="O231" s="1">
+        <f>SUM($M$5:M231)</f>
+        <v>775754600</v>
+      </c>
+      <c r="P231">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="232" spans="6:10" x14ac:dyDescent="0.3">
+        <v>133936.20000000001</v>
+      </c>
+      <c r="Q231">
+        <f>SUM($P$5:P231)</f>
+        <v>9996911.3599999957</v>
+      </c>
+      <c r="R231">
+        <f t="shared" si="47"/>
+        <v>1.3579695561151479</v>
+      </c>
+    </row>
+    <row r="232" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F232" s="2">
         <v>227</v>
       </c>
@@ -19695,15 +21650,41 @@
         <v>73290000</v>
       </c>
       <c r="I232" s="1">
+        <f t="shared" si="48"/>
+        <v>925500</v>
+      </c>
+      <c r="J232" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L232" s="2">
+        <v>227</v>
+      </c>
+      <c r="M232" s="1">
         <f t="shared" si="45"/>
-        <v>925500</v>
-      </c>
-      <c r="J232" s="1">
+        <v>16072400</v>
+      </c>
+      <c r="N232">
+        <v>1.02</v>
+      </c>
+      <c r="O232" s="1">
+        <f>SUM($M$5:M232)</f>
+        <v>791827000</v>
+      </c>
+      <c r="P232">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="233" spans="6:10" x14ac:dyDescent="0.3">
+        <v>136615.4</v>
+      </c>
+      <c r="Q232">
+        <f>SUM($P$5:P232)</f>
+        <v>10133526.759999996</v>
+      </c>
+      <c r="R232">
+        <f t="shared" si="47"/>
+        <v>1.3665760861562788</v>
+      </c>
+    </row>
+    <row r="233" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F233" s="2">
         <v>228</v>
       </c>
@@ -19716,15 +21697,41 @@
         <v>74223500</v>
       </c>
       <c r="I233" s="1">
+        <f t="shared" si="48"/>
+        <v>933500</v>
+      </c>
+      <c r="J233" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L233" s="2">
+        <v>228</v>
+      </c>
+      <c r="M233" s="1">
         <f t="shared" si="45"/>
-        <v>933500</v>
-      </c>
-      <c r="J233" s="1">
+        <v>16393900</v>
+      </c>
+      <c r="N233">
+        <v>1.02</v>
+      </c>
+      <c r="O233" s="1">
+        <f>SUM($M$5:M233)</f>
+        <v>808220900</v>
+      </c>
+      <c r="P233">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="234" spans="6:10" x14ac:dyDescent="0.3">
+        <v>139348.15</v>
+      </c>
+      <c r="Q233">
+        <f>SUM($P$5:P233)</f>
+        <v>10272874.909999996</v>
+      </c>
+      <c r="R233">
+        <f t="shared" si="47"/>
+        <v>1.3751199685981825</v>
+      </c>
+    </row>
+    <row r="234" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F234" s="2">
         <v>229</v>
       </c>
@@ -19737,15 +21744,41 @@
         <v>75165000</v>
       </c>
       <c r="I234" s="1">
+        <f t="shared" si="48"/>
+        <v>941500</v>
+      </c>
+      <c r="J234" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L234" s="2">
+        <v>229</v>
+      </c>
+      <c r="M234" s="1">
         <f t="shared" si="45"/>
-        <v>941500</v>
-      </c>
-      <c r="J234" s="1">
+        <v>16721800</v>
+      </c>
+      <c r="N234">
+        <v>1.02</v>
+      </c>
+      <c r="O234" s="1">
+        <f>SUM($M$5:M234)</f>
+        <v>824942700</v>
+      </c>
+      <c r="P234">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="235" spans="6:10" x14ac:dyDescent="0.3">
+        <v>142135.29999999999</v>
+      </c>
+      <c r="Q234">
+        <f>SUM($P$5:P234)</f>
+        <v>10415010.209999997</v>
+      </c>
+      <c r="R234">
+        <f t="shared" si="47"/>
+        <v>1.3835980798485241</v>
+      </c>
+    </row>
+    <row r="235" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F235" s="2">
         <v>230</v>
       </c>
@@ -19758,15 +21791,41 @@
         <v>76114500</v>
       </c>
       <c r="I235" s="1">
+        <f t="shared" si="48"/>
+        <v>949500</v>
+      </c>
+      <c r="J235" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L235" s="2">
+        <v>230</v>
+      </c>
+      <c r="M235" s="1">
         <f t="shared" si="45"/>
-        <v>949500</v>
-      </c>
-      <c r="J235" s="1">
+        <v>17056300</v>
+      </c>
+      <c r="N235">
+        <v>1.02</v>
+      </c>
+      <c r="O235" s="1">
+        <f>SUM($M$5:M235)</f>
+        <v>841999000</v>
+      </c>
+      <c r="P235">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="236" spans="6:10" x14ac:dyDescent="0.3">
+        <v>144978.54999999999</v>
+      </c>
+      <c r="Q235">
+        <f>SUM($P$5:P235)</f>
+        <v>10559988.759999998</v>
+      </c>
+      <c r="R235">
+        <f t="shared" si="47"/>
+        <v>1.3920154380722474</v>
+      </c>
+    </row>
+    <row r="236" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F236" s="2">
         <v>231</v>
       </c>
@@ -19779,15 +21838,41 @@
         <v>77072000</v>
       </c>
       <c r="I236" s="1">
+        <f t="shared" si="48"/>
+        <v>957500</v>
+      </c>
+      <c r="J236" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L236" s="2">
+        <v>231</v>
+      </c>
+      <c r="M236" s="1">
         <f t="shared" si="45"/>
-        <v>957500</v>
-      </c>
-      <c r="J236" s="1">
+        <v>17397500</v>
+      </c>
+      <c r="N236">
+        <v>1.02</v>
+      </c>
+      <c r="O236" s="1">
+        <f>SUM($M$5:M236)</f>
+        <v>859396500</v>
+      </c>
+      <c r="P236">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="237" spans="6:10" x14ac:dyDescent="0.3">
+        <v>147878.75</v>
+      </c>
+      <c r="Q236">
+        <f>SUM($P$5:P236)</f>
+        <v>10707867.509999998</v>
+      </c>
+      <c r="R236">
+        <f t="shared" si="47"/>
+        <v>1.4003684413012578</v>
+      </c>
+    </row>
+    <row r="237" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F237" s="2">
         <v>232</v>
       </c>
@@ -19800,15 +21885,41 @@
         <v>78037500</v>
       </c>
       <c r="I237" s="1">
+        <f t="shared" si="48"/>
+        <v>965500</v>
+      </c>
+      <c r="J237" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L237" s="2">
+        <v>232</v>
+      </c>
+      <c r="M237" s="1">
         <f t="shared" si="45"/>
-        <v>965500</v>
-      </c>
-      <c r="J237" s="1">
+        <v>17745500</v>
+      </c>
+      <c r="N237">
+        <v>1.02</v>
+      </c>
+      <c r="O237" s="1">
+        <f>SUM($M$5:M237)</f>
+        <v>877142000</v>
+      </c>
+      <c r="P237">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="238" spans="6:10" x14ac:dyDescent="0.3">
+        <v>150836.75</v>
+      </c>
+      <c r="Q237">
+        <f>SUM($P$5:P237)</f>
+        <v>10858704.259999998</v>
+      </c>
+      <c r="R237">
+        <f t="shared" si="47"/>
+        <v>1.4086534957509951</v>
+      </c>
+    </row>
+    <row r="238" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F238" s="2">
         <v>233</v>
       </c>
@@ -19821,15 +21932,41 @@
         <v>79011000</v>
       </c>
       <c r="I238" s="1">
+        <f t="shared" si="48"/>
+        <v>973500</v>
+      </c>
+      <c r="J238" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L238" s="2">
+        <v>233</v>
+      </c>
+      <c r="M238" s="1">
         <f t="shared" si="45"/>
-        <v>973500</v>
-      </c>
-      <c r="J238" s="1">
+        <v>18100500</v>
+      </c>
+      <c r="N238">
+        <v>1.02</v>
+      </c>
+      <c r="O238" s="1">
+        <f>SUM($M$5:M238)</f>
+        <v>895242500</v>
+      </c>
+      <c r="P238">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="239" spans="6:10" x14ac:dyDescent="0.3">
+        <v>153854.25</v>
+      </c>
+      <c r="Q238">
+        <f>SUM($P$5:P238)</f>
+        <v>11012558.509999998</v>
+      </c>
+      <c r="R238">
+        <f t="shared" si="47"/>
+        <v>1.416874852801268</v>
+      </c>
+    </row>
+    <row r="239" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F239" s="2">
         <v>234</v>
       </c>
@@ -19842,15 +21979,41 @@
         <v>79992500</v>
       </c>
       <c r="I239" s="1">
+        <f t="shared" si="48"/>
+        <v>981500</v>
+      </c>
+      <c r="J239" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L239" s="2">
+        <v>234</v>
+      </c>
+      <c r="M239" s="1">
         <f t="shared" si="45"/>
-        <v>981500</v>
-      </c>
-      <c r="J239" s="1">
+        <v>18462600</v>
+      </c>
+      <c r="N239">
+        <v>1.02</v>
+      </c>
+      <c r="O239" s="1">
+        <f>SUM($M$5:M239)</f>
+        <v>913705100</v>
+      </c>
+      <c r="P239">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="240" spans="6:10" x14ac:dyDescent="0.3">
+        <v>156932.1</v>
+      </c>
+      <c r="Q239">
+        <f>SUM($P$5:P239)</f>
+        <v>11169490.609999998</v>
+      </c>
+      <c r="R239">
+        <f t="shared" si="47"/>
+        <v>1.4250285240936227</v>
+      </c>
+    </row>
+    <row r="240" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F240" s="2">
         <v>235</v>
       </c>
@@ -19863,15 +22026,41 @@
         <v>80982000</v>
       </c>
       <c r="I240" s="1">
+        <f t="shared" si="48"/>
+        <v>989500</v>
+      </c>
+      <c r="J240" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L240" s="2">
+        <v>235</v>
+      </c>
+      <c r="M240" s="1">
         <f t="shared" si="45"/>
-        <v>989500</v>
-      </c>
-      <c r="J240" s="1">
+        <v>18831900</v>
+      </c>
+      <c r="N240">
+        <v>1.02</v>
+      </c>
+      <c r="O240" s="1">
+        <f>SUM($M$5:M240)</f>
+        <v>932537000</v>
+      </c>
+      <c r="P240">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="241" spans="6:10" x14ac:dyDescent="0.3">
+        <v>160071.15</v>
+      </c>
+      <c r="Q240">
+        <f>SUM($P$5:P240)</f>
+        <v>11329561.759999998</v>
+      </c>
+      <c r="R240">
+        <f t="shared" si="47"/>
+        <v>1.4331105651021305</v>
+      </c>
+    </row>
+    <row r="241" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F241" s="2">
         <v>236</v>
       </c>
@@ -19884,15 +22073,41 @@
         <v>81979500</v>
       </c>
       <c r="I241" s="1">
+        <f t="shared" si="48"/>
+        <v>997500</v>
+      </c>
+      <c r="J241" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L241" s="2">
+        <v>236</v>
+      </c>
+      <c r="M241" s="1">
         <f t="shared" si="45"/>
-        <v>997500</v>
-      </c>
-      <c r="J241" s="1">
+        <v>19208600</v>
+      </c>
+      <c r="N241">
+        <v>1.02</v>
+      </c>
+      <c r="O241" s="1">
+        <f>SUM($M$5:M241)</f>
+        <v>951745600</v>
+      </c>
+      <c r="P241">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="242" spans="6:10" x14ac:dyDescent="0.3">
+        <v>163273.1</v>
+      </c>
+      <c r="Q241">
+        <f>SUM($P$5:P241)</f>
+        <v>11492834.859999998</v>
+      </c>
+      <c r="R241">
+        <f t="shared" si="47"/>
+        <v>1.441124585916902</v>
+      </c>
+    </row>
+    <row r="242" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F242" s="2">
         <v>237</v>
       </c>
@@ -19905,15 +22120,41 @@
         <v>82985000</v>
       </c>
       <c r="I242" s="1">
+        <f t="shared" si="48"/>
+        <v>1005500</v>
+      </c>
+      <c r="J242" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L242" s="2">
+        <v>237</v>
+      </c>
+      <c r="M242" s="1">
         <f t="shared" si="45"/>
-        <v>1005500</v>
-      </c>
-      <c r="J242" s="1">
+        <v>19592800</v>
+      </c>
+      <c r="N242">
+        <v>1.02</v>
+      </c>
+      <c r="O242" s="1">
+        <f>SUM($M$5:M242)</f>
+        <v>971338400</v>
+      </c>
+      <c r="P242">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="243" spans="6:10" x14ac:dyDescent="0.3">
+        <v>166538.79999999999</v>
+      </c>
+      <c r="Q242">
+        <f>SUM($P$5:P242)</f>
+        <v>11659373.659999998</v>
+      </c>
+      <c r="R242">
+        <f t="shared" si="47"/>
+        <v>1.4490663272264297</v>
+      </c>
+    </row>
+    <row r="243" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F243" s="2">
         <v>238</v>
       </c>
@@ -19926,15 +22167,41 @@
         <v>83998500</v>
       </c>
       <c r="I243" s="1">
+        <f t="shared" si="48"/>
+        <v>1013500</v>
+      </c>
+      <c r="J243" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L243" s="2">
+        <v>238</v>
+      </c>
+      <c r="M243" s="1">
         <f t="shared" si="45"/>
-        <v>1013500</v>
-      </c>
-      <c r="J243" s="1">
+        <v>19984700</v>
+      </c>
+      <c r="N243">
+        <v>1.02</v>
+      </c>
+      <c r="O243" s="1">
+        <f>SUM($M$5:M243)</f>
+        <v>991323100</v>
+      </c>
+      <c r="P243">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="244" spans="6:10" x14ac:dyDescent="0.3">
+        <v>169869.95</v>
+      </c>
+      <c r="Q243">
+        <f>SUM($P$5:P243)</f>
+        <v>11829243.609999998</v>
+      </c>
+      <c r="R243">
+        <f t="shared" si="47"/>
+        <v>1.4569388970076054</v>
+      </c>
+    </row>
+    <row r="244" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F244" s="2">
         <v>239</v>
       </c>
@@ -19947,15 +22214,41 @@
         <v>85020000</v>
       </c>
       <c r="I244" s="1">
+        <f t="shared" si="48"/>
+        <v>1021500</v>
+      </c>
+      <c r="J244" s="1">
+        <f t="shared" si="49"/>
+        <v>8000</v>
+      </c>
+      <c r="L244" s="2">
+        <v>239</v>
+      </c>
+      <c r="M244" s="1">
         <f t="shared" si="45"/>
-        <v>1021500</v>
-      </c>
-      <c r="J244" s="1">
+        <v>20384400</v>
+      </c>
+      <c r="N244">
+        <v>1.02</v>
+      </c>
+      <c r="O244" s="1">
+        <f>SUM($M$5:M244)</f>
+        <v>1011707500</v>
+      </c>
+      <c r="P244">
         <f t="shared" si="46"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="245" spans="6:10" x14ac:dyDescent="0.3">
+        <v>173267.4</v>
+      </c>
+      <c r="Q244">
+        <f>SUM($P$5:P244)</f>
+        <v>12002511.009999998</v>
+      </c>
+      <c r="R244">
+        <f t="shared" si="47"/>
+        <v>1.4647377779381145</v>
+      </c>
+    </row>
+    <row r="245" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F245" s="2">
         <v>240</v>
       </c>
@@ -19968,15 +22261,41 @@
         <v>86050000</v>
       </c>
       <c r="I245" s="1">
+        <f t="shared" si="48"/>
+        <v>1030000</v>
+      </c>
+      <c r="J245" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L245" s="2">
+        <v>240</v>
+      </c>
+      <c r="M245" s="1">
         <f t="shared" si="45"/>
-        <v>1030000</v>
-      </c>
-      <c r="J245" s="1">
+        <v>20792100</v>
+      </c>
+      <c r="N245">
+        <v>1.02</v>
+      </c>
+      <c r="O245" s="1">
+        <f>SUM($M$5:M245)</f>
+        <v>1032499600</v>
+      </c>
+      <c r="P245">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="246" spans="6:10" x14ac:dyDescent="0.3">
+        <v>176732.85</v>
+      </c>
+      <c r="Q245">
+        <f>SUM($P$5:P245)</f>
+        <v>12179243.859999998</v>
+      </c>
+      <c r="R245">
+        <f t="shared" si="47"/>
+        <v>1.4724656353387477</v>
+      </c>
+    </row>
+    <row r="246" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F246" s="2">
         <v>241</v>
       </c>
@@ -19989,15 +22308,41 @@
         <v>87088500</v>
       </c>
       <c r="I246" s="1">
+        <f t="shared" si="48"/>
+        <v>1038500</v>
+      </c>
+      <c r="J246" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L246" s="2">
+        <v>241</v>
+      </c>
+      <c r="M246" s="1">
         <f t="shared" si="45"/>
-        <v>1038500</v>
-      </c>
-      <c r="J246" s="1">
+        <v>21208000</v>
+      </c>
+      <c r="N246">
+        <v>1.02</v>
+      </c>
+      <c r="O246" s="1">
+        <f>SUM($M$5:M246)</f>
+        <v>1053707600</v>
+      </c>
+      <c r="P246">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="247" spans="6:10" x14ac:dyDescent="0.3">
+        <v>180268</v>
+      </c>
+      <c r="Q246">
+        <f>SUM($P$5:P246)</f>
+        <v>12359511.859999998</v>
+      </c>
+      <c r="R246">
+        <f t="shared" si="47"/>
+        <v>1.4801247275460994</v>
+      </c>
+    </row>
+    <row r="247" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F247" s="2">
         <v>242</v>
       </c>
@@ -20010,15 +22355,41 @@
         <v>88135500</v>
       </c>
       <c r="I247" s="1">
+        <f t="shared" si="48"/>
+        <v>1047000</v>
+      </c>
+      <c r="J247" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L247" s="2">
+        <v>242</v>
+      </c>
+      <c r="M247" s="1">
         <f t="shared" si="45"/>
-        <v>1047000</v>
-      </c>
-      <c r="J247" s="1">
+        <v>21632200</v>
+      </c>
+      <c r="N247">
+        <v>1.02</v>
+      </c>
+      <c r="O247" s="1">
+        <f>SUM($M$5:M247)</f>
+        <v>1075339800</v>
+      </c>
+      <c r="P247">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="248" spans="6:10" x14ac:dyDescent="0.3">
+        <v>183873.7</v>
+      </c>
+      <c r="Q247">
+        <f>SUM($P$5:P247)</f>
+        <v>12543385.559999997</v>
+      </c>
+      <c r="R247">
+        <f t="shared" si="47"/>
+        <v>1.4877100494161368</v>
+      </c>
+    </row>
+    <row r="248" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F248" s="2">
         <v>243</v>
       </c>
@@ -20031,15 +22402,41 @@
         <v>89191000</v>
       </c>
       <c r="I248" s="1">
+        <f t="shared" si="48"/>
+        <v>1055500</v>
+      </c>
+      <c r="J248" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L248" s="2">
+        <v>243</v>
+      </c>
+      <c r="M248" s="1">
         <f t="shared" si="45"/>
-        <v>1055500</v>
-      </c>
-      <c r="J248" s="1">
+        <v>22064900</v>
+      </c>
+      <c r="N248">
+        <v>1.02</v>
+      </c>
+      <c r="O248" s="1">
+        <f>SUM($M$5:M248)</f>
+        <v>1097404700</v>
+      </c>
+      <c r="P248">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="249" spans="6:10" x14ac:dyDescent="0.3">
+        <v>187551.65</v>
+      </c>
+      <c r="Q248">
+        <f>SUM($P$5:P248)</f>
+        <v>12730937.209999997</v>
+      </c>
+      <c r="R248">
+        <f t="shared" si="47"/>
+        <v>1.4952235112511396</v>
+      </c>
+    </row>
+    <row r="249" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F249" s="2">
         <v>244</v>
       </c>
@@ -20052,15 +22449,41 @@
         <v>90255000</v>
       </c>
       <c r="I249" s="1">
+        <f t="shared" si="48"/>
+        <v>1064000</v>
+      </c>
+      <c r="J249" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L249" s="2">
+        <v>244</v>
+      </c>
+      <c r="M249" s="1">
         <f t="shared" si="45"/>
-        <v>1064000</v>
-      </c>
-      <c r="J249" s="1">
+        <v>22506200</v>
+      </c>
+      <c r="N249">
+        <v>1.02</v>
+      </c>
+      <c r="O249" s="1">
+        <f>SUM($M$5:M249)</f>
+        <v>1119910900</v>
+      </c>
+      <c r="P249">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="250" spans="6:10" x14ac:dyDescent="0.3">
+        <v>191302.7</v>
+      </c>
+      <c r="Q249">
+        <f>SUM($P$5:P249)</f>
+        <v>12922239.909999996</v>
+      </c>
+      <c r="R249">
+        <f t="shared" si="47"/>
+        <v>1.5026599915184036</v>
+      </c>
+    </row>
+    <row r="250" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F250" s="2">
         <v>245</v>
       </c>
@@ -20073,15 +22496,41 @@
         <v>91327500</v>
       </c>
       <c r="I250" s="1">
+        <f t="shared" si="48"/>
+        <v>1072500</v>
+      </c>
+      <c r="J250" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L250" s="2">
+        <v>245</v>
+      </c>
+      <c r="M250" s="1">
         <f t="shared" si="45"/>
-        <v>1072500</v>
-      </c>
-      <c r="J250" s="1">
+        <v>22956400</v>
+      </c>
+      <c r="N250">
+        <v>1.02</v>
+      </c>
+      <c r="O250" s="1">
+        <f>SUM($M$5:M250)</f>
+        <v>1142867300</v>
+      </c>
+      <c r="P250">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="251" spans="6:10" x14ac:dyDescent="0.3">
+        <v>195129.4</v>
+      </c>
+      <c r="Q250">
+        <f>SUM($P$5:P250)</f>
+        <v>13117369.309999997</v>
+      </c>
+      <c r="R250">
+        <f t="shared" si="47"/>
+        <v>1.5100276837376905</v>
+      </c>
+    </row>
+    <row r="251" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F251" s="2">
         <v>246</v>
       </c>
@@ -20094,15 +22543,41 @@
         <v>92408500</v>
       </c>
       <c r="I251" s="1">
+        <f t="shared" si="48"/>
+        <v>1081000</v>
+      </c>
+      <c r="J251" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L251" s="2">
+        <v>246</v>
+      </c>
+      <c r="M251" s="1">
         <f t="shared" si="45"/>
-        <v>1081000</v>
-      </c>
-      <c r="J251" s="1">
+        <v>23415600</v>
+      </c>
+      <c r="N251">
+        <v>1.02</v>
+      </c>
+      <c r="O251" s="1">
+        <f>SUM($M$5:M251)</f>
+        <v>1166282900</v>
+      </c>
+      <c r="P251">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="252" spans="6:10" x14ac:dyDescent="0.3">
+        <v>199032.6</v>
+      </c>
+      <c r="Q251">
+        <f>SUM($P$5:P251)</f>
+        <v>13316401.909999996</v>
+      </c>
+      <c r="R251">
+        <f t="shared" si="47"/>
+        <v>1.517321006188852</v>
+      </c>
+    </row>
+    <row r="252" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F252" s="2">
         <v>247</v>
       </c>
@@ -20115,15 +22590,41 @@
         <v>93498000</v>
       </c>
       <c r="I252" s="1">
+        <f t="shared" si="48"/>
+        <v>1089500</v>
+      </c>
+      <c r="J252" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L252" s="2">
+        <v>247</v>
+      </c>
+      <c r="M252" s="1">
         <f t="shared" si="45"/>
-        <v>1089500</v>
-      </c>
-      <c r="J252" s="1">
+        <v>23884000</v>
+      </c>
+      <c r="N252">
+        <v>1.02</v>
+      </c>
+      <c r="O252" s="1">
+        <f>SUM($M$5:M252)</f>
+        <v>1190166900</v>
+      </c>
+      <c r="P252">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="253" spans="6:10" x14ac:dyDescent="0.3">
+        <v>203014</v>
+      </c>
+      <c r="Q252">
+        <f>SUM($P$5:P252)</f>
+        <v>13519415.909999996</v>
+      </c>
+      <c r="R252">
+        <f t="shared" si="47"/>
+        <v>1.5245409486142496</v>
+      </c>
+    </row>
+    <row r="253" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F253" s="2">
         <v>248</v>
       </c>
@@ -20136,15 +22637,41 @@
         <v>94596000</v>
       </c>
       <c r="I253" s="1">
+        <f t="shared" si="48"/>
+        <v>1098000</v>
+      </c>
+      <c r="J253" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L253" s="2">
+        <v>248</v>
+      </c>
+      <c r="M253" s="1">
         <f t="shared" si="45"/>
-        <v>1098000</v>
-      </c>
-      <c r="J253" s="1">
+        <v>24361700</v>
+      </c>
+      <c r="N253">
+        <v>1.02</v>
+      </c>
+      <c r="O253" s="1">
+        <f>SUM($M$5:M253)</f>
+        <v>1214528600</v>
+      </c>
+      <c r="P253">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="254" spans="6:10" x14ac:dyDescent="0.3">
+        <v>207074.45</v>
+      </c>
+      <c r="Q253">
+        <f>SUM($P$5:P253)</f>
+        <v>13726490.359999996</v>
+      </c>
+      <c r="R253">
+        <f t="shared" si="47"/>
+        <v>1.531681926042612</v>
+      </c>
+    </row>
+    <row r="254" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F254" s="2">
         <v>249</v>
       </c>
@@ -20157,15 +22684,41 @@
         <v>95702500</v>
       </c>
       <c r="I254" s="1">
+        <f t="shared" si="48"/>
+        <v>1106500</v>
+      </c>
+      <c r="J254" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L254" s="2">
+        <v>249</v>
+      </c>
+      <c r="M254" s="1">
         <f t="shared" si="45"/>
-        <v>1106500</v>
-      </c>
-      <c r="J254" s="1">
+        <v>24849000</v>
+      </c>
+      <c r="N254">
+        <v>1.02</v>
+      </c>
+      <c r="O254" s="1">
+        <f>SUM($M$5:M254)</f>
+        <v>1239377600</v>
+      </c>
+      <c r="P254">
         <f t="shared" si="46"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="255" spans="6:10" x14ac:dyDescent="0.3">
+        <v>211216.5</v>
+      </c>
+      <c r="Q254">
+        <f>SUM($P$5:P254)</f>
+        <v>13937706.859999996</v>
+      </c>
+      <c r="R254">
+        <f t="shared" si="47"/>
+        <v>1.5387509440541367</v>
+      </c>
+    </row>
+    <row r="255" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F255" s="2">
         <v>250</v>
       </c>
@@ -20178,12 +22731,38 @@
         <v>96817500</v>
       </c>
       <c r="I255" s="1">
+        <f t="shared" si="48"/>
+        <v>1115000</v>
+      </c>
+      <c r="J255" s="1">
+        <f t="shared" si="49"/>
+        <v>8500</v>
+      </c>
+      <c r="L255" s="2">
+        <v>250</v>
+      </c>
+      <c r="M255" s="1">
         <f t="shared" si="45"/>
-        <v>1115000</v>
-      </c>
-      <c r="J255" s="1">
+        <v>25346000</v>
+      </c>
+      <c r="N255">
+        <v>1.02</v>
+      </c>
+      <c r="O255" s="1">
+        <f>SUM($M$5:M255)</f>
+        <v>1264723600</v>
+      </c>
+      <c r="P255">
         <f t="shared" si="46"/>
-        <v>8500</v>
+        <v>215441</v>
+      </c>
+      <c r="Q255">
+        <f>SUM($P$5:P255)</f>
+        <v>14153147.859999996</v>
+      </c>
+      <c r="R255">
+        <f t="shared" si="47"/>
+        <v>1.5457420805591549</v>
       </c>
     </row>
   </sheetData>
@@ -20203,8 +22782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638257D-541B-42BC-9621-10FB1B767C19}">
   <dimension ref="B1:AC155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Dosul.xlsx
+++ b/Assets/06.Table/Dosul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B2052-C4EA-47AB-9210-9843B3BC0CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9BD4DA-E754-4B43-8670-187A6E6B7ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1440" windowWidth="28800" windowHeight="15435" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dosul" sheetId="2" r:id="rId1"/>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="J194" sqref="J194"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5829,7 +5829,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B252" si="9">B195</f>
+        <f t="shared" ref="B196:B259" si="9">B195</f>
         <v>9031</v>
       </c>
       <c r="C196" s="1">
@@ -5837,7 +5837,7 @@
         <v>8360000</v>
       </c>
       <c r="D196">
-        <f t="shared" ref="D196:D252" si="10">D195</f>
+        <f t="shared" ref="D196:D259" si="10">D195</f>
         <v>60</v>
       </c>
       <c r="E196">
@@ -6069,7 +6069,7 @@
         <v>74980.286600000007</v>
       </c>
       <c r="F205">
-        <f t="shared" ref="F205:F252" si="11">IF(F195=0,0,F195+2)</f>
+        <f t="shared" ref="F205:F268" si="11">IF(F195=0,0,F195+2)</f>
         <v>0</v>
       </c>
     </row>
@@ -7245,25 +7245,1273 @@
       <c r="F252">
         <f t="shared" si="11"/>
         <v>171</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C253" s="1">
+        <f>VLOOKUP(A253,balance!L:R,2,FALSE)</f>
+        <v>25853000</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E253">
+        <f>VLOOKUP(A253,balance!L:R,6,FALSE)/100</f>
+        <v>143728.98359999995</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C254" s="1">
+        <f>VLOOKUP(A254,balance!L:R,2,FALSE)</f>
+        <v>26370100</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E254">
+        <f>VLOOKUP(A254,balance!L:R,6,FALSE)/100</f>
+        <v>145970.44209999996</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C255" s="1">
+        <f>VLOOKUP(A255,balance!L:R,2,FALSE)</f>
+        <v>26897600</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E255">
+        <f>VLOOKUP(A255,balance!L:R,6,FALSE)/100</f>
+        <v>148256.73809999996</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C256" s="1">
+        <f>VLOOKUP(A256,balance!L:R,2,FALSE)</f>
+        <v>27435600</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E256">
+        <f>VLOOKUP(A256,balance!L:R,6,FALSE)/100</f>
+        <v>150588.76409999994</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C257" s="1">
+        <f>VLOOKUP(A257,balance!L:R,2,FALSE)</f>
+        <v>27984400</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E257">
+        <f>VLOOKUP(A257,balance!L:R,6,FALSE)/100</f>
+        <v>152967.43809999994</v>
+      </c>
+      <c r="F257">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C258" s="1">
+        <f>VLOOKUP(A258,balance!L:R,2,FALSE)</f>
+        <v>28544100</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E258">
+        <f>VLOOKUP(A258,balance!L:R,6,FALSE)/100</f>
+        <v>155393.68659999996</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="9"/>
+        <v>9031</v>
+      </c>
+      <c r="C259" s="1">
+        <f>VLOOKUP(A259,balance!L:R,2,FALSE)</f>
+        <v>29115000</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E259">
+        <f>VLOOKUP(A259,balance!L:R,6,FALSE)/100</f>
+        <v>157868.46159999995</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <f t="shared" ref="B260:B306" si="12">B259</f>
+        <v>9031</v>
+      </c>
+      <c r="C260" s="1">
+        <f>VLOOKUP(A260,balance!L:R,2,FALSE)</f>
+        <v>29697300</v>
+      </c>
+      <c r="D260">
+        <f t="shared" ref="D260:D306" si="13">D259</f>
+        <v>60</v>
+      </c>
+      <c r="E260">
+        <f>VLOOKUP(A260,balance!L:R,6,FALSE)/100</f>
+        <v>160392.73209999996</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C261" s="1">
+        <f>VLOOKUP(A261,balance!L:R,2,FALSE)</f>
+        <v>30291300</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E261">
+        <f>VLOOKUP(A261,balance!L:R,6,FALSE)/100</f>
+        <v>162967.49259999997</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C262" s="1">
+        <f>VLOOKUP(A262,balance!L:R,2,FALSE)</f>
+        <v>30897200</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E262">
+        <f>VLOOKUP(A262,balance!L:R,6,FALSE)/100</f>
+        <v>165593.75459999996</v>
+      </c>
+      <c r="F262">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C263" s="1">
+        <f>VLOOKUP(A263,balance!L:R,2,FALSE)</f>
+        <v>31515200</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E263">
+        <f>VLOOKUP(A263,balance!L:R,6,FALSE)/100</f>
+        <v>168272.54659999997</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C264" s="1">
+        <f>VLOOKUP(A264,balance!L:R,2,FALSE)</f>
+        <v>32145600</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E264">
+        <f>VLOOKUP(A264,balance!L:R,6,FALSE)/100</f>
+        <v>171004.92259999999</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C265" s="1">
+        <f>VLOOKUP(A265,balance!L:R,2,FALSE)</f>
+        <v>32788600</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E265">
+        <f>VLOOKUP(A265,balance!L:R,6,FALSE)/100</f>
+        <v>173791.95360000001</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C266" s="1">
+        <f>VLOOKUP(A266,balance!L:R,2,FALSE)</f>
+        <v>33444400</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E266">
+        <f>VLOOKUP(A266,balance!L:R,6,FALSE)/100</f>
+        <v>176634.72759999998</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C267" s="1">
+        <f>VLOOKUP(A267,balance!L:R,2,FALSE)</f>
+        <v>34113300</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E267">
+        <f>VLOOKUP(A267,balance!L:R,6,FALSE)/100</f>
+        <v>179534.35809999998</v>
+      </c>
+      <c r="F267">
+        <f>IF(F257=0,0,F257+2)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C268" s="1">
+        <f>VLOOKUP(A268,balance!L:R,2,FALSE)</f>
+        <v>34795600</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E268">
+        <f>VLOOKUP(A268,balance!L:R,6,FALSE)/100</f>
+        <v>182491.9841</v>
+      </c>
+      <c r="F268">
+        <f>IF(F258=0,0,F258+2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C269" s="1">
+        <f>VLOOKUP(A269,balance!L:R,2,FALSE)</f>
+        <v>35491600</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E269">
+        <f>VLOOKUP(A269,balance!L:R,6,FALSE)/100</f>
+        <v>185508.77010000002</v>
+      </c>
+      <c r="F269">
+        <f t="shared" ref="F269:F306" si="14">IF(F259=0,0,F259+2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C270" s="1">
+        <f>VLOOKUP(A270,balance!L:R,2,FALSE)</f>
+        <v>36201500</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E270">
+        <f>VLOOKUP(A270,balance!L:R,6,FALSE)/100</f>
+        <v>188585.89760000003</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C271" s="1">
+        <f>VLOOKUP(A271,balance!L:R,2,FALSE)</f>
+        <v>36925600</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E271">
+        <f>VLOOKUP(A271,balance!L:R,6,FALSE)/100</f>
+        <v>191724.57360000003</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C272" s="1">
+        <f>VLOOKUP(A272,balance!L:R,2,FALSE)</f>
+        <v>37664200</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E272">
+        <f>VLOOKUP(A272,balance!L:R,6,FALSE)/100</f>
+        <v>194926.03060000003</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C273" s="1">
+        <f>VLOOKUP(A273,balance!L:R,2,FALSE)</f>
+        <v>38417500</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E273">
+        <f>VLOOKUP(A273,balance!L:R,6,FALSE)/100</f>
+        <v>198191.51810000002</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C274" s="1">
+        <f>VLOOKUP(A274,balance!L:R,2,FALSE)</f>
+        <v>39185900</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E274">
+        <f>VLOOKUP(A274,balance!L:R,6,FALSE)/100</f>
+        <v>201522.31960000002</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C275" s="1">
+        <f>VLOOKUP(A275,balance!L:R,2,FALSE)</f>
+        <v>39969700</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E275">
+        <f>VLOOKUP(A275,balance!L:R,6,FALSE)/100</f>
+        <v>204919.74410000001</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C276" s="1">
+        <f>VLOOKUP(A276,balance!L:R,2,FALSE)</f>
+        <v>40769100</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E276">
+        <f>VLOOKUP(A276,balance!L:R,6,FALSE)/100</f>
+        <v>208385.11760000003</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C277" s="1">
+        <f>VLOOKUP(A277,balance!L:R,2,FALSE)</f>
+        <v>41584500</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E277">
+        <f>VLOOKUP(A277,balance!L:R,6,FALSE)/100</f>
+        <v>211919.80010000002</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C278" s="1">
+        <f>VLOOKUP(A278,balance!L:R,2,FALSE)</f>
+        <v>42416200</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E278">
+        <f>VLOOKUP(A278,balance!L:R,6,FALSE)/100</f>
+        <v>215525.1771</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C279" s="1">
+        <f>VLOOKUP(A279,balance!L:R,2,FALSE)</f>
+        <v>43264600</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E279">
+        <f>VLOOKUP(A279,balance!L:R,6,FALSE)/100</f>
+        <v>219202.66810000001</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C280" s="1">
+        <f>VLOOKUP(A280,balance!L:R,2,FALSE)</f>
+        <v>44129900</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E280">
+        <f>VLOOKUP(A280,balance!L:R,6,FALSE)/100</f>
+        <v>222953.7096</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C281" s="1">
+        <f>VLOOKUP(A281,balance!L:R,2,FALSE)</f>
+        <v>45012500</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E281">
+        <f>VLOOKUP(A281,balance!L:R,6,FALSE)/100</f>
+        <v>226779.7721</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C282" s="1">
+        <f>VLOOKUP(A282,balance!L:R,2,FALSE)</f>
+        <v>45912800</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E282">
+        <f>VLOOKUP(A282,balance!L:R,6,FALSE)/100</f>
+        <v>230682.36010000002</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C283" s="1">
+        <f>VLOOKUP(A283,balance!L:R,2,FALSE)</f>
+        <v>46831100</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E283">
+        <f>VLOOKUP(A283,balance!L:R,6,FALSE)/100</f>
+        <v>234663.00360000003</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C284" s="1">
+        <f>VLOOKUP(A284,balance!L:R,2,FALSE)</f>
+        <v>47767800</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E284">
+        <f>VLOOKUP(A284,balance!L:R,6,FALSE)/100</f>
+        <v>238723.26660000003</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C285" s="1">
+        <f>VLOOKUP(A285,balance!L:R,2,FALSE)</f>
+        <v>48723200</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E285">
+        <f>VLOOKUP(A285,balance!L:R,6,FALSE)/100</f>
+        <v>242864.73860000004</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C286" s="1">
+        <f>VLOOKUP(A286,balance!L:R,2,FALSE)</f>
+        <v>49697700</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E286">
+        <f>VLOOKUP(A286,balance!L:R,6,FALSE)/100</f>
+        <v>247089.04310000001</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C287" s="1">
+        <f>VLOOKUP(A287,balance!L:R,2,FALSE)</f>
+        <v>50691700</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E287">
+        <f>VLOOKUP(A287,balance!L:R,6,FALSE)/100</f>
+        <v>251397.83760000003</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C288" s="1">
+        <f>VLOOKUP(A288,balance!L:R,2,FALSE)</f>
+        <v>51705600</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E288">
+        <f>VLOOKUP(A288,balance!L:R,6,FALSE)/100</f>
+        <v>255792.81360000002</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C289" s="1">
+        <f>VLOOKUP(A289,balance!L:R,2,FALSE)</f>
+        <v>52739800</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E289">
+        <f>VLOOKUP(A289,balance!L:R,6,FALSE)/100</f>
+        <v>260275.69660000002</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C290" s="1">
+        <f>VLOOKUP(A290,balance!L:R,2,FALSE)</f>
+        <v>53794600</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E290">
+        <f>VLOOKUP(A290,balance!L:R,6,FALSE)/100</f>
+        <v>264848.23760000005</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C291" s="1">
+        <f>VLOOKUP(A291,balance!L:R,2,FALSE)</f>
+        <v>54870500</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E291">
+        <f>VLOOKUP(A291,balance!L:R,6,FALSE)/100</f>
+        <v>269512.23010000004</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C292" s="1">
+        <f>VLOOKUP(A292,balance!L:R,2,FALSE)</f>
+        <v>55968000</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E292">
+        <f>VLOOKUP(A292,balance!L:R,6,FALSE)/100</f>
+        <v>274269.51010000007</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C293" s="1">
+        <f>VLOOKUP(A293,balance!L:R,2,FALSE)</f>
+        <v>57087400</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E293">
+        <f>VLOOKUP(A293,balance!L:R,6,FALSE)/100</f>
+        <v>279121.93910000002</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C294" s="1">
+        <f>VLOOKUP(A294,balance!L:R,2,FALSE)</f>
+        <v>58229200</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E294">
+        <f>VLOOKUP(A294,balance!L:R,6,FALSE)/100</f>
+        <v>284071.42110000004</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C295" s="1">
+        <f>VLOOKUP(A295,balance!L:R,2,FALSE)</f>
+        <v>59393800</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E295">
+        <f>VLOOKUP(A295,balance!L:R,6,FALSE)/100</f>
+        <v>289119.89410000003</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C296" s="1">
+        <f>VLOOKUP(A296,balance!L:R,2,FALSE)</f>
+        <v>60581700</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E296">
+        <f>VLOOKUP(A296,balance!L:R,6,FALSE)/100</f>
+        <v>294269.33860000002</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C297" s="1">
+        <f>VLOOKUP(A297,balance!L:R,2,FALSE)</f>
+        <v>61793400</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E297">
+        <f>VLOOKUP(A297,balance!L:R,6,FALSE)/100</f>
+        <v>299521.77760000003</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C298" s="1">
+        <f>VLOOKUP(A298,balance!L:R,2,FALSE)</f>
+        <v>63029300</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E298">
+        <f>VLOOKUP(A298,balance!L:R,6,FALSE)/100</f>
+        <v>304879.26810000004</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C299" s="1">
+        <f>VLOOKUP(A299,balance!L:R,2,FALSE)</f>
+        <v>64289900</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E299">
+        <f>VLOOKUP(A299,balance!L:R,6,FALSE)/100</f>
+        <v>310343.90960000001</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C300" s="1">
+        <f>VLOOKUP(A300,balance!L:R,2,FALSE)</f>
+        <v>65575700</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E300">
+        <f>VLOOKUP(A300,balance!L:R,6,FALSE)/100</f>
+        <v>315917.84409999999</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C301" s="1">
+        <f>VLOOKUP(A301,balance!L:R,2,FALSE)</f>
+        <v>66887300</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E301">
+        <f>VLOOKUP(A301,balance!L:R,6,FALSE)/100</f>
+        <v>321603.26459999999</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="12"/>
+        <v>9031</v>
+      </c>
+      <c r="C302" s="1">
+        <f>VLOOKUP(A302,balance!L:R,2,FALSE)</f>
+        <v>68225100</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E302">
+        <f>VLOOKUP(A302,balance!L:R,6,FALSE)/100</f>
+        <v>327402.39810000005</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="14"/>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C253:C1048576" formula="1"/>
+    <ignoredError sqref="C303:C1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
-  <dimension ref="A1:X255"/>
+  <dimension ref="A1:X306"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="M246" sqref="M246"/>
+      <selection pane="topRight" activeCell="O294" sqref="O294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22765,6 +24013,2362 @@
         <v>1.5457420805591549</v>
       </c>
     </row>
+    <row r="256" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F256" s="2">
+        <v>251</v>
+      </c>
+      <c r="G256" s="1">
+        <f t="shared" ref="G256:G268" si="50">I256</f>
+        <v>1123500</v>
+      </c>
+      <c r="H256" s="1">
+        <f>SUM($G$5:G256)</f>
+        <v>97941000</v>
+      </c>
+      <c r="I256" s="1">
+        <f t="shared" ref="I256:I268" si="51">I255+500+QUOTIENT(F256,15)*500</f>
+        <v>1123500</v>
+      </c>
+      <c r="J256" s="1">
+        <f t="shared" ref="J256:J268" si="52">I256-I255</f>
+        <v>8500</v>
+      </c>
+      <c r="L256" s="2">
+        <v>251</v>
+      </c>
+      <c r="M256" s="1">
+        <f t="shared" ref="M256:M305" si="53">ROUNDUP((M255)*N256,-2)</f>
+        <v>25853000</v>
+      </c>
+      <c r="N256">
+        <v>1.02</v>
+      </c>
+      <c r="O256" s="1">
+        <f>SUM($M$5:M256)</f>
+        <v>1290576600</v>
+      </c>
+      <c r="P256">
+        <f t="shared" ref="P256:P305" si="54">IF(L256&lt;=$A$27,ROUNDUP(M256*N256/$B$26,2),IF(L256&lt;=$A$28,ROUNDUP(M256*N256/$B$27,2),IF(L256&lt;=$A$29,ROUNDUP(M256*N256/$B$28,2),IF(L256&lt;=$A$30,ROUNDUP(M256*N256/$B$29,2),IF(L256&lt;=$A$31,ROUNDUP(M256*N256/$B$30,2),ROUNDUP(M256*N256/$B$31,2))))))</f>
+        <v>219750.5</v>
+      </c>
+      <c r="Q256">
+        <f>SUM($P$5:P256)</f>
+        <v>14372898.359999996</v>
+      </c>
+      <c r="R256">
+        <f t="shared" ref="R256:R305" si="55">(Q256-Q255)*100/Q255</f>
+        <v>1.5526616564295546</v>
+      </c>
+    </row>
+    <row r="257" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F257" s="2">
+        <v>252</v>
+      </c>
+      <c r="G257" s="1">
+        <f t="shared" si="50"/>
+        <v>1132000</v>
+      </c>
+      <c r="H257" s="1">
+        <f>SUM($G$5:G257)</f>
+        <v>99073000</v>
+      </c>
+      <c r="I257" s="1">
+        <f t="shared" si="51"/>
+        <v>1132000</v>
+      </c>
+      <c r="J257" s="1">
+        <f t="shared" si="52"/>
+        <v>8500</v>
+      </c>
+      <c r="L257" s="2">
+        <v>252</v>
+      </c>
+      <c r="M257" s="1">
+        <f t="shared" si="53"/>
+        <v>26370100</v>
+      </c>
+      <c r="N257">
+        <v>1.02</v>
+      </c>
+      <c r="O257" s="1">
+        <f>SUM($M$5:M257)</f>
+        <v>1316946700</v>
+      </c>
+      <c r="P257">
+        <f t="shared" si="54"/>
+        <v>224145.85</v>
+      </c>
+      <c r="Q257">
+        <f>SUM($P$5:P257)</f>
+        <v>14597044.209999995</v>
+      </c>
+      <c r="R257">
+        <f t="shared" si="55"/>
+        <v>1.5595034792968485</v>
+      </c>
+    </row>
+    <row r="258" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F258" s="2">
+        <v>253</v>
+      </c>
+      <c r="G258" s="1">
+        <f t="shared" si="50"/>
+        <v>1140500</v>
+      </c>
+      <c r="H258" s="1">
+        <f>SUM($G$5:G258)</f>
+        <v>100213500</v>
+      </c>
+      <c r="I258" s="1">
+        <f t="shared" si="51"/>
+        <v>1140500</v>
+      </c>
+      <c r="J258" s="1">
+        <f t="shared" si="52"/>
+        <v>8500</v>
+      </c>
+      <c r="L258" s="2">
+        <v>253</v>
+      </c>
+      <c r="M258" s="1">
+        <f t="shared" si="53"/>
+        <v>26897600</v>
+      </c>
+      <c r="N258">
+        <v>1.02</v>
+      </c>
+      <c r="O258" s="1">
+        <f>SUM($M$5:M258)</f>
+        <v>1343844300</v>
+      </c>
+      <c r="P258">
+        <f t="shared" si="54"/>
+        <v>228629.6</v>
+      </c>
+      <c r="Q258">
+        <f>SUM($P$5:P258)</f>
+        <v>14825673.809999995</v>
+      </c>
+      <c r="R258">
+        <f t="shared" si="55"/>
+        <v>1.5662732585503329</v>
+      </c>
+    </row>
+    <row r="259" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F259" s="2">
+        <v>254</v>
+      </c>
+      <c r="G259" s="1">
+        <f t="shared" si="50"/>
+        <v>1149000</v>
+      </c>
+      <c r="H259" s="1">
+        <f>SUM($G$5:G259)</f>
+        <v>101362500</v>
+      </c>
+      <c r="I259" s="1">
+        <f t="shared" si="51"/>
+        <v>1149000</v>
+      </c>
+      <c r="J259" s="1">
+        <f t="shared" si="52"/>
+        <v>8500</v>
+      </c>
+      <c r="L259" s="2">
+        <v>254</v>
+      </c>
+      <c r="M259" s="1">
+        <f t="shared" si="53"/>
+        <v>27435600</v>
+      </c>
+      <c r="N259">
+        <v>1.02</v>
+      </c>
+      <c r="O259" s="1">
+        <f>SUM($M$5:M259)</f>
+        <v>1371279900</v>
+      </c>
+      <c r="P259">
+        <f t="shared" si="54"/>
+        <v>233202.6</v>
+      </c>
+      <c r="Q259">
+        <f>SUM($P$5:P259)</f>
+        <v>15058876.409999995</v>
+      </c>
+      <c r="R259">
+        <f t="shared" si="55"/>
+        <v>1.5729645949899642</v>
+      </c>
+    </row>
+    <row r="260" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F260" s="2">
+        <v>255</v>
+      </c>
+      <c r="G260" s="1">
+        <f t="shared" si="50"/>
+        <v>1158000</v>
+      </c>
+      <c r="H260" s="1">
+        <f>SUM($G$5:G260)</f>
+        <v>102520500</v>
+      </c>
+      <c r="I260" s="1">
+        <f t="shared" si="51"/>
+        <v>1158000</v>
+      </c>
+      <c r="J260" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L260" s="2">
+        <v>255</v>
+      </c>
+      <c r="M260" s="1">
+        <f t="shared" si="53"/>
+        <v>27984400</v>
+      </c>
+      <c r="N260">
+        <v>1.02</v>
+      </c>
+      <c r="O260" s="1">
+        <f>SUM($M$5:M260)</f>
+        <v>1399264300</v>
+      </c>
+      <c r="P260">
+        <f t="shared" si="54"/>
+        <v>237867.4</v>
+      </c>
+      <c r="Q260">
+        <f>SUM($P$5:P260)</f>
+        <v>15296743.809999995</v>
+      </c>
+      <c r="R260">
+        <f t="shared" si="55"/>
+        <v>1.5795826562600792</v>
+      </c>
+    </row>
+    <row r="261" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F261" s="2">
+        <v>256</v>
+      </c>
+      <c r="G261" s="1">
+        <f t="shared" si="50"/>
+        <v>1167000</v>
+      </c>
+      <c r="H261" s="1">
+        <f>SUM($G$5:G261)</f>
+        <v>103687500</v>
+      </c>
+      <c r="I261" s="1">
+        <f t="shared" si="51"/>
+        <v>1167000</v>
+      </c>
+      <c r="J261" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L261" s="2">
+        <v>256</v>
+      </c>
+      <c r="M261" s="1">
+        <f t="shared" si="53"/>
+        <v>28544100</v>
+      </c>
+      <c r="N261">
+        <v>1.02</v>
+      </c>
+      <c r="O261" s="1">
+        <f>SUM($M$5:M261)</f>
+        <v>1427808400</v>
+      </c>
+      <c r="P261">
+        <f t="shared" si="54"/>
+        <v>242624.85</v>
+      </c>
+      <c r="Q261">
+        <f>SUM($P$5:P261)</f>
+        <v>15539368.659999995</v>
+      </c>
+      <c r="R261">
+        <f t="shared" si="55"/>
+        <v>1.5861208961438422</v>
+      </c>
+    </row>
+    <row r="262" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F262" s="2">
+        <v>257</v>
+      </c>
+      <c r="G262" s="1">
+        <f t="shared" si="50"/>
+        <v>1176000</v>
+      </c>
+      <c r="H262" s="1">
+        <f>SUM($G$5:G262)</f>
+        <v>104863500</v>
+      </c>
+      <c r="I262" s="1">
+        <f t="shared" si="51"/>
+        <v>1176000</v>
+      </c>
+      <c r="J262" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L262" s="2">
+        <v>257</v>
+      </c>
+      <c r="M262" s="1">
+        <f t="shared" si="53"/>
+        <v>29115000</v>
+      </c>
+      <c r="N262">
+        <v>1.02</v>
+      </c>
+      <c r="O262" s="1">
+        <f>SUM($M$5:M262)</f>
+        <v>1456923400</v>
+      </c>
+      <c r="P262">
+        <f t="shared" si="54"/>
+        <v>247477.5</v>
+      </c>
+      <c r="Q262">
+        <f>SUM($P$5:P262)</f>
+        <v>15786846.159999995</v>
+      </c>
+      <c r="R262">
+        <f t="shared" si="55"/>
+        <v>1.5925840065628514</v>
+      </c>
+    </row>
+    <row r="263" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F263" s="2">
+        <v>258</v>
+      </c>
+      <c r="G263" s="1">
+        <f t="shared" si="50"/>
+        <v>1185000</v>
+      </c>
+      <c r="H263" s="1">
+        <f>SUM($G$5:G263)</f>
+        <v>106048500</v>
+      </c>
+      <c r="I263" s="1">
+        <f t="shared" si="51"/>
+        <v>1185000</v>
+      </c>
+      <c r="J263" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L263" s="2">
+        <v>258</v>
+      </c>
+      <c r="M263" s="1">
+        <f t="shared" si="53"/>
+        <v>29697300</v>
+      </c>
+      <c r="N263">
+        <v>1.02</v>
+      </c>
+      <c r="O263" s="1">
+        <f>SUM($M$5:M263)</f>
+        <v>1486620700</v>
+      </c>
+      <c r="P263">
+        <f t="shared" si="54"/>
+        <v>252427.05</v>
+      </c>
+      <c r="Q263">
+        <f>SUM($P$5:P263)</f>
+        <v>16039273.209999995</v>
+      </c>
+      <c r="R263">
+        <f t="shared" si="55"/>
+        <v>1.5989707345067385</v>
+      </c>
+    </row>
+    <row r="264" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F264" s="2">
+        <v>259</v>
+      </c>
+      <c r="G264" s="1">
+        <f t="shared" si="50"/>
+        <v>1194000</v>
+      </c>
+      <c r="H264" s="1">
+        <f>SUM($G$5:G264)</f>
+        <v>107242500</v>
+      </c>
+      <c r="I264" s="1">
+        <f t="shared" si="51"/>
+        <v>1194000</v>
+      </c>
+      <c r="J264" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L264" s="2">
+        <v>259</v>
+      </c>
+      <c r="M264" s="1">
+        <f t="shared" si="53"/>
+        <v>30291300</v>
+      </c>
+      <c r="N264">
+        <v>1.02</v>
+      </c>
+      <c r="O264" s="1">
+        <f>SUM($M$5:M264)</f>
+        <v>1516912000</v>
+      </c>
+      <c r="P264">
+        <f t="shared" si="54"/>
+        <v>257476.05</v>
+      </c>
+      <c r="Q264">
+        <f>SUM($P$5:P264)</f>
+        <v>16296749.259999996</v>
+      </c>
+      <c r="R264">
+        <f t="shared" si="55"/>
+        <v>1.6052850190211381</v>
+      </c>
+    </row>
+    <row r="265" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F265" s="2">
+        <v>260</v>
+      </c>
+      <c r="G265" s="1">
+        <f t="shared" si="50"/>
+        <v>1203000</v>
+      </c>
+      <c r="H265" s="1">
+        <f>SUM($G$5:G265)</f>
+        <v>108445500</v>
+      </c>
+      <c r="I265" s="1">
+        <f t="shared" si="51"/>
+        <v>1203000</v>
+      </c>
+      <c r="J265" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L265" s="2">
+        <v>260</v>
+      </c>
+      <c r="M265" s="1">
+        <f t="shared" si="53"/>
+        <v>30897200</v>
+      </c>
+      <c r="N265">
+        <v>1.02</v>
+      </c>
+      <c r="O265" s="1">
+        <f>SUM($M$5:M265)</f>
+        <v>1547809200</v>
+      </c>
+      <c r="P265">
+        <f t="shared" si="54"/>
+        <v>262626.2</v>
+      </c>
+      <c r="Q265">
+        <f>SUM($P$5:P265)</f>
+        <v>16559375.459999995</v>
+      </c>
+      <c r="R265">
+        <f t="shared" si="55"/>
+        <v>1.6115250704912627</v>
+      </c>
+    </row>
+    <row r="266" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F266" s="2">
+        <v>261</v>
+      </c>
+      <c r="G266" s="1">
+        <f t="shared" si="50"/>
+        <v>1212000</v>
+      </c>
+      <c r="H266" s="1">
+        <f>SUM($G$5:G266)</f>
+        <v>109657500</v>
+      </c>
+      <c r="I266" s="1">
+        <f t="shared" si="51"/>
+        <v>1212000</v>
+      </c>
+      <c r="J266" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L266" s="2">
+        <v>261</v>
+      </c>
+      <c r="M266" s="1">
+        <f t="shared" si="53"/>
+        <v>31515200</v>
+      </c>
+      <c r="N266">
+        <v>1.02</v>
+      </c>
+      <c r="O266" s="1">
+        <f>SUM($M$5:M266)</f>
+        <v>1579324400</v>
+      </c>
+      <c r="P266">
+        <f t="shared" si="54"/>
+        <v>267879.2</v>
+      </c>
+      <c r="Q266">
+        <f>SUM($P$5:P266)</f>
+        <v>16827254.659999996</v>
+      </c>
+      <c r="R266">
+        <f t="shared" si="55"/>
+        <v>1.6176890284725822</v>
+      </c>
+    </row>
+    <row r="267" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F267" s="2">
+        <v>262</v>
+      </c>
+      <c r="G267" s="1">
+        <f t="shared" si="50"/>
+        <v>1221000</v>
+      </c>
+      <c r="H267" s="1">
+        <f>SUM($G$5:G267)</f>
+        <v>110878500</v>
+      </c>
+      <c r="I267" s="1">
+        <f t="shared" si="51"/>
+        <v>1221000</v>
+      </c>
+      <c r="J267" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L267" s="2">
+        <v>262</v>
+      </c>
+      <c r="M267" s="1">
+        <f t="shared" si="53"/>
+        <v>32145600</v>
+      </c>
+      <c r="N267">
+        <v>1.02</v>
+      </c>
+      <c r="O267" s="1">
+        <f>SUM($M$5:M267)</f>
+        <v>1611470000</v>
+      </c>
+      <c r="P267">
+        <f t="shared" si="54"/>
+        <v>273237.59999999998</v>
+      </c>
+      <c r="Q267">
+        <f>SUM($P$5:P267)</f>
+        <v>17100492.259999998</v>
+      </c>
+      <c r="R267">
+        <f t="shared" si="55"/>
+        <v>1.6237800254459425</v>
+      </c>
+    </row>
+    <row r="268" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F268" s="2">
+        <v>263</v>
+      </c>
+      <c r="G268" s="1">
+        <f t="shared" si="50"/>
+        <v>1230000</v>
+      </c>
+      <c r="H268" s="1">
+        <f>SUM($G$5:G268)</f>
+        <v>112108500</v>
+      </c>
+      <c r="I268" s="1">
+        <f t="shared" si="51"/>
+        <v>1230000</v>
+      </c>
+      <c r="J268" s="1">
+        <f t="shared" si="52"/>
+        <v>9000</v>
+      </c>
+      <c r="L268" s="2">
+        <v>263</v>
+      </c>
+      <c r="M268" s="1">
+        <f t="shared" si="53"/>
+        <v>32788600</v>
+      </c>
+      <c r="N268">
+        <v>1.02</v>
+      </c>
+      <c r="O268" s="1">
+        <f>SUM($M$5:M268)</f>
+        <v>1644258600</v>
+      </c>
+      <c r="P268">
+        <f t="shared" si="54"/>
+        <v>278703.09999999998</v>
+      </c>
+      <c r="Q268">
+        <f>SUM($P$5:P268)</f>
+        <v>17379195.359999999</v>
+      </c>
+      <c r="R268">
+        <f t="shared" si="55"/>
+        <v>1.6297957729083614</v>
+      </c>
+    </row>
+    <row r="269" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F269" s="2">
+        <v>264</v>
+      </c>
+      <c r="G269" s="1">
+        <f t="shared" ref="G269:G298" si="56">I269</f>
+        <v>1239000</v>
+      </c>
+      <c r="H269" s="1">
+        <f>SUM($G$5:G269)</f>
+        <v>113347500</v>
+      </c>
+      <c r="I269" s="1">
+        <f t="shared" ref="I269:I298" si="57">I268+500+QUOTIENT(F269,15)*500</f>
+        <v>1239000</v>
+      </c>
+      <c r="J269" s="1">
+        <f t="shared" ref="J269:J298" si="58">I269-I268</f>
+        <v>9000</v>
+      </c>
+      <c r="L269" s="2">
+        <v>264</v>
+      </c>
+      <c r="M269" s="1">
+        <f t="shared" si="53"/>
+        <v>33444400</v>
+      </c>
+      <c r="N269">
+        <v>1.02</v>
+      </c>
+      <c r="O269" s="1">
+        <f>SUM($M$5:M269)</f>
+        <v>1677703000</v>
+      </c>
+      <c r="P269">
+        <f t="shared" si="54"/>
+        <v>284277.40000000002</v>
+      </c>
+      <c r="Q269">
+        <f>SUM($P$5:P269)</f>
+        <v>17663472.759999998</v>
+      </c>
+      <c r="R269">
+        <f t="shared" si="55"/>
+        <v>1.635733957248056</v>
+      </c>
+    </row>
+    <row r="270" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F270" s="2">
+        <v>265</v>
+      </c>
+      <c r="G270" s="1">
+        <f t="shared" si="56"/>
+        <v>1248000</v>
+      </c>
+      <c r="H270" s="1">
+        <f>SUM($G$5:G270)</f>
+        <v>114595500</v>
+      </c>
+      <c r="I270" s="1">
+        <f t="shared" si="57"/>
+        <v>1248000</v>
+      </c>
+      <c r="J270" s="1">
+        <f t="shared" si="58"/>
+        <v>9000</v>
+      </c>
+      <c r="L270" s="2">
+        <v>265</v>
+      </c>
+      <c r="M270" s="1">
+        <f t="shared" si="53"/>
+        <v>34113300</v>
+      </c>
+      <c r="N270">
+        <v>1.02</v>
+      </c>
+      <c r="O270" s="1">
+        <f>SUM($M$5:M270)</f>
+        <v>1711816300</v>
+      </c>
+      <c r="P270">
+        <f t="shared" si="54"/>
+        <v>289963.05</v>
+      </c>
+      <c r="Q270">
+        <f>SUM($P$5:P270)</f>
+        <v>17953435.809999999</v>
+      </c>
+      <c r="R270">
+        <f t="shared" si="55"/>
+        <v>1.6415970627058094</v>
+      </c>
+    </row>
+    <row r="271" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F271" s="2">
+        <v>266</v>
+      </c>
+      <c r="G271" s="1">
+        <f t="shared" si="56"/>
+        <v>1257000</v>
+      </c>
+      <c r="H271" s="1">
+        <f>SUM($G$5:G271)</f>
+        <v>115852500</v>
+      </c>
+      <c r="I271" s="1">
+        <f t="shared" si="57"/>
+        <v>1257000</v>
+      </c>
+      <c r="J271" s="1">
+        <f t="shared" si="58"/>
+        <v>9000</v>
+      </c>
+      <c r="L271" s="2">
+        <v>266</v>
+      </c>
+      <c r="M271" s="1">
+        <f t="shared" si="53"/>
+        <v>34795600</v>
+      </c>
+      <c r="N271">
+        <v>1.02</v>
+      </c>
+      <c r="O271" s="1">
+        <f>SUM($M$5:M271)</f>
+        <v>1746611900</v>
+      </c>
+      <c r="P271">
+        <f t="shared" si="54"/>
+        <v>295762.59999999998</v>
+      </c>
+      <c r="Q271">
+        <f>SUM($P$5:P271)</f>
+        <v>18249198.41</v>
+      </c>
+      <c r="R271">
+        <f t="shared" si="55"/>
+        <v>1.6473871805376819</v>
+      </c>
+    </row>
+    <row r="272" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F272" s="2">
+        <v>267</v>
+      </c>
+      <c r="G272" s="1">
+        <f t="shared" si="56"/>
+        <v>1266000</v>
+      </c>
+      <c r="H272" s="1">
+        <f>SUM($G$5:G272)</f>
+        <v>117118500</v>
+      </c>
+      <c r="I272" s="1">
+        <f t="shared" si="57"/>
+        <v>1266000</v>
+      </c>
+      <c r="J272" s="1">
+        <f t="shared" si="58"/>
+        <v>9000</v>
+      </c>
+      <c r="L272" s="2">
+        <v>267</v>
+      </c>
+      <c r="M272" s="1">
+        <f t="shared" si="53"/>
+        <v>35491600</v>
+      </c>
+      <c r="N272">
+        <v>1.02</v>
+      </c>
+      <c r="O272" s="1">
+        <f>SUM($M$5:M272)</f>
+        <v>1782103500</v>
+      </c>
+      <c r="P272">
+        <f t="shared" si="54"/>
+        <v>301678.59999999998</v>
+      </c>
+      <c r="Q272">
+        <f>SUM($P$5:P272)</f>
+        <v>18550877.010000002</v>
+      </c>
+      <c r="R272">
+        <f t="shared" si="55"/>
+        <v>1.6531060336035959</v>
+      </c>
+    </row>
+    <row r="273" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F273" s="2">
+        <v>268</v>
+      </c>
+      <c r="G273" s="1">
+        <f t="shared" si="56"/>
+        <v>1275000</v>
+      </c>
+      <c r="H273" s="1">
+        <f>SUM($G$5:G273)</f>
+        <v>118393500</v>
+      </c>
+      <c r="I273" s="1">
+        <f t="shared" si="57"/>
+        <v>1275000</v>
+      </c>
+      <c r="J273" s="1">
+        <f t="shared" si="58"/>
+        <v>9000</v>
+      </c>
+      <c r="L273" s="2">
+        <v>268</v>
+      </c>
+      <c r="M273" s="1">
+        <f t="shared" si="53"/>
+        <v>36201500</v>
+      </c>
+      <c r="N273">
+        <v>1.02</v>
+      </c>
+      <c r="O273" s="1">
+        <f>SUM($M$5:M273)</f>
+        <v>1818305000</v>
+      </c>
+      <c r="P273">
+        <f t="shared" si="54"/>
+        <v>307712.75</v>
+      </c>
+      <c r="Q273">
+        <f>SUM($P$5:P273)</f>
+        <v>18858589.760000002</v>
+      </c>
+      <c r="R273">
+        <f t="shared" si="55"/>
+        <v>1.6587504182908708</v>
+      </c>
+    </row>
+    <row r="274" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F274" s="2">
+        <v>269</v>
+      </c>
+      <c r="G274" s="1">
+        <f t="shared" si="56"/>
+        <v>1284000</v>
+      </c>
+      <c r="H274" s="1">
+        <f>SUM($G$5:G274)</f>
+        <v>119677500</v>
+      </c>
+      <c r="I274" s="1">
+        <f t="shared" si="57"/>
+        <v>1284000</v>
+      </c>
+      <c r="J274" s="1">
+        <f t="shared" si="58"/>
+        <v>9000</v>
+      </c>
+      <c r="L274" s="2">
+        <v>269</v>
+      </c>
+      <c r="M274" s="1">
+        <f t="shared" si="53"/>
+        <v>36925600</v>
+      </c>
+      <c r="N274">
+        <v>1.02</v>
+      </c>
+      <c r="O274" s="1">
+        <f>SUM($M$5:M274)</f>
+        <v>1855230600</v>
+      </c>
+      <c r="P274">
+        <f t="shared" si="54"/>
+        <v>313867.59999999998</v>
+      </c>
+      <c r="Q274">
+        <f>SUM($P$5:P274)</f>
+        <v>19172457.360000003</v>
+      </c>
+      <c r="R274">
+        <f t="shared" si="55"/>
+        <v>1.6643216910403882</v>
+      </c>
+    </row>
+    <row r="275" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F275" s="2">
+        <v>270</v>
+      </c>
+      <c r="G275" s="1">
+        <f t="shared" si="56"/>
+        <v>1293500</v>
+      </c>
+      <c r="H275" s="1">
+        <f>SUM($G$5:G275)</f>
+        <v>120971000</v>
+      </c>
+      <c r="I275" s="1">
+        <f t="shared" si="57"/>
+        <v>1293500</v>
+      </c>
+      <c r="J275" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L275" s="2">
+        <v>270</v>
+      </c>
+      <c r="M275" s="1">
+        <f t="shared" si="53"/>
+        <v>37664200</v>
+      </c>
+      <c r="N275">
+        <v>1.02</v>
+      </c>
+      <c r="O275" s="1">
+        <f>SUM($M$5:M275)</f>
+        <v>1892894800</v>
+      </c>
+      <c r="P275">
+        <f t="shared" si="54"/>
+        <v>320145.7</v>
+      </c>
+      <c r="Q275">
+        <f>SUM($P$5:P275)</f>
+        <v>19492603.060000002</v>
+      </c>
+      <c r="R275">
+        <f t="shared" si="55"/>
+        <v>1.6698208997868347</v>
+      </c>
+    </row>
+    <row r="276" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F276" s="2">
+        <v>271</v>
+      </c>
+      <c r="G276" s="1">
+        <f t="shared" si="56"/>
+        <v>1303000</v>
+      </c>
+      <c r="H276" s="1">
+        <f>SUM($G$5:G276)</f>
+        <v>122274000</v>
+      </c>
+      <c r="I276" s="1">
+        <f t="shared" si="57"/>
+        <v>1303000</v>
+      </c>
+      <c r="J276" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L276" s="2">
+        <v>271</v>
+      </c>
+      <c r="M276" s="1">
+        <f t="shared" si="53"/>
+        <v>38417500</v>
+      </c>
+      <c r="N276">
+        <v>1.02</v>
+      </c>
+      <c r="O276" s="1">
+        <f>SUM($M$5:M276)</f>
+        <v>1931312300</v>
+      </c>
+      <c r="P276">
+        <f t="shared" si="54"/>
+        <v>326548.75</v>
+      </c>
+      <c r="Q276">
+        <f>SUM($P$5:P276)</f>
+        <v>19819151.810000002</v>
+      </c>
+      <c r="R276">
+        <f t="shared" si="55"/>
+        <v>1.6752444452639459</v>
+      </c>
+    </row>
+    <row r="277" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F277" s="2">
+        <v>272</v>
+      </c>
+      <c r="G277" s="1">
+        <f t="shared" si="56"/>
+        <v>1312500</v>
+      </c>
+      <c r="H277" s="1">
+        <f>SUM($G$5:G277)</f>
+        <v>123586500</v>
+      </c>
+      <c r="I277" s="1">
+        <f t="shared" si="57"/>
+        <v>1312500</v>
+      </c>
+      <c r="J277" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L277" s="2">
+        <v>272</v>
+      </c>
+      <c r="M277" s="1">
+        <f t="shared" si="53"/>
+        <v>39185900</v>
+      </c>
+      <c r="N277">
+        <v>1.02</v>
+      </c>
+      <c r="O277" s="1">
+        <f>SUM($M$5:M277)</f>
+        <v>1970498200</v>
+      </c>
+      <c r="P277">
+        <f t="shared" si="54"/>
+        <v>333080.15000000002</v>
+      </c>
+      <c r="Q277">
+        <f>SUM($P$5:P277)</f>
+        <v>20152231.960000001</v>
+      </c>
+      <c r="R277">
+        <f t="shared" si="55"/>
+        <v>1.6805973998944734</v>
+      </c>
+    </row>
+    <row r="278" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F278" s="2">
+        <v>273</v>
+      </c>
+      <c r="G278" s="1">
+        <f t="shared" si="56"/>
+        <v>1322000</v>
+      </c>
+      <c r="H278" s="1">
+        <f>SUM($G$5:G278)</f>
+        <v>124908500</v>
+      </c>
+      <c r="I278" s="1">
+        <f t="shared" si="57"/>
+        <v>1322000</v>
+      </c>
+      <c r="J278" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L278" s="2">
+        <v>273</v>
+      </c>
+      <c r="M278" s="1">
+        <f t="shared" si="53"/>
+        <v>39969700</v>
+      </c>
+      <c r="N278">
+        <v>1.02</v>
+      </c>
+      <c r="O278" s="1">
+        <f>SUM($M$5:M278)</f>
+        <v>2010467900</v>
+      </c>
+      <c r="P278">
+        <f t="shared" si="54"/>
+        <v>339742.45</v>
+      </c>
+      <c r="Q278">
+        <f>SUM($P$5:P278)</f>
+        <v>20491974.41</v>
+      </c>
+      <c r="R278">
+        <f t="shared" si="55"/>
+        <v>1.6858800090945323</v>
+      </c>
+    </row>
+    <row r="279" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F279" s="2">
+        <v>274</v>
+      </c>
+      <c r="G279" s="1">
+        <f t="shared" si="56"/>
+        <v>1331500</v>
+      </c>
+      <c r="H279" s="1">
+        <f>SUM($G$5:G279)</f>
+        <v>126240000</v>
+      </c>
+      <c r="I279" s="1">
+        <f t="shared" si="57"/>
+        <v>1331500</v>
+      </c>
+      <c r="J279" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L279" s="2">
+        <v>274</v>
+      </c>
+      <c r="M279" s="1">
+        <f t="shared" si="53"/>
+        <v>40769100</v>
+      </c>
+      <c r="N279">
+        <v>1.02</v>
+      </c>
+      <c r="O279" s="1">
+        <f>SUM($M$5:M279)</f>
+        <v>2051237000</v>
+      </c>
+      <c r="P279">
+        <f t="shared" si="54"/>
+        <v>346537.35</v>
+      </c>
+      <c r="Q279">
+        <f>SUM($P$5:P279)</f>
+        <v>20838511.760000002</v>
+      </c>
+      <c r="R279">
+        <f t="shared" si="55"/>
+        <v>1.691088145371159</v>
+      </c>
+    </row>
+    <row r="280" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F280" s="2">
+        <v>275</v>
+      </c>
+      <c r="G280" s="1">
+        <f t="shared" si="56"/>
+        <v>1341000</v>
+      </c>
+      <c r="H280" s="1">
+        <f>SUM($G$5:G280)</f>
+        <v>127581000</v>
+      </c>
+      <c r="I280" s="1">
+        <f t="shared" si="57"/>
+        <v>1341000</v>
+      </c>
+      <c r="J280" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L280" s="2">
+        <v>275</v>
+      </c>
+      <c r="M280" s="1">
+        <f t="shared" si="53"/>
+        <v>41584500</v>
+      </c>
+      <c r="N280">
+        <v>1.02</v>
+      </c>
+      <c r="O280" s="1">
+        <f>SUM($M$5:M280)</f>
+        <v>2092821500</v>
+      </c>
+      <c r="P280">
+        <f t="shared" si="54"/>
+        <v>353468.25</v>
+      </c>
+      <c r="Q280">
+        <f>SUM($P$5:P280)</f>
+        <v>21191980.010000002</v>
+      </c>
+      <c r="R280">
+        <f t="shared" si="55"/>
+        <v>1.6962259784716986</v>
+      </c>
+    </row>
+    <row r="281" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F281" s="2">
+        <v>276</v>
+      </c>
+      <c r="G281" s="1">
+        <f t="shared" si="56"/>
+        <v>1350500</v>
+      </c>
+      <c r="H281" s="1">
+        <f>SUM($G$5:G281)</f>
+        <v>128931500</v>
+      </c>
+      <c r="I281" s="1">
+        <f t="shared" si="57"/>
+        <v>1350500</v>
+      </c>
+      <c r="J281" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L281" s="2">
+        <v>276</v>
+      </c>
+      <c r="M281" s="1">
+        <f t="shared" si="53"/>
+        <v>42416200</v>
+      </c>
+      <c r="N281">
+        <v>1.02</v>
+      </c>
+      <c r="O281" s="1">
+        <f>SUM($M$5:M281)</f>
+        <v>2135237700</v>
+      </c>
+      <c r="P281">
+        <f t="shared" si="54"/>
+        <v>360537.7</v>
+      </c>
+      <c r="Q281">
+        <f>SUM($P$5:P281)</f>
+        <v>21552517.710000001</v>
+      </c>
+      <c r="R281">
+        <f t="shared" si="55"/>
+        <v>1.7012931299004148</v>
+      </c>
+    </row>
+    <row r="282" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F282" s="2">
+        <v>277</v>
+      </c>
+      <c r="G282" s="1">
+        <f t="shared" si="56"/>
+        <v>1360000</v>
+      </c>
+      <c r="H282" s="1">
+        <f>SUM($G$5:G282)</f>
+        <v>130291500</v>
+      </c>
+      <c r="I282" s="1">
+        <f t="shared" si="57"/>
+        <v>1360000</v>
+      </c>
+      <c r="J282" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L282" s="2">
+        <v>277</v>
+      </c>
+      <c r="M282" s="1">
+        <f t="shared" si="53"/>
+        <v>43264600</v>
+      </c>
+      <c r="N282">
+        <v>1.02</v>
+      </c>
+      <c r="O282" s="1">
+        <f>SUM($M$5:M282)</f>
+        <v>2178502300</v>
+      </c>
+      <c r="P282">
+        <f t="shared" si="54"/>
+        <v>367749.1</v>
+      </c>
+      <c r="Q282">
+        <f>SUM($P$5:P282)</f>
+        <v>21920266.810000002</v>
+      </c>
+      <c r="R282">
+        <f t="shared" si="55"/>
+        <v>1.7062929953161443</v>
+      </c>
+    </row>
+    <row r="283" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F283" s="2">
+        <v>278</v>
+      </c>
+      <c r="G283" s="1">
+        <f t="shared" si="56"/>
+        <v>1369500</v>
+      </c>
+      <c r="H283" s="1">
+        <f>SUM($G$5:G283)</f>
+        <v>131661000</v>
+      </c>
+      <c r="I283" s="1">
+        <f t="shared" si="57"/>
+        <v>1369500</v>
+      </c>
+      <c r="J283" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L283" s="2">
+        <v>278</v>
+      </c>
+      <c r="M283" s="1">
+        <f t="shared" si="53"/>
+        <v>44129900</v>
+      </c>
+      <c r="N283">
+        <v>1.02</v>
+      </c>
+      <c r="O283" s="1">
+        <f>SUM($M$5:M283)</f>
+        <v>2222632200</v>
+      </c>
+      <c r="P283">
+        <f t="shared" si="54"/>
+        <v>375104.15</v>
+      </c>
+      <c r="Q283">
+        <f>SUM($P$5:P283)</f>
+        <v>22295370.960000001</v>
+      </c>
+      <c r="R283">
+        <f t="shared" si="55"/>
+        <v>1.7112207312589662</v>
+      </c>
+    </row>
+    <row r="284" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F284" s="2">
+        <v>279</v>
+      </c>
+      <c r="G284" s="1">
+        <f t="shared" si="56"/>
+        <v>1379000</v>
+      </c>
+      <c r="H284" s="1">
+        <f>SUM($G$5:G284)</f>
+        <v>133040000</v>
+      </c>
+      <c r="I284" s="1">
+        <f t="shared" si="57"/>
+        <v>1379000</v>
+      </c>
+      <c r="J284" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L284" s="2">
+        <v>279</v>
+      </c>
+      <c r="M284" s="1">
+        <f t="shared" si="53"/>
+        <v>45012500</v>
+      </c>
+      <c r="N284">
+        <v>1.02</v>
+      </c>
+      <c r="O284" s="1">
+        <f>SUM($M$5:M284)</f>
+        <v>2267644700</v>
+      </c>
+      <c r="P284">
+        <f t="shared" si="54"/>
+        <v>382606.25</v>
+      </c>
+      <c r="Q284">
+        <f>SUM($P$5:P284)</f>
+        <v>22677977.210000001</v>
+      </c>
+      <c r="R284">
+        <f t="shared" si="55"/>
+        <v>1.7160793183770375</v>
+      </c>
+    </row>
+    <row r="285" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F285" s="2">
+        <v>280</v>
+      </c>
+      <c r="G285" s="1">
+        <f t="shared" si="56"/>
+        <v>1388500</v>
+      </c>
+      <c r="H285" s="1">
+        <f>SUM($G$5:G285)</f>
+        <v>134428500</v>
+      </c>
+      <c r="I285" s="1">
+        <f t="shared" si="57"/>
+        <v>1388500</v>
+      </c>
+      <c r="J285" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L285" s="2">
+        <v>280</v>
+      </c>
+      <c r="M285" s="1">
+        <f t="shared" si="53"/>
+        <v>45912800</v>
+      </c>
+      <c r="N285">
+        <v>1.02</v>
+      </c>
+      <c r="O285" s="1">
+        <f>SUM($M$5:M285)</f>
+        <v>2313557500</v>
+      </c>
+      <c r="P285">
+        <f t="shared" si="54"/>
+        <v>390258.8</v>
+      </c>
+      <c r="Q285">
+        <f>SUM($P$5:P285)</f>
+        <v>23068236.010000002</v>
+      </c>
+      <c r="R285">
+        <f t="shared" si="55"/>
+        <v>1.7208712945875684</v>
+      </c>
+    </row>
+    <row r="286" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F286" s="2">
+        <v>281</v>
+      </c>
+      <c r="G286" s="1">
+        <f t="shared" si="56"/>
+        <v>1398000</v>
+      </c>
+      <c r="H286" s="1">
+        <f>SUM($G$5:G286)</f>
+        <v>135826500</v>
+      </c>
+      <c r="I286" s="1">
+        <f t="shared" si="57"/>
+        <v>1398000</v>
+      </c>
+      <c r="J286" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L286" s="2">
+        <v>281</v>
+      </c>
+      <c r="M286" s="1">
+        <f t="shared" si="53"/>
+        <v>46831100</v>
+      </c>
+      <c r="N286">
+        <v>1.02</v>
+      </c>
+      <c r="O286" s="1">
+        <f>SUM($M$5:M286)</f>
+        <v>2360388600</v>
+      </c>
+      <c r="P286">
+        <f t="shared" si="54"/>
+        <v>398064.35</v>
+      </c>
+      <c r="Q286">
+        <f>SUM($P$5:P286)</f>
+        <v>23466300.360000003</v>
+      </c>
+      <c r="R286">
+        <f t="shared" si="55"/>
+        <v>1.7255950989379594</v>
+      </c>
+    </row>
+    <row r="287" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F287" s="2">
+        <v>282</v>
+      </c>
+      <c r="G287" s="1">
+        <f t="shared" si="56"/>
+        <v>1407500</v>
+      </c>
+      <c r="H287" s="1">
+        <f>SUM($G$5:G287)</f>
+        <v>137234000</v>
+      </c>
+      <c r="I287" s="1">
+        <f t="shared" si="57"/>
+        <v>1407500</v>
+      </c>
+      <c r="J287" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L287" s="2">
+        <v>282</v>
+      </c>
+      <c r="M287" s="1">
+        <f t="shared" si="53"/>
+        <v>47767800</v>
+      </c>
+      <c r="N287">
+        <v>1.02</v>
+      </c>
+      <c r="O287" s="1">
+        <f>SUM($M$5:M287)</f>
+        <v>2408156400</v>
+      </c>
+      <c r="P287">
+        <f t="shared" si="54"/>
+        <v>406026.3</v>
+      </c>
+      <c r="Q287">
+        <f>SUM($P$5:P287)</f>
+        <v>23872326.660000004</v>
+      </c>
+      <c r="R287">
+        <f t="shared" si="55"/>
+        <v>1.7302527188823587</v>
+      </c>
+    </row>
+    <row r="288" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F288" s="2">
+        <v>283</v>
+      </c>
+      <c r="G288" s="1">
+        <f t="shared" si="56"/>
+        <v>1417000</v>
+      </c>
+      <c r="H288" s="1">
+        <f>SUM($G$5:G288)</f>
+        <v>138651000</v>
+      </c>
+      <c r="I288" s="1">
+        <f t="shared" si="57"/>
+        <v>1417000</v>
+      </c>
+      <c r="J288" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L288" s="2">
+        <v>283</v>
+      </c>
+      <c r="M288" s="1">
+        <f t="shared" si="53"/>
+        <v>48723200</v>
+      </c>
+      <c r="N288">
+        <v>1.02</v>
+      </c>
+      <c r="O288" s="1">
+        <f>SUM($M$5:M288)</f>
+        <v>2456879600</v>
+      </c>
+      <c r="P288">
+        <f t="shared" si="54"/>
+        <v>414147.2</v>
+      </c>
+      <c r="Q288">
+        <f>SUM($P$5:P288)</f>
+        <v>24286473.860000003</v>
+      </c>
+      <c r="R288">
+        <f t="shared" si="55"/>
+        <v>1.7348422124850365</v>
+      </c>
+    </row>
+    <row r="289" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F289" s="2">
+        <v>284</v>
+      </c>
+      <c r="G289" s="1">
+        <f t="shared" si="56"/>
+        <v>1426500</v>
+      </c>
+      <c r="H289" s="1">
+        <f>SUM($G$5:G289)</f>
+        <v>140077500</v>
+      </c>
+      <c r="I289" s="1">
+        <f t="shared" si="57"/>
+        <v>1426500</v>
+      </c>
+      <c r="J289" s="1">
+        <f t="shared" si="58"/>
+        <v>9500</v>
+      </c>
+      <c r="L289" s="2">
+        <v>284</v>
+      </c>
+      <c r="M289" s="1">
+        <f t="shared" si="53"/>
+        <v>49697700</v>
+      </c>
+      <c r="N289">
+        <v>1.02</v>
+      </c>
+      <c r="O289" s="1">
+        <f>SUM($M$5:M289)</f>
+        <v>2506577300</v>
+      </c>
+      <c r="P289">
+        <f t="shared" si="54"/>
+        <v>422430.45</v>
+      </c>
+      <c r="Q289">
+        <f>SUM($P$5:P289)</f>
+        <v>24708904.310000002</v>
+      </c>
+      <c r="R289">
+        <f t="shared" si="55"/>
+        <v>1.7393650985940172</v>
+      </c>
+    </row>
+    <row r="290" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F290" s="2">
+        <v>285</v>
+      </c>
+      <c r="G290" s="1">
+        <f t="shared" si="56"/>
+        <v>1436500</v>
+      </c>
+      <c r="H290" s="1">
+        <f>SUM($G$5:G290)</f>
+        <v>141514000</v>
+      </c>
+      <c r="I290" s="1">
+        <f t="shared" si="57"/>
+        <v>1436500</v>
+      </c>
+      <c r="J290" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L290" s="2">
+        <v>285</v>
+      </c>
+      <c r="M290" s="1">
+        <f t="shared" si="53"/>
+        <v>50691700</v>
+      </c>
+      <c r="N290">
+        <v>1.02</v>
+      </c>
+      <c r="O290" s="1">
+        <f>SUM($M$5:M290)</f>
+        <v>2557269000</v>
+      </c>
+      <c r="P290">
+        <f t="shared" si="54"/>
+        <v>430879.45</v>
+      </c>
+      <c r="Q290">
+        <f>SUM($P$5:P290)</f>
+        <v>25139783.760000002</v>
+      </c>
+      <c r="R290">
+        <f t="shared" si="55"/>
+        <v>1.7438225693626446</v>
+      </c>
+    </row>
+    <row r="291" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F291" s="2">
+        <v>286</v>
+      </c>
+      <c r="G291" s="1">
+        <f t="shared" si="56"/>
+        <v>1446500</v>
+      </c>
+      <c r="H291" s="1">
+        <f>SUM($G$5:G291)</f>
+        <v>142960500</v>
+      </c>
+      <c r="I291" s="1">
+        <f t="shared" si="57"/>
+        <v>1446500</v>
+      </c>
+      <c r="J291" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L291" s="2">
+        <v>286</v>
+      </c>
+      <c r="M291" s="1">
+        <f t="shared" si="53"/>
+        <v>51705600</v>
+      </c>
+      <c r="N291">
+        <v>1.02</v>
+      </c>
+      <c r="O291" s="1">
+        <f>SUM($M$5:M291)</f>
+        <v>2608974600</v>
+      </c>
+      <c r="P291">
+        <f t="shared" si="54"/>
+        <v>439497.6</v>
+      </c>
+      <c r="Q291">
+        <f>SUM($P$5:P291)</f>
+        <v>25579281.360000003</v>
+      </c>
+      <c r="R291">
+        <f t="shared" si="55"/>
+        <v>1.7482155144838105</v>
+      </c>
+    </row>
+    <row r="292" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F292" s="2">
+        <v>287</v>
+      </c>
+      <c r="G292" s="1">
+        <f t="shared" si="56"/>
+        <v>1456500</v>
+      </c>
+      <c r="H292" s="1">
+        <f>SUM($G$5:G292)</f>
+        <v>144417000</v>
+      </c>
+      <c r="I292" s="1">
+        <f t="shared" si="57"/>
+        <v>1456500</v>
+      </c>
+      <c r="J292" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L292" s="2">
+        <v>287</v>
+      </c>
+      <c r="M292" s="1">
+        <f t="shared" si="53"/>
+        <v>52739800</v>
+      </c>
+      <c r="N292">
+        <v>1.02</v>
+      </c>
+      <c r="O292" s="1">
+        <f>SUM($M$5:M292)</f>
+        <v>2661714400</v>
+      </c>
+      <c r="P292">
+        <f t="shared" si="54"/>
+        <v>448288.3</v>
+      </c>
+      <c r="Q292">
+        <f>SUM($P$5:P292)</f>
+        <v>26027569.660000004</v>
+      </c>
+      <c r="R292">
+        <f t="shared" si="55"/>
+        <v>1.752544544511788</v>
+      </c>
+    </row>
+    <row r="293" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F293" s="2">
+        <v>288</v>
+      </c>
+      <c r="G293" s="1">
+        <f t="shared" si="56"/>
+        <v>1466500</v>
+      </c>
+      <c r="H293" s="1">
+        <f>SUM($G$5:G293)</f>
+        <v>145883500</v>
+      </c>
+      <c r="I293" s="1">
+        <f t="shared" si="57"/>
+        <v>1466500</v>
+      </c>
+      <c r="J293" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L293" s="2">
+        <v>288</v>
+      </c>
+      <c r="M293" s="1">
+        <f t="shared" si="53"/>
+        <v>53794600</v>
+      </c>
+      <c r="N293">
+        <v>1.02</v>
+      </c>
+      <c r="O293" s="1">
+        <f>SUM($M$5:M293)</f>
+        <v>2715509000</v>
+      </c>
+      <c r="P293">
+        <f t="shared" si="54"/>
+        <v>457254.1</v>
+      </c>
+      <c r="Q293">
+        <f>SUM($P$5:P293)</f>
+        <v>26484823.760000005</v>
+      </c>
+      <c r="R293">
+        <f t="shared" si="55"/>
+        <v>1.756806747510983</v>
+      </c>
+    </row>
+    <row r="294" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F294" s="2">
+        <v>289</v>
+      </c>
+      <c r="G294" s="1">
+        <f t="shared" si="56"/>
+        <v>1476500</v>
+      </c>
+      <c r="H294" s="1">
+        <f>SUM($G$5:G294)</f>
+        <v>147360000</v>
+      </c>
+      <c r="I294" s="1">
+        <f t="shared" si="57"/>
+        <v>1476500</v>
+      </c>
+      <c r="J294" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L294" s="2">
+        <v>289</v>
+      </c>
+      <c r="M294" s="1">
+        <f t="shared" si="53"/>
+        <v>54870500</v>
+      </c>
+      <c r="N294">
+        <v>1.02</v>
+      </c>
+      <c r="O294" s="1">
+        <f>SUM($M$5:M294)</f>
+        <v>2770379500</v>
+      </c>
+      <c r="P294">
+        <f t="shared" si="54"/>
+        <v>466399.25</v>
+      </c>
+      <c r="Q294">
+        <f>SUM($P$5:P294)</f>
+        <v>26951223.010000005</v>
+      </c>
+      <c r="R294">
+        <f t="shared" si="55"/>
+        <v>1.7610056771621874</v>
+      </c>
+    </row>
+    <row r="295" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F295" s="2">
+        <v>290</v>
+      </c>
+      <c r="G295" s="1">
+        <f t="shared" si="56"/>
+        <v>1486500</v>
+      </c>
+      <c r="H295" s="1">
+        <f>SUM($G$5:G295)</f>
+        <v>148846500</v>
+      </c>
+      <c r="I295" s="1">
+        <f t="shared" si="57"/>
+        <v>1486500</v>
+      </c>
+      <c r="J295" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L295" s="2">
+        <v>290</v>
+      </c>
+      <c r="M295" s="1">
+        <f t="shared" si="53"/>
+        <v>55968000</v>
+      </c>
+      <c r="N295">
+        <v>1.02</v>
+      </c>
+      <c r="O295" s="1">
+        <f>SUM($M$5:M295)</f>
+        <v>2826347500</v>
+      </c>
+      <c r="P295">
+        <f t="shared" si="54"/>
+        <v>475728</v>
+      </c>
+      <c r="Q295">
+        <f>SUM($P$5:P295)</f>
+        <v>27426951.010000005</v>
+      </c>
+      <c r="R295">
+        <f t="shared" si="55"/>
+        <v>1.7651443862992247</v>
+      </c>
+    </row>
+    <row r="296" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F296" s="2">
+        <v>291</v>
+      </c>
+      <c r="G296" s="1">
+        <f t="shared" si="56"/>
+        <v>1496500</v>
+      </c>
+      <c r="H296" s="1">
+        <f>SUM($G$5:G296)</f>
+        <v>150343000</v>
+      </c>
+      <c r="I296" s="1">
+        <f t="shared" si="57"/>
+        <v>1496500</v>
+      </c>
+      <c r="J296" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L296" s="2">
+        <v>291</v>
+      </c>
+      <c r="M296" s="1">
+        <f t="shared" si="53"/>
+        <v>57087400</v>
+      </c>
+      <c r="N296">
+        <v>1.02</v>
+      </c>
+      <c r="O296" s="1">
+        <f>SUM($M$5:M296)</f>
+        <v>2883434900</v>
+      </c>
+      <c r="P296">
+        <f t="shared" si="54"/>
+        <v>485242.9</v>
+      </c>
+      <c r="Q296">
+        <f>SUM($P$5:P296)</f>
+        <v>27912193.910000004</v>
+      </c>
+      <c r="R296">
+        <f t="shared" si="55"/>
+        <v>1.7692192610949591</v>
+      </c>
+    </row>
+    <row r="297" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F297" s="2">
+        <v>292</v>
+      </c>
+      <c r="G297" s="1">
+        <f t="shared" si="56"/>
+        <v>1506500</v>
+      </c>
+      <c r="H297" s="1">
+        <f>SUM($G$5:G297)</f>
+        <v>151849500</v>
+      </c>
+      <c r="I297" s="1">
+        <f t="shared" si="57"/>
+        <v>1506500</v>
+      </c>
+      <c r="J297" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L297" s="2">
+        <v>292</v>
+      </c>
+      <c r="M297" s="1">
+        <f t="shared" si="53"/>
+        <v>58229200</v>
+      </c>
+      <c r="N297">
+        <v>1.02</v>
+      </c>
+      <c r="O297" s="1">
+        <f>SUM($M$5:M297)</f>
+        <v>2941664100</v>
+      </c>
+      <c r="P297">
+        <f t="shared" si="54"/>
+        <v>494948.2</v>
+      </c>
+      <c r="Q297">
+        <f>SUM($P$5:P297)</f>
+        <v>28407142.110000003</v>
+      </c>
+      <c r="R297">
+        <f t="shared" si="55"/>
+        <v>1.7732328802096631</v>
+      </c>
+    </row>
+    <row r="298" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F298" s="2">
+        <v>293</v>
+      </c>
+      <c r="G298" s="1">
+        <f t="shared" si="56"/>
+        <v>1516500</v>
+      </c>
+      <c r="H298" s="1">
+        <f>SUM($G$5:G298)</f>
+        <v>153366000</v>
+      </c>
+      <c r="I298" s="1">
+        <f t="shared" si="57"/>
+        <v>1516500</v>
+      </c>
+      <c r="J298" s="1">
+        <f t="shared" si="58"/>
+        <v>10000</v>
+      </c>
+      <c r="L298" s="2">
+        <v>293</v>
+      </c>
+      <c r="M298" s="1">
+        <f t="shared" si="53"/>
+        <v>59393800</v>
+      </c>
+      <c r="N298">
+        <v>1.02</v>
+      </c>
+      <c r="O298" s="1">
+        <f>SUM($M$5:M298)</f>
+        <v>3001057900</v>
+      </c>
+      <c r="P298">
+        <f t="shared" si="54"/>
+        <v>504847.3</v>
+      </c>
+      <c r="Q298">
+        <f>SUM($P$5:P298)</f>
+        <v>28911989.410000004</v>
+      </c>
+      <c r="R298">
+        <f t="shared" si="55"/>
+        <v>1.7771844068125469</v>
+      </c>
+    </row>
+    <row r="299" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F299" s="2">
+        <v>294</v>
+      </c>
+      <c r="G299" s="1">
+        <f t="shared" ref="G299:G306" si="59">I299</f>
+        <v>1526500</v>
+      </c>
+      <c r="H299" s="1">
+        <f>SUM($G$5:G299)</f>
+        <v>154892500</v>
+      </c>
+      <c r="I299" s="1">
+        <f t="shared" ref="I299:I306" si="60">I298+500+QUOTIENT(F299,15)*500</f>
+        <v>1526500</v>
+      </c>
+      <c r="J299" s="1">
+        <f t="shared" ref="J299:J306" si="61">I299-I298</f>
+        <v>10000</v>
+      </c>
+      <c r="L299" s="2">
+        <v>294</v>
+      </c>
+      <c r="M299" s="1">
+        <f t="shared" si="53"/>
+        <v>60581700</v>
+      </c>
+      <c r="N299">
+        <v>1.02</v>
+      </c>
+      <c r="O299" s="1">
+        <f>SUM($M$5:M299)</f>
+        <v>3061639600</v>
+      </c>
+      <c r="P299">
+        <f t="shared" si="54"/>
+        <v>514944.45</v>
+      </c>
+      <c r="Q299">
+        <f>SUM($P$5:P299)</f>
+        <v>29426933.860000003</v>
+      </c>
+      <c r="R299">
+        <f t="shared" si="55"/>
+        <v>1.7810758114828709</v>
+      </c>
+    </row>
+    <row r="300" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F300" s="2">
+        <v>295</v>
+      </c>
+      <c r="G300" s="1">
+        <f t="shared" si="59"/>
+        <v>1536500</v>
+      </c>
+      <c r="H300" s="1">
+        <f>SUM($G$5:G300)</f>
+        <v>156429000</v>
+      </c>
+      <c r="I300" s="1">
+        <f t="shared" si="60"/>
+        <v>1536500</v>
+      </c>
+      <c r="J300" s="1">
+        <f t="shared" si="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L300" s="2">
+        <v>295</v>
+      </c>
+      <c r="M300" s="1">
+        <f t="shared" si="53"/>
+        <v>61793400</v>
+      </c>
+      <c r="N300">
+        <v>1.02</v>
+      </c>
+      <c r="O300" s="1">
+        <f>SUM($M$5:M300)</f>
+        <v>3123433000</v>
+      </c>
+      <c r="P300">
+        <f t="shared" si="54"/>
+        <v>525243.9</v>
+      </c>
+      <c r="Q300">
+        <f>SUM($P$5:P300)</f>
+        <v>29952177.760000002</v>
+      </c>
+      <c r="R300">
+        <f t="shared" si="55"/>
+        <v>1.784908691129258</v>
+      </c>
+    </row>
+    <row r="301" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F301" s="2">
+        <v>296</v>
+      </c>
+      <c r="G301" s="1">
+        <f t="shared" si="59"/>
+        <v>1546500</v>
+      </c>
+      <c r="H301" s="1">
+        <f>SUM($G$5:G301)</f>
+        <v>157975500</v>
+      </c>
+      <c r="I301" s="1">
+        <f t="shared" si="60"/>
+        <v>1546500</v>
+      </c>
+      <c r="J301" s="1">
+        <f t="shared" si="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L301" s="2">
+        <v>296</v>
+      </c>
+      <c r="M301" s="1">
+        <f t="shared" si="53"/>
+        <v>63029300</v>
+      </c>
+      <c r="N301">
+        <v>1.02</v>
+      </c>
+      <c r="O301" s="1">
+        <f>SUM($M$5:M301)</f>
+        <v>3186462300</v>
+      </c>
+      <c r="P301">
+        <f t="shared" si="54"/>
+        <v>535749.05000000005</v>
+      </c>
+      <c r="Q301">
+        <f>SUM($P$5:P301)</f>
+        <v>30487926.810000002</v>
+      </c>
+      <c r="R301">
+        <f t="shared" si="55"/>
+        <v>1.7886814584663466</v>
+      </c>
+    </row>
+    <row r="302" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F302" s="2">
+        <v>297</v>
+      </c>
+      <c r="G302" s="1">
+        <f t="shared" si="59"/>
+        <v>1556500</v>
+      </c>
+      <c r="H302" s="1">
+        <f>SUM($G$5:G302)</f>
+        <v>159532000</v>
+      </c>
+      <c r="I302" s="1">
+        <f t="shared" si="60"/>
+        <v>1556500</v>
+      </c>
+      <c r="J302" s="1">
+        <f t="shared" si="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L302" s="2">
+        <v>297</v>
+      </c>
+      <c r="M302" s="1">
+        <f t="shared" si="53"/>
+        <v>64289900</v>
+      </c>
+      <c r="N302">
+        <v>1.02</v>
+      </c>
+      <c r="O302" s="1">
+        <f>SUM($M$5:M302)</f>
+        <v>3250752200</v>
+      </c>
+      <c r="P302">
+        <f t="shared" si="54"/>
+        <v>546464.15</v>
+      </c>
+      <c r="Q302">
+        <f>SUM($P$5:P302)</f>
+        <v>31034390.960000001</v>
+      </c>
+      <c r="R302">
+        <f t="shared" si="55"/>
+        <v>1.7923952435518145</v>
+      </c>
+    </row>
+    <row r="303" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F303" s="2">
+        <v>298</v>
+      </c>
+      <c r="G303" s="1">
+        <f t="shared" si="59"/>
+        <v>1566500</v>
+      </c>
+      <c r="H303" s="1">
+        <f>SUM($G$5:G303)</f>
+        <v>161098500</v>
+      </c>
+      <c r="I303" s="1">
+        <f t="shared" si="60"/>
+        <v>1566500</v>
+      </c>
+      <c r="J303" s="1">
+        <f t="shared" si="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L303" s="2">
+        <v>298</v>
+      </c>
+      <c r="M303" s="1">
+        <f t="shared" si="53"/>
+        <v>65575700</v>
+      </c>
+      <c r="N303">
+        <v>1.02</v>
+      </c>
+      <c r="O303" s="1">
+        <f>SUM($M$5:M303)</f>
+        <v>3316327900</v>
+      </c>
+      <c r="P303">
+        <f t="shared" si="54"/>
+        <v>557393.44999999995</v>
+      </c>
+      <c r="Q303">
+        <f>SUM($P$5:P303)</f>
+        <v>31591784.41</v>
+      </c>
+      <c r="R303">
+        <f t="shared" si="55"/>
+        <v>1.7960508737497687</v>
+      </c>
+    </row>
+    <row r="304" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F304" s="2">
+        <v>299</v>
+      </c>
+      <c r="G304" s="1">
+        <f t="shared" si="59"/>
+        <v>1576500</v>
+      </c>
+      <c r="H304" s="1">
+        <f>SUM($G$5:G304)</f>
+        <v>162675000</v>
+      </c>
+      <c r="I304" s="1">
+        <f t="shared" si="60"/>
+        <v>1576500</v>
+      </c>
+      <c r="J304" s="1">
+        <f t="shared" si="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L304" s="2">
+        <v>299</v>
+      </c>
+      <c r="M304" s="1">
+        <f t="shared" si="53"/>
+        <v>66887300</v>
+      </c>
+      <c r="N304">
+        <v>1.02</v>
+      </c>
+      <c r="O304" s="1">
+        <f>SUM($M$5:M304)</f>
+        <v>3383215200</v>
+      </c>
+      <c r="P304">
+        <f t="shared" si="54"/>
+        <v>568542.05000000005</v>
+      </c>
+      <c r="Q304">
+        <f>SUM($P$5:P304)</f>
+        <v>32160326.460000001</v>
+      </c>
+      <c r="R304">
+        <f t="shared" si="55"/>
+        <v>1.7996515885947728</v>
+      </c>
+    </row>
+    <row r="305" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F305" s="2">
+        <v>300</v>
+      </c>
+      <c r="G305" s="1">
+        <f>I305</f>
+        <v>1587000</v>
+      </c>
+      <c r="H305" s="1">
+        <f>SUM($G$5:G305)</f>
+        <v>164262000</v>
+      </c>
+      <c r="I305" s="1">
+        <f t="shared" si="60"/>
+        <v>1587000</v>
+      </c>
+      <c r="J305" s="1">
+        <f t="shared" si="61"/>
+        <v>10500</v>
+      </c>
+      <c r="L305" s="2">
+        <v>300</v>
+      </c>
+      <c r="M305" s="1">
+        <f t="shared" si="53"/>
+        <v>68225100</v>
+      </c>
+      <c r="N305">
+        <v>1.02</v>
+      </c>
+      <c r="O305" s="1">
+        <f>SUM($M$5:M305)</f>
+        <v>3451440300</v>
+      </c>
+      <c r="P305">
+        <f t="shared" si="54"/>
+        <v>579913.35</v>
+      </c>
+      <c r="Q305">
+        <f>SUM($P$5:P305)</f>
+        <v>32740239.810000002</v>
+      </c>
+      <c r="R305">
+        <f t="shared" si="55"/>
+        <v>1.8031948485388649</v>
+      </c>
+    </row>
+    <row r="306" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:D4"/>
@@ -22782,8 +26386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638257D-541B-42BC-9621-10FB1B767C19}">
   <dimension ref="B1:AC155"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView topLeftCell="A1048544" workbookViewId="0">
+      <selection activeCell="D1048576" sqref="D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Dosul.xlsx
+++ b/Assets/06.Table/Dosul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C37473-6B43-464F-BC57-7CE7DA7AC651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C37F9-52A6-4E83-AFFC-DC5248C09BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="23955" yWindow="1935" windowWidth="29040" windowHeight="15480" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dosul" sheetId="2" r:id="rId1"/>
@@ -965,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="F503" sqref="F503"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="E440" sqref="E440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14036,7 +14036,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <f t="shared" ref="B452:B501" si="21">B451</f>
+        <f t="shared" ref="B452:B515" si="21">B451</f>
         <v>9031</v>
       </c>
       <c r="C452" s="1">
@@ -14044,7 +14044,7 @@
         <v>14000000</v>
       </c>
       <c r="D452">
-        <f t="shared" ref="D452:D501" si="22">D451</f>
+        <f t="shared" ref="D452:D515" si="22">D451</f>
         <v>60</v>
       </c>
       <c r="E452">
@@ -14313,7 +14313,7 @@
         <v>5496660.8483000016</v>
       </c>
       <c r="F461">
-        <f t="shared" ref="F461:F501" si="23">IF(F451=0,0,F451+2)</f>
+        <f t="shared" ref="F461:F524" si="23">IF(F451=0,0,F451+2)</f>
         <v>0</v>
       </c>
       <c r="G461">
@@ -15478,6 +15478,2906 @@
       </c>
       <c r="G501">
         <f>VLOOKUP(A501,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C502" s="1">
+        <f>VLOOKUP(A502,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E502">
+        <f>VLOOKUP(A502,balance!L:R,6,FALSE)/100</f>
+        <v>9266640.6076000016</v>
+      </c>
+      <c r="F502">
+        <f t="shared" si="23"/>
+        <v>247</v>
+      </c>
+      <c r="G502">
+        <f>VLOOKUP(A502,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C503" s="1">
+        <f>VLOOKUP(A503,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E503">
+        <f>VLOOKUP(A503,balance!L:R,6,FALSE)/100</f>
+        <v>9379178.4605000019</v>
+      </c>
+      <c r="F503">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <f>VLOOKUP(A503,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C504" s="1">
+        <f>VLOOKUP(A504,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E504">
+        <f>VLOOKUP(A504,balance!L:R,6,FALSE)/100</f>
+        <v>9492841.6975000016</v>
+      </c>
+      <c r="F504">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G504">
+        <f>VLOOKUP(A504,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C505" s="1">
+        <f>VLOOKUP(A505,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E505">
+        <f>VLOOKUP(A505,balance!L:R,6,FALSE)/100</f>
+        <v>9607641.5716000013</v>
+      </c>
+      <c r="F505">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <f>VLOOKUP(A505,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C506" s="1">
+        <f>VLOOKUP(A506,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E506">
+        <f>VLOOKUP(A506,balance!L:R,6,FALSE)/100</f>
+        <v>9723589.4454000015</v>
+      </c>
+      <c r="F506">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <f>VLOOKUP(A506,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C507" s="1">
+        <f>VLOOKUP(A507,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E507">
+        <f>VLOOKUP(A507,balance!L:R,6,FALSE)/100</f>
+        <v>9840696.7992000021</v>
+      </c>
+      <c r="F507">
+        <f t="shared" si="23"/>
+        <v>248</v>
+      </c>
+      <c r="G507">
+        <f>VLOOKUP(A507,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C508" s="1">
+        <f>VLOOKUP(A508,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E508">
+        <f>VLOOKUP(A508,balance!L:R,6,FALSE)/100</f>
+        <v>9958975.2312000021</v>
+      </c>
+      <c r="F508">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <f>VLOOKUP(A508,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C509" s="1">
+        <f>VLOOKUP(A509,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E509">
+        <f>VLOOKUP(A509,balance!L:R,6,FALSE)/100</f>
+        <v>10078436.448900003</v>
+      </c>
+      <c r="F509">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G509">
+        <f>VLOOKUP(A509,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C510" s="1">
+        <f>VLOOKUP(A510,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E510">
+        <f>VLOOKUP(A510,balance!L:R,6,FALSE)/100</f>
+        <v>10199092.286200002</v>
+      </c>
+      <c r="F510">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <f>VLOOKUP(A510,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C511" s="1">
+        <f>VLOOKUP(A511,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E511">
+        <f>VLOOKUP(A511,balance!L:R,6,FALSE)/100</f>
+        <v>10320954.686300002</v>
+      </c>
+      <c r="F511">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <f>VLOOKUP(A511,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C512" s="1">
+        <f>VLOOKUP(A512,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E512">
+        <f>VLOOKUP(A512,balance!L:R,6,FALSE)/100</f>
+        <v>10444035.718800003</v>
+      </c>
+      <c r="F512">
+        <f t="shared" si="23"/>
+        <v>249</v>
+      </c>
+      <c r="G512">
+        <f>VLOOKUP(A512,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C513" s="1">
+        <f>VLOOKUP(A513,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E513">
+        <f>VLOOKUP(A513,balance!L:R,6,FALSE)/100</f>
+        <v>10568347.562500002</v>
+      </c>
+      <c r="F513">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <f>VLOOKUP(A513,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C514" s="1">
+        <f>VLOOKUP(A514,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E514">
+        <f>VLOOKUP(A514,balance!L:R,6,FALSE)/100</f>
+        <v>10693902.531000003</v>
+      </c>
+      <c r="F514">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <f>VLOOKUP(A514,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <f t="shared" si="21"/>
+        <v>9031</v>
+      </c>
+      <c r="C515" s="1">
+        <f>VLOOKUP(A515,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="E515">
+        <f>VLOOKUP(A515,balance!L:R,6,FALSE)/100</f>
+        <v>10820713.055800002</v>
+      </c>
+      <c r="F515">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <f>VLOOKUP(A515,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <f t="shared" ref="B516:B579" si="24">B515</f>
+        <v>9031</v>
+      </c>
+      <c r="C516" s="1">
+        <f>VLOOKUP(A516,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D516">
+        <f t="shared" ref="D516:D579" si="25">D515</f>
+        <v>60</v>
+      </c>
+      <c r="E516">
+        <f>VLOOKUP(A516,balance!L:R,6,FALSE)/100</f>
+        <v>10948791.686100001</v>
+      </c>
+      <c r="F516">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <f>VLOOKUP(A516,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C517" s="1">
+        <f>VLOOKUP(A517,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E517">
+        <f>VLOOKUP(A517,balance!L:R,6,FALSE)/100</f>
+        <v>11078151.105800001</v>
+      </c>
+      <c r="F517">
+        <f t="shared" si="23"/>
+        <v>250</v>
+      </c>
+      <c r="G517">
+        <f>VLOOKUP(A517,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C518" s="1">
+        <f>VLOOKUP(A518,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E518">
+        <f>VLOOKUP(A518,balance!L:R,6,FALSE)/100</f>
+        <v>11208804.125100002</v>
+      </c>
+      <c r="F518">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <f>VLOOKUP(A518,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C519" s="1">
+        <f>VLOOKUP(A519,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E519">
+        <f>VLOOKUP(A519,balance!L:R,6,FALSE)/100</f>
+        <v>11340763.680400003</v>
+      </c>
+      <c r="F519">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <f>VLOOKUP(A519,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C520" s="1">
+        <f>VLOOKUP(A520,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E520">
+        <f>VLOOKUP(A520,balance!L:R,6,FALSE)/100</f>
+        <v>11474042.834400004</v>
+      </c>
+      <c r="F520">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <f>VLOOKUP(A520,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C521" s="1">
+        <f>VLOOKUP(A521,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D521">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E521">
+        <f>VLOOKUP(A521,balance!L:R,6,FALSE)/100</f>
+        <v>11608654.784400003</v>
+      </c>
+      <c r="F521">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <f>VLOOKUP(A521,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C522" s="1">
+        <f>VLOOKUP(A522,balance!Z:AD,2,FALSE)</f>
+        <v>15000000</v>
+      </c>
+      <c r="D522">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E522">
+        <f>VLOOKUP(A522,balance!L:R,6,FALSE)/100</f>
+        <v>11744612.853900004</v>
+      </c>
+      <c r="F522">
+        <f t="shared" si="23"/>
+        <v>251</v>
+      </c>
+      <c r="G522">
+        <f>VLOOKUP(A522,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C523" s="1">
+        <f>VLOOKUP(A523,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D523">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E523">
+        <f>VLOOKUP(A523,balance!L:R,6,FALSE)/100</f>
+        <v>11881930.509700002</v>
+      </c>
+      <c r="F523">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <f>VLOOKUP(A523,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C524" s="1">
+        <f>VLOOKUP(A524,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D524">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E524">
+        <f>VLOOKUP(A524,balance!L:R,6,FALSE)/100</f>
+        <v>12020621.344700003</v>
+      </c>
+      <c r="F524">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <f>VLOOKUP(A524,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C525" s="1">
+        <f>VLOOKUP(A525,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E525">
+        <f>VLOOKUP(A525,balance!L:R,6,FALSE)/100</f>
+        <v>12160699.094800003</v>
+      </c>
+      <c r="F525">
+        <f t="shared" ref="F525:F588" si="26">IF(F515=0,0,F515+2)</f>
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <f>VLOOKUP(A525,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C526" s="1">
+        <f>VLOOKUP(A526,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E526">
+        <f>VLOOKUP(A526,balance!L:R,6,FALSE)/100</f>
+        <v>12302177.630800001</v>
+      </c>
+      <c r="F526">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <f>VLOOKUP(A526,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C527" s="1">
+        <f>VLOOKUP(A527,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E527">
+        <f>VLOOKUP(A527,balance!L:R,6,FALSE)/100</f>
+        <v>12445070.957900003</v>
+      </c>
+      <c r="F527">
+        <f t="shared" si="26"/>
+        <v>252</v>
+      </c>
+      <c r="G527">
+        <f>VLOOKUP(A527,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C528" s="1">
+        <f>VLOOKUP(A528,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E528">
+        <f>VLOOKUP(A528,balance!L:R,6,FALSE)/100</f>
+        <v>12589393.224600002</v>
+      </c>
+      <c r="F528">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <f>VLOOKUP(A528,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C529" s="1">
+        <f>VLOOKUP(A529,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E529">
+        <f>VLOOKUP(A529,balance!L:R,6,FALSE)/100</f>
+        <v>12735158.714000003</v>
+      </c>
+      <c r="F529">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <f>VLOOKUP(A529,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C530" s="1">
+        <f>VLOOKUP(A530,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E530">
+        <f>VLOOKUP(A530,balance!L:R,6,FALSE)/100</f>
+        <v>12882381.860600004</v>
+      </c>
+      <c r="F530">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <f>VLOOKUP(A530,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C531" s="1">
+        <f>VLOOKUP(A531,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E531">
+        <f>VLOOKUP(A531,balance!L:R,6,FALSE)/100</f>
+        <v>13031077.242100006</v>
+      </c>
+      <c r="F531">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <f>VLOOKUP(A531,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C532" s="1">
+        <f>VLOOKUP(A532,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E532">
+        <f>VLOOKUP(A532,balance!L:R,6,FALSE)/100</f>
+        <v>13181259.579300005</v>
+      </c>
+      <c r="F532">
+        <f t="shared" si="26"/>
+        <v>253</v>
+      </c>
+      <c r="G532">
+        <f>VLOOKUP(A532,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C533" s="1">
+        <f>VLOOKUP(A533,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E533">
+        <f>VLOOKUP(A533,balance!L:R,6,FALSE)/100</f>
+        <v>13332943.744400006</v>
+      </c>
+      <c r="F533">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G533">
+        <f>VLOOKUP(A533,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C534" s="1">
+        <f>VLOOKUP(A534,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E534">
+        <f>VLOOKUP(A534,balance!L:R,6,FALSE)/100</f>
+        <v>13486144.752800005</v>
+      </c>
+      <c r="F534">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <f>VLOOKUP(A534,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C535" s="1">
+        <f>VLOOKUP(A535,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E535">
+        <f>VLOOKUP(A535,balance!L:R,6,FALSE)/100</f>
+        <v>13640877.771300003</v>
+      </c>
+      <c r="F535">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <f>VLOOKUP(A535,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C536" s="1">
+        <f>VLOOKUP(A536,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E536">
+        <f>VLOOKUP(A536,balance!L:R,6,FALSE)/100</f>
+        <v>13797158.126600003</v>
+      </c>
+      <c r="F536">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <f>VLOOKUP(A536,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C537" s="1">
+        <f>VLOOKUP(A537,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E537">
+        <f>VLOOKUP(A537,balance!L:R,6,FALSE)/100</f>
+        <v>13955001.288600003</v>
+      </c>
+      <c r="F537">
+        <f t="shared" si="26"/>
+        <v>254</v>
+      </c>
+      <c r="G537">
+        <f>VLOOKUP(A537,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C538" s="1">
+        <f>VLOOKUP(A538,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E538">
+        <f>VLOOKUP(A538,balance!L:R,6,FALSE)/100</f>
+        <v>14114422.887000002</v>
+      </c>
+      <c r="F538">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G538">
+        <f>VLOOKUP(A538,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C539" s="1">
+        <f>VLOOKUP(A539,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E539">
+        <f>VLOOKUP(A539,balance!L:R,6,FALSE)/100</f>
+        <v>14275438.703000002</v>
+      </c>
+      <c r="F539">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <f>VLOOKUP(A539,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C540" s="1">
+        <f>VLOOKUP(A540,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E540">
+        <f>VLOOKUP(A540,balance!L:R,6,FALSE)/100</f>
+        <v>14438064.677900001</v>
+      </c>
+      <c r="F540">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G540">
+        <f>VLOOKUP(A540,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C541" s="1">
+        <f>VLOOKUP(A541,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E541">
+        <f>VLOOKUP(A541,balance!L:R,6,FALSE)/100</f>
+        <v>14602316.912700003</v>
+      </c>
+      <c r="F541">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <f>VLOOKUP(A541,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C542" s="1">
+        <f>VLOOKUP(A542,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D542">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E542">
+        <f>VLOOKUP(A542,balance!L:R,6,FALSE)/100</f>
+        <v>14768211.676800003</v>
+      </c>
+      <c r="F542">
+        <f t="shared" si="26"/>
+        <v>255</v>
+      </c>
+      <c r="G542">
+        <f>VLOOKUP(A542,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C543" s="1">
+        <f>VLOOKUP(A543,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E543">
+        <f>VLOOKUP(A543,balance!L:R,6,FALSE)/100</f>
+        <v>14935765.391200004</v>
+      </c>
+      <c r="F543">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <f>VLOOKUP(A543,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C544" s="1">
+        <f>VLOOKUP(A544,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E544">
+        <f>VLOOKUP(A544,balance!L:R,6,FALSE)/100</f>
+        <v>15104994.645100005</v>
+      </c>
+      <c r="F544">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <f>VLOOKUP(A544,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C545" s="1">
+        <f>VLOOKUP(A545,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D545">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E545">
+        <f>VLOOKUP(A545,balance!L:R,6,FALSE)/100</f>
+        <v>15275916.196100004</v>
+      </c>
+      <c r="F545">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <f>VLOOKUP(A545,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C546" s="1">
+        <f>VLOOKUP(A546,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D546">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E546">
+        <f>VLOOKUP(A546,balance!L:R,6,FALSE)/100</f>
+        <v>15448546.970100004</v>
+      </c>
+      <c r="F546">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <f>VLOOKUP(A546,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C547" s="1">
+        <f>VLOOKUP(A547,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D547">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E547">
+        <f>VLOOKUP(A547,balance!L:R,6,FALSE)/100</f>
+        <v>15622904.052900005</v>
+      </c>
+      <c r="F547">
+        <f t="shared" si="26"/>
+        <v>256</v>
+      </c>
+      <c r="G547">
+        <f>VLOOKUP(A547,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C548" s="1">
+        <f>VLOOKUP(A548,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E548">
+        <f>VLOOKUP(A548,balance!L:R,6,FALSE)/100</f>
+        <v>15799004.707100006</v>
+      </c>
+      <c r="F548">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <f>VLOOKUP(A548,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C549" s="1">
+        <f>VLOOKUP(A549,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D549">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E549">
+        <f>VLOOKUP(A549,balance!L:R,6,FALSE)/100</f>
+        <v>15976866.372100005</v>
+      </c>
+      <c r="F549">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <f>VLOOKUP(A549,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C550" s="1">
+        <f>VLOOKUP(A550,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E550">
+        <f>VLOOKUP(A550,balance!L:R,6,FALSE)/100</f>
+        <v>16156506.655500004</v>
+      </c>
+      <c r="F550">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <f>VLOOKUP(A550,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C551" s="1">
+        <f>VLOOKUP(A551,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E551">
+        <f>VLOOKUP(A551,balance!L:R,6,FALSE)/100</f>
+        <v>16337943.341700003</v>
+      </c>
+      <c r="F551">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <f>VLOOKUP(A551,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C552" s="1">
+        <f>VLOOKUP(A552,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E552">
+        <f>VLOOKUP(A552,balance!L:R,6,FALSE)/100</f>
+        <v>16521194.400300002</v>
+      </c>
+      <c r="F552">
+        <f t="shared" si="26"/>
+        <v>257</v>
+      </c>
+      <c r="G552">
+        <f>VLOOKUP(A552,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C553" s="1">
+        <f>VLOOKUP(A553,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D553">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E553">
+        <f>VLOOKUP(A553,balance!L:R,6,FALSE)/100</f>
+        <v>16706277.977700002</v>
+      </c>
+      <c r="F553">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <f>VLOOKUP(A553,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C554" s="1">
+        <f>VLOOKUP(A554,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E554">
+        <f>VLOOKUP(A554,balance!L:R,6,FALSE)/100</f>
+        <v>16893212.396900002</v>
+      </c>
+      <c r="F554">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <f>VLOOKUP(A554,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C555" s="1">
+        <f>VLOOKUP(A555,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E555">
+        <f>VLOOKUP(A555,balance!L:R,6,FALSE)/100</f>
+        <v>17082016.166200005</v>
+      </c>
+      <c r="F555">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <f>VLOOKUP(A555,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C556" s="1">
+        <f>VLOOKUP(A556,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E556">
+        <f>VLOOKUP(A556,balance!L:R,6,FALSE)/100</f>
+        <v>17272707.979000002</v>
+      </c>
+      <c r="F556">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <f>VLOOKUP(A556,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C557" s="1">
+        <f>VLOOKUP(A557,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E557">
+        <f>VLOOKUP(A557,balance!L:R,6,FALSE)/100</f>
+        <v>17465306.713900004</v>
+      </c>
+      <c r="F557">
+        <f t="shared" si="26"/>
+        <v>258</v>
+      </c>
+      <c r="G557">
+        <f>VLOOKUP(A557,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C558" s="1">
+        <f>VLOOKUP(A558,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E558">
+        <f>VLOOKUP(A558,balance!L:R,6,FALSE)/100</f>
+        <v>17659831.443000004</v>
+      </c>
+      <c r="F558">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <f>VLOOKUP(A558,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C559" s="1">
+        <f>VLOOKUP(A559,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E559">
+        <f>VLOOKUP(A559,balance!L:R,6,FALSE)/100</f>
+        <v>17856301.423700005</v>
+      </c>
+      <c r="F559">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <f>VLOOKUP(A559,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C560" s="1">
+        <f>VLOOKUP(A560,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E560">
+        <f>VLOOKUP(A560,balance!L:R,6,FALSE)/100</f>
+        <v>18054736.106900003</v>
+      </c>
+      <c r="F560">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G560">
+        <f>VLOOKUP(A560,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C561" s="1">
+        <f>VLOOKUP(A561,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E561">
+        <f>VLOOKUP(A561,balance!L:R,6,FALSE)/100</f>
+        <v>18255155.137100004</v>
+      </c>
+      <c r="F561">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <f>VLOOKUP(A561,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C562" s="1">
+        <f>VLOOKUP(A562,balance!Z:AD,2,FALSE)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E562">
+        <f>VLOOKUP(A562,balance!L:R,6,FALSE)/100</f>
+        <v>18457578.360800002</v>
+      </c>
+      <c r="F562">
+        <f t="shared" si="26"/>
+        <v>259</v>
+      </c>
+      <c r="G562">
+        <f>VLOOKUP(A562,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C563" s="1">
+        <f>VLOOKUP(A563,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E563">
+        <f>VLOOKUP(A563,balance!L:R,6,FALSE)/100</f>
+        <v>18662025.818100002</v>
+      </c>
+      <c r="F563">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <f>VLOOKUP(A563,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C564" s="1">
+        <f>VLOOKUP(A564,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E564">
+        <f>VLOOKUP(A564,balance!L:R,6,FALSE)/100</f>
+        <v>18868517.7511</v>
+      </c>
+      <c r="F564">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <f>VLOOKUP(A564,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C565" s="1">
+        <f>VLOOKUP(A565,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E565">
+        <f>VLOOKUP(A565,balance!L:R,6,FALSE)/100</f>
+        <v>19077074.603800002</v>
+      </c>
+      <c r="F565">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <f>VLOOKUP(A565,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C566" s="1">
+        <f>VLOOKUP(A566,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E566">
+        <f>VLOOKUP(A566,balance!L:R,6,FALSE)/100</f>
+        <v>19287717.0308</v>
+      </c>
+      <c r="F566">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <f>VLOOKUP(A566,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C567" s="1">
+        <f>VLOOKUP(A567,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D567">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E567">
+        <f>VLOOKUP(A567,balance!L:R,6,FALSE)/100</f>
+        <v>19500465.888500001</v>
+      </c>
+      <c r="F567">
+        <f t="shared" si="26"/>
+        <v>260</v>
+      </c>
+      <c r="G567">
+        <f>VLOOKUP(A567,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C568" s="1">
+        <f>VLOOKUP(A568,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D568">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E568">
+        <f>VLOOKUP(A568,balance!L:R,6,FALSE)/100</f>
+        <v>19715342.2355</v>
+      </c>
+      <c r="F568">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <f>VLOOKUP(A568,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C569" s="1">
+        <f>VLOOKUP(A569,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D569">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E569">
+        <f>VLOOKUP(A569,balance!L:R,6,FALSE)/100</f>
+        <v>19932367.348999999</v>
+      </c>
+      <c r="F569">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <f>VLOOKUP(A569,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C570" s="1">
+        <f>VLOOKUP(A570,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D570">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E570">
+        <f>VLOOKUP(A570,balance!L:R,6,FALSE)/100</f>
+        <v>20151562.716900002</v>
+      </c>
+      <c r="F570">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <f>VLOOKUP(A570,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C571" s="1">
+        <f>VLOOKUP(A571,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D571">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E571">
+        <f>VLOOKUP(A571,balance!L:R,6,FALSE)/100</f>
+        <v>20372950.045700002</v>
+      </c>
+      <c r="F571">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <f>VLOOKUP(A571,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C572" s="1">
+        <f>VLOOKUP(A572,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D572">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E572">
+        <f>VLOOKUP(A572,balance!L:R,6,FALSE)/100</f>
+        <v>20596551.252400003</v>
+      </c>
+      <c r="F572">
+        <f t="shared" si="26"/>
+        <v>261</v>
+      </c>
+      <c r="G572">
+        <f>VLOOKUP(A572,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C573" s="1">
+        <f>VLOOKUP(A573,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D573">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E573">
+        <f>VLOOKUP(A573,balance!L:R,6,FALSE)/100</f>
+        <v>20822388.472900003</v>
+      </c>
+      <c r="F573">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <f>VLOOKUP(A573,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C574" s="1">
+        <f>VLOOKUP(A574,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D574">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E574">
+        <f>VLOOKUP(A574,balance!L:R,6,FALSE)/100</f>
+        <v>21050484.070200004</v>
+      </c>
+      <c r="F574">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <f>VLOOKUP(A574,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C575" s="1">
+        <f>VLOOKUP(A575,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D575">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E575">
+        <f>VLOOKUP(A575,balance!L:R,6,FALSE)/100</f>
+        <v>21280860.626200002</v>
+      </c>
+      <c r="F575">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G575">
+        <f>VLOOKUP(A575,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C576" s="1">
+        <f>VLOOKUP(A576,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D576">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E576">
+        <f>VLOOKUP(A576,balance!L:R,6,FALSE)/100</f>
+        <v>21513540.950199999</v>
+      </c>
+      <c r="F576">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G576">
+        <f>VLOOKUP(A576,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C577" s="1">
+        <f>VLOOKUP(A577,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E577">
+        <f>VLOOKUP(A577,balance!L:R,6,FALSE)/100</f>
+        <v>21748548.078499999</v>
+      </c>
+      <c r="F577">
+        <f t="shared" si="26"/>
+        <v>262</v>
+      </c>
+      <c r="G577">
+        <f>VLOOKUP(A577,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C578" s="1">
+        <f>VLOOKUP(A578,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E578">
+        <f>VLOOKUP(A578,balance!L:R,6,FALSE)/100</f>
+        <v>21985905.283199996</v>
+      </c>
+      <c r="F578">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G578">
+        <f>VLOOKUP(A578,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <f t="shared" si="24"/>
+        <v>9031</v>
+      </c>
+      <c r="C579" s="1">
+        <f>VLOOKUP(A579,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D579">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="E579">
+        <f>VLOOKUP(A579,balance!L:R,6,FALSE)/100</f>
+        <v>22225636.063699998</v>
+      </c>
+      <c r="F579">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <f>VLOOKUP(A579,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <f t="shared" ref="B580:B601" si="27">B579</f>
+        <v>9031</v>
+      </c>
+      <c r="C580" s="1">
+        <f>VLOOKUP(A580,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D580">
+        <f t="shared" ref="D580:D601" si="28">D579</f>
+        <v>60</v>
+      </c>
+      <c r="E580">
+        <f>VLOOKUP(A580,balance!L:R,6,FALSE)/100</f>
+        <v>22467764.154899999</v>
+      </c>
+      <c r="F580">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G580">
+        <f>VLOOKUP(A580,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C581" s="1">
+        <f>VLOOKUP(A581,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E581">
+        <f>VLOOKUP(A581,balance!L:R,6,FALSE)/100</f>
+        <v>22712313.5275</v>
+      </c>
+      <c r="F581">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G581">
+        <f>VLOOKUP(A581,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C582" s="1">
+        <f>VLOOKUP(A582,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E582">
+        <f>VLOOKUP(A582,balance!L:R,6,FALSE)/100</f>
+        <v>22959308.396300003</v>
+      </c>
+      <c r="F582">
+        <f t="shared" si="26"/>
+        <v>263</v>
+      </c>
+      <c r="G582">
+        <f>VLOOKUP(A582,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C583" s="1">
+        <f>VLOOKUP(A583,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E583">
+        <f>VLOOKUP(A583,balance!L:R,6,FALSE)/100</f>
+        <v>23208773.220100001</v>
+      </c>
+      <c r="F583">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G583">
+        <f>VLOOKUP(A583,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C584" s="1">
+        <f>VLOOKUP(A584,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D584">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E584">
+        <f>VLOOKUP(A584,balance!L:R,6,FALSE)/100</f>
+        <v>23460732.693400003</v>
+      </c>
+      <c r="F584">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G584">
+        <f>VLOOKUP(A584,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C585" s="1">
+        <f>VLOOKUP(A585,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D585">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E585">
+        <f>VLOOKUP(A585,balance!L:R,6,FALSE)/100</f>
+        <v>23715211.7632</v>
+      </c>
+      <c r="F585">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G585">
+        <f>VLOOKUP(A585,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C586" s="1">
+        <f>VLOOKUP(A586,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D586">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E586">
+        <f>VLOOKUP(A586,balance!L:R,6,FALSE)/100</f>
+        <v>23972235.629000001</v>
+      </c>
+      <c r="F586">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <f>VLOOKUP(A586,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C587" s="1">
+        <f>VLOOKUP(A587,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D587">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E587">
+        <f>VLOOKUP(A587,balance!L:R,6,FALSE)/100</f>
+        <v>24231829.7344</v>
+      </c>
+      <c r="F587">
+        <f t="shared" si="26"/>
+        <v>264</v>
+      </c>
+      <c r="G587">
+        <f>VLOOKUP(A587,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C588" s="1">
+        <f>VLOOKUP(A588,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D588">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E588">
+        <f>VLOOKUP(A588,balance!L:R,6,FALSE)/100</f>
+        <v>24494019.7839</v>
+      </c>
+      <c r="F588">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <f>VLOOKUP(A588,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C589" s="1">
+        <f>VLOOKUP(A589,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D589">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E589">
+        <f>VLOOKUP(A589,balance!L:R,6,FALSE)/100</f>
+        <v>24758831.7344</v>
+      </c>
+      <c r="F589">
+        <f t="shared" ref="F589:F601" si="29">IF(F579=0,0,F579+2)</f>
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <f>VLOOKUP(A589,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C590" s="1">
+        <f>VLOOKUP(A590,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D590">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E590">
+        <f>VLOOKUP(A590,balance!L:R,6,FALSE)/100</f>
+        <v>25026291.812400002</v>
+      </c>
+      <c r="F590">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G590">
+        <f>VLOOKUP(A590,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C591" s="1">
+        <f>VLOOKUP(A591,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D591">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E591">
+        <f>VLOOKUP(A591,balance!L:R,6,FALSE)/100</f>
+        <v>25296426.496600002</v>
+      </c>
+      <c r="F591">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G591">
+        <f>VLOOKUP(A591,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C592" s="1">
+        <f>VLOOKUP(A592,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D592">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E592">
+        <f>VLOOKUP(A592,balance!L:R,6,FALSE)/100</f>
+        <v>25569262.535200004</v>
+      </c>
+      <c r="F592">
+        <f t="shared" si="29"/>
+        <v>265</v>
+      </c>
+      <c r="G592">
+        <f>VLOOKUP(A592,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C593" s="1">
+        <f>VLOOKUP(A593,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D593">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E593">
+        <f>VLOOKUP(A593,balance!L:R,6,FALSE)/100</f>
+        <v>25844826.937300004</v>
+      </c>
+      <c r="F593">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G593">
+        <f>VLOOKUP(A593,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C594" s="1">
+        <f>VLOOKUP(A594,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D594">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E594">
+        <f>VLOOKUP(A594,balance!L:R,6,FALSE)/100</f>
+        <v>26123146.989800006</v>
+      </c>
+      <c r="F594">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G594">
+        <f>VLOOKUP(A594,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C595" s="1">
+        <f>VLOOKUP(A595,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D595">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E595">
+        <f>VLOOKUP(A595,balance!L:R,6,FALSE)/100</f>
+        <v>26404250.248800006</v>
+      </c>
+      <c r="F595">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G595">
+        <f>VLOOKUP(A595,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C596" s="1">
+        <f>VLOOKUP(A596,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D596">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E596">
+        <f>VLOOKUP(A596,balance!L:R,6,FALSE)/100</f>
+        <v>26688164.548200008</v>
+      </c>
+      <c r="F596">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G596">
+        <f>VLOOKUP(A596,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C597" s="1">
+        <f>VLOOKUP(A597,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E597">
+        <f>VLOOKUP(A597,balance!L:R,6,FALSE)/100</f>
+        <v>26974917.991200007</v>
+      </c>
+      <c r="F597">
+        <f t="shared" si="29"/>
+        <v>266</v>
+      </c>
+      <c r="G597">
+        <f>VLOOKUP(A597,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C598" s="1">
+        <f>VLOOKUP(A598,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E598">
+        <f>VLOOKUP(A598,balance!L:R,6,FALSE)/100</f>
+        <v>27264538.975700006</v>
+      </c>
+      <c r="F598">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G598">
+        <f>VLOOKUP(A598,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C599" s="1">
+        <f>VLOOKUP(A599,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E599">
+        <f>VLOOKUP(A599,balance!L:R,6,FALSE)/100</f>
+        <v>27557056.177300006</v>
+      </c>
+      <c r="F599">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G599">
+        <f>VLOOKUP(A599,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C600" s="1">
+        <f>VLOOKUP(A600,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E600">
+        <f>VLOOKUP(A600,balance!L:R,6,FALSE)/100</f>
+        <v>27852498.557800006</v>
+      </c>
+      <c r="F600">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <f>VLOOKUP(A600,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C601" s="1">
+        <f>VLOOKUP(A601,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D601">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E601">
+        <f>VLOOKUP(A601,balance!L:R,6,FALSE)/100</f>
+        <v>28150895.365000006</v>
+      </c>
+      <c r="F601">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G601">
+        <f>VLOOKUP(A601,balance!Z:AD,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15485,19 +18385,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C502:C1048576" formula="1"/>
+    <ignoredError sqref="C602:C1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
-  <dimension ref="A1:AE504"/>
+  <dimension ref="A1:AE604"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="N405" sqref="N405:N504"/>
+      <selection pane="topRight" activeCell="AB602" sqref="AB602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15511,7 +18411,7 @@
     <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="2"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34.375" bestFit="1" customWidth="1"/>
@@ -47357,7 +50257,7 @@
         <v>14000000</v>
       </c>
       <c r="AB479">
-        <f t="shared" ref="AB479:AB504" si="95">AB439+1</f>
+        <f t="shared" ref="AB479:AB542" si="95">AB439+1</f>
         <v>14</v>
       </c>
       <c r="AC479" s="1">
@@ -48438,6 +51338,4306 @@
       <c r="AC504" s="1">
         <f>SUM($AA$5:AA504)</f>
         <v>3699991900</v>
+      </c>
+    </row>
+    <row r="505" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L505" s="2">
+        <v>500</v>
+      </c>
+      <c r="M505" s="1">
+        <f t="shared" ref="M505:M568" si="96">ROUNDUP((M504)*N505,-2)</f>
+        <v>1323844900</v>
+      </c>
+      <c r="N505">
+        <v>1.01</v>
+      </c>
+      <c r="O505" s="1">
+        <f>SUM($M$5:M505)</f>
+        <v>109449969400</v>
+      </c>
+      <c r="P505" s="1">
+        <f t="shared" ref="P505:P568" si="97">IF(L505&lt;=$A$27,ROUNDUP(M505*N505/$B$26,2),IF(L505&lt;=$A$28,ROUNDUP(M505*N505/$B$27,2),IF(L505&lt;=$A$29,ROUNDUP(M505*N505/$B$28,2),IF(L505&lt;=$A$30,ROUNDUP(M505*N505/$B$29,2),IF(L505&lt;=$A$31,ROUNDUP(M505*N505/$B$30,2),ROUNDUP(M505*N505/$B$31,2))))))</f>
+        <v>11142361.25</v>
+      </c>
+      <c r="Q505">
+        <f>SUM($P$5:P505)</f>
+        <v>926664060.76000023</v>
+      </c>
+      <c r="R505">
+        <f t="shared" ref="R505:R568" si="98">(Q505-Q504)*100/Q504</f>
+        <v>1.2170504812680623</v>
+      </c>
+      <c r="Z505" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA505" s="1">
+        <f t="shared" ref="AA505:AA568" si="99">$AA$86*AB505</f>
+        <v>15000000</v>
+      </c>
+      <c r="AB505">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC505" s="1">
+        <f>SUM($AA$5:AA505)</f>
+        <v>3714991900</v>
+      </c>
+    </row>
+    <row r="506" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L506" s="2">
+        <v>501</v>
+      </c>
+      <c r="M506" s="1">
+        <f t="shared" si="96"/>
+        <v>1337083400</v>
+      </c>
+      <c r="N506">
+        <v>1.01</v>
+      </c>
+      <c r="O506" s="1">
+        <f>SUM($M$5:M506)</f>
+        <v>110787052800</v>
+      </c>
+      <c r="P506" s="1">
+        <f t="shared" si="97"/>
+        <v>11253785.289999999</v>
+      </c>
+      <c r="Q506">
+        <f>SUM($P$5:P506)</f>
+        <v>937917846.05000019</v>
+      </c>
+      <c r="R506">
+        <f t="shared" si="98"/>
+        <v>1.2144406766752354</v>
+      </c>
+      <c r="Z506" s="2">
+        <v>501</v>
+      </c>
+      <c r="AA506" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB506">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC506" s="1">
+        <f>SUM($AA$5:AA506)</f>
+        <v>3729991900</v>
+      </c>
+    </row>
+    <row r="507" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L507" s="2">
+        <v>502</v>
+      </c>
+      <c r="M507" s="1">
+        <f t="shared" si="96"/>
+        <v>1350454300</v>
+      </c>
+      <c r="N507">
+        <v>1.01</v>
+      </c>
+      <c r="O507" s="1">
+        <f>SUM($M$5:M507)</f>
+        <v>112137507100</v>
+      </c>
+      <c r="P507" s="1">
+        <f t="shared" si="97"/>
+        <v>11366323.699999999</v>
+      </c>
+      <c r="Q507">
+        <f>SUM($P$5:P507)</f>
+        <v>949284169.75000024</v>
+      </c>
+      <c r="R507">
+        <f t="shared" si="98"/>
+        <v>1.2118677289134459</v>
+      </c>
+      <c r="Z507" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA507" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB507">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC507" s="1">
+        <f>SUM($AA$5:AA507)</f>
+        <v>3744991900</v>
+      </c>
+    </row>
+    <row r="508" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L508" s="2">
+        <v>503</v>
+      </c>
+      <c r="M508" s="1">
+        <f t="shared" si="96"/>
+        <v>1363958900</v>
+      </c>
+      <c r="N508">
+        <v>1.01</v>
+      </c>
+      <c r="O508" s="1">
+        <f>SUM($M$5:M508)</f>
+        <v>113501466000</v>
+      </c>
+      <c r="P508" s="1">
+        <f t="shared" si="97"/>
+        <v>11479987.41</v>
+      </c>
+      <c r="Q508">
+        <f>SUM($P$5:P508)</f>
+        <v>960764157.16000021</v>
+      </c>
+      <c r="R508">
+        <f t="shared" si="98"/>
+        <v>1.2093309649336395</v>
+      </c>
+      <c r="Z508" s="2">
+        <v>503</v>
+      </c>
+      <c r="AA508" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB508">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC508" s="1">
+        <f>SUM($AA$5:AA508)</f>
+        <v>3759991900</v>
+      </c>
+    </row>
+    <row r="509" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L509" s="2">
+        <v>504</v>
+      </c>
+      <c r="M509" s="1">
+        <f t="shared" si="96"/>
+        <v>1377598500</v>
+      </c>
+      <c r="N509">
+        <v>1.01</v>
+      </c>
+      <c r="O509" s="1">
+        <f>SUM($M$5:M509)</f>
+        <v>114879064500</v>
+      </c>
+      <c r="P509" s="1">
+        <f t="shared" si="97"/>
+        <v>11594787.379999999</v>
+      </c>
+      <c r="Q509">
+        <f>SUM($P$5:P509)</f>
+        <v>972358944.5400002</v>
+      </c>
+      <c r="R509">
+        <f t="shared" si="98"/>
+        <v>1.2068297191970563</v>
+      </c>
+      <c r="Z509" s="2">
+        <v>504</v>
+      </c>
+      <c r="AA509" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB509">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC509" s="1">
+        <f>SUM($AA$5:AA509)</f>
+        <v>3774991900</v>
+      </c>
+    </row>
+    <row r="510" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L510" s="2">
+        <v>505</v>
+      </c>
+      <c r="M510" s="1">
+        <f t="shared" si="96"/>
+        <v>1391374500</v>
+      </c>
+      <c r="N510">
+        <v>1.01</v>
+      </c>
+      <c r="O510" s="1">
+        <f>SUM($M$5:M510)</f>
+        <v>116270439000</v>
+      </c>
+      <c r="P510" s="1">
+        <f t="shared" si="97"/>
+        <v>11710735.379999999</v>
+      </c>
+      <c r="Q510">
+        <f>SUM($P$5:P510)</f>
+        <v>984069679.9200002</v>
+      </c>
+      <c r="R510">
+        <f t="shared" si="98"/>
+        <v>1.2043634139181045</v>
+      </c>
+      <c r="Z510" s="2">
+        <v>505</v>
+      </c>
+      <c r="AA510" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB510">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC510" s="1">
+        <f>SUM($AA$5:AA510)</f>
+        <v>3789991900</v>
+      </c>
+    </row>
+    <row r="511" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L511" s="2">
+        <v>506</v>
+      </c>
+      <c r="M511" s="1">
+        <f t="shared" si="96"/>
+        <v>1405288300</v>
+      </c>
+      <c r="N511">
+        <v>1.01</v>
+      </c>
+      <c r="O511" s="1">
+        <f>SUM($M$5:M511)</f>
+        <v>117675727300</v>
+      </c>
+      <c r="P511" s="1">
+        <f t="shared" si="97"/>
+        <v>11827843.199999999</v>
+      </c>
+      <c r="Q511">
+        <f>SUM($P$5:P511)</f>
+        <v>995897523.12000024</v>
+      </c>
+      <c r="R511">
+        <f t="shared" si="98"/>
+        <v>1.2019314730804012</v>
+      </c>
+      <c r="Z511" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA511" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB511">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC511" s="1">
+        <f>SUM($AA$5:AA511)</f>
+        <v>3804991900</v>
+      </c>
+    </row>
+    <row r="512" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L512" s="2">
+        <v>507</v>
+      </c>
+      <c r="M512" s="1">
+        <f t="shared" si="96"/>
+        <v>1419341200</v>
+      </c>
+      <c r="N512">
+        <v>1.01</v>
+      </c>
+      <c r="O512" s="1">
+        <f>SUM($M$5:M512)</f>
+        <v>119095068500</v>
+      </c>
+      <c r="P512" s="1">
+        <f t="shared" si="97"/>
+        <v>11946121.77</v>
+      </c>
+      <c r="Q512">
+        <f>SUM($P$5:P512)</f>
+        <v>1007843644.8900002</v>
+      </c>
+      <c r="R512">
+        <f t="shared" si="98"/>
+        <v>1.1995332343607543</v>
+      </c>
+      <c r="Z512" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA512" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB512">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC512" s="1">
+        <f>SUM($AA$5:AA512)</f>
+        <v>3819991900</v>
+      </c>
+    </row>
+    <row r="513" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L513" s="2">
+        <v>508</v>
+      </c>
+      <c r="M513" s="1">
+        <f t="shared" si="96"/>
+        <v>1433534700</v>
+      </c>
+      <c r="N513">
+        <v>1.01</v>
+      </c>
+      <c r="O513" s="1">
+        <f>SUM($M$5:M513)</f>
+        <v>120528603200</v>
+      </c>
+      <c r="P513" s="1">
+        <f t="shared" si="97"/>
+        <v>12065583.73</v>
+      </c>
+      <c r="Q513">
+        <f>SUM($P$5:P513)</f>
+        <v>1019909228.6200002</v>
+      </c>
+      <c r="R513">
+        <f t="shared" si="98"/>
+        <v>1.1971682106818167</v>
+      </c>
+      <c r="Z513" s="2">
+        <v>508</v>
+      </c>
+      <c r="AA513" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB513">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC513" s="1">
+        <f>SUM($AA$5:AA513)</f>
+        <v>3834991900</v>
+      </c>
+    </row>
+    <row r="514" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L514" s="2">
+        <v>509</v>
+      </c>
+      <c r="M514" s="1">
+        <f t="shared" si="96"/>
+        <v>1447870100</v>
+      </c>
+      <c r="N514">
+        <v>1.01</v>
+      </c>
+      <c r="O514" s="1">
+        <f>SUM($M$5:M514)</f>
+        <v>121976473300</v>
+      </c>
+      <c r="P514" s="1">
+        <f t="shared" si="97"/>
+        <v>12186240.01</v>
+      </c>
+      <c r="Q514">
+        <f>SUM($P$5:P514)</f>
+        <v>1032095468.6300002</v>
+      </c>
+      <c r="R514">
+        <f t="shared" si="98"/>
+        <v>1.1948357430286929</v>
+      </c>
+      <c r="Z514" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA514" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB514">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC514" s="1">
+        <f>SUM($AA$5:AA514)</f>
+        <v>3849991900</v>
+      </c>
+    </row>
+    <row r="515" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L515" s="2">
+        <v>510</v>
+      </c>
+      <c r="M515" s="1">
+        <f t="shared" si="96"/>
+        <v>1462348900</v>
+      </c>
+      <c r="N515">
+        <v>1.01</v>
+      </c>
+      <c r="O515" s="1">
+        <f>SUM($M$5:M515)</f>
+        <v>123438822200</v>
+      </c>
+      <c r="P515" s="1">
+        <f t="shared" si="97"/>
+        <v>12308103.25</v>
+      </c>
+      <c r="Q515">
+        <f>SUM($P$5:P515)</f>
+        <v>1044403571.8800002</v>
+      </c>
+      <c r="R515">
+        <f t="shared" si="98"/>
+        <v>1.1925353442678837</v>
+      </c>
+      <c r="Z515" s="2">
+        <v>510</v>
+      </c>
+      <c r="AA515" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB515">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC515" s="1">
+        <f>SUM($AA$5:AA515)</f>
+        <v>3864991900</v>
+      </c>
+    </row>
+    <row r="516" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L516" s="2">
+        <v>511</v>
+      </c>
+      <c r="M516" s="1">
+        <f t="shared" si="96"/>
+        <v>1476972400</v>
+      </c>
+      <c r="N516">
+        <v>1.01</v>
+      </c>
+      <c r="O516" s="1">
+        <f>SUM($M$5:M516)</f>
+        <v>124915794600</v>
+      </c>
+      <c r="P516" s="1">
+        <f t="shared" si="97"/>
+        <v>12431184.369999999</v>
+      </c>
+      <c r="Q516">
+        <f>SUM($P$5:P516)</f>
+        <v>1056834756.2500002</v>
+      </c>
+      <c r="R516">
+        <f t="shared" si="98"/>
+        <v>1.1902663591644937</v>
+      </c>
+      <c r="Z516" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA516" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB516">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC516" s="1">
+        <f>SUM($AA$5:AA516)</f>
+        <v>3879991900</v>
+      </c>
+    </row>
+    <row r="517" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L517" s="2">
+        <v>512</v>
+      </c>
+      <c r="M517" s="1">
+        <f t="shared" si="96"/>
+        <v>1491742200</v>
+      </c>
+      <c r="N517">
+        <v>1.01</v>
+      </c>
+      <c r="O517" s="1">
+        <f>SUM($M$5:M517)</f>
+        <v>126407536800</v>
+      </c>
+      <c r="P517" s="1">
+        <f t="shared" si="97"/>
+        <v>12555496.85</v>
+      </c>
+      <c r="Q517">
+        <f>SUM($P$5:P517)</f>
+        <v>1069390253.1000003</v>
+      </c>
+      <c r="R517">
+        <f t="shared" si="98"/>
+        <v>1.1880283815183261</v>
+      </c>
+      <c r="Z517" s="2">
+        <v>512</v>
+      </c>
+      <c r="AA517" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB517">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC517" s="1">
+        <f>SUM($AA$5:AA517)</f>
+        <v>3894991900</v>
+      </c>
+    </row>
+    <row r="518" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L518" s="2">
+        <v>513</v>
+      </c>
+      <c r="M518" s="1">
+        <f t="shared" si="96"/>
+        <v>1506659700</v>
+      </c>
+      <c r="N518">
+        <v>1.01</v>
+      </c>
+      <c r="O518" s="1">
+        <f>SUM($M$5:M518)</f>
+        <v>127914196500</v>
+      </c>
+      <c r="P518" s="1">
+        <f t="shared" si="97"/>
+        <v>12681052.48</v>
+      </c>
+      <c r="Q518">
+        <f>SUM($P$5:P518)</f>
+        <v>1082071305.5800002</v>
+      </c>
+      <c r="R518">
+        <f t="shared" si="98"/>
+        <v>1.1858208397953367</v>
+      </c>
+      <c r="Z518" s="2">
+        <v>513</v>
+      </c>
+      <c r="AA518" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB518">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC518" s="1">
+        <f>SUM($AA$5:AA518)</f>
+        <v>3909991900</v>
+      </c>
+    </row>
+    <row r="519" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L519" s="2">
+        <v>514</v>
+      </c>
+      <c r="M519" s="1">
+        <f t="shared" si="96"/>
+        <v>1521726300</v>
+      </c>
+      <c r="N519">
+        <v>1.01</v>
+      </c>
+      <c r="O519" s="1">
+        <f>SUM($M$5:M519)</f>
+        <v>129435922800</v>
+      </c>
+      <c r="P519" s="1">
+        <f t="shared" si="97"/>
+        <v>12807863.029999999</v>
+      </c>
+      <c r="Q519">
+        <f>SUM($P$5:P519)</f>
+        <v>1094879168.6100001</v>
+      </c>
+      <c r="R519">
+        <f t="shared" si="98"/>
+        <v>1.1836431632511353</v>
+      </c>
+      <c r="Z519" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA519" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB519">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC519" s="1">
+        <f>SUM($AA$5:AA519)</f>
+        <v>3924991900</v>
+      </c>
+    </row>
+    <row r="520" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L520" s="2">
+        <v>515</v>
+      </c>
+      <c r="M520" s="1">
+        <f t="shared" si="96"/>
+        <v>1536943600</v>
+      </c>
+      <c r="N520">
+        <v>1.01</v>
+      </c>
+      <c r="O520" s="1">
+        <f>SUM($M$5:M520)</f>
+        <v>130972866400</v>
+      </c>
+      <c r="P520" s="1">
+        <f t="shared" si="97"/>
+        <v>12935941.970000001</v>
+      </c>
+      <c r="Q520">
+        <f>SUM($P$5:P520)</f>
+        <v>1107815110.5800002</v>
+      </c>
+      <c r="R520">
+        <f t="shared" si="98"/>
+        <v>1.1814949394299652</v>
+      </c>
+      <c r="Z520" s="2">
+        <v>515</v>
+      </c>
+      <c r="AA520" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB520">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC520" s="1">
+        <f>SUM($AA$5:AA520)</f>
+        <v>3939991900</v>
+      </c>
+    </row>
+    <row r="521" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L521" s="2">
+        <v>516</v>
+      </c>
+      <c r="M521" s="1">
+        <f t="shared" si="96"/>
+        <v>1552313100</v>
+      </c>
+      <c r="N521">
+        <v>1.01</v>
+      </c>
+      <c r="O521" s="1">
+        <f>SUM($M$5:M521)</f>
+        <v>132525179500</v>
+      </c>
+      <c r="P521" s="1">
+        <f t="shared" si="97"/>
+        <v>13065301.93</v>
+      </c>
+      <c r="Q521">
+        <f>SUM($P$5:P521)</f>
+        <v>1120880412.5100002</v>
+      </c>
+      <c r="R521">
+        <f t="shared" si="98"/>
+        <v>1.1793756742638839</v>
+      </c>
+      <c r="Z521" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA521" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB521">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC521" s="1">
+        <f>SUM($AA$5:AA521)</f>
+        <v>3954991900</v>
+      </c>
+    </row>
+    <row r="522" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L522" s="2">
+        <v>517</v>
+      </c>
+      <c r="M522" s="1">
+        <f t="shared" si="96"/>
+        <v>1567836300</v>
+      </c>
+      <c r="N522">
+        <v>1.01</v>
+      </c>
+      <c r="O522" s="1">
+        <f>SUM($M$5:M522)</f>
+        <v>134093015800</v>
+      </c>
+      <c r="P522" s="1">
+        <f t="shared" si="97"/>
+        <v>13195955.529999999</v>
+      </c>
+      <c r="Q522">
+        <f>SUM($P$5:P522)</f>
+        <v>1134076368.0400002</v>
+      </c>
+      <c r="R522">
+        <f t="shared" si="98"/>
+        <v>1.1772848720275269</v>
+      </c>
+      <c r="Z522" s="2">
+        <v>517</v>
+      </c>
+      <c r="AA522" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB522">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC522" s="1">
+        <f>SUM($AA$5:AA522)</f>
+        <v>3969991900</v>
+      </c>
+    </row>
+    <row r="523" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L523" s="2">
+        <v>518</v>
+      </c>
+      <c r="M523" s="1">
+        <f t="shared" si="96"/>
+        <v>1583514700</v>
+      </c>
+      <c r="N523">
+        <v>1.01</v>
+      </c>
+      <c r="O523" s="1">
+        <f>SUM($M$5:M523)</f>
+        <v>135676530500</v>
+      </c>
+      <c r="P523" s="1">
+        <f t="shared" si="97"/>
+        <v>13327915.4</v>
+      </c>
+      <c r="Q523">
+        <f>SUM($P$5:P523)</f>
+        <v>1147404283.4400003</v>
+      </c>
+      <c r="R523">
+        <f t="shared" si="98"/>
+        <v>1.1752220375629945</v>
+      </c>
+      <c r="Z523" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA523" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB523">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC523" s="1">
+        <f>SUM($AA$5:AA523)</f>
+        <v>3984991900</v>
+      </c>
+    </row>
+    <row r="524" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L524" s="2">
+        <v>519</v>
+      </c>
+      <c r="M524" s="1">
+        <f t="shared" si="96"/>
+        <v>1599349900</v>
+      </c>
+      <c r="N524">
+        <v>1.01</v>
+      </c>
+      <c r="O524" s="1">
+        <f>SUM($M$5:M524)</f>
+        <v>137275880400</v>
+      </c>
+      <c r="P524" s="1">
+        <f t="shared" si="97"/>
+        <v>13461195</v>
+      </c>
+      <c r="Q524">
+        <f>SUM($P$5:P524)</f>
+        <v>1160865478.4400003</v>
+      </c>
+      <c r="R524">
+        <f t="shared" si="98"/>
+        <v>1.1731867480607945</v>
+      </c>
+      <c r="Z524" s="2">
+        <v>519</v>
+      </c>
+      <c r="AA524" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB524">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC524" s="1">
+        <f>SUM($AA$5:AA524)</f>
+        <v>3999991900</v>
+      </c>
+    </row>
+    <row r="525" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L525" s="2">
+        <v>520</v>
+      </c>
+      <c r="M525" s="1">
+        <f t="shared" si="96"/>
+        <v>1615343400</v>
+      </c>
+      <c r="N525">
+        <v>1.01</v>
+      </c>
+      <c r="O525" s="1">
+        <f>SUM($M$5:M525)</f>
+        <v>138891223800</v>
+      </c>
+      <c r="P525" s="1">
+        <f t="shared" si="97"/>
+        <v>13595806.949999999</v>
+      </c>
+      <c r="Q525">
+        <f>SUM($P$5:P525)</f>
+        <v>1174461285.3900003</v>
+      </c>
+      <c r="R525">
+        <f t="shared" si="98"/>
+        <v>1.1711785045301226</v>
+      </c>
+      <c r="Z525" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA525" s="1">
+        <f t="shared" si="99"/>
+        <v>15000000</v>
+      </c>
+      <c r="AB525">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="AC525" s="1">
+        <f>SUM($AA$5:AA525)</f>
+        <v>4014991900</v>
+      </c>
+    </row>
+    <row r="526" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L526" s="2">
+        <v>521</v>
+      </c>
+      <c r="M526" s="1">
+        <f t="shared" si="96"/>
+        <v>1631496900</v>
+      </c>
+      <c r="N526">
+        <v>1.01</v>
+      </c>
+      <c r="O526" s="1">
+        <f>SUM($M$5:M526)</f>
+        <v>140522720700</v>
+      </c>
+      <c r="P526" s="1">
+        <f t="shared" si="97"/>
+        <v>13731765.58</v>
+      </c>
+      <c r="Q526">
+        <f>SUM($P$5:P526)</f>
+        <v>1188193050.9700003</v>
+      </c>
+      <c r="R526">
+        <f t="shared" si="98"/>
+        <v>1.1691969544521896</v>
+      </c>
+      <c r="Z526" s="2">
+        <v>521</v>
+      </c>
+      <c r="AA526" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB526">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC526" s="1">
+        <f>SUM($AA$5:AA526)</f>
+        <v>4030991900</v>
+      </c>
+    </row>
+    <row r="527" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L527" s="2">
+        <v>522</v>
+      </c>
+      <c r="M527" s="1">
+        <f t="shared" si="96"/>
+        <v>1647811900</v>
+      </c>
+      <c r="N527">
+        <v>1.01</v>
+      </c>
+      <c r="O527" s="1">
+        <f>SUM($M$5:M527)</f>
+        <v>142170532600</v>
+      </c>
+      <c r="P527" s="1">
+        <f t="shared" si="97"/>
+        <v>13869083.5</v>
+      </c>
+      <c r="Q527">
+        <f>SUM($P$5:P527)</f>
+        <v>1202062134.4700003</v>
+      </c>
+      <c r="R527">
+        <f t="shared" si="98"/>
+        <v>1.1672415933318037</v>
+      </c>
+      <c r="Z527" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA527" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB527">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC527" s="1">
+        <f>SUM($AA$5:AA527)</f>
+        <v>4046991900</v>
+      </c>
+    </row>
+    <row r="528" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L528" s="2">
+        <v>523</v>
+      </c>
+      <c r="M528" s="1">
+        <f t="shared" si="96"/>
+        <v>1664290100</v>
+      </c>
+      <c r="N528">
+        <v>1.01</v>
+      </c>
+      <c r="O528" s="1">
+        <f>SUM($M$5:M528)</f>
+        <v>143834822700</v>
+      </c>
+      <c r="P528" s="1">
+        <f t="shared" si="97"/>
+        <v>14007775.01</v>
+      </c>
+      <c r="Q528">
+        <f>SUM($P$5:P528)</f>
+        <v>1216069909.4800003</v>
+      </c>
+      <c r="R528">
+        <f t="shared" si="98"/>
+        <v>1.1653120590289736</v>
+      </c>
+      <c r="Z528" s="2">
+        <v>523</v>
+      </c>
+      <c r="AA528" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB528">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC528" s="1">
+        <f>SUM($AA$5:AA528)</f>
+        <v>4062991900</v>
+      </c>
+    </row>
+    <row r="529" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L529" s="2">
+        <v>524</v>
+      </c>
+      <c r="M529" s="1">
+        <f t="shared" si="96"/>
+        <v>1680933100</v>
+      </c>
+      <c r="N529">
+        <v>1.01</v>
+      </c>
+      <c r="O529" s="1">
+        <f>SUM($M$5:M529)</f>
+        <v>145515755800</v>
+      </c>
+      <c r="P529" s="1">
+        <f t="shared" si="97"/>
+        <v>14147853.6</v>
+      </c>
+      <c r="Q529">
+        <f>SUM($P$5:P529)</f>
+        <v>1230217763.0800002</v>
+      </c>
+      <c r="R529">
+        <f t="shared" si="98"/>
+        <v>1.1634079167413676</v>
+      </c>
+      <c r="Z529" s="2">
+        <v>524</v>
+      </c>
+      <c r="AA529" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB529">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC529" s="1">
+        <f>SUM($AA$5:AA529)</f>
+        <v>4078991900</v>
+      </c>
+    </row>
+    <row r="530" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L530" s="2">
+        <v>525</v>
+      </c>
+      <c r="M530" s="1">
+        <f t="shared" si="96"/>
+        <v>1697742500</v>
+      </c>
+      <c r="N530">
+        <v>1.01</v>
+      </c>
+      <c r="O530" s="1">
+        <f>SUM($M$5:M530)</f>
+        <v>147213498300</v>
+      </c>
+      <c r="P530" s="1">
+        <f t="shared" si="97"/>
+        <v>14289332.709999999</v>
+      </c>
+      <c r="Q530">
+        <f>SUM($P$5:P530)</f>
+        <v>1244507095.7900002</v>
+      </c>
+      <c r="R530">
+        <f t="shared" si="98"/>
+        <v>1.1615287259570168</v>
+      </c>
+      <c r="Z530" s="2">
+        <v>525</v>
+      </c>
+      <c r="AA530" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB530">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC530" s="1">
+        <f>SUM($AA$5:AA530)</f>
+        <v>4094991900</v>
+      </c>
+    </row>
+    <row r="531" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L531" s="2">
+        <v>526</v>
+      </c>
+      <c r="M531" s="1">
+        <f t="shared" si="96"/>
+        <v>1714720000</v>
+      </c>
+      <c r="N531">
+        <v>1.01</v>
+      </c>
+      <c r="O531" s="1">
+        <f>SUM($M$5:M531)</f>
+        <v>148928218300</v>
+      </c>
+      <c r="P531" s="1">
+        <f t="shared" si="97"/>
+        <v>14432226.67</v>
+      </c>
+      <c r="Q531">
+        <f>SUM($P$5:P531)</f>
+        <v>1258939322.4600003</v>
+      </c>
+      <c r="R531">
+        <f t="shared" si="98"/>
+        <v>1.1596741166701543</v>
+      </c>
+      <c r="Z531" s="2">
+        <v>526</v>
+      </c>
+      <c r="AA531" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB531">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC531" s="1">
+        <f>SUM($AA$5:AA531)</f>
+        <v>4110991900</v>
+      </c>
+    </row>
+    <row r="532" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L532" s="2">
+        <v>527</v>
+      </c>
+      <c r="M532" s="1">
+        <f t="shared" si="96"/>
+        <v>1731867200</v>
+      </c>
+      <c r="N532">
+        <v>1.01</v>
+      </c>
+      <c r="O532" s="1">
+        <f>SUM($M$5:M532)</f>
+        <v>150660085500</v>
+      </c>
+      <c r="P532" s="1">
+        <f t="shared" si="97"/>
+        <v>14576548.939999999</v>
+      </c>
+      <c r="Q532">
+        <f>SUM($P$5:P532)</f>
+        <v>1273515871.4000003</v>
+      </c>
+      <c r="R532">
+        <f t="shared" si="98"/>
+        <v>1.157843645038992</v>
+      </c>
+      <c r="Z532" s="2">
+        <v>527</v>
+      </c>
+      <c r="AA532" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB532">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC532" s="1">
+        <f>SUM($AA$5:AA532)</f>
+        <v>4126991900</v>
+      </c>
+    </row>
+    <row r="533" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L533" s="2">
+        <v>528</v>
+      </c>
+      <c r="M533" s="1">
+        <f t="shared" si="96"/>
+        <v>1749185900</v>
+      </c>
+      <c r="N533">
+        <v>1.01</v>
+      </c>
+      <c r="O533" s="1">
+        <f>SUM($M$5:M533)</f>
+        <v>152409271400</v>
+      </c>
+      <c r="P533" s="1">
+        <f t="shared" si="97"/>
+        <v>14722314.66</v>
+      </c>
+      <c r="Q533">
+        <f>SUM($P$5:P533)</f>
+        <v>1288238186.0600004</v>
+      </c>
+      <c r="R533">
+        <f t="shared" si="98"/>
+        <v>1.156036998880553</v>
+      </c>
+      <c r="Z533" s="2">
+        <v>528</v>
+      </c>
+      <c r="AA533" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB533">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC533" s="1">
+        <f>SUM($AA$5:AA533)</f>
+        <v>4142991900</v>
+      </c>
+    </row>
+    <row r="534" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L534" s="2">
+        <v>529</v>
+      </c>
+      <c r="M534" s="1">
+        <f t="shared" si="96"/>
+        <v>1766677800</v>
+      </c>
+      <c r="N534">
+        <v>1.01</v>
+      </c>
+      <c r="O534" s="1">
+        <f>SUM($M$5:M534)</f>
+        <v>154175949200</v>
+      </c>
+      <c r="P534" s="1">
+        <f t="shared" si="97"/>
+        <v>14869538.15</v>
+      </c>
+      <c r="Q534">
+        <f>SUM($P$5:P534)</f>
+        <v>1303107724.2100005</v>
+      </c>
+      <c r="R534">
+        <f t="shared" si="98"/>
+        <v>1.1542537949040068</v>
+      </c>
+      <c r="Z534" s="2">
+        <v>529</v>
+      </c>
+      <c r="AA534" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB534">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC534" s="1">
+        <f>SUM($AA$5:AA534)</f>
+        <v>4158991900</v>
+      </c>
+    </row>
+    <row r="535" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L535" s="2">
+        <v>530</v>
+      </c>
+      <c r="M535" s="1">
+        <f t="shared" si="96"/>
+        <v>1784344600</v>
+      </c>
+      <c r="N535">
+        <v>1.01</v>
+      </c>
+      <c r="O535" s="1">
+        <f>SUM($M$5:M535)</f>
+        <v>155960293800</v>
+      </c>
+      <c r="P535" s="1">
+        <f t="shared" si="97"/>
+        <v>15018233.720000001</v>
+      </c>
+      <c r="Q535">
+        <f>SUM($P$5:P535)</f>
+        <v>1318125957.9300005</v>
+      </c>
+      <c r="R535">
+        <f t="shared" si="98"/>
+        <v>1.152493645842267</v>
+      </c>
+      <c r="Z535" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA535" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB535">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC535" s="1">
+        <f>SUM($AA$5:AA535)</f>
+        <v>4174991900</v>
+      </c>
+    </row>
+    <row r="536" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L536" s="2">
+        <v>531</v>
+      </c>
+      <c r="M536" s="1">
+        <f t="shared" si="96"/>
+        <v>1802188100</v>
+      </c>
+      <c r="N536">
+        <v>1.01</v>
+      </c>
+      <c r="O536" s="1">
+        <f>SUM($M$5:M536)</f>
+        <v>157762481900</v>
+      </c>
+      <c r="P536" s="1">
+        <f t="shared" si="97"/>
+        <v>15168416.51</v>
+      </c>
+      <c r="Q536">
+        <f>SUM($P$5:P536)</f>
+        <v>1333294374.4400005</v>
+      </c>
+      <c r="R536">
+        <f t="shared" si="98"/>
+        <v>1.1507562246798202</v>
+      </c>
+      <c r="Z536" s="2">
+        <v>531</v>
+      </c>
+      <c r="AA536" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB536">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC536" s="1">
+        <f>SUM($AA$5:AA536)</f>
+        <v>4190991900</v>
+      </c>
+    </row>
+    <row r="537" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L537" s="2">
+        <v>532</v>
+      </c>
+      <c r="M537" s="1">
+        <f t="shared" si="96"/>
+        <v>1820210000</v>
+      </c>
+      <c r="N537">
+        <v>1.01</v>
+      </c>
+      <c r="O537" s="1">
+        <f>SUM($M$5:M537)</f>
+        <v>159582691900</v>
+      </c>
+      <c r="P537" s="1">
+        <f t="shared" si="97"/>
+        <v>15320100.84</v>
+      </c>
+      <c r="Q537">
+        <f>SUM($P$5:P537)</f>
+        <v>1348614475.2800004</v>
+      </c>
+      <c r="R537">
+        <f t="shared" si="98"/>
+        <v>1.1490411370283129</v>
+      </c>
+      <c r="Z537" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA537" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB537">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC537" s="1">
+        <f>SUM($AA$5:AA537)</f>
+        <v>4206991900</v>
+      </c>
+    </row>
+    <row r="538" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L538" s="2">
+        <v>533</v>
+      </c>
+      <c r="M538" s="1">
+        <f t="shared" si="96"/>
+        <v>1838412100</v>
+      </c>
+      <c r="N538">
+        <v>1.01</v>
+      </c>
+      <c r="O538" s="1">
+        <f>SUM($M$5:M538)</f>
+        <v>161421104000</v>
+      </c>
+      <c r="P538" s="1">
+        <f t="shared" si="97"/>
+        <v>15473301.85</v>
+      </c>
+      <c r="Q538">
+        <f>SUM($P$5:P538)</f>
+        <v>1364087777.1300004</v>
+      </c>
+      <c r="R538">
+        <f t="shared" si="98"/>
+        <v>1.1473480474682971</v>
+      </c>
+      <c r="Z538" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA538" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB538">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC538" s="1">
+        <f>SUM($AA$5:AA538)</f>
+        <v>4222991900</v>
+      </c>
+    </row>
+    <row r="539" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L539" s="2">
+        <v>534</v>
+      </c>
+      <c r="M539" s="1">
+        <f t="shared" si="96"/>
+        <v>1856796300</v>
+      </c>
+      <c r="N539">
+        <v>1.01</v>
+      </c>
+      <c r="O539" s="1">
+        <f>SUM($M$5:M539)</f>
+        <v>163277900300</v>
+      </c>
+      <c r="P539" s="1">
+        <f t="shared" si="97"/>
+        <v>15628035.529999999</v>
+      </c>
+      <c r="Q539">
+        <f>SUM($P$5:P539)</f>
+        <v>1379715812.6600003</v>
+      </c>
+      <c r="R539">
+        <f t="shared" si="98"/>
+        <v>1.1456766779980163</v>
+      </c>
+      <c r="Z539" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA539" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB539">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC539" s="1">
+        <f>SUM($AA$5:AA539)</f>
+        <v>4238991900</v>
+      </c>
+    </row>
+    <row r="540" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L540" s="2">
+        <v>535</v>
+      </c>
+      <c r="M540" s="1">
+        <f t="shared" si="96"/>
+        <v>1875364300</v>
+      </c>
+      <c r="N540">
+        <v>1.01</v>
+      </c>
+      <c r="O540" s="1">
+        <f>SUM($M$5:M540)</f>
+        <v>165153264600</v>
+      </c>
+      <c r="P540" s="1">
+        <f t="shared" si="97"/>
+        <v>15784316.199999999</v>
+      </c>
+      <c r="Q540">
+        <f>SUM($P$5:P540)</f>
+        <v>1395500128.8600004</v>
+      </c>
+      <c r="R540">
+        <f t="shared" si="98"/>
+        <v>1.1440266216539865</v>
+      </c>
+      <c r="Z540" s="2">
+        <v>535</v>
+      </c>
+      <c r="AA540" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB540">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC540" s="1">
+        <f>SUM($AA$5:AA540)</f>
+        <v>4254991900</v>
+      </c>
+    </row>
+    <row r="541" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L541" s="2">
+        <v>536</v>
+      </c>
+      <c r="M541" s="1">
+        <f t="shared" si="96"/>
+        <v>1894118000</v>
+      </c>
+      <c r="N541">
+        <v>1.01</v>
+      </c>
+      <c r="O541" s="1">
+        <f>SUM($M$5:M541)</f>
+        <v>167047382600</v>
+      </c>
+      <c r="P541" s="1">
+        <f t="shared" si="97"/>
+        <v>15942159.84</v>
+      </c>
+      <c r="Q541">
+        <f>SUM($P$5:P541)</f>
+        <v>1411442288.7000003</v>
+      </c>
+      <c r="R541">
+        <f t="shared" si="98"/>
+        <v>1.1423975899610446</v>
+      </c>
+      <c r="Z541" s="2">
+        <v>536</v>
+      </c>
+      <c r="AA541" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB541">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC541" s="1">
+        <f>SUM($AA$5:AA541)</f>
+        <v>4270991900</v>
+      </c>
+    </row>
+    <row r="542" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L542" s="2">
+        <v>537</v>
+      </c>
+      <c r="M542" s="1">
+        <f t="shared" si="96"/>
+        <v>1913059200</v>
+      </c>
+      <c r="N542">
+        <v>1.01</v>
+      </c>
+      <c r="O542" s="1">
+        <f>SUM($M$5:M542)</f>
+        <v>168960441800</v>
+      </c>
+      <c r="P542" s="1">
+        <f t="shared" si="97"/>
+        <v>16101581.6</v>
+      </c>
+      <c r="Q542">
+        <f>SUM($P$5:P542)</f>
+        <v>1427543870.3000002</v>
+      </c>
+      <c r="R542">
+        <f t="shared" si="98"/>
+        <v>1.140789228784562</v>
+      </c>
+      <c r="Z542" s="2">
+        <v>537</v>
+      </c>
+      <c r="AA542" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB542">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="AC542" s="1">
+        <f>SUM($AA$5:AA542)</f>
+        <v>4286991900</v>
+      </c>
+    </row>
+    <row r="543" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L543" s="2">
+        <v>538</v>
+      </c>
+      <c r="M543" s="1">
+        <f t="shared" si="96"/>
+        <v>1932189800</v>
+      </c>
+      <c r="N543">
+        <v>1.01</v>
+      </c>
+      <c r="O543" s="1">
+        <f>SUM($M$5:M543)</f>
+        <v>170892631600</v>
+      </c>
+      <c r="P543" s="1">
+        <f t="shared" si="97"/>
+        <v>16262597.49</v>
+      </c>
+      <c r="Q543">
+        <f>SUM($P$5:P543)</f>
+        <v>1443806467.7900002</v>
+      </c>
+      <c r="R543">
+        <f t="shared" si="98"/>
+        <v>1.1392012412607959</v>
+      </c>
+      <c r="Z543" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA543" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB543">
+        <f t="shared" ref="AB543:AB604" si="100">AB503+1</f>
+        <v>16</v>
+      </c>
+      <c r="AC543" s="1">
+        <f>SUM($AA$5:AA543)</f>
+        <v>4302991900</v>
+      </c>
+    </row>
+    <row r="544" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L544" s="2">
+        <v>539</v>
+      </c>
+      <c r="M544" s="1">
+        <f t="shared" si="96"/>
+        <v>1951511700</v>
+      </c>
+      <c r="N544">
+        <v>1.01</v>
+      </c>
+      <c r="O544" s="1">
+        <f>SUM($M$5:M544)</f>
+        <v>172844143300</v>
+      </c>
+      <c r="P544" s="1">
+        <f t="shared" si="97"/>
+        <v>16425223.48</v>
+      </c>
+      <c r="Q544">
+        <f>SUM($P$5:P544)</f>
+        <v>1460231691.2700002</v>
+      </c>
+      <c r="R544">
+        <f t="shared" si="98"/>
+        <v>1.1376333218081307</v>
+      </c>
+      <c r="Z544" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA544" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB544">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC544" s="1">
+        <f>SUM($AA$5:AA544)</f>
+        <v>4318991900</v>
+      </c>
+    </row>
+    <row r="545" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L545" s="2">
+        <v>540</v>
+      </c>
+      <c r="M545" s="1">
+        <f t="shared" si="96"/>
+        <v>1971026900</v>
+      </c>
+      <c r="N545">
+        <v>1.01</v>
+      </c>
+      <c r="O545" s="1">
+        <f>SUM($M$5:M545)</f>
+        <v>174815170200</v>
+      </c>
+      <c r="P545" s="1">
+        <f t="shared" si="97"/>
+        <v>16589476.41</v>
+      </c>
+      <c r="Q545">
+        <f>SUM($P$5:P545)</f>
+        <v>1476821167.6800003</v>
+      </c>
+      <c r="R545">
+        <f t="shared" si="98"/>
+        <v>1.13608521915942</v>
+      </c>
+      <c r="Z545" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA545" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB545">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC545" s="1">
+        <f>SUM($AA$5:AA545)</f>
+        <v>4334991900</v>
+      </c>
+    </row>
+    <row r="546" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L546" s="2">
+        <v>541</v>
+      </c>
+      <c r="M546" s="1">
+        <f t="shared" si="96"/>
+        <v>1990737200</v>
+      </c>
+      <c r="N546">
+        <v>1.01</v>
+      </c>
+      <c r="O546" s="1">
+        <f>SUM($M$5:M546)</f>
+        <v>176805907400</v>
+      </c>
+      <c r="P546" s="1">
+        <f t="shared" si="97"/>
+        <v>16755371.439999999</v>
+      </c>
+      <c r="Q546">
+        <f>SUM($P$5:P546)</f>
+        <v>1493576539.1200004</v>
+      </c>
+      <c r="R546">
+        <f t="shared" si="98"/>
+        <v>1.1345565601772736</v>
+      </c>
+      <c r="Z546" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA546" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB546">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC546" s="1">
+        <f>SUM($AA$5:AA546)</f>
+        <v>4350991900</v>
+      </c>
+    </row>
+    <row r="547" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L547" s="2">
+        <v>542</v>
+      </c>
+      <c r="M547" s="1">
+        <f t="shared" si="96"/>
+        <v>2010644600</v>
+      </c>
+      <c r="N547">
+        <v>1.01</v>
+      </c>
+      <c r="O547" s="1">
+        <f>SUM($M$5:M547)</f>
+        <v>178816552000</v>
+      </c>
+      <c r="P547" s="1">
+        <f t="shared" si="97"/>
+        <v>16922925.390000001</v>
+      </c>
+      <c r="Q547">
+        <f>SUM($P$5:P547)</f>
+        <v>1510499464.5100005</v>
+      </c>
+      <c r="R547">
+        <f t="shared" si="98"/>
+        <v>1.133047081736495</v>
+      </c>
+      <c r="Z547" s="2">
+        <v>542</v>
+      </c>
+      <c r="AA547" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB547">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC547" s="1">
+        <f>SUM($AA$5:AA547)</f>
+        <v>4366991900</v>
+      </c>
+    </row>
+    <row r="548" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L548" s="2">
+        <v>543</v>
+      </c>
+      <c r="M548" s="1">
+        <f t="shared" si="96"/>
+        <v>2030751100</v>
+      </c>
+      <c r="N548">
+        <v>1.01</v>
+      </c>
+      <c r="O548" s="1">
+        <f>SUM($M$5:M548)</f>
+        <v>180847303100</v>
+      </c>
+      <c r="P548" s="1">
+        <f t="shared" si="97"/>
+        <v>17092155.100000001</v>
+      </c>
+      <c r="Q548">
+        <f>SUM($P$5:P548)</f>
+        <v>1527591619.6100004</v>
+      </c>
+      <c r="R548">
+        <f t="shared" si="98"/>
+        <v>1.1315565150196545</v>
+      </c>
+      <c r="Z548" s="2">
+        <v>543</v>
+      </c>
+      <c r="AA548" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB548">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC548" s="1">
+        <f>SUM($AA$5:AA548)</f>
+        <v>4382991900</v>
+      </c>
+    </row>
+    <row r="549" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L549" s="2">
+        <v>544</v>
+      </c>
+      <c r="M549" s="1">
+        <f t="shared" si="96"/>
+        <v>2051058700</v>
+      </c>
+      <c r="N549">
+        <v>1.01</v>
+      </c>
+      <c r="O549" s="1">
+        <f>SUM($M$5:M549)</f>
+        <v>182898361800</v>
+      </c>
+      <c r="P549" s="1">
+        <f t="shared" si="97"/>
+        <v>17263077.400000002</v>
+      </c>
+      <c r="Q549">
+        <f>SUM($P$5:P549)</f>
+        <v>1544854697.0100005</v>
+      </c>
+      <c r="R549">
+        <f t="shared" si="98"/>
+        <v>1.1300845840203955</v>
+      </c>
+      <c r="Z549" s="2">
+        <v>544</v>
+      </c>
+      <c r="AA549" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB549">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC549" s="1">
+        <f>SUM($AA$5:AA549)</f>
+        <v>4398991900</v>
+      </c>
+    </row>
+    <row r="550" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L550" s="2">
+        <v>545</v>
+      </c>
+      <c r="M550" s="1">
+        <f t="shared" si="96"/>
+        <v>2071569300</v>
+      </c>
+      <c r="N550">
+        <v>1.01</v>
+      </c>
+      <c r="O550" s="1">
+        <f>SUM($M$5:M550)</f>
+        <v>184969931100</v>
+      </c>
+      <c r="P550" s="1">
+        <f t="shared" si="97"/>
+        <v>17435708.280000001</v>
+      </c>
+      <c r="Q550">
+        <f>SUM($P$5:P550)</f>
+        <v>1562290405.2900004</v>
+      </c>
+      <c r="R550">
+        <f t="shared" si="98"/>
+        <v>1.1286309523961076</v>
+      </c>
+      <c r="Z550" s="2">
+        <v>545</v>
+      </c>
+      <c r="AA550" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB550">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC550" s="1">
+        <f>SUM($AA$5:AA550)</f>
+        <v>4414991900</v>
+      </c>
+    </row>
+    <row r="551" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L551" s="2">
+        <v>546</v>
+      </c>
+      <c r="M551" s="1">
+        <f t="shared" si="96"/>
+        <v>2092285000</v>
+      </c>
+      <c r="N551">
+        <v>1.01</v>
+      </c>
+      <c r="O551" s="1">
+        <f>SUM($M$5:M551)</f>
+        <v>187062216100</v>
+      </c>
+      <c r="P551" s="1">
+        <f t="shared" si="97"/>
+        <v>17610065.420000002</v>
+      </c>
+      <c r="Q551">
+        <f>SUM($P$5:P551)</f>
+        <v>1579900470.7100005</v>
+      </c>
+      <c r="R551">
+        <f t="shared" si="98"/>
+        <v>1.1271953895621092</v>
+      </c>
+      <c r="Z551" s="2">
+        <v>546</v>
+      </c>
+      <c r="AA551" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB551">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC551" s="1">
+        <f>SUM($AA$5:AA551)</f>
+        <v>4430991900</v>
+      </c>
+    </row>
+    <row r="552" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L552" s="2">
+        <v>547</v>
+      </c>
+      <c r="M552" s="1">
+        <f t="shared" si="96"/>
+        <v>2113207900</v>
+      </c>
+      <c r="N552">
+        <v>1.01</v>
+      </c>
+      <c r="O552" s="1">
+        <f>SUM($M$5:M552)</f>
+        <v>189175424000</v>
+      </c>
+      <c r="P552" s="1">
+        <f t="shared" si="97"/>
+        <v>17786166.5</v>
+      </c>
+      <c r="Q552">
+        <f>SUM($P$5:P552)</f>
+        <v>1597686637.2100005</v>
+      </c>
+      <c r="R552">
+        <f t="shared" si="98"/>
+        <v>1.125777656867649</v>
+      </c>
+      <c r="Z552" s="2">
+        <v>547</v>
+      </c>
+      <c r="AA552" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB552">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC552" s="1">
+        <f>SUM($AA$5:AA552)</f>
+        <v>4446991900</v>
+      </c>
+    </row>
+    <row r="553" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L553" s="2">
+        <v>548</v>
+      </c>
+      <c r="M553" s="1">
+        <f t="shared" si="96"/>
+        <v>2134340000</v>
+      </c>
+      <c r="N553">
+        <v>1.01</v>
+      </c>
+      <c r="O553" s="1">
+        <f>SUM($M$5:M553)</f>
+        <v>191309764000</v>
+      </c>
+      <c r="P553" s="1">
+        <f t="shared" si="97"/>
+        <v>17964028.34</v>
+      </c>
+      <c r="Q553">
+        <f>SUM($P$5:P553)</f>
+        <v>1615650665.5500004</v>
+      </c>
+      <c r="R553">
+        <f t="shared" si="98"/>
+        <v>1.1243774543530038</v>
+      </c>
+      <c r="Z553" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA553" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB553">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC553" s="1">
+        <f>SUM($AA$5:AA553)</f>
+        <v>4462991900</v>
+      </c>
+    </row>
+    <row r="554" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L554" s="2">
+        <v>549</v>
+      </c>
+      <c r="M554" s="1">
+        <f t="shared" si="96"/>
+        <v>2155683400</v>
+      </c>
+      <c r="N554">
+        <v>1.01</v>
+      </c>
+      <c r="O554" s="1">
+        <f>SUM($M$5:M554)</f>
+        <v>193465447400</v>
+      </c>
+      <c r="P554" s="1">
+        <f t="shared" si="97"/>
+        <v>18143668.620000001</v>
+      </c>
+      <c r="Q554">
+        <f>SUM($P$5:P554)</f>
+        <v>1633794334.1700003</v>
+      </c>
+      <c r="R554">
+        <f t="shared" si="98"/>
+        <v>1.1229945313595009</v>
+      </c>
+      <c r="Z554" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA554" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB554">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC554" s="1">
+        <f>SUM($AA$5:AA554)</f>
+        <v>4478991900</v>
+      </c>
+    </row>
+    <row r="555" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L555" s="2">
+        <v>550</v>
+      </c>
+      <c r="M555" s="1">
+        <f t="shared" si="96"/>
+        <v>2177240300</v>
+      </c>
+      <c r="N555">
+        <v>1.01</v>
+      </c>
+      <c r="O555" s="1">
+        <f>SUM($M$5:M555)</f>
+        <v>195642687700</v>
+      </c>
+      <c r="P555" s="1">
+        <f t="shared" si="97"/>
+        <v>18325105.860000003</v>
+      </c>
+      <c r="Q555">
+        <f>SUM($P$5:P555)</f>
+        <v>1652119440.0300002</v>
+      </c>
+      <c r="R555">
+        <f t="shared" si="98"/>
+        <v>1.1216286821871866</v>
+      </c>
+      <c r="Z555" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA555" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB555">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC555" s="1">
+        <f>SUM($AA$5:AA555)</f>
+        <v>4494991900</v>
+      </c>
+    </row>
+    <row r="556" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L556" s="2">
+        <v>551</v>
+      </c>
+      <c r="M556" s="1">
+        <f t="shared" si="96"/>
+        <v>2199012800</v>
+      </c>
+      <c r="N556">
+        <v>1.01</v>
+      </c>
+      <c r="O556" s="1">
+        <f>SUM($M$5:M556)</f>
+        <v>197841700500</v>
+      </c>
+      <c r="P556" s="1">
+        <f t="shared" si="97"/>
+        <v>18508357.740000002</v>
+      </c>
+      <c r="Q556">
+        <f>SUM($P$5:P556)</f>
+        <v>1670627797.7700002</v>
+      </c>
+      <c r="R556">
+        <f t="shared" si="98"/>
+        <v>1.1202796415048493</v>
+      </c>
+      <c r="Z556" s="2">
+        <v>551</v>
+      </c>
+      <c r="AA556" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB556">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC556" s="1">
+        <f>SUM($AA$5:AA556)</f>
+        <v>4510991900</v>
+      </c>
+    </row>
+    <row r="557" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L557" s="2">
+        <v>552</v>
+      </c>
+      <c r="M557" s="1">
+        <f t="shared" si="96"/>
+        <v>2221003000</v>
+      </c>
+      <c r="N557">
+        <v>1.01</v>
+      </c>
+      <c r="O557" s="1">
+        <f>SUM($M$5:M557)</f>
+        <v>200062703500</v>
+      </c>
+      <c r="P557" s="1">
+        <f t="shared" si="97"/>
+        <v>18693441.920000002</v>
+      </c>
+      <c r="Q557">
+        <f>SUM($P$5:P557)</f>
+        <v>1689321239.6900003</v>
+      </c>
+      <c r="R557">
+        <f t="shared" si="98"/>
+        <v>1.1189471374146052</v>
+      </c>
+      <c r="Z557" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA557" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB557">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC557" s="1">
+        <f>SUM($AA$5:AA557)</f>
+        <v>4526991900</v>
+      </c>
+    </row>
+    <row r="558" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L558" s="2">
+        <v>553</v>
+      </c>
+      <c r="M558" s="1">
+        <f t="shared" si="96"/>
+        <v>2243213100</v>
+      </c>
+      <c r="N558">
+        <v>1.01</v>
+      </c>
+      <c r="O558" s="1">
+        <f>SUM($M$5:M558)</f>
+        <v>202305916600</v>
+      </c>
+      <c r="P558" s="1">
+        <f t="shared" si="97"/>
+        <v>18880376.930000003</v>
+      </c>
+      <c r="Q558">
+        <f>SUM($P$5:P558)</f>
+        <v>1708201616.6200004</v>
+      </c>
+      <c r="R558">
+        <f t="shared" si="98"/>
+        <v>1.1176309446902306</v>
+      </c>
+      <c r="Z558" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA558" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB558">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC558" s="1">
+        <f>SUM($AA$5:AA558)</f>
+        <v>4542991900</v>
+      </c>
+    </row>
+    <row r="559" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L559" s="2">
+        <v>554</v>
+      </c>
+      <c r="M559" s="1">
+        <f t="shared" si="96"/>
+        <v>2265645300</v>
+      </c>
+      <c r="N559">
+        <v>1.01</v>
+      </c>
+      <c r="O559" s="1">
+        <f>SUM($M$5:M559)</f>
+        <v>204571561900</v>
+      </c>
+      <c r="P559" s="1">
+        <f t="shared" si="97"/>
+        <v>19069181.280000001</v>
+      </c>
+      <c r="Q559">
+        <f>SUM($P$5:P559)</f>
+        <v>1727270797.9000003</v>
+      </c>
+      <c r="R559">
+        <f t="shared" si="98"/>
+        <v>1.1163308297138805</v>
+      </c>
+      <c r="Z559" s="2">
+        <v>554</v>
+      </c>
+      <c r="AA559" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB559">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC559" s="1">
+        <f>SUM($AA$5:AA559)</f>
+        <v>4558991900</v>
+      </c>
+    </row>
+    <row r="560" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L560" s="2">
+        <v>555</v>
+      </c>
+      <c r="M560" s="1">
+        <f t="shared" si="96"/>
+        <v>2288301800</v>
+      </c>
+      <c r="N560">
+        <v>1.01</v>
+      </c>
+      <c r="O560" s="1">
+        <f>SUM($M$5:M560)</f>
+        <v>206859863700</v>
+      </c>
+      <c r="P560" s="1">
+        <f t="shared" si="97"/>
+        <v>19259873.490000002</v>
+      </c>
+      <c r="Q560">
+        <f>SUM($P$5:P560)</f>
+        <v>1746530671.3900003</v>
+      </c>
+      <c r="R560">
+        <f t="shared" si="98"/>
+        <v>1.1150465528286579</v>
+      </c>
+      <c r="Z560" s="2">
+        <v>555</v>
+      </c>
+      <c r="AA560" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB560">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC560" s="1">
+        <f>SUM($AA$5:AA560)</f>
+        <v>4574991900</v>
+      </c>
+    </row>
+    <row r="561" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L561" s="2">
+        <v>556</v>
+      </c>
+      <c r="M561" s="1">
+        <f t="shared" si="96"/>
+        <v>2311184900</v>
+      </c>
+      <c r="N561">
+        <v>1.01</v>
+      </c>
+      <c r="O561" s="1">
+        <f>SUM($M$5:M561)</f>
+        <v>209171048600</v>
+      </c>
+      <c r="P561" s="1">
+        <f t="shared" si="97"/>
+        <v>19452472.91</v>
+      </c>
+      <c r="Q561">
+        <f>SUM($P$5:P561)</f>
+        <v>1765983144.3000004</v>
+      </c>
+      <c r="R561">
+        <f t="shared" si="98"/>
+        <v>1.1137779157647756</v>
+      </c>
+      <c r="Z561" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA561" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB561">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC561" s="1">
+        <f>SUM($AA$5:AA561)</f>
+        <v>4590991900</v>
+      </c>
+    </row>
+    <row r="562" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L562" s="2">
+        <v>557</v>
+      </c>
+      <c r="M562" s="1">
+        <f t="shared" si="96"/>
+        <v>2334296800</v>
+      </c>
+      <c r="N562">
+        <v>1.01</v>
+      </c>
+      <c r="O562" s="1">
+        <f>SUM($M$5:M562)</f>
+        <v>211505345400</v>
+      </c>
+      <c r="P562" s="1">
+        <f t="shared" si="97"/>
+        <v>19646998.07</v>
+      </c>
+      <c r="Q562">
+        <f>SUM($P$5:P562)</f>
+        <v>1785630142.3700004</v>
+      </c>
+      <c r="R562">
+        <f t="shared" si="98"/>
+        <v>1.1125246655617202</v>
+      </c>
+      <c r="Z562" s="2">
+        <v>557</v>
+      </c>
+      <c r="AA562" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB562">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC562" s="1">
+        <f>SUM($AA$5:AA562)</f>
+        <v>4606991900</v>
+      </c>
+    </row>
+    <row r="563" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L563" s="2">
+        <v>558</v>
+      </c>
+      <c r="M563" s="1">
+        <f t="shared" si="96"/>
+        <v>2357639800</v>
+      </c>
+      <c r="N563">
+        <v>1.01</v>
+      </c>
+      <c r="O563" s="1">
+        <f>SUM($M$5:M563)</f>
+        <v>213862985200</v>
+      </c>
+      <c r="P563" s="1">
+        <f t="shared" si="97"/>
+        <v>19843468.32</v>
+      </c>
+      <c r="Q563">
+        <f>SUM($P$5:P563)</f>
+        <v>1805473610.6900003</v>
+      </c>
+      <c r="R563">
+        <f t="shared" si="98"/>
+        <v>1.1112865900472781</v>
+      </c>
+      <c r="Z563" s="2">
+        <v>558</v>
+      </c>
+      <c r="AA563" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB563">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC563" s="1">
+        <f>SUM($AA$5:AA563)</f>
+        <v>4622991900</v>
+      </c>
+    </row>
+    <row r="564" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L564" s="2">
+        <v>559</v>
+      </c>
+      <c r="M564" s="1">
+        <f t="shared" si="96"/>
+        <v>2381216200</v>
+      </c>
+      <c r="N564">
+        <v>1.01</v>
+      </c>
+      <c r="O564" s="1">
+        <f>SUM($M$5:M564)</f>
+        <v>216244201400</v>
+      </c>
+      <c r="P564" s="1">
+        <f t="shared" si="97"/>
+        <v>20041903.020000003</v>
+      </c>
+      <c r="Q564">
+        <f>SUM($P$5:P564)</f>
+        <v>1825515513.7100003</v>
+      </c>
+      <c r="R564">
+        <f t="shared" si="98"/>
+        <v>1.1100634704010179</v>
+      </c>
+      <c r="Z564" s="2">
+        <v>559</v>
+      </c>
+      <c r="AA564" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB564">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC564" s="1">
+        <f>SUM($AA$5:AA564)</f>
+        <v>4638991900</v>
+      </c>
+    </row>
+    <row r="565" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L565" s="2">
+        <v>560</v>
+      </c>
+      <c r="M565" s="1">
+        <f t="shared" si="96"/>
+        <v>2405028400</v>
+      </c>
+      <c r="N565">
+        <v>1.01</v>
+      </c>
+      <c r="O565" s="1">
+        <f>SUM($M$5:M565)</f>
+        <v>218649229800</v>
+      </c>
+      <c r="P565" s="1">
+        <f t="shared" si="97"/>
+        <v>20242322.370000001</v>
+      </c>
+      <c r="Q565">
+        <f>SUM($P$5:P565)</f>
+        <v>1845757836.0800002</v>
+      </c>
+      <c r="R565">
+        <f t="shared" si="98"/>
+        <v>1.1088551271120868</v>
+      </c>
+      <c r="Z565" s="2">
+        <v>560</v>
+      </c>
+      <c r="AA565" s="1">
+        <f t="shared" si="99"/>
+        <v>16000000</v>
+      </c>
+      <c r="AB565">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="AC565" s="1">
+        <f>SUM($AA$5:AA565)</f>
+        <v>4654991900</v>
+      </c>
+    </row>
+    <row r="566" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L566" s="2">
+        <v>561</v>
+      </c>
+      <c r="M566" s="1">
+        <f t="shared" si="96"/>
+        <v>2429078700</v>
+      </c>
+      <c r="N566">
+        <v>1.01</v>
+      </c>
+      <c r="O566" s="1">
+        <f>SUM($M$5:M566)</f>
+        <v>221078308500</v>
+      </c>
+      <c r="P566" s="1">
+        <f t="shared" si="97"/>
+        <v>20444745.73</v>
+      </c>
+      <c r="Q566">
+        <f>SUM($P$5:P566)</f>
+        <v>1866202581.8100002</v>
+      </c>
+      <c r="R566">
+        <f t="shared" si="98"/>
+        <v>1.1076613264403277</v>
+      </c>
+      <c r="Z566" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA566" s="1">
+        <f t="shared" si="99"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB566">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC566" s="1">
+        <f>SUM($AA$5:AA566)</f>
+        <v>4671991900</v>
+      </c>
+    </row>
+    <row r="567" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L567" s="2">
+        <v>562</v>
+      </c>
+      <c r="M567" s="1">
+        <f t="shared" si="96"/>
+        <v>2453369500</v>
+      </c>
+      <c r="N567">
+        <v>1.01</v>
+      </c>
+      <c r="O567" s="1">
+        <f>SUM($M$5:M567)</f>
+        <v>223531678000</v>
+      </c>
+      <c r="P567" s="1">
+        <f t="shared" si="97"/>
+        <v>20649193.300000001</v>
+      </c>
+      <c r="Q567">
+        <f>SUM($P$5:P567)</f>
+        <v>1886851775.1100001</v>
+      </c>
+      <c r="R567">
+        <f t="shared" si="98"/>
+        <v>1.1064818740081599</v>
+      </c>
+      <c r="Z567" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA567" s="1">
+        <f t="shared" si="99"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB567">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC567" s="1">
+        <f>SUM($AA$5:AA567)</f>
+        <v>4688991900</v>
+      </c>
+    </row>
+    <row r="568" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L568" s="2">
+        <v>563</v>
+      </c>
+      <c r="M568" s="1">
+        <f t="shared" si="96"/>
+        <v>2477903200</v>
+      </c>
+      <c r="N568">
+        <v>1.01</v>
+      </c>
+      <c r="O568" s="1">
+        <f>SUM($M$5:M568)</f>
+        <v>226009581200</v>
+      </c>
+      <c r="P568" s="1">
+        <f t="shared" si="97"/>
+        <v>20855685.270000003</v>
+      </c>
+      <c r="Q568">
+        <f>SUM($P$5:P568)</f>
+        <v>1907707460.3800001</v>
+      </c>
+      <c r="R568">
+        <f t="shared" si="98"/>
+        <v>1.1053165672636969</v>
+      </c>
+      <c r="Z568" s="2">
+        <v>563</v>
+      </c>
+      <c r="AA568" s="1">
+        <f t="shared" si="99"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB568">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC568" s="1">
+        <f>SUM($AA$5:AA568)</f>
+        <v>4705991900</v>
+      </c>
+    </row>
+    <row r="569" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L569" s="2">
+        <v>564</v>
+      </c>
+      <c r="M569" s="1">
+        <f t="shared" ref="M569:M604" si="101">ROUNDUP((M568)*N569,-2)</f>
+        <v>2502682300</v>
+      </c>
+      <c r="N569">
+        <v>1.01</v>
+      </c>
+      <c r="O569" s="1">
+        <f>SUM($M$5:M569)</f>
+        <v>228512263500</v>
+      </c>
+      <c r="P569" s="1">
+        <f t="shared" ref="P569:P604" si="102">IF(L569&lt;=$A$27,ROUNDUP(M569*N569/$B$26,2),IF(L569&lt;=$A$28,ROUNDUP(M569*N569/$B$27,2),IF(L569&lt;=$A$29,ROUNDUP(M569*N569/$B$28,2),IF(L569&lt;=$A$30,ROUNDUP(M569*N569/$B$29,2),IF(L569&lt;=$A$31,ROUNDUP(M569*N569/$B$30,2),ROUNDUP(M569*N569/$B$31,2))))))</f>
+        <v>21064242.700000003</v>
+      </c>
+      <c r="Q569">
+        <f>SUM($P$5:P569)</f>
+        <v>1928771703.0800002</v>
+      </c>
+      <c r="R569">
+        <f t="shared" ref="R569:R604" si="103">(Q569-Q568)*100/Q568</f>
+        <v>1.1041652421804871</v>
+      </c>
+      <c r="Z569" s="2">
+        <v>564</v>
+      </c>
+      <c r="AA569" s="1">
+        <f t="shared" ref="AA569:AA604" si="104">$AA$86*AB569</f>
+        <v>17000000</v>
+      </c>
+      <c r="AB569">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC569" s="1">
+        <f>SUM($AA$5:AA569)</f>
+        <v>4722991900</v>
+      </c>
+    </row>
+    <row r="570" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L570" s="2">
+        <v>565</v>
+      </c>
+      <c r="M570" s="1">
+        <f t="shared" si="101"/>
+        <v>2527709200</v>
+      </c>
+      <c r="N570">
+        <v>1.01</v>
+      </c>
+      <c r="O570" s="1">
+        <f>SUM($M$5:M570)</f>
+        <v>231039972700</v>
+      </c>
+      <c r="P570" s="1">
+        <f t="shared" si="102"/>
+        <v>21274885.770000003</v>
+      </c>
+      <c r="Q570">
+        <f>SUM($P$5:P570)</f>
+        <v>1950046588.8500001</v>
+      </c>
+      <c r="R570">
+        <f t="shared" si="103"/>
+        <v>1.103027680052892</v>
+      </c>
+      <c r="Z570" s="2">
+        <v>565</v>
+      </c>
+      <c r="AA570" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB570">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC570" s="1">
+        <f>SUM($AA$5:AA570)</f>
+        <v>4739991900</v>
+      </c>
+    </row>
+    <row r="571" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L571" s="2">
+        <v>566</v>
+      </c>
+      <c r="M571" s="1">
+        <f t="shared" si="101"/>
+        <v>2552986300</v>
+      </c>
+      <c r="N571">
+        <v>1.01</v>
+      </c>
+      <c r="O571" s="1">
+        <f>SUM($M$5:M571)</f>
+        <v>233592959000</v>
+      </c>
+      <c r="P571" s="1">
+        <f t="shared" si="102"/>
+        <v>21487634.700000003</v>
+      </c>
+      <c r="Q571">
+        <f>SUM($P$5:P571)</f>
+        <v>1971534223.5500002</v>
+      </c>
+      <c r="R571">
+        <f t="shared" si="103"/>
+        <v>1.1019036582439776</v>
+      </c>
+      <c r="Z571" s="2">
+        <v>566</v>
+      </c>
+      <c r="AA571" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB571">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC571" s="1">
+        <f>SUM($AA$5:AA571)</f>
+        <v>4756991900</v>
+      </c>
+    </row>
+    <row r="572" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L572" s="2">
+        <v>567</v>
+      </c>
+      <c r="M572" s="1">
+        <f t="shared" si="101"/>
+        <v>2578516200</v>
+      </c>
+      <c r="N572">
+        <v>1.01</v>
+      </c>
+      <c r="O572" s="1">
+        <f>SUM($M$5:M572)</f>
+        <v>236171475200</v>
+      </c>
+      <c r="P572" s="1">
+        <f t="shared" si="102"/>
+        <v>21702511.350000001</v>
+      </c>
+      <c r="Q572">
+        <f>SUM($P$5:P572)</f>
+        <v>1993236734.9000001</v>
+      </c>
+      <c r="R572">
+        <f t="shared" si="103"/>
+        <v>1.1007930316787375</v>
+      </c>
+      <c r="Z572" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA572" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB572">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC572" s="1">
+        <f>SUM($AA$5:AA572)</f>
+        <v>4773991900</v>
+      </c>
+    </row>
+    <row r="573" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L573" s="2">
+        <v>568</v>
+      </c>
+      <c r="M573" s="1">
+        <f t="shared" si="101"/>
+        <v>2604301400</v>
+      </c>
+      <c r="N573">
+        <v>1.01</v>
+      </c>
+      <c r="O573" s="1">
+        <f>SUM($M$5:M573)</f>
+        <v>238775776600</v>
+      </c>
+      <c r="P573" s="1">
+        <f t="shared" si="102"/>
+        <v>21919536.790000003</v>
+      </c>
+      <c r="Q573">
+        <f>SUM($P$5:P573)</f>
+        <v>2015156271.6900001</v>
+      </c>
+      <c r="R573">
+        <f t="shared" si="103"/>
+        <v>1.0996956059561915</v>
+      </c>
+      <c r="Z573" s="2">
+        <v>568</v>
+      </c>
+      <c r="AA573" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB573">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC573" s="1">
+        <f>SUM($AA$5:AA573)</f>
+        <v>4790991900</v>
+      </c>
+    </row>
+    <row r="574" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L574" s="2">
+        <v>569</v>
+      </c>
+      <c r="M574" s="1">
+        <f t="shared" si="101"/>
+        <v>2630344500</v>
+      </c>
+      <c r="N574">
+        <v>1.01</v>
+      </c>
+      <c r="O574" s="1">
+        <f>SUM($M$5:M574)</f>
+        <v>241406121100</v>
+      </c>
+      <c r="P574" s="1">
+        <f t="shared" si="102"/>
+        <v>22138732.880000003</v>
+      </c>
+      <c r="Q574">
+        <f>SUM($P$5:P574)</f>
+        <v>2037295004.5700002</v>
+      </c>
+      <c r="R574">
+        <f t="shared" si="103"/>
+        <v>1.0986112189420221</v>
+      </c>
+      <c r="Z574" s="2">
+        <v>569</v>
+      </c>
+      <c r="AA574" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB574">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC574" s="1">
+        <f>SUM($AA$5:AA574)</f>
+        <v>4807991900</v>
+      </c>
+    </row>
+    <row r="575" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L575" s="2">
+        <v>570</v>
+      </c>
+      <c r="M575" s="1">
+        <f t="shared" si="101"/>
+        <v>2656648000</v>
+      </c>
+      <c r="N575">
+        <v>1.01</v>
+      </c>
+      <c r="O575" s="1">
+        <f>SUM($M$5:M575)</f>
+        <v>244062769100</v>
+      </c>
+      <c r="P575" s="1">
+        <f t="shared" si="102"/>
+        <v>22360120.670000002</v>
+      </c>
+      <c r="Q575">
+        <f>SUM($P$5:P575)</f>
+        <v>2059655125.2400002</v>
+      </c>
+      <c r="R575">
+        <f t="shared" si="103"/>
+        <v>1.0975396601789389</v>
+      </c>
+      <c r="Z575" s="2">
+        <v>570</v>
+      </c>
+      <c r="AA575" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB575">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC575" s="1">
+        <f>SUM($AA$5:AA575)</f>
+        <v>4824991900</v>
+      </c>
+    </row>
+    <row r="576" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L576" s="2">
+        <v>571</v>
+      </c>
+      <c r="M576" s="1">
+        <f t="shared" si="101"/>
+        <v>2683214500</v>
+      </c>
+      <c r="N576">
+        <v>1.01</v>
+      </c>
+      <c r="O576" s="1">
+        <f>SUM($M$5:M576)</f>
+        <v>246745983600</v>
+      </c>
+      <c r="P576" s="1">
+        <f t="shared" si="102"/>
+        <v>22583722.050000001</v>
+      </c>
+      <c r="Q576">
+        <f>SUM($P$5:P576)</f>
+        <v>2082238847.2900002</v>
+      </c>
+      <c r="R576">
+        <f t="shared" si="103"/>
+        <v>1.0964807541441384</v>
+      </c>
+      <c r="Z576" s="2">
+        <v>571</v>
+      </c>
+      <c r="AA576" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB576">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC576" s="1">
+        <f>SUM($AA$5:AA576)</f>
+        <v>4841991900</v>
+      </c>
+    </row>
+    <row r="577" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L577" s="2">
+        <v>572</v>
+      </c>
+      <c r="M577" s="1">
+        <f t="shared" si="101"/>
+        <v>2710046700</v>
+      </c>
+      <c r="N577">
+        <v>1.01</v>
+      </c>
+      <c r="O577" s="1">
+        <f>SUM($M$5:M577)</f>
+        <v>249456030300</v>
+      </c>
+      <c r="P577" s="1">
+        <f t="shared" si="102"/>
+        <v>22809559.73</v>
+      </c>
+      <c r="Q577">
+        <f>SUM($P$5:P577)</f>
+        <v>2105048407.0200002</v>
+      </c>
+      <c r="R577">
+        <f t="shared" si="103"/>
+        <v>1.0954343570953105</v>
+      </c>
+      <c r="Z577" s="2">
+        <v>572</v>
+      </c>
+      <c r="AA577" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB577">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC577" s="1">
+        <f>SUM($AA$5:AA577)</f>
+        <v>4858991900</v>
+      </c>
+    </row>
+    <row r="578" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L578" s="2">
+        <v>573</v>
+      </c>
+      <c r="M578" s="1">
+        <f t="shared" si="101"/>
+        <v>2737147200</v>
+      </c>
+      <c r="N578">
+        <v>1.01</v>
+      </c>
+      <c r="O578" s="1">
+        <f>SUM($M$5:M578)</f>
+        <v>252193177500</v>
+      </c>
+      <c r="P578" s="1">
+        <f t="shared" si="102"/>
+        <v>23037655.600000001</v>
+      </c>
+      <c r="Q578">
+        <f>SUM($P$5:P578)</f>
+        <v>2128086062.6200001</v>
+      </c>
+      <c r="R578">
+        <f t="shared" si="103"/>
+        <v>1.094400277122987</v>
+      </c>
+      <c r="Z578" s="2">
+        <v>573</v>
+      </c>
+      <c r="AA578" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB578">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC578" s="1">
+        <f>SUM($AA$5:AA578)</f>
+        <v>4875991900</v>
+      </c>
+    </row>
+    <row r="579" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L579" s="2">
+        <v>574</v>
+      </c>
+      <c r="M579" s="1">
+        <f t="shared" si="101"/>
+        <v>2764518700</v>
+      </c>
+      <c r="N579">
+        <v>1.01</v>
+      </c>
+      <c r="O579" s="1">
+        <f>SUM($M$5:M579)</f>
+        <v>254957696200</v>
+      </c>
+      <c r="P579" s="1">
+        <f t="shared" si="102"/>
+        <v>23268032.400000002</v>
+      </c>
+      <c r="Q579">
+        <f>SUM($P$5:P579)</f>
+        <v>2151354095.02</v>
+      </c>
+      <c r="R579">
+        <f t="shared" si="103"/>
+        <v>1.0933783557302821</v>
+      </c>
+      <c r="Z579" s="2">
+        <v>574</v>
+      </c>
+      <c r="AA579" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB579">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC579" s="1">
+        <f>SUM($AA$5:AA579)</f>
+        <v>4892991900</v>
+      </c>
+    </row>
+    <row r="580" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L580" s="2">
+        <v>575</v>
+      </c>
+      <c r="M580" s="1">
+        <f t="shared" si="101"/>
+        <v>2792163900</v>
+      </c>
+      <c r="N580">
+        <v>1.01</v>
+      </c>
+      <c r="O580" s="1">
+        <f>SUM($M$5:M580)</f>
+        <v>257749860100</v>
+      </c>
+      <c r="P580" s="1">
+        <f t="shared" si="102"/>
+        <v>23500712.830000002</v>
+      </c>
+      <c r="Q580">
+        <f>SUM($P$5:P580)</f>
+        <v>2174854807.8499999</v>
+      </c>
+      <c r="R580">
+        <f t="shared" si="103"/>
+        <v>1.0923684243518941</v>
+      </c>
+      <c r="Z580" s="2">
+        <v>575</v>
+      </c>
+      <c r="AA580" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB580">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC580" s="1">
+        <f>SUM($AA$5:AA580)</f>
+        <v>4909991900</v>
+      </c>
+    </row>
+    <row r="581" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L581" s="2">
+        <v>576</v>
+      </c>
+      <c r="M581" s="1">
+        <f t="shared" si="101"/>
+        <v>2820085600</v>
+      </c>
+      <c r="N581">
+        <v>1.01</v>
+      </c>
+      <c r="O581" s="1">
+        <f>SUM($M$5:M581)</f>
+        <v>260569945700</v>
+      </c>
+      <c r="P581" s="1">
+        <f t="shared" si="102"/>
+        <v>23735720.470000003</v>
+      </c>
+      <c r="Q581">
+        <f>SUM($P$5:P581)</f>
+        <v>2198590528.3199997</v>
+      </c>
+      <c r="R581">
+        <f t="shared" si="103"/>
+        <v>1.0913703473136331</v>
+      </c>
+      <c r="Z581" s="2">
+        <v>576</v>
+      </c>
+      <c r="AA581" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB581">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC581" s="1">
+        <f>SUM($AA$5:AA581)</f>
+        <v>4926991900</v>
+      </c>
+    </row>
+    <row r="582" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L582" s="2">
+        <v>577</v>
+      </c>
+      <c r="M582" s="1">
+        <f t="shared" si="101"/>
+        <v>2848286500</v>
+      </c>
+      <c r="N582">
+        <v>1.01</v>
+      </c>
+      <c r="O582" s="1">
+        <f>SUM($M$5:M582)</f>
+        <v>263418232200</v>
+      </c>
+      <c r="P582" s="1">
+        <f t="shared" si="102"/>
+        <v>23973078.050000001</v>
+      </c>
+      <c r="Q582">
+        <f>SUM($P$5:P582)</f>
+        <v>2222563606.3699999</v>
+      </c>
+      <c r="R582">
+        <f t="shared" si="103"/>
+        <v>1.0903839410387457</v>
+      </c>
+      <c r="Z582" s="2">
+        <v>577</v>
+      </c>
+      <c r="AA582" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB582">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC582" s="1">
+        <f>SUM($AA$5:AA582)</f>
+        <v>4943991900</v>
+      </c>
+    </row>
+    <row r="583" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L583" s="2">
+        <v>578</v>
+      </c>
+      <c r="M583" s="1">
+        <f t="shared" si="101"/>
+        <v>2876769400</v>
+      </c>
+      <c r="N583">
+        <v>1.01</v>
+      </c>
+      <c r="O583" s="1">
+        <f>SUM($M$5:M583)</f>
+        <v>266295001600</v>
+      </c>
+      <c r="P583" s="1">
+        <f t="shared" si="102"/>
+        <v>24212809.120000001</v>
+      </c>
+      <c r="Q583">
+        <f>SUM($P$5:P583)</f>
+        <v>2246776415.4899998</v>
+      </c>
+      <c r="R583">
+        <f t="shared" si="103"/>
+        <v>1.089409052258596</v>
+      </c>
+      <c r="Z583" s="2">
+        <v>578</v>
+      </c>
+      <c r="AA583" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB583">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC583" s="1">
+        <f>SUM($AA$5:AA583)</f>
+        <v>4960991900</v>
+      </c>
+    </row>
+    <row r="584" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L584" s="2">
+        <v>579</v>
+      </c>
+      <c r="M584" s="1">
+        <f t="shared" si="101"/>
+        <v>2905537100</v>
+      </c>
+      <c r="N584">
+        <v>1.01</v>
+      </c>
+      <c r="O584" s="1">
+        <f>SUM($M$5:M584)</f>
+        <v>269200538700</v>
+      </c>
+      <c r="P584" s="1">
+        <f t="shared" si="102"/>
+        <v>24454937.260000002</v>
+      </c>
+      <c r="Q584">
+        <f>SUM($P$5:P584)</f>
+        <v>2271231352.75</v>
+      </c>
+      <c r="R584">
+        <f t="shared" si="103"/>
+        <v>1.0884455209428059</v>
+      </c>
+      <c r="Z584" s="2">
+        <v>579</v>
+      </c>
+      <c r="AA584" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB584">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC584" s="1">
+        <f>SUM($AA$5:AA584)</f>
+        <v>4977991900</v>
+      </c>
+    </row>
+    <row r="585" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L585" s="2">
+        <v>580</v>
+      </c>
+      <c r="M585" s="1">
+        <f t="shared" si="101"/>
+        <v>2934592500</v>
+      </c>
+      <c r="N585">
+        <v>1.01</v>
+      </c>
+      <c r="O585" s="1">
+        <f>SUM($M$5:M585)</f>
+        <v>272135131200</v>
+      </c>
+      <c r="P585" s="1">
+        <f t="shared" si="102"/>
+        <v>24699486.880000003</v>
+      </c>
+      <c r="Q585">
+        <f>SUM($P$5:P585)</f>
+        <v>2295930839.6300001</v>
+      </c>
+      <c r="R585">
+        <f t="shared" si="103"/>
+        <v>1.0874932159638449</v>
+      </c>
+      <c r="Z585" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA585" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB585">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC585" s="1">
+        <f>SUM($AA$5:AA585)</f>
+        <v>4994991900</v>
+      </c>
+    </row>
+    <row r="586" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L586" s="2">
+        <v>581</v>
+      </c>
+      <c r="M586" s="1">
+        <f t="shared" si="101"/>
+        <v>2963938500</v>
+      </c>
+      <c r="N586">
+        <v>1.01</v>
+      </c>
+      <c r="O586" s="1">
+        <f>SUM($M$5:M586)</f>
+        <v>275099069700</v>
+      </c>
+      <c r="P586" s="1">
+        <f t="shared" si="102"/>
+        <v>24946482.380000003</v>
+      </c>
+      <c r="Q586">
+        <f>SUM($P$5:P586)</f>
+        <v>2320877322.0100002</v>
+      </c>
+      <c r="R586">
+        <f t="shared" si="103"/>
+        <v>1.0865519966629462</v>
+      </c>
+      <c r="Z586" s="2">
+        <v>581</v>
+      </c>
+      <c r="AA586" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB586">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC586" s="1">
+        <f>SUM($AA$5:AA586)</f>
+        <v>5011991900</v>
+      </c>
+    </row>
+    <row r="587" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L587" s="2">
+        <v>582</v>
+      </c>
+      <c r="M587" s="1">
+        <f t="shared" si="101"/>
+        <v>2993577900</v>
+      </c>
+      <c r="N587">
+        <v>1.01</v>
+      </c>
+      <c r="O587" s="1">
+        <f>SUM($M$5:M587)</f>
+        <v>278092647600</v>
+      </c>
+      <c r="P587" s="1">
+        <f t="shared" si="102"/>
+        <v>25195947.330000002</v>
+      </c>
+      <c r="Q587">
+        <f>SUM($P$5:P587)</f>
+        <v>2346073269.3400002</v>
+      </c>
+      <c r="R587">
+        <f t="shared" si="103"/>
+        <v>1.0856216781065759</v>
+      </c>
+      <c r="Z587" s="2">
+        <v>582</v>
+      </c>
+      <c r="AA587" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB587">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC587" s="1">
+        <f>SUM($AA$5:AA587)</f>
+        <v>5028991900</v>
+      </c>
+    </row>
+    <row r="588" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L588" s="2">
+        <v>583</v>
+      </c>
+      <c r="M588" s="1">
+        <f t="shared" si="101"/>
+        <v>3023513700</v>
+      </c>
+      <c r="N588">
+        <v>1.01</v>
+      </c>
+      <c r="O588" s="1">
+        <f>SUM($M$5:M588)</f>
+        <v>281116161300</v>
+      </c>
+      <c r="P588" s="1">
+        <f t="shared" si="102"/>
+        <v>25447906.98</v>
+      </c>
+      <c r="Q588">
+        <f>SUM($P$5:P588)</f>
+        <v>2371521176.3200002</v>
+      </c>
+      <c r="R588">
+        <f t="shared" si="103"/>
+        <v>1.0847021409164708</v>
+      </c>
+      <c r="Z588" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA588" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB588">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC588" s="1">
+        <f>SUM($AA$5:AA588)</f>
+        <v>5045991900</v>
+      </c>
+    </row>
+    <row r="589" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L589" s="2">
+        <v>584</v>
+      </c>
+      <c r="M589" s="1">
+        <f t="shared" si="101"/>
+        <v>3053748900</v>
+      </c>
+      <c r="N589">
+        <v>1.01</v>
+      </c>
+      <c r="O589" s="1">
+        <f>SUM($M$5:M589)</f>
+        <v>284169910200</v>
+      </c>
+      <c r="P589" s="1">
+        <f t="shared" si="102"/>
+        <v>25702386.580000002</v>
+      </c>
+      <c r="Q589">
+        <f>SUM($P$5:P589)</f>
+        <v>2397223562.9000001</v>
+      </c>
+      <c r="R589">
+        <f t="shared" si="103"/>
+        <v>1.0837932562712138</v>
+      </c>
+      <c r="Z589" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA589" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB589">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC589" s="1">
+        <f>SUM($AA$5:AA589)</f>
+        <v>5062991900</v>
+      </c>
+    </row>
+    <row r="590" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L590" s="2">
+        <v>585</v>
+      </c>
+      <c r="M590" s="1">
+        <f t="shared" si="101"/>
+        <v>3084286400</v>
+      </c>
+      <c r="N590">
+        <v>1.01</v>
+      </c>
+      <c r="O590" s="1">
+        <f>SUM($M$5:M590)</f>
+        <v>287254196600</v>
+      </c>
+      <c r="P590" s="1">
+        <f t="shared" si="102"/>
+        <v>25959410.540000003</v>
+      </c>
+      <c r="Q590">
+        <f>SUM($P$5:P590)</f>
+        <v>2423182973.4400001</v>
+      </c>
+      <c r="R590">
+        <f t="shared" si="103"/>
+        <v>1.0828948514337149</v>
+      </c>
+      <c r="Z590" s="2">
+        <v>585</v>
+      </c>
+      <c r="AA590" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB590">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC590" s="1">
+        <f>SUM($AA$5:AA590)</f>
+        <v>5079991900</v>
+      </c>
+    </row>
+    <row r="591" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L591" s="2">
+        <v>586</v>
+      </c>
+      <c r="M591" s="1">
+        <f t="shared" si="101"/>
+        <v>3115129300</v>
+      </c>
+      <c r="N591">
+        <v>1.01</v>
+      </c>
+      <c r="O591" s="1">
+        <f>SUM($M$5:M591)</f>
+        <v>290369325900</v>
+      </c>
+      <c r="P591" s="1">
+        <f t="shared" si="102"/>
+        <v>26219004.950000003</v>
+      </c>
+      <c r="Q591">
+        <f>SUM($P$5:P591)</f>
+        <v>2449401978.3899999</v>
+      </c>
+      <c r="R591">
+        <f t="shared" si="103"/>
+        <v>1.0820068165458745</v>
+      </c>
+      <c r="Z591" s="2">
+        <v>586</v>
+      </c>
+      <c r="AA591" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB591">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC591" s="1">
+        <f>SUM($AA$5:AA591)</f>
+        <v>5096991900</v>
+      </c>
+    </row>
+    <row r="592" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L592" s="2">
+        <v>587</v>
+      </c>
+      <c r="M592" s="1">
+        <f t="shared" si="101"/>
+        <v>3146280600</v>
+      </c>
+      <c r="N592">
+        <v>1.01</v>
+      </c>
+      <c r="O592" s="1">
+        <f>SUM($M$5:M592)</f>
+        <v>293515606500</v>
+      </c>
+      <c r="P592" s="1">
+        <f t="shared" si="102"/>
+        <v>26481195.050000001</v>
+      </c>
+      <c r="Q592">
+        <f>SUM($P$5:P592)</f>
+        <v>2475883173.4400001</v>
+      </c>
+      <c r="R592">
+        <f t="shared" si="103"/>
+        <v>1.0811289973484208</v>
+      </c>
+      <c r="Z592" s="2">
+        <v>587</v>
+      </c>
+      <c r="AA592" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB592">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC592" s="1">
+        <f>SUM($AA$5:AA592)</f>
+        <v>5113991900</v>
+      </c>
+    </row>
+    <row r="593" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L593" s="2">
+        <v>588</v>
+      </c>
+      <c r="M593" s="1">
+        <f t="shared" si="101"/>
+        <v>3177743500</v>
+      </c>
+      <c r="N593">
+        <v>1.01</v>
+      </c>
+      <c r="O593" s="1">
+        <f>SUM($M$5:M593)</f>
+        <v>296693350000</v>
+      </c>
+      <c r="P593" s="1">
+        <f t="shared" si="102"/>
+        <v>26746007.800000001</v>
+      </c>
+      <c r="Q593">
+        <f>SUM($P$5:P593)</f>
+        <v>2502629181.2400002</v>
+      </c>
+      <c r="R593">
+        <f t="shared" si="103"/>
+        <v>1.0802613017818286</v>
+      </c>
+      <c r="Z593" s="2">
+        <v>588</v>
+      </c>
+      <c r="AA593" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB593">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC593" s="1">
+        <f>SUM($AA$5:AA593)</f>
+        <v>5130991900</v>
+      </c>
+    </row>
+    <row r="594" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L594" s="2">
+        <v>589</v>
+      </c>
+      <c r="M594" s="1">
+        <f t="shared" si="101"/>
+        <v>3209521000</v>
+      </c>
+      <c r="N594">
+        <v>1.01</v>
+      </c>
+      <c r="O594" s="1">
+        <f>SUM($M$5:M594)</f>
+        <v>299902871000</v>
+      </c>
+      <c r="P594" s="1">
+        <f t="shared" si="102"/>
+        <v>27013468.420000002</v>
+      </c>
+      <c r="Q594">
+        <f>SUM($P$5:P594)</f>
+        <v>2529642649.6600003</v>
+      </c>
+      <c r="R594">
+        <f t="shared" si="103"/>
+        <v>1.0794035577662158</v>
+      </c>
+      <c r="Z594" s="2">
+        <v>589</v>
+      </c>
+      <c r="AA594" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB594">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC594" s="1">
+        <f>SUM($AA$5:AA594)</f>
+        <v>5147991900</v>
+      </c>
+    </row>
+    <row r="595" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L595" s="2">
+        <v>590</v>
+      </c>
+      <c r="M595" s="1">
+        <f t="shared" si="101"/>
+        <v>3241616300</v>
+      </c>
+      <c r="N595">
+        <v>1.01</v>
+      </c>
+      <c r="O595" s="1">
+        <f>SUM($M$5:M595)</f>
+        <v>303144487300</v>
+      </c>
+      <c r="P595" s="1">
+        <f t="shared" si="102"/>
+        <v>27283603.860000003</v>
+      </c>
+      <c r="Q595">
+        <f>SUM($P$5:P595)</f>
+        <v>2556926253.5200005</v>
+      </c>
+      <c r="R595">
+        <f t="shared" si="103"/>
+        <v>1.078555655426952</v>
+      </c>
+      <c r="Z595" s="2">
+        <v>590</v>
+      </c>
+      <c r="AA595" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB595">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC595" s="1">
+        <f>SUM($AA$5:AA595)</f>
+        <v>5164991900</v>
+      </c>
+    </row>
+    <row r="596" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L596" s="2">
+        <v>591</v>
+      </c>
+      <c r="M596" s="1">
+        <f t="shared" si="101"/>
+        <v>3274032500</v>
+      </c>
+      <c r="N596">
+        <v>1.01</v>
+      </c>
+      <c r="O596" s="1">
+        <f>SUM($M$5:M596)</f>
+        <v>306418519800</v>
+      </c>
+      <c r="P596" s="1">
+        <f t="shared" si="102"/>
+        <v>27556440.210000001</v>
+      </c>
+      <c r="Q596">
+        <f>SUM($P$5:P596)</f>
+        <v>2584482693.7300005</v>
+      </c>
+      <c r="R596">
+        <f t="shared" si="103"/>
+        <v>1.0777174418724194</v>
+      </c>
+      <c r="Z596" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA596" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB596">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC596" s="1">
+        <f>SUM($AA$5:AA596)</f>
+        <v>5181991900</v>
+      </c>
+    </row>
+    <row r="597" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L597" s="2">
+        <v>592</v>
+      </c>
+      <c r="M597" s="1">
+        <f t="shared" si="101"/>
+        <v>3306772900</v>
+      </c>
+      <c r="N597">
+        <v>1.01</v>
+      </c>
+      <c r="O597" s="1">
+        <f>SUM($M$5:M597)</f>
+        <v>309725292700</v>
+      </c>
+      <c r="P597" s="1">
+        <f t="shared" si="102"/>
+        <v>27832005.25</v>
+      </c>
+      <c r="Q597">
+        <f>SUM($P$5:P597)</f>
+        <v>2612314698.9800005</v>
+      </c>
+      <c r="R597">
+        <f t="shared" si="103"/>
+        <v>1.0768888225686681</v>
+      </c>
+      <c r="Z597" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA597" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB597">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC597" s="1">
+        <f>SUM($AA$5:AA597)</f>
+        <v>5198991900</v>
+      </c>
+    </row>
+    <row r="598" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L598" s="2">
+        <v>593</v>
+      </c>
+      <c r="M598" s="1">
+        <f t="shared" si="101"/>
+        <v>3339840700</v>
+      </c>
+      <c r="N598">
+        <v>1.01</v>
+      </c>
+      <c r="O598" s="1">
+        <f>SUM($M$5:M598)</f>
+        <v>313065133400</v>
+      </c>
+      <c r="P598" s="1">
+        <f t="shared" si="102"/>
+        <v>28110325.900000002</v>
+      </c>
+      <c r="Q598">
+        <f>SUM($P$5:P598)</f>
+        <v>2640425024.8800006</v>
+      </c>
+      <c r="R598">
+        <f t="shared" si="103"/>
+        <v>1.0760696600212831</v>
+      </c>
+      <c r="Z598" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA598" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB598">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC598" s="1">
+        <f>SUM($AA$5:AA598)</f>
+        <v>5215991900</v>
+      </c>
+    </row>
+    <row r="599" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L599" s="2">
+        <v>594</v>
+      </c>
+      <c r="M599" s="1">
+        <f t="shared" si="101"/>
+        <v>3373239200</v>
+      </c>
+      <c r="N599">
+        <v>1.01</v>
+      </c>
+      <c r="O599" s="1">
+        <f>SUM($M$5:M599)</f>
+        <v>316438372600</v>
+      </c>
+      <c r="P599" s="1">
+        <f t="shared" si="102"/>
+        <v>28391429.940000001</v>
+      </c>
+      <c r="Q599">
+        <f>SUM($P$5:P599)</f>
+        <v>2668816454.8200006</v>
+      </c>
+      <c r="R599">
+        <f t="shared" si="103"/>
+        <v>1.0752598415965384</v>
+      </c>
+      <c r="Z599" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA599" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB599">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC599" s="1">
+        <f>SUM($AA$5:AA599)</f>
+        <v>5232991900</v>
+      </c>
+    </row>
+    <row r="600" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L600" s="2">
+        <v>595</v>
+      </c>
+      <c r="M600" s="1">
+        <f t="shared" si="101"/>
+        <v>3406971600</v>
+      </c>
+      <c r="N600">
+        <v>1.01</v>
+      </c>
+      <c r="O600" s="1">
+        <f>SUM($M$5:M600)</f>
+        <v>319845344200</v>
+      </c>
+      <c r="P600" s="1">
+        <f t="shared" si="102"/>
+        <v>28675344.300000001</v>
+      </c>
+      <c r="Q600">
+        <f>SUM($P$5:P600)</f>
+        <v>2697491799.1200008</v>
+      </c>
+      <c r="R600">
+        <f t="shared" si="103"/>
+        <v>1.0744592138665532</v>
+      </c>
+      <c r="Z600" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA600" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB600">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC600" s="1">
+        <f>SUM($AA$5:AA600)</f>
+        <v>5249991900</v>
+      </c>
+    </row>
+    <row r="601" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L601" s="2">
+        <v>596</v>
+      </c>
+      <c r="M601" s="1">
+        <f t="shared" si="101"/>
+        <v>3441041400</v>
+      </c>
+      <c r="N601">
+        <v>1.01</v>
+      </c>
+      <c r="O601" s="1">
+        <f>SUM($M$5:M601)</f>
+        <v>323286385600</v>
+      </c>
+      <c r="P601" s="1">
+        <f t="shared" si="102"/>
+        <v>28962098.449999999</v>
+      </c>
+      <c r="Q601">
+        <f>SUM($P$5:P601)</f>
+        <v>2726453897.5700006</v>
+      </c>
+      <c r="R601">
+        <f t="shared" si="103"/>
+        <v>1.0736677108508013</v>
+      </c>
+      <c r="Z601" s="2">
+        <v>596</v>
+      </c>
+      <c r="AA601" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB601">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC601" s="1">
+        <f>SUM($AA$5:AA601)</f>
+        <v>5266991900</v>
+      </c>
+    </row>
+    <row r="602" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L602" s="2">
+        <v>597</v>
+      </c>
+      <c r="M602" s="1">
+        <f t="shared" si="101"/>
+        <v>3475451900</v>
+      </c>
+      <c r="N602">
+        <v>1.01</v>
+      </c>
+      <c r="O602" s="1">
+        <f>SUM($M$5:M602)</f>
+        <v>326761837500</v>
+      </c>
+      <c r="P602" s="1">
+        <f t="shared" si="102"/>
+        <v>29251720.16</v>
+      </c>
+      <c r="Q602">
+        <f>SUM($P$5:P602)</f>
+        <v>2755705617.7300005</v>
+      </c>
+      <c r="R602">
+        <f t="shared" si="103"/>
+        <v>1.0728851929633194</v>
+      </c>
+      <c r="Z602" s="2">
+        <v>597</v>
+      </c>
+      <c r="AA602" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB602">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC602" s="1">
+        <f>SUM($AA$5:AA602)</f>
+        <v>5283991900</v>
+      </c>
+    </row>
+    <row r="603" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L603" s="2">
+        <v>598</v>
+      </c>
+      <c r="M603" s="1">
+        <f t="shared" si="101"/>
+        <v>3510206500</v>
+      </c>
+      <c r="N603">
+        <v>1.01</v>
+      </c>
+      <c r="O603" s="1">
+        <f>SUM($M$5:M603)</f>
+        <v>330272044000</v>
+      </c>
+      <c r="P603" s="1">
+        <f t="shared" si="102"/>
+        <v>29544238.050000001</v>
+      </c>
+      <c r="Q603">
+        <f>SUM($P$5:P603)</f>
+        <v>2785249855.7800007</v>
+      </c>
+      <c r="R603">
+        <f t="shared" si="103"/>
+        <v>1.0721115441328279</v>
+      </c>
+      <c r="Z603" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA603" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB603">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC603" s="1">
+        <f>SUM($AA$5:AA603)</f>
+        <v>5300991900</v>
+      </c>
+    </row>
+    <row r="604" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L604" s="2">
+        <v>599</v>
+      </c>
+      <c r="M604" s="1">
+        <f t="shared" si="101"/>
+        <v>3545308600</v>
+      </c>
+      <c r="N604">
+        <v>1.01</v>
+      </c>
+      <c r="O604" s="1">
+        <f>SUM($M$5:M604)</f>
+        <v>333817352600</v>
+      </c>
+      <c r="P604" s="1">
+        <f t="shared" si="102"/>
+        <v>29839680.720000003</v>
+      </c>
+      <c r="Q604">
+        <f>SUM($P$5:P604)</f>
+        <v>2815089536.5000005</v>
+      </c>
+      <c r="R604">
+        <f t="shared" si="103"/>
+        <v>1.0713466390843158</v>
+      </c>
+      <c r="Z604" s="2">
+        <v>599</v>
+      </c>
+      <c r="AA604" s="1">
+        <f t="shared" si="104"/>
+        <v>17000000</v>
+      </c>
+      <c r="AB604">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC604" s="1">
+        <f>SUM($AA$5:AA604)</f>
+        <v>5317991900</v>
       </c>
     </row>
   </sheetData>
@@ -48457,8 +55657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638257D-541B-42BC-9621-10FB1B767C19}">
   <dimension ref="B1:AC155"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048544" workbookViewId="0">
-      <selection activeCell="M1048559" sqref="M1048559"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Dosul.xlsx
+++ b/Assets/06.Table/Dosul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C37F9-52A6-4E83-AFFC-DC5248C09BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77C3F9-6F13-4B33-8CC7-2D06C796F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23955" yWindow="1935" windowWidth="29040" windowHeight="15480" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dosul" sheetId="2" r:id="rId1"/>
@@ -965,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:G701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="E440" sqref="E440"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="F601" sqref="F601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17748,7 +17748,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <f t="shared" ref="B580:B601" si="27">B579</f>
+        <f t="shared" ref="B580:B643" si="27">B579</f>
         <v>9031</v>
       </c>
       <c r="C580" s="1">
@@ -17756,7 +17756,7 @@
         <v>17000000</v>
       </c>
       <c r="D580">
-        <f t="shared" ref="D580:D601" si="28">D579</f>
+        <f t="shared" ref="D580:D643" si="28">D579</f>
         <v>60</v>
       </c>
       <c r="E580">
@@ -18025,7 +18025,7 @@
         <v>24758831.7344</v>
       </c>
       <c r="F589">
-        <f t="shared" ref="F589:F601" si="29">IF(F579=0,0,F579+2)</f>
+        <f t="shared" ref="F589:F652" si="29">IF(F579=0,0,F579+2)</f>
         <v>0</v>
       </c>
       <c r="G589">
@@ -18378,6 +18378,2904 @@
       </c>
       <c r="G601">
         <f>VLOOKUP(A601,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C602" s="1">
+        <f>VLOOKUP(A602,balance!Z:AD,2,FALSE)</f>
+        <v>17000000</v>
+      </c>
+      <c r="D602">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E602">
+        <f>VLOOKUP(A602,balance!L:R,6,FALSE)/100</f>
+        <v>28452276.141500007</v>
+      </c>
+      <c r="F602">
+        <v>277</v>
+      </c>
+      <c r="G602">
+        <f>VLOOKUP(A602,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C603" s="1">
+        <f>VLOOKUP(A603,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D603">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E603">
+        <f>VLOOKUP(A603,balance!L:R,6,FALSE)/100</f>
+        <v>28756670.732700005</v>
+      </c>
+      <c r="F603">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G603">
+        <f>VLOOKUP(A603,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C604" s="1">
+        <f>VLOOKUP(A604,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D604">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E604">
+        <f>VLOOKUP(A604,balance!L:R,6,FALSE)/100</f>
+        <v>29064109.270300008</v>
+      </c>
+      <c r="F604">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G604">
+        <f>VLOOKUP(A604,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C605" s="1">
+        <f>VLOOKUP(A605,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D605">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E605">
+        <f>VLOOKUP(A605,balance!L:R,6,FALSE)/100</f>
+        <v>29374622.197400007</v>
+      </c>
+      <c r="F605">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <f>VLOOKUP(A605,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C606" s="1">
+        <f>VLOOKUP(A606,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D606">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E606">
+        <f>VLOOKUP(A606,balance!L:R,6,FALSE)/100</f>
+        <v>29688240.260100007</v>
+      </c>
+      <c r="F606">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <f>VLOOKUP(A606,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C607" s="1">
+        <f>VLOOKUP(A607,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D607">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E607">
+        <f>VLOOKUP(A607,balance!L:R,6,FALSE)/100</f>
+        <v>30004994.507500004</v>
+      </c>
+      <c r="F607">
+        <v>278</v>
+      </c>
+      <c r="G607">
+        <f>VLOOKUP(A607,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C608" s="1">
+        <f>VLOOKUP(A608,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D608">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E608">
+        <f>VLOOKUP(A608,balance!L:R,6,FALSE)/100</f>
+        <v>30324916.300000004</v>
+      </c>
+      <c r="F608">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G608">
+        <f>VLOOKUP(A608,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C609" s="1">
+        <f>VLOOKUP(A609,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D609">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E609">
+        <f>VLOOKUP(A609,balance!L:R,6,FALSE)/100</f>
+        <v>30648037.318000007</v>
+      </c>
+      <c r="F609">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G609">
+        <f>VLOOKUP(A609,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C610" s="1">
+        <f>VLOOKUP(A610,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D610">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E610">
+        <f>VLOOKUP(A610,balance!L:R,6,FALSE)/100</f>
+        <v>30974389.553300008</v>
+      </c>
+      <c r="F610">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G610">
+        <f>VLOOKUP(A610,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C611" s="1">
+        <f>VLOOKUP(A611,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D611">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E611">
+        <f>VLOOKUP(A611,balance!L:R,6,FALSE)/100</f>
+        <v>31304005.317400008</v>
+      </c>
+      <c r="F611">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G611">
+        <f>VLOOKUP(A611,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C612" s="1">
+        <f>VLOOKUP(A612,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D612">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E612">
+        <f>VLOOKUP(A612,balance!L:R,6,FALSE)/100</f>
+        <v>31636917.241800006</v>
+      </c>
+      <c r="F612">
+        <f t="shared" si="29"/>
+        <v>279</v>
+      </c>
+      <c r="G612">
+        <f>VLOOKUP(A612,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C613" s="1">
+        <f>VLOOKUP(A613,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D613">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E613">
+        <f>VLOOKUP(A613,balance!L:R,6,FALSE)/100</f>
+        <v>31973158.286100008</v>
+      </c>
+      <c r="F613">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G613">
+        <f>VLOOKUP(A613,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C614" s="1">
+        <f>VLOOKUP(A614,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D614">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E614">
+        <f>VLOOKUP(A614,balance!L:R,6,FALSE)/100</f>
+        <v>32312761.74660001</v>
+      </c>
+      <c r="F614">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <f>VLOOKUP(A614,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C615" s="1">
+        <f>VLOOKUP(A615,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D615">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E615">
+        <f>VLOOKUP(A615,balance!L:R,6,FALSE)/100</f>
+        <v>32655761.248000007</v>
+      </c>
+      <c r="F615">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G615">
+        <f>VLOOKUP(A615,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C616" s="1">
+        <f>VLOOKUP(A616,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D616">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E616">
+        <f>VLOOKUP(A616,balance!L:R,6,FALSE)/100</f>
+        <v>33002190.751500007</v>
+      </c>
+      <c r="F616">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G616">
+        <f>VLOOKUP(A616,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C617" s="1">
+        <f>VLOOKUP(A617,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D617">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E617">
+        <f>VLOOKUP(A617,balance!L:R,6,FALSE)/100</f>
+        <v>33352084.555000003</v>
+      </c>
+      <c r="F617">
+        <f t="shared" si="29"/>
+        <v>280</v>
+      </c>
+      <c r="G617">
+        <f>VLOOKUP(A617,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C618" s="1">
+        <f>VLOOKUP(A618,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D618">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E618">
+        <f>VLOOKUP(A618,balance!L:R,6,FALSE)/100</f>
+        <v>33705477.301500008</v>
+      </c>
+      <c r="F618">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G618">
+        <f>VLOOKUP(A618,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C619" s="1">
+        <f>VLOOKUP(A619,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D619">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E619">
+        <f>VLOOKUP(A619,balance!L:R,6,FALSE)/100</f>
+        <v>34062403.979000002</v>
+      </c>
+      <c r="F619">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G619">
+        <f>VLOOKUP(A619,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C620" s="1">
+        <f>VLOOKUP(A620,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D620">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E620">
+        <f>VLOOKUP(A620,balance!L:R,6,FALSE)/100</f>
+        <v>34422899.929200009</v>
+      </c>
+      <c r="F620">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G620">
+        <f>VLOOKUP(A620,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C621" s="1">
+        <f>VLOOKUP(A621,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D621">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E621">
+        <f>VLOOKUP(A621,balance!L:R,6,FALSE)/100</f>
+        <v>34787000.847200006</v>
+      </c>
+      <c r="F621">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G621">
+        <f>VLOOKUP(A621,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C622" s="1">
+        <f>VLOOKUP(A622,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D622">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E622">
+        <f>VLOOKUP(A622,balance!L:R,6,FALSE)/100</f>
+        <v>35154742.781500004</v>
+      </c>
+      <c r="F622">
+        <f t="shared" si="29"/>
+        <v>281</v>
+      </c>
+      <c r="G622">
+        <f>VLOOKUP(A622,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C623" s="1">
+        <f>VLOOKUP(A623,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D623">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E623">
+        <f>VLOOKUP(A623,balance!L:R,6,FALSE)/100</f>
+        <v>35526162.142600007</v>
+      </c>
+      <c r="F623">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G623">
+        <f>VLOOKUP(A623,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C624" s="1">
+        <f>VLOOKUP(A624,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D624">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E624">
+        <f>VLOOKUP(A624,balance!L:R,6,FALSE)/100</f>
+        <v>35901295.703000009</v>
+      </c>
+      <c r="F624">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G624">
+        <f>VLOOKUP(A624,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C625" s="1">
+        <f>VLOOKUP(A625,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D625">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E625">
+        <f>VLOOKUP(A625,balance!L:R,6,FALSE)/100</f>
+        <v>36280180.605400003</v>
+      </c>
+      <c r="F625">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G625">
+        <f>VLOOKUP(A625,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C626" s="1">
+        <f>VLOOKUP(A626,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D626">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E626">
+        <f>VLOOKUP(A626,balance!L:R,6,FALSE)/100</f>
+        <v>36662854.362900004</v>
+      </c>
+      <c r="F626">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G626">
+        <f>VLOOKUP(A626,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C627" s="1">
+        <f>VLOOKUP(A627,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D627">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E627">
+        <f>VLOOKUP(A627,balance!L:R,6,FALSE)/100</f>
+        <v>37049354.858900003</v>
+      </c>
+      <c r="F627">
+        <f t="shared" si="29"/>
+        <v>282</v>
+      </c>
+      <c r="G627">
+        <f>VLOOKUP(A627,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C628" s="1">
+        <f>VLOOKUP(A628,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D628">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E628">
+        <f>VLOOKUP(A628,balance!L:R,6,FALSE)/100</f>
+        <v>37439720.363900006</v>
+      </c>
+      <c r="F628">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G628">
+        <f>VLOOKUP(A628,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C629" s="1">
+        <f>VLOOKUP(A629,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D629">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E629">
+        <f>VLOOKUP(A629,balance!L:R,6,FALSE)/100</f>
+        <v>37833989.527400002</v>
+      </c>
+      <c r="F629">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G629">
+        <f>VLOOKUP(A629,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C630" s="1">
+        <f>VLOOKUP(A630,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D630">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E630">
+        <f>VLOOKUP(A630,balance!L:R,6,FALSE)/100</f>
+        <v>38232201.385800004</v>
+      </c>
+      <c r="F630">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G630">
+        <f>VLOOKUP(A630,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C631" s="1">
+        <f>VLOOKUP(A631,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D631">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E631">
+        <f>VLOOKUP(A631,balance!L:R,6,FALSE)/100</f>
+        <v>38634395.362800002</v>
+      </c>
+      <c r="F631">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G631">
+        <f>VLOOKUP(A631,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C632" s="1">
+        <f>VLOOKUP(A632,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D632">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E632">
+        <f>VLOOKUP(A632,balance!L:R,6,FALSE)/100</f>
+        <v>39040611.286000006</v>
+      </c>
+      <c r="F632">
+        <f t="shared" si="29"/>
+        <v>283</v>
+      </c>
+      <c r="G632">
+        <f>VLOOKUP(A632,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C633" s="1">
+        <f>VLOOKUP(A633,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D633">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E633">
+        <f>VLOOKUP(A633,balance!L:R,6,FALSE)/100</f>
+        <v>39450889.370300002</v>
+      </c>
+      <c r="F633">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <f>VLOOKUP(A633,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C634" s="1">
+        <f>VLOOKUP(A634,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D634">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E634">
+        <f>VLOOKUP(A634,balance!L:R,6,FALSE)/100</f>
+        <v>39865270.242900006</v>
+      </c>
+      <c r="F634">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G634">
+        <f>VLOOKUP(A634,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C635" s="1">
+        <f>VLOOKUP(A635,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D635">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E635">
+        <f>VLOOKUP(A635,balance!L:R,6,FALSE)/100</f>
+        <v>40283794.926700003</v>
+      </c>
+      <c r="F635">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G635">
+        <f>VLOOKUP(A635,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C636" s="1">
+        <f>VLOOKUP(A636,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D636">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E636">
+        <f>VLOOKUP(A636,balance!L:R,6,FALSE)/100</f>
+        <v>40706504.865300007</v>
+      </c>
+      <c r="F636">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G636">
+        <f>VLOOKUP(A636,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C637" s="1">
+        <f>VLOOKUP(A637,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D637">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E637">
+        <f>VLOOKUP(A637,balance!L:R,6,FALSE)/100</f>
+        <v>41133441.90640001</v>
+      </c>
+      <c r="F637">
+        <f t="shared" si="29"/>
+        <v>284</v>
+      </c>
+      <c r="G637">
+        <f>VLOOKUP(A637,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C638" s="1">
+        <f>VLOOKUP(A638,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D638">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E638">
+        <f>VLOOKUP(A638,balance!L:R,6,FALSE)/100</f>
+        <v>41564648.318500012</v>
+      </c>
+      <c r="F638">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G638">
+        <f>VLOOKUP(A638,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C639" s="1">
+        <f>VLOOKUP(A639,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D639">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E639">
+        <f>VLOOKUP(A639,balance!L:R,6,FALSE)/100</f>
+        <v>42000166.799400009</v>
+      </c>
+      <c r="F639">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G639">
+        <f>VLOOKUP(A639,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C640" s="1">
+        <f>VLOOKUP(A640,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E640">
+        <f>VLOOKUP(A640,balance!L:R,6,FALSE)/100</f>
+        <v>42440040.46760001</v>
+      </c>
+      <c r="F640">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G640">
+        <f>VLOOKUP(A640,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C641" s="1">
+        <f>VLOOKUP(A641,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E641">
+        <f>VLOOKUP(A641,balance!L:R,6,FALSE)/100</f>
+        <v>42884312.879400007</v>
+      </c>
+      <c r="F641">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G641">
+        <f>VLOOKUP(A641,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C642" s="1">
+        <f>VLOOKUP(A642,balance!Z:AD,2,FALSE)</f>
+        <v>18000000</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E642">
+        <f>VLOOKUP(A642,balance!L:R,6,FALSE)/100</f>
+        <v>43333028.020300008</v>
+      </c>
+      <c r="F642">
+        <f t="shared" si="29"/>
+        <v>285</v>
+      </c>
+      <c r="G642">
+        <f>VLOOKUP(A642,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <f t="shared" si="27"/>
+        <v>9031</v>
+      </c>
+      <c r="C643" s="1">
+        <f>VLOOKUP(A643,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D643">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="E643">
+        <f>VLOOKUP(A643,balance!L:R,6,FALSE)/100</f>
+        <v>43786230.313400008</v>
+      </c>
+      <c r="F643">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G643">
+        <f>VLOOKUP(A643,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <f t="shared" ref="B644:B701" si="30">B643</f>
+        <v>9031</v>
+      </c>
+      <c r="C644" s="1">
+        <f>VLOOKUP(A644,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D644">
+        <f t="shared" ref="D644:D701" si="31">D643</f>
+        <v>60</v>
+      </c>
+      <c r="E644">
+        <f>VLOOKUP(A644,balance!L:R,6,FALSE)/100</f>
+        <v>44243964.636400014</v>
+      </c>
+      <c r="F644">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G644">
+        <f>VLOOKUP(A644,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C645" s="1">
+        <f>VLOOKUP(A645,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D645">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E645">
+        <f>VLOOKUP(A645,balance!L:R,6,FALSE)/100</f>
+        <v>44706276.30470001</v>
+      </c>
+      <c r="F645">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G645">
+        <f>VLOOKUP(A645,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C646" s="1">
+        <f>VLOOKUP(A646,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D646">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E646">
+        <f>VLOOKUP(A646,balance!L:R,6,FALSE)/100</f>
+        <v>45173211.096500017</v>
+      </c>
+      <c r="F646">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G646">
+        <f>VLOOKUP(A646,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C647" s="1">
+        <f>VLOOKUP(A647,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D647">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E647">
+        <f>VLOOKUP(A647,balance!L:R,6,FALSE)/100</f>
+        <v>45644815.244500019</v>
+      </c>
+      <c r="F647">
+        <f t="shared" si="29"/>
+        <v>286</v>
+      </c>
+      <c r="G647">
+        <f>VLOOKUP(A647,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C648" s="1">
+        <f>VLOOKUP(A648,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D648">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E648">
+        <f>VLOOKUP(A648,balance!L:R,6,FALSE)/100</f>
+        <v>46121135.436000012</v>
+      </c>
+      <c r="F648">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G648">
+        <f>VLOOKUP(A648,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C649" s="1">
+        <f>VLOOKUP(A649,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D649">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E649">
+        <f>VLOOKUP(A649,balance!L:R,6,FALSE)/100</f>
+        <v>46602218.829600006</v>
+      </c>
+      <c r="F649">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G649">
+        <f>VLOOKUP(A649,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C650" s="1">
+        <f>VLOOKUP(A650,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D650">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E650">
+        <f>VLOOKUP(A650,balance!L:R,6,FALSE)/100</f>
+        <v>47088113.063600004</v>
+      </c>
+      <c r="F650">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G650">
+        <f>VLOOKUP(A650,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C651" s="1">
+        <f>VLOOKUP(A651,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D651">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E651">
+        <f>VLOOKUP(A651,balance!L:R,6,FALSE)/100</f>
+        <v>47578866.247700006</v>
+      </c>
+      <c r="F651">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <f>VLOOKUP(A651,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C652" s="1">
+        <f>VLOOKUP(A652,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D652">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E652">
+        <f>VLOOKUP(A652,balance!L:R,6,FALSE)/100</f>
+        <v>48074526.971299998</v>
+      </c>
+      <c r="F652">
+        <f t="shared" si="29"/>
+        <v>287</v>
+      </c>
+      <c r="G652">
+        <f>VLOOKUP(A652,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C653" s="1">
+        <f>VLOOKUP(A653,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D653">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E653">
+        <f>VLOOKUP(A653,balance!L:R,6,FALSE)/100</f>
+        <v>48575144.303599998</v>
+      </c>
+      <c r="F653">
+        <f t="shared" ref="F653:F701" si="32">IF(F643=0,0,F643+2)</f>
+        <v>0</v>
+      </c>
+      <c r="G653">
+        <f>VLOOKUP(A653,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C654" s="1">
+        <f>VLOOKUP(A654,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D654">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E654">
+        <f>VLOOKUP(A654,balance!L:R,6,FALSE)/100</f>
+        <v>49080767.8103</v>
+      </c>
+      <c r="F654">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G654">
+        <f>VLOOKUP(A654,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C655" s="1">
+        <f>VLOOKUP(A655,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D655">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E655">
+        <f>VLOOKUP(A655,balance!L:R,6,FALSE)/100</f>
+        <v>49591447.553800002</v>
+      </c>
+      <c r="F655">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G655">
+        <f>VLOOKUP(A655,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C656" s="1">
+        <f>VLOOKUP(A656,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D656">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E656">
+        <f>VLOOKUP(A656,balance!L:R,6,FALSE)/100</f>
+        <v>50107234.101300001</v>
+      </c>
+      <c r="F656">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G656">
+        <f>VLOOKUP(A656,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C657" s="1">
+        <f>VLOOKUP(A657,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D657">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E657">
+        <f>VLOOKUP(A657,balance!L:R,6,FALSE)/100</f>
+        <v>50628178.516800001</v>
+      </c>
+      <c r="F657">
+        <f t="shared" si="32"/>
+        <v>288</v>
+      </c>
+      <c r="G657">
+        <f>VLOOKUP(A657,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C658" s="1">
+        <f>VLOOKUP(A658,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D658">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E658">
+        <f>VLOOKUP(A658,balance!L:R,6,FALSE)/100</f>
+        <v>51154332.377700001</v>
+      </c>
+      <c r="F658">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G658">
+        <f>VLOOKUP(A658,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C659" s="1">
+        <f>VLOOKUP(A659,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D659">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E659">
+        <f>VLOOKUP(A659,balance!L:R,6,FALSE)/100</f>
+        <v>51685747.783100002</v>
+      </c>
+      <c r="F659">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <f>VLOOKUP(A659,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C660" s="1">
+        <f>VLOOKUP(A660,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D660">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E660">
+        <f>VLOOKUP(A660,balance!L:R,6,FALSE)/100</f>
+        <v>52222477.345600002</v>
+      </c>
+      <c r="F660">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G660">
+        <f>VLOOKUP(A660,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C661" s="1">
+        <f>VLOOKUP(A661,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D661">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E661">
+        <f>VLOOKUP(A661,balance!L:R,6,FALSE)/100</f>
+        <v>52764574.208000004</v>
+      </c>
+      <c r="F661">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <f>VLOOKUP(A661,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C662" s="1">
+        <f>VLOOKUP(A662,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D662">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E662">
+        <f>VLOOKUP(A662,balance!L:R,6,FALSE)/100</f>
+        <v>53312092.043400005</v>
+      </c>
+      <c r="F662">
+        <f t="shared" si="32"/>
+        <v>289</v>
+      </c>
+      <c r="G662">
+        <f>VLOOKUP(A662,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C663" s="1">
+        <f>VLOOKUP(A663,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D663">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E663">
+        <f>VLOOKUP(A663,balance!L:R,6,FALSE)/100</f>
+        <v>53865085.063500002</v>
+      </c>
+      <c r="F663">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G663">
+        <f>VLOOKUP(A663,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C664" s="1">
+        <f>VLOOKUP(A664,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D664">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E664">
+        <f>VLOOKUP(A664,balance!L:R,6,FALSE)/100</f>
+        <v>54423608.018799998</v>
+      </c>
+      <c r="F664">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G664">
+        <f>VLOOKUP(A664,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C665" s="1">
+        <f>VLOOKUP(A665,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D665">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E665">
+        <f>VLOOKUP(A665,balance!L:R,6,FALSE)/100</f>
+        <v>54987716.206800006</v>
+      </c>
+      <c r="F665">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G665">
+        <f>VLOOKUP(A665,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C666" s="1">
+        <f>VLOOKUP(A666,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D666">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E666">
+        <f>VLOOKUP(A666,balance!L:R,6,FALSE)/100</f>
+        <v>55557465.480399996</v>
+      </c>
+      <c r="F666">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G666">
+        <f>VLOOKUP(A666,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C667" s="1">
+        <f>VLOOKUP(A667,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D667">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E667">
+        <f>VLOOKUP(A667,balance!L:R,6,FALSE)/100</f>
+        <v>56132912.248199999</v>
+      </c>
+      <c r="F667">
+        <f t="shared" si="32"/>
+        <v>290</v>
+      </c>
+      <c r="G667">
+        <f>VLOOKUP(A667,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C668" s="1">
+        <f>VLOOKUP(A668,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D668">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E668">
+        <f>VLOOKUP(A668,balance!L:R,6,FALSE)/100</f>
+        <v>56714113.490999997</v>
+      </c>
+      <c r="F668">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G668">
+        <f>VLOOKUP(A668,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C669" s="1">
+        <f>VLOOKUP(A669,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D669">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E669">
+        <f>VLOOKUP(A669,balance!L:R,6,FALSE)/100</f>
+        <v>57301126.753499992</v>
+      </c>
+      <c r="F669">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <f>VLOOKUP(A669,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C670" s="1">
+        <f>VLOOKUP(A670,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D670">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E670">
+        <f>VLOOKUP(A670,balance!L:R,6,FALSE)/100</f>
+        <v>57894010.152899988</v>
+      </c>
+      <c r="F670">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G670">
+        <f>VLOOKUP(A670,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C671" s="1">
+        <f>VLOOKUP(A671,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D671">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E671">
+        <f>VLOOKUP(A671,balance!L:R,6,FALSE)/100</f>
+        <v>58492822.386899985</v>
+      </c>
+      <c r="F671">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G671">
+        <f>VLOOKUP(A671,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C672" s="1">
+        <f>VLOOKUP(A672,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D672">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E672">
+        <f>VLOOKUP(A672,balance!L:R,6,FALSE)/100</f>
+        <v>59097622.750999987</v>
+      </c>
+      <c r="F672">
+        <f t="shared" si="32"/>
+        <v>291</v>
+      </c>
+      <c r="G672">
+        <f>VLOOKUP(A672,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C673" s="1">
+        <f>VLOOKUP(A673,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D673">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E673">
+        <f>VLOOKUP(A673,balance!L:R,6,FALSE)/100</f>
+        <v>59708471.121399984</v>
+      </c>
+      <c r="F673">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G673">
+        <f>VLOOKUP(A673,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C674" s="1">
+        <f>VLOOKUP(A674,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D674">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E674">
+        <f>VLOOKUP(A674,balance!L:R,6,FALSE)/100</f>
+        <v>60325427.980199985</v>
+      </c>
+      <c r="F674">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G674">
+        <f>VLOOKUP(A674,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C675" s="1">
+        <f>VLOOKUP(A675,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D675">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E675">
+        <f>VLOOKUP(A675,balance!L:R,6,FALSE)/100</f>
+        <v>60948554.415599987</v>
+      </c>
+      <c r="F675">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G675">
+        <f>VLOOKUP(A675,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C676" s="1">
+        <f>VLOOKUP(A676,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D676">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E676">
+        <f>VLOOKUP(A676,balance!L:R,6,FALSE)/100</f>
+        <v>61577912.121699981</v>
+      </c>
+      <c r="F676">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G676">
+        <f>VLOOKUP(A676,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C677" s="1">
+        <f>VLOOKUP(A677,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D677">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E677">
+        <f>VLOOKUP(A677,balance!L:R,6,FALSE)/100</f>
+        <v>62213563.407199986</v>
+      </c>
+      <c r="F677">
+        <f t="shared" si="32"/>
+        <v>292</v>
+      </c>
+      <c r="G677">
+        <f>VLOOKUP(A677,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C678" s="1">
+        <f>VLOOKUP(A678,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D678">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E678">
+        <f>VLOOKUP(A678,balance!L:R,6,FALSE)/100</f>
+        <v>62855571.211799987</v>
+      </c>
+      <c r="F678">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G678">
+        <f>VLOOKUP(A678,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C679" s="1">
+        <f>VLOOKUP(A679,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D679">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E679">
+        <f>VLOOKUP(A679,balance!L:R,6,FALSE)/100</f>
+        <v>63503999.09829998</v>
+      </c>
+      <c r="F679">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G679">
+        <f>VLOOKUP(A679,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C680" s="1">
+        <f>VLOOKUP(A680,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D680">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E680">
+        <f>VLOOKUP(A680,balance!L:R,6,FALSE)/100</f>
+        <v>64158911.268899985</v>
+      </c>
+      <c r="F680">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G680">
+        <f>VLOOKUP(A680,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C681" s="1">
+        <f>VLOOKUP(A681,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D681">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E681">
+        <f>VLOOKUP(A681,balance!L:R,6,FALSE)/100</f>
+        <v>64820372.565699987</v>
+      </c>
+      <c r="F681">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G681">
+        <f>VLOOKUP(A681,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C682" s="1">
+        <f>VLOOKUP(A682,balance!Z:AD,2,FALSE)</f>
+        <v>19000000</v>
+      </c>
+      <c r="D682">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E682">
+        <f>VLOOKUP(A682,balance!L:R,6,FALSE)/100</f>
+        <v>65488448.47869999</v>
+      </c>
+      <c r="F682">
+        <f t="shared" si="32"/>
+        <v>293</v>
+      </c>
+      <c r="G682">
+        <f>VLOOKUP(A682,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C683" s="1">
+        <f>VLOOKUP(A683,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D683">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E683">
+        <f>VLOOKUP(A683,balance!L:R,6,FALSE)/100</f>
+        <v>66163205.154599994</v>
+      </c>
+      <c r="F683">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G683">
+        <f>VLOOKUP(A683,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C684" s="1">
+        <f>VLOOKUP(A684,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D684">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E684">
+        <f>VLOOKUP(A684,balance!L:R,6,FALSE)/100</f>
+        <v>66844709.404799998</v>
+      </c>
+      <c r="F684">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <f>VLOOKUP(A684,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C685" s="1">
+        <f>VLOOKUP(A685,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D685">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E685">
+        <f>VLOOKUP(A685,balance!L:R,6,FALSE)/100</f>
+        <v>67533028.705799997</v>
+      </c>
+      <c r="F685">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G685">
+        <f>VLOOKUP(A685,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C686" s="1">
+        <f>VLOOKUP(A686,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D686">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E686">
+        <f>VLOOKUP(A686,balance!L:R,6,FALSE)/100</f>
+        <v>68228231.207299992</v>
+      </c>
+      <c r="F686">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G686">
+        <f>VLOOKUP(A686,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C687" s="1">
+        <f>VLOOKUP(A687,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D687">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E687">
+        <f>VLOOKUP(A687,balance!L:R,6,FALSE)/100</f>
+        <v>68930385.740799993</v>
+      </c>
+      <c r="F687">
+        <f t="shared" si="32"/>
+        <v>294</v>
+      </c>
+      <c r="G687">
+        <f>VLOOKUP(A687,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C688" s="1">
+        <f>VLOOKUP(A688,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D688">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E688">
+        <f>VLOOKUP(A688,balance!L:R,6,FALSE)/100</f>
+        <v>69639561.827899992</v>
+      </c>
+      <c r="F688">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G688">
+        <f>VLOOKUP(A688,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C689" s="1">
+        <f>VLOOKUP(A689,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D689">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E689">
+        <f>VLOOKUP(A689,balance!L:R,6,FALSE)/100</f>
+        <v>70355829.680500001</v>
+      </c>
+      <c r="F689">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G689">
+        <f>VLOOKUP(A689,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C690" s="1">
+        <f>VLOOKUP(A690,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D690">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E690">
+        <f>VLOOKUP(A690,balance!L:R,6,FALSE)/100</f>
+        <v>71079260.217500001</v>
+      </c>
+      <c r="F690">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G690">
+        <f>VLOOKUP(A690,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C691" s="1">
+        <f>VLOOKUP(A691,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D691">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E691">
+        <f>VLOOKUP(A691,balance!L:R,6,FALSE)/100</f>
+        <v>71809925.064600006</v>
+      </c>
+      <c r="F691">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G691">
+        <f>VLOOKUP(A691,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C692" s="1">
+        <f>VLOOKUP(A692,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D692">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E692">
+        <f>VLOOKUP(A692,balance!L:R,6,FALSE)/100</f>
+        <v>72547896.56310001</v>
+      </c>
+      <c r="F692">
+        <f t="shared" si="32"/>
+        <v>295</v>
+      </c>
+      <c r="G692">
+        <f>VLOOKUP(A692,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C693" s="1">
+        <f>VLOOKUP(A693,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D693">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E693">
+        <f>VLOOKUP(A693,balance!L:R,6,FALSE)/100</f>
+        <v>73293247.778099999</v>
+      </c>
+      <c r="F693">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G693">
+        <f>VLOOKUP(A693,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C694" s="1">
+        <f>VLOOKUP(A694,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D694">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E694">
+        <f>VLOOKUP(A694,balance!L:R,6,FALSE)/100</f>
+        <v>74046052.507000014</v>
+      </c>
+      <c r="F694">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G694">
+        <f>VLOOKUP(A694,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C695" s="1">
+        <f>VLOOKUP(A695,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D695">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E695">
+        <f>VLOOKUP(A695,balance!L:R,6,FALSE)/100</f>
+        <v>74806385.287699997</v>
+      </c>
+      <c r="F695">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G695">
+        <f>VLOOKUP(A695,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C696" s="1">
+        <f>VLOOKUP(A696,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D696">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E696">
+        <f>VLOOKUP(A696,balance!L:R,6,FALSE)/100</f>
+        <v>75574321.398900002</v>
+      </c>
+      <c r="F696">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <f>VLOOKUP(A696,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C697" s="1">
+        <f>VLOOKUP(A697,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D697">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E697">
+        <f>VLOOKUP(A697,balance!L:R,6,FALSE)/100</f>
+        <v>76349936.876800001</v>
+      </c>
+      <c r="F697">
+        <f t="shared" si="32"/>
+        <v>296</v>
+      </c>
+      <c r="G697">
+        <f>VLOOKUP(A697,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C698" s="1">
+        <f>VLOOKUP(A698,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D698">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E698">
+        <f>VLOOKUP(A698,balance!L:R,6,FALSE)/100</f>
+        <v>77133308.515000001</v>
+      </c>
+      <c r="F698">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G698">
+        <f>VLOOKUP(A698,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C699" s="1">
+        <f>VLOOKUP(A699,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D699">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E699">
+        <f>VLOOKUP(A699,balance!L:R,6,FALSE)/100</f>
+        <v>77924513.873099998</v>
+      </c>
+      <c r="F699">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G699">
+        <f>VLOOKUP(A699,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C700" s="1">
+        <f>VLOOKUP(A700,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D700">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E700">
+        <f>VLOOKUP(A700,balance!L:R,6,FALSE)/100</f>
+        <v>78723631.285099998</v>
+      </c>
+      <c r="F700">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G700">
+        <f>VLOOKUP(A700,balance!Z:AD,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <f t="shared" si="30"/>
+        <v>9031</v>
+      </c>
+      <c r="C701" s="1">
+        <f>VLOOKUP(A701,balance!Z:AD,2,FALSE)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D701">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="E701">
+        <f>VLOOKUP(A701,balance!L:R,6,FALSE)/100</f>
+        <v>79530739.876000002</v>
+      </c>
+      <c r="F701">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G701">
+        <f>VLOOKUP(A701,balance!Z:AD,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -18385,19 +21283,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C602:C1048576" formula="1"/>
+    <ignoredError sqref="C702:C1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
-  <dimension ref="A1:AE604"/>
+  <dimension ref="A1:AE704"/>
   <sheetViews>
-    <sheetView topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A674" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="AB602" sqref="AB602"/>
+      <selection pane="topRight" activeCell="M697" sqref="M697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -53009,7 +55907,7 @@
         <v>16000000</v>
       </c>
       <c r="AB543">
-        <f t="shared" ref="AB543:AB604" si="100">AB503+1</f>
+        <f t="shared" ref="AB543:AB606" si="100">AB503+1</f>
         <v>16</v>
       </c>
       <c r="AC543" s="1">
@@ -55638,6 +58536,4306 @@
       <c r="AC604" s="1">
         <f>SUM($AA$5:AA604)</f>
         <v>5317991900</v>
+      </c>
+    </row>
+    <row r="605" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L605" s="2">
+        <v>600</v>
+      </c>
+      <c r="M605" s="1">
+        <f t="shared" ref="M605:M668" si="105">ROUNDUP((M604)*N605,-2)</f>
+        <v>3580761700</v>
+      </c>
+      <c r="N605">
+        <v>1.01</v>
+      </c>
+      <c r="O605" s="1">
+        <f>SUM($M$5:M605)</f>
+        <v>337398114300</v>
+      </c>
+      <c r="P605" s="1">
+        <f t="shared" ref="P605:P668" si="106">IF(L605&lt;=$A$27,ROUNDUP(M605*N605/$B$26,2),IF(L605&lt;=$A$28,ROUNDUP(M605*N605/$B$27,2),IF(L605&lt;=$A$29,ROUNDUP(M605*N605/$B$28,2),IF(L605&lt;=$A$30,ROUNDUP(M605*N605/$B$29,2),IF(L605&lt;=$A$31,ROUNDUP(M605*N605/$B$30,2),ROUNDUP(M605*N605/$B$31,2))))))</f>
+        <v>30138077.650000002</v>
+      </c>
+      <c r="Q605">
+        <f>SUM($P$5:P605)</f>
+        <v>2845227614.1500006</v>
+      </c>
+      <c r="R605">
+        <f t="shared" ref="R605:R668" si="107">(Q605-Q604)*100/Q604</f>
+        <v>1.0705903758738258</v>
+      </c>
+      <c r="Z605" s="2">
+        <v>600</v>
+      </c>
+      <c r="AA605" s="1">
+        <f t="shared" ref="AA605:AA659" si="108">$AA$86*AB605</f>
+        <v>17000000</v>
+      </c>
+      <c r="AB605">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="AC605" s="1">
+        <f>SUM($AA$5:AA605)</f>
+        <v>5334991900</v>
+      </c>
+    </row>
+    <row r="606" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L606" s="2">
+        <v>601</v>
+      </c>
+      <c r="M606" s="1">
+        <f t="shared" si="105"/>
+        <v>3616569400</v>
+      </c>
+      <c r="N606">
+        <v>1.01</v>
+      </c>
+      <c r="O606" s="1">
+        <f>SUM($M$5:M606)</f>
+        <v>341014683700</v>
+      </c>
+      <c r="P606" s="1">
+        <f t="shared" si="106"/>
+        <v>30439459.120000001</v>
+      </c>
+      <c r="Q606">
+        <f>SUM($P$5:P606)</f>
+        <v>2875667073.2700005</v>
+      </c>
+      <c r="R606">
+        <f t="shared" si="107"/>
+        <v>1.0698426715886329</v>
+      </c>
+      <c r="Z606" s="2">
+        <v>601</v>
+      </c>
+      <c r="AA606" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB606">
+        <f t="shared" si="100"/>
+        <v>18</v>
+      </c>
+      <c r="AC606" s="1">
+        <f>SUM($AA$5:AA606)</f>
+        <v>5352991900</v>
+      </c>
+    </row>
+    <row r="607" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L607" s="2">
+        <v>602</v>
+      </c>
+      <c r="M607" s="1">
+        <f t="shared" si="105"/>
+        <v>3652735100</v>
+      </c>
+      <c r="N607">
+        <v>1.01</v>
+      </c>
+      <c r="O607" s="1">
+        <f>SUM($M$5:M607)</f>
+        <v>344667418800</v>
+      </c>
+      <c r="P607" s="1">
+        <f t="shared" si="106"/>
+        <v>30743853.760000002</v>
+      </c>
+      <c r="Q607">
+        <f>SUM($P$5:P607)</f>
+        <v>2906410927.0300007</v>
+      </c>
+      <c r="R607">
+        <f t="shared" si="107"/>
+        <v>1.0691033759009017</v>
+      </c>
+      <c r="Z607" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA607" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB607">
+        <f t="shared" ref="AB607:AB670" si="109">AB567+1</f>
+        <v>18</v>
+      </c>
+      <c r="AC607" s="1">
+        <f>SUM($AA$5:AA607)</f>
+        <v>5370991900</v>
+      </c>
+    </row>
+    <row r="608" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L608" s="2">
+        <v>603</v>
+      </c>
+      <c r="M608" s="1">
+        <f t="shared" si="105"/>
+        <v>3689262500</v>
+      </c>
+      <c r="N608">
+        <v>1.01</v>
+      </c>
+      <c r="O608" s="1">
+        <f>SUM($M$5:M608)</f>
+        <v>348356681300</v>
+      </c>
+      <c r="P608" s="1">
+        <f t="shared" si="106"/>
+        <v>31051292.710000001</v>
+      </c>
+      <c r="Q608">
+        <f>SUM($P$5:P608)</f>
+        <v>2937462219.7400007</v>
+      </c>
+      <c r="R608">
+        <f t="shared" si="107"/>
+        <v>1.0683724184085246</v>
+      </c>
+      <c r="Z608" s="2">
+        <v>603</v>
+      </c>
+      <c r="AA608" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB608">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC608" s="1">
+        <f>SUM($AA$5:AA608)</f>
+        <v>5388991900</v>
+      </c>
+    </row>
+    <row r="609" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L609" s="2">
+        <v>604</v>
+      </c>
+      <c r="M609" s="1">
+        <f t="shared" si="105"/>
+        <v>3726155200</v>
+      </c>
+      <c r="N609">
+        <v>1.01</v>
+      </c>
+      <c r="O609" s="1">
+        <f>SUM($M$5:M609)</f>
+        <v>352082836500</v>
+      </c>
+      <c r="P609" s="1">
+        <f t="shared" si="106"/>
+        <v>31361806.270000003</v>
+      </c>
+      <c r="Q609">
+        <f>SUM($P$5:P609)</f>
+        <v>2968824026.0100007</v>
+      </c>
+      <c r="R609">
+        <f t="shared" si="107"/>
+        <v>1.0676496895601217</v>
+      </c>
+      <c r="Z609" s="2">
+        <v>604</v>
+      </c>
+      <c r="AA609" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB609">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC609" s="1">
+        <f>SUM($AA$5:AA609)</f>
+        <v>5406991900</v>
+      </c>
+    </row>
+    <row r="610" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L610" s="2">
+        <v>605</v>
+      </c>
+      <c r="M610" s="1">
+        <f t="shared" si="105"/>
+        <v>3763416800</v>
+      </c>
+      <c r="N610">
+        <v>1.01</v>
+      </c>
+      <c r="O610" s="1">
+        <f>SUM($M$5:M610)</f>
+        <v>355846253300</v>
+      </c>
+      <c r="P610" s="1">
+        <f t="shared" si="106"/>
+        <v>31675424.740000002</v>
+      </c>
+      <c r="Q610">
+        <f>SUM($P$5:P610)</f>
+        <v>3000499450.7500005</v>
+      </c>
+      <c r="R610">
+        <f t="shared" si="107"/>
+        <v>1.0669350713444095</v>
+      </c>
+      <c r="Z610" s="2">
+        <v>605</v>
+      </c>
+      <c r="AA610" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB610">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC610" s="1">
+        <f>SUM($AA$5:AA610)</f>
+        <v>5424991900</v>
+      </c>
+    </row>
+    <row r="611" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L611" s="2">
+        <v>606</v>
+      </c>
+      <c r="M611" s="1">
+        <f t="shared" si="105"/>
+        <v>3801051000</v>
+      </c>
+      <c r="N611">
+        <v>1.01</v>
+      </c>
+      <c r="O611" s="1">
+        <f>SUM($M$5:M611)</f>
+        <v>359647304300</v>
+      </c>
+      <c r="P611" s="1">
+        <f t="shared" si="106"/>
+        <v>31992179.25</v>
+      </c>
+      <c r="Q611">
+        <f>SUM($P$5:P611)</f>
+        <v>3032491630.0000005</v>
+      </c>
+      <c r="R611">
+        <f t="shared" si="107"/>
+        <v>1.0662284654644174</v>
+      </c>
+      <c r="Z611" s="2">
+        <v>606</v>
+      </c>
+      <c r="AA611" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB611">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC611" s="1">
+        <f>SUM($AA$5:AA611)</f>
+        <v>5442991900</v>
+      </c>
+    </row>
+    <row r="612" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L612" s="2">
+        <v>607</v>
+      </c>
+      <c r="M612" s="1">
+        <f t="shared" si="105"/>
+        <v>3839061600</v>
+      </c>
+      <c r="N612">
+        <v>1.01</v>
+      </c>
+      <c r="O612" s="1">
+        <f>SUM($M$5:M612)</f>
+        <v>363486365900</v>
+      </c>
+      <c r="P612" s="1">
+        <f t="shared" si="106"/>
+        <v>32312101.800000001</v>
+      </c>
+      <c r="Q612">
+        <f>SUM($P$5:P612)</f>
+        <v>3064803731.8000007</v>
+      </c>
+      <c r="R612">
+        <f t="shared" si="107"/>
+        <v>1.0655297933996337</v>
+      </c>
+      <c r="Z612" s="2">
+        <v>607</v>
+      </c>
+      <c r="AA612" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB612">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC612" s="1">
+        <f>SUM($AA$5:AA612)</f>
+        <v>5460991900</v>
+      </c>
+    </row>
+    <row r="613" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L613" s="2">
+        <v>608</v>
+      </c>
+      <c r="M613" s="1">
+        <f t="shared" si="105"/>
+        <v>3877452300</v>
+      </c>
+      <c r="N613">
+        <v>1.01</v>
+      </c>
+      <c r="O613" s="1">
+        <f>SUM($M$5:M613)</f>
+        <v>367363818200</v>
+      </c>
+      <c r="P613" s="1">
+        <f t="shared" si="106"/>
+        <v>32635223.530000001</v>
+      </c>
+      <c r="Q613">
+        <f>SUM($P$5:P613)</f>
+        <v>3097438955.3300009</v>
+      </c>
+      <c r="R613">
+        <f t="shared" si="107"/>
+        <v>1.0648389386694299</v>
+      </c>
+      <c r="Z613" s="2">
+        <v>608</v>
+      </c>
+      <c r="AA613" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB613">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC613" s="1">
+        <f>SUM($AA$5:AA613)</f>
+        <v>5478991900</v>
+      </c>
+    </row>
+    <row r="614" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L614" s="2">
+        <v>609</v>
+      </c>
+      <c r="M614" s="1">
+        <f t="shared" si="105"/>
+        <v>3916226900</v>
+      </c>
+      <c r="N614">
+        <v>1.01</v>
+      </c>
+      <c r="O614" s="1">
+        <f>SUM($M$5:M614)</f>
+        <v>371280045100</v>
+      </c>
+      <c r="P614" s="1">
+        <f t="shared" si="106"/>
+        <v>32961576.41</v>
+      </c>
+      <c r="Q614">
+        <f>SUM($P$5:P614)</f>
+        <v>3130400531.7400007</v>
+      </c>
+      <c r="R614">
+        <f t="shared" si="107"/>
+        <v>1.064155803725537</v>
+      </c>
+      <c r="Z614" s="2">
+        <v>609</v>
+      </c>
+      <c r="AA614" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB614">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC614" s="1">
+        <f>SUM($AA$5:AA614)</f>
+        <v>5496991900</v>
+      </c>
+    </row>
+    <row r="615" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L615" s="2">
+        <v>610</v>
+      </c>
+      <c r="M615" s="1">
+        <f t="shared" si="105"/>
+        <v>3955389200</v>
+      </c>
+      <c r="N615">
+        <v>1.01</v>
+      </c>
+      <c r="O615" s="1">
+        <f>SUM($M$5:M615)</f>
+        <v>375235434300</v>
+      </c>
+      <c r="P615" s="1">
+        <f t="shared" si="106"/>
+        <v>33291192.440000001</v>
+      </c>
+      <c r="Q615">
+        <f>SUM($P$5:P615)</f>
+        <v>3163691724.1800008</v>
+      </c>
+      <c r="R615">
+        <f t="shared" si="107"/>
+        <v>1.0634802831922436</v>
+      </c>
+      <c r="Z615" s="2">
+        <v>610</v>
+      </c>
+      <c r="AA615" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB615">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC615" s="1">
+        <f>SUM($AA$5:AA615)</f>
+        <v>5514991900</v>
+      </c>
+    </row>
+    <row r="616" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L616" s="2">
+        <v>611</v>
+      </c>
+      <c r="M616" s="1">
+        <f t="shared" si="105"/>
+        <v>3994943100</v>
+      </c>
+      <c r="N616">
+        <v>1.01</v>
+      </c>
+      <c r="O616" s="1">
+        <f>SUM($M$5:M616)</f>
+        <v>379230377400</v>
+      </c>
+      <c r="P616" s="1">
+        <f t="shared" si="106"/>
+        <v>33624104.43</v>
+      </c>
+      <c r="Q616">
+        <f>SUM($P$5:P616)</f>
+        <v>3197315828.6100006</v>
+      </c>
+      <c r="R616">
+        <f t="shared" si="107"/>
+        <v>1.0628122889791003</v>
+      </c>
+      <c r="Z616" s="2">
+        <v>611</v>
+      </c>
+      <c r="AA616" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB616">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC616" s="1">
+        <f>SUM($AA$5:AA616)</f>
+        <v>5532991900</v>
+      </c>
+    </row>
+    <row r="617" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L617" s="2">
+        <v>612</v>
+      </c>
+      <c r="M617" s="1">
+        <f t="shared" si="105"/>
+        <v>4034892600</v>
+      </c>
+      <c r="N617">
+        <v>1.01</v>
+      </c>
+      <c r="O617" s="1">
+        <f>SUM($M$5:M617)</f>
+        <v>383265270000</v>
+      </c>
+      <c r="P617" s="1">
+        <f t="shared" si="106"/>
+        <v>33960346.049999997</v>
+      </c>
+      <c r="Q617">
+        <f>SUM($P$5:P617)</f>
+        <v>3231276174.6600008</v>
+      </c>
+      <c r="R617">
+        <f t="shared" si="107"/>
+        <v>1.0621517507316158</v>
+      </c>
+      <c r="Z617" s="2">
+        <v>612</v>
+      </c>
+      <c r="AA617" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB617">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC617" s="1">
+        <f>SUM($AA$5:AA617)</f>
+        <v>5550991900</v>
+      </c>
+    </row>
+    <row r="618" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L618" s="2">
+        <v>613</v>
+      </c>
+      <c r="M618" s="1">
+        <f t="shared" si="105"/>
+        <v>4075241600</v>
+      </c>
+      <c r="N618">
+        <v>1.01</v>
+      </c>
+      <c r="O618" s="1">
+        <f>SUM($M$5:M618)</f>
+        <v>387340511600</v>
+      </c>
+      <c r="P618" s="1">
+        <f t="shared" si="106"/>
+        <v>34299950.140000001</v>
+      </c>
+      <c r="Q618">
+        <f>SUM($P$5:P618)</f>
+        <v>3265576124.8000007</v>
+      </c>
+      <c r="R618">
+        <f t="shared" si="107"/>
+        <v>1.0614985623631801</v>
+      </c>
+      <c r="Z618" s="2">
+        <v>613</v>
+      </c>
+      <c r="AA618" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB618">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC618" s="1">
+        <f>SUM($AA$5:AA618)</f>
+        <v>5568991900</v>
+      </c>
+    </row>
+    <row r="619" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L619" s="2">
+        <v>614</v>
+      </c>
+      <c r="M619" s="1">
+        <f t="shared" si="105"/>
+        <v>4115994100</v>
+      </c>
+      <c r="N619">
+        <v>1.01</v>
+      </c>
+      <c r="O619" s="1">
+        <f>SUM($M$5:M619)</f>
+        <v>391456505700</v>
+      </c>
+      <c r="P619" s="1">
+        <f t="shared" si="106"/>
+        <v>34642950.350000001</v>
+      </c>
+      <c r="Q619">
+        <f>SUM($P$5:P619)</f>
+        <v>3300219075.1500006</v>
+      </c>
+      <c r="R619">
+        <f t="shared" si="107"/>
+        <v>1.0608526344527216</v>
+      </c>
+      <c r="Z619" s="2">
+        <v>614</v>
+      </c>
+      <c r="AA619" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB619">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC619" s="1">
+        <f>SUM($AA$5:AA619)</f>
+        <v>5586991900</v>
+      </c>
+    </row>
+    <row r="620" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L620" s="2">
+        <v>615</v>
+      </c>
+      <c r="M620" s="1">
+        <f t="shared" si="105"/>
+        <v>4157154100</v>
+      </c>
+      <c r="N620">
+        <v>1.01</v>
+      </c>
+      <c r="O620" s="1">
+        <f>SUM($M$5:M620)</f>
+        <v>395613659800</v>
+      </c>
+      <c r="P620" s="1">
+        <f t="shared" si="106"/>
+        <v>34989380.350000001</v>
+      </c>
+      <c r="Q620">
+        <f>SUM($P$5:P620)</f>
+        <v>3335208455.5000005</v>
+      </c>
+      <c r="R620">
+        <f t="shared" si="107"/>
+        <v>1.0602138692386529</v>
+      </c>
+      <c r="Z620" s="2">
+        <v>615</v>
+      </c>
+      <c r="AA620" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB620">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC620" s="1">
+        <f>SUM($AA$5:AA620)</f>
+        <v>5604991900</v>
+      </c>
+    </row>
+    <row r="621" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L621" s="2">
+        <v>616</v>
+      </c>
+      <c r="M621" s="1">
+        <f t="shared" si="105"/>
+        <v>4198725700</v>
+      </c>
+      <c r="N621">
+        <v>1.01</v>
+      </c>
+      <c r="O621" s="1">
+        <f>SUM($M$5:M621)</f>
+        <v>399812385500</v>
+      </c>
+      <c r="P621" s="1">
+        <f t="shared" si="106"/>
+        <v>35339274.649999999</v>
+      </c>
+      <c r="Q621">
+        <f>SUM($P$5:P621)</f>
+        <v>3370547730.1500006</v>
+      </c>
+      <c r="R621">
+        <f t="shared" si="107"/>
+        <v>1.0595821856868668</v>
+      </c>
+      <c r="Z621" s="2">
+        <v>616</v>
+      </c>
+      <c r="AA621" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB621">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC621" s="1">
+        <f>SUM($AA$5:AA621)</f>
+        <v>5622991900</v>
+      </c>
+    </row>
+    <row r="622" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L622" s="2">
+        <v>617</v>
+      </c>
+      <c r="M622" s="1">
+        <f t="shared" si="105"/>
+        <v>4240713000</v>
+      </c>
+      <c r="N622">
+        <v>1.01</v>
+      </c>
+      <c r="O622" s="1">
+        <f>SUM($M$5:M622)</f>
+        <v>404053098500</v>
+      </c>
+      <c r="P622" s="1">
+        <f t="shared" si="106"/>
+        <v>35692667.75</v>
+      </c>
+      <c r="Q622">
+        <f>SUM($P$5:P622)</f>
+        <v>3406240397.9000006</v>
+      </c>
+      <c r="R622">
+        <f t="shared" si="107"/>
+        <v>1.0589574931909229</v>
+      </c>
+      <c r="Z622" s="2">
+        <v>617</v>
+      </c>
+      <c r="AA622" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB622">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC622" s="1">
+        <f>SUM($AA$5:AA622)</f>
+        <v>5640991900</v>
+      </c>
+    </row>
+    <row r="623" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L623" s="2">
+        <v>618</v>
+      </c>
+      <c r="M623" s="1">
+        <f t="shared" si="105"/>
+        <v>4283120200</v>
+      </c>
+      <c r="N623">
+        <v>1.01</v>
+      </c>
+      <c r="O623" s="1">
+        <f>SUM($M$5:M623)</f>
+        <v>408336218700</v>
+      </c>
+      <c r="P623" s="1">
+        <f t="shared" si="106"/>
+        <v>36049595.019999996</v>
+      </c>
+      <c r="Q623">
+        <f>SUM($P$5:P623)</f>
+        <v>3442289992.9200006</v>
+      </c>
+      <c r="R623">
+        <f t="shared" si="107"/>
+        <v>1.0583397179548779</v>
+      </c>
+      <c r="Z623" s="2">
+        <v>618</v>
+      </c>
+      <c r="AA623" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB623">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC623" s="1">
+        <f>SUM($AA$5:AA623)</f>
+        <v>5658991900</v>
+      </c>
+    </row>
+    <row r="624" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L624" s="2">
+        <v>619</v>
+      </c>
+      <c r="M624" s="1">
+        <f t="shared" si="105"/>
+        <v>4325951500</v>
+      </c>
+      <c r="N624">
+        <v>1.01</v>
+      </c>
+      <c r="O624" s="1">
+        <f>SUM($M$5:M624)</f>
+        <v>412662170200</v>
+      </c>
+      <c r="P624" s="1">
+        <f t="shared" si="106"/>
+        <v>36410091.799999997</v>
+      </c>
+      <c r="Q624">
+        <f>SUM($P$5:P624)</f>
+        <v>3478700084.7200007</v>
+      </c>
+      <c r="R624">
+        <f t="shared" si="107"/>
+        <v>1.0577287757535647</v>
+      </c>
+      <c r="Z624" s="2">
+        <v>619</v>
+      </c>
+      <c r="AA624" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB624">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC624" s="1">
+        <f>SUM($AA$5:AA624)</f>
+        <v>5676991900</v>
+      </c>
+    </row>
+    <row r="625" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L625" s="2">
+        <v>620</v>
+      </c>
+      <c r="M625" s="1">
+        <f t="shared" si="105"/>
+        <v>4369211100</v>
+      </c>
+      <c r="N625">
+        <v>1.01</v>
+      </c>
+      <c r="O625" s="1">
+        <f>SUM($M$5:M625)</f>
+        <v>417031381300</v>
+      </c>
+      <c r="P625" s="1">
+        <f t="shared" si="106"/>
+        <v>36774193.43</v>
+      </c>
+      <c r="Q625">
+        <f>SUM($P$5:P625)</f>
+        <v>3515474278.1500006</v>
+      </c>
+      <c r="R625">
+        <f t="shared" si="107"/>
+        <v>1.0571245733867216</v>
+      </c>
+      <c r="Z625" s="2">
+        <v>620</v>
+      </c>
+      <c r="AA625" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB625">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC625" s="1">
+        <f>SUM($AA$5:AA625)</f>
+        <v>5694991900</v>
+      </c>
+    </row>
+    <row r="626" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L626" s="2">
+        <v>621</v>
+      </c>
+      <c r="M626" s="1">
+        <f t="shared" si="105"/>
+        <v>4412903300</v>
+      </c>
+      <c r="N626">
+        <v>1.01</v>
+      </c>
+      <c r="O626" s="1">
+        <f>SUM($M$5:M626)</f>
+        <v>421444284600</v>
+      </c>
+      <c r="P626" s="1">
+        <f t="shared" si="106"/>
+        <v>37141936.109999999</v>
+      </c>
+      <c r="Q626">
+        <f>SUM($P$5:P626)</f>
+        <v>3552616214.2600007</v>
+      </c>
+      <c r="R626">
+        <f t="shared" si="107"/>
+        <v>1.0565270336594776</v>
+      </c>
+      <c r="Z626" s="2">
+        <v>621</v>
+      </c>
+      <c r="AA626" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB626">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC626" s="1">
+        <f>SUM($AA$5:AA626)</f>
+        <v>5712991900</v>
+      </c>
+    </row>
+    <row r="627" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L627" s="2">
+        <v>622</v>
+      </c>
+      <c r="M627" s="1">
+        <f t="shared" si="105"/>
+        <v>4457032400</v>
+      </c>
+      <c r="N627">
+        <v>1.01</v>
+      </c>
+      <c r="O627" s="1">
+        <f>SUM($M$5:M627)</f>
+        <v>425901317000</v>
+      </c>
+      <c r="P627" s="1">
+        <f t="shared" si="106"/>
+        <v>37513356.039999999</v>
+      </c>
+      <c r="Q627">
+        <f>SUM($P$5:P627)</f>
+        <v>3590129570.3000007</v>
+      </c>
+      <c r="R627">
+        <f t="shared" si="107"/>
+        <v>1.0559360701396192</v>
+      </c>
+      <c r="Z627" s="2">
+        <v>622</v>
+      </c>
+      <c r="AA627" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB627">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC627" s="1">
+        <f>SUM($AA$5:AA627)</f>
+        <v>5730991900</v>
+      </c>
+    </row>
+    <row r="628" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L628" s="2">
+        <v>623</v>
+      </c>
+      <c r="M628" s="1">
+        <f t="shared" si="105"/>
+        <v>4501602800</v>
+      </c>
+      <c r="N628">
+        <v>1.01</v>
+      </c>
+      <c r="O628" s="1">
+        <f>SUM($M$5:M628)</f>
+        <v>430402919800</v>
+      </c>
+      <c r="P628" s="1">
+        <f t="shared" si="106"/>
+        <v>37888490.239999995</v>
+      </c>
+      <c r="Q628">
+        <f>SUM($P$5:P628)</f>
+        <v>3628018060.5400004</v>
+      </c>
+      <c r="R628">
+        <f t="shared" si="107"/>
+        <v>1.0553516105223386</v>
+      </c>
+      <c r="Z628" s="2">
+        <v>623</v>
+      </c>
+      <c r="AA628" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB628">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC628" s="1">
+        <f>SUM($AA$5:AA628)</f>
+        <v>5748991900</v>
+      </c>
+    </row>
+    <row r="629" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L629" s="2">
+        <v>624</v>
+      </c>
+      <c r="M629" s="1">
+        <f t="shared" si="105"/>
+        <v>4546618900</v>
+      </c>
+      <c r="N629">
+        <v>1.01</v>
+      </c>
+      <c r="O629" s="1">
+        <f>SUM($M$5:M629)</f>
+        <v>434949538700</v>
+      </c>
+      <c r="P629" s="1">
+        <f t="shared" si="106"/>
+        <v>38267375.75</v>
+      </c>
+      <c r="Q629">
+        <f>SUM($P$5:P629)</f>
+        <v>3666285436.2900004</v>
+      </c>
+      <c r="R629">
+        <f t="shared" si="107"/>
+        <v>1.0547735736548185</v>
+      </c>
+      <c r="Z629" s="2">
+        <v>624</v>
+      </c>
+      <c r="AA629" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB629">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC629" s="1">
+        <f>SUM($AA$5:AA629)</f>
+        <v>5766991900</v>
+      </c>
+    </row>
+    <row r="630" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L630" s="2">
+        <v>625</v>
+      </c>
+      <c r="M630" s="1">
+        <f t="shared" si="105"/>
+        <v>4592085100</v>
+      </c>
+      <c r="N630">
+        <v>1.01</v>
+      </c>
+      <c r="O630" s="1">
+        <f>SUM($M$5:M630)</f>
+        <v>439541623800</v>
+      </c>
+      <c r="P630" s="1">
+        <f t="shared" si="106"/>
+        <v>38650049.600000001</v>
+      </c>
+      <c r="Q630">
+        <f>SUM($P$5:P630)</f>
+        <v>3704935485.8900003</v>
+      </c>
+      <c r="R630">
+        <f t="shared" si="107"/>
+        <v>1.0542018692115469</v>
+      </c>
+      <c r="Z630" s="2">
+        <v>625</v>
+      </c>
+      <c r="AA630" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB630">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC630" s="1">
+        <f>SUM($AA$5:AA630)</f>
+        <v>5784991900</v>
+      </c>
+    </row>
+    <row r="631" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L631" s="2">
+        <v>626</v>
+      </c>
+      <c r="M631" s="1">
+        <f t="shared" si="105"/>
+        <v>4638006000</v>
+      </c>
+      <c r="N631">
+        <v>1.01</v>
+      </c>
+      <c r="O631" s="1">
+        <f>SUM($M$5:M631)</f>
+        <v>444179629800</v>
+      </c>
+      <c r="P631" s="1">
+        <f t="shared" si="106"/>
+        <v>39036550.5</v>
+      </c>
+      <c r="Q631">
+        <f>SUM($P$5:P631)</f>
+        <v>3743972036.3900003</v>
+      </c>
+      <c r="R631">
+        <f t="shared" si="107"/>
+        <v>1.0536364438373651</v>
+      </c>
+      <c r="Z631" s="2">
+        <v>626</v>
+      </c>
+      <c r="AA631" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB631">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC631" s="1">
+        <f>SUM($AA$5:AA631)</f>
+        <v>5802991900</v>
+      </c>
+    </row>
+    <row r="632" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L632" s="2">
+        <v>627</v>
+      </c>
+      <c r="M632" s="1">
+        <f t="shared" si="105"/>
+        <v>4684386100</v>
+      </c>
+      <c r="N632">
+        <v>1.01</v>
+      </c>
+      <c r="O632" s="1">
+        <f>SUM($M$5:M632)</f>
+        <v>448864015900</v>
+      </c>
+      <c r="P632" s="1">
+        <f t="shared" si="106"/>
+        <v>39426916.350000001</v>
+      </c>
+      <c r="Q632">
+        <f>SUM($P$5:P632)</f>
+        <v>3783398952.7400002</v>
+      </c>
+      <c r="R632">
+        <f t="shared" si="107"/>
+        <v>1.0530772122971299</v>
+      </c>
+      <c r="Z632" s="2">
+        <v>627</v>
+      </c>
+      <c r="AA632" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB632">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC632" s="1">
+        <f>SUM($AA$5:AA632)</f>
+        <v>5820991900</v>
+      </c>
+    </row>
+    <row r="633" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L633" s="2">
+        <v>628</v>
+      </c>
+      <c r="M633" s="1">
+        <f t="shared" si="105"/>
+        <v>4731230000</v>
+      </c>
+      <c r="N633">
+        <v>1.01</v>
+      </c>
+      <c r="O633" s="1">
+        <f>SUM($M$5:M633)</f>
+        <v>453595245900</v>
+      </c>
+      <c r="P633" s="1">
+        <f t="shared" si="106"/>
+        <v>39821185.839999996</v>
+      </c>
+      <c r="Q633">
+        <f>SUM($P$5:P633)</f>
+        <v>3823220138.5800004</v>
+      </c>
+      <c r="R633">
+        <f t="shared" si="107"/>
+        <v>1.0525241016721483</v>
+      </c>
+      <c r="Z633" s="2">
+        <v>628</v>
+      </c>
+      <c r="AA633" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB633">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC633" s="1">
+        <f>SUM($AA$5:AA633)</f>
+        <v>5838991900</v>
+      </c>
+    </row>
+    <row r="634" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L634" s="2">
+        <v>629</v>
+      </c>
+      <c r="M634" s="1">
+        <f t="shared" si="105"/>
+        <v>4778542300</v>
+      </c>
+      <c r="N634">
+        <v>1.01</v>
+      </c>
+      <c r="O634" s="1">
+        <f>SUM($M$5:M634)</f>
+        <v>458373788200</v>
+      </c>
+      <c r="P634" s="1">
+        <f t="shared" si="106"/>
+        <v>40219397.699999996</v>
+      </c>
+      <c r="Q634">
+        <f>SUM($P$5:P634)</f>
+        <v>3863439536.2800002</v>
+      </c>
+      <c r="R634">
+        <f t="shared" si="107"/>
+        <v>1.0519770309364891</v>
+      </c>
+      <c r="Z634" s="2">
+        <v>629</v>
+      </c>
+      <c r="AA634" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB634">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC634" s="1">
+        <f>SUM($AA$5:AA634)</f>
+        <v>5856991900</v>
+      </c>
+    </row>
+    <row r="635" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L635" s="2">
+        <v>630</v>
+      </c>
+      <c r="M635" s="1">
+        <f t="shared" si="105"/>
+        <v>4826327800</v>
+      </c>
+      <c r="N635">
+        <v>1.01</v>
+      </c>
+      <c r="O635" s="1">
+        <f>SUM($M$5:M635)</f>
+        <v>463200116000</v>
+      </c>
+      <c r="P635" s="1">
+        <f t="shared" si="106"/>
+        <v>40621592.32</v>
+      </c>
+      <c r="Q635">
+        <f>SUM($P$5:P635)</f>
+        <v>3904061128.6000004</v>
+      </c>
+      <c r="R635">
+        <f t="shared" si="107"/>
+        <v>1.0514359533400019</v>
+      </c>
+      <c r="Z635" s="2">
+        <v>630</v>
+      </c>
+      <c r="AA635" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB635">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC635" s="1">
+        <f>SUM($AA$5:AA635)</f>
+        <v>5874991900</v>
+      </c>
+    </row>
+    <row r="636" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L636" s="2">
+        <v>631</v>
+      </c>
+      <c r="M636" s="1">
+        <f t="shared" si="105"/>
+        <v>4874591100</v>
+      </c>
+      <c r="N636">
+        <v>1.01</v>
+      </c>
+      <c r="O636" s="1">
+        <f>SUM($M$5:M636)</f>
+        <v>468074707100</v>
+      </c>
+      <c r="P636" s="1">
+        <f t="shared" si="106"/>
+        <v>41027808.43</v>
+      </c>
+      <c r="Q636">
+        <f>SUM($P$5:P636)</f>
+        <v>3945088937.0300002</v>
+      </c>
+      <c r="R636">
+        <f t="shared" si="107"/>
+        <v>1.0509007691873009</v>
+      </c>
+      <c r="Z636" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA636" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB636">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC636" s="1">
+        <f>SUM($AA$5:AA636)</f>
+        <v>5892991900</v>
+      </c>
+    </row>
+    <row r="637" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L637" s="2">
+        <v>632</v>
+      </c>
+      <c r="M637" s="1">
+        <f t="shared" si="105"/>
+        <v>4923337100</v>
+      </c>
+      <c r="N637">
+        <v>1.01</v>
+      </c>
+      <c r="O637" s="1">
+        <f>SUM($M$5:M637)</f>
+        <v>472998044200</v>
+      </c>
+      <c r="P637" s="1">
+        <f t="shared" si="106"/>
+        <v>41438087.259999998</v>
+      </c>
+      <c r="Q637">
+        <f>SUM($P$5:P637)</f>
+        <v>3986527024.2900004</v>
+      </c>
+      <c r="R637">
+        <f t="shared" si="107"/>
+        <v>1.0503714344953718</v>
+      </c>
+      <c r="Z637" s="2">
+        <v>632</v>
+      </c>
+      <c r="AA637" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB637">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC637" s="1">
+        <f>SUM($AA$5:AA637)</f>
+        <v>5910991900</v>
+      </c>
+    </row>
+    <row r="638" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L638" s="2">
+        <v>633</v>
+      </c>
+      <c r="M638" s="1">
+        <f t="shared" si="105"/>
+        <v>4972570500</v>
+      </c>
+      <c r="N638">
+        <v>1.01</v>
+      </c>
+      <c r="O638" s="1">
+        <f>SUM($M$5:M638)</f>
+        <v>477970614700</v>
+      </c>
+      <c r="P638" s="1">
+        <f t="shared" si="106"/>
+        <v>41852468.379999995</v>
+      </c>
+      <c r="Q638">
+        <f>SUM($P$5:P638)</f>
+        <v>4028379492.6700006</v>
+      </c>
+      <c r="R638">
+        <f t="shared" si="107"/>
+        <v>1.049847853156195</v>
+      </c>
+      <c r="Z638" s="2">
+        <v>633</v>
+      </c>
+      <c r="AA638" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB638">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC638" s="1">
+        <f>SUM($AA$5:AA638)</f>
+        <v>5928991900</v>
+      </c>
+    </row>
+    <row r="639" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L639" s="2">
+        <v>634</v>
+      </c>
+      <c r="M639" s="1">
+        <f t="shared" si="105"/>
+        <v>5022296300</v>
+      </c>
+      <c r="N639">
+        <v>1.01</v>
+      </c>
+      <c r="O639" s="1">
+        <f>SUM($M$5:M639)</f>
+        <v>482992911000</v>
+      </c>
+      <c r="P639" s="1">
+        <f t="shared" si="106"/>
+        <v>42270993.859999999</v>
+      </c>
+      <c r="Q639">
+        <f>SUM($P$5:P639)</f>
+        <v>4070650486.5300007</v>
+      </c>
+      <c r="R639">
+        <f t="shared" si="107"/>
+        <v>1.0493299833572287</v>
+      </c>
+      <c r="Z639" s="2">
+        <v>634</v>
+      </c>
+      <c r="AA639" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB639">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC639" s="1">
+        <f>SUM($AA$5:AA639)</f>
+        <v>5946991900</v>
+      </c>
+    </row>
+    <row r="640" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L640" s="2">
+        <v>635</v>
+      </c>
+      <c r="M640" s="1">
+        <f t="shared" si="105"/>
+        <v>5072519300</v>
+      </c>
+      <c r="N640">
+        <v>1.01</v>
+      </c>
+      <c r="O640" s="1">
+        <f>SUM($M$5:M640)</f>
+        <v>488065430300</v>
+      </c>
+      <c r="P640" s="1">
+        <f t="shared" si="106"/>
+        <v>42693704.109999999</v>
+      </c>
+      <c r="Q640">
+        <f>SUM($P$5:P640)</f>
+        <v>4113344190.6400008</v>
+      </c>
+      <c r="R640">
+        <f t="shared" si="107"/>
+        <v>1.0488177319884346</v>
+      </c>
+      <c r="Z640" s="2">
+        <v>635</v>
+      </c>
+      <c r="AA640" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB640">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC640" s="1">
+        <f>SUM($AA$5:AA640)</f>
+        <v>5964991900</v>
+      </c>
+    </row>
+    <row r="641" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L641" s="2">
+        <v>636</v>
+      </c>
+      <c r="M641" s="1">
+        <f t="shared" si="105"/>
+        <v>5123244500</v>
+      </c>
+      <c r="N641">
+        <v>1.01</v>
+      </c>
+      <c r="O641" s="1">
+        <f>SUM($M$5:M641)</f>
+        <v>493188674800</v>
+      </c>
+      <c r="P641" s="1">
+        <f t="shared" si="106"/>
+        <v>43120641.210000001</v>
+      </c>
+      <c r="Q641">
+        <f>SUM($P$5:P641)</f>
+        <v>4156464831.8500009</v>
+      </c>
+      <c r="R641">
+        <f t="shared" si="107"/>
+        <v>1.0483110386950341</v>
+      </c>
+      <c r="Z641" s="2">
+        <v>636</v>
+      </c>
+      <c r="AA641" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB641">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC641" s="1">
+        <f>SUM($AA$5:AA641)</f>
+        <v>5982991900</v>
+      </c>
+    </row>
+    <row r="642" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L642" s="2">
+        <v>637</v>
+      </c>
+      <c r="M642" s="1">
+        <f t="shared" si="105"/>
+        <v>5174477000</v>
+      </c>
+      <c r="N642">
+        <v>1.01</v>
+      </c>
+      <c r="O642" s="1">
+        <f>SUM($M$5:M642)</f>
+        <v>498363151800</v>
+      </c>
+      <c r="P642" s="1">
+        <f t="shared" si="106"/>
+        <v>43551848.089999996</v>
+      </c>
+      <c r="Q642">
+        <f>SUM($P$5:P642)</f>
+        <v>4200016679.940001</v>
+      </c>
+      <c r="R642">
+        <f t="shared" si="107"/>
+        <v>1.0478098540921772</v>
+      </c>
+      <c r="Z642" s="2">
+        <v>637</v>
+      </c>
+      <c r="AA642" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB642">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC642" s="1">
+        <f>SUM($AA$5:AA642)</f>
+        <v>6000991900</v>
+      </c>
+    </row>
+    <row r="643" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L643" s="2">
+        <v>638</v>
+      </c>
+      <c r="M643" s="1">
+        <f t="shared" si="105"/>
+        <v>5226221800</v>
+      </c>
+      <c r="N643">
+        <v>1.01</v>
+      </c>
+      <c r="O643" s="1">
+        <f>SUM($M$5:M643)</f>
+        <v>503589373600</v>
+      </c>
+      <c r="P643" s="1">
+        <f t="shared" si="106"/>
+        <v>43987366.82</v>
+      </c>
+      <c r="Q643">
+        <f>SUM($P$5:P643)</f>
+        <v>4244004046.7600012</v>
+      </c>
+      <c r="R643">
+        <f t="shared" si="107"/>
+        <v>1.0473140983008797</v>
+      </c>
+      <c r="Z643" s="2">
+        <v>638</v>
+      </c>
+      <c r="AA643" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB643">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC643" s="1">
+        <f>SUM($AA$5:AA643)</f>
+        <v>6018991900</v>
+      </c>
+    </row>
+    <row r="644" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L644" s="2">
+        <v>639</v>
+      </c>
+      <c r="M644" s="1">
+        <f t="shared" si="105"/>
+        <v>5278484100</v>
+      </c>
+      <c r="N644">
+        <v>1.01</v>
+      </c>
+      <c r="O644" s="1">
+        <f>SUM($M$5:M644)</f>
+        <v>508867857700</v>
+      </c>
+      <c r="P644" s="1">
+        <f t="shared" si="106"/>
+        <v>44427241.18</v>
+      </c>
+      <c r="Q644">
+        <f>SUM($P$5:P644)</f>
+        <v>4288431287.940001</v>
+      </c>
+      <c r="R644">
+        <f t="shared" si="107"/>
+        <v>1.0468237233165907</v>
+      </c>
+      <c r="Z644" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA644" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB644">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC644" s="1">
+        <f>SUM($AA$5:AA644)</f>
+        <v>6036991900</v>
+      </c>
+    </row>
+    <row r="645" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L645" s="2">
+        <v>640</v>
+      </c>
+      <c r="M645" s="1">
+        <f t="shared" si="105"/>
+        <v>5331269000</v>
+      </c>
+      <c r="N645">
+        <v>1.01</v>
+      </c>
+      <c r="O645" s="1">
+        <f>SUM($M$5:M645)</f>
+        <v>514199126700</v>
+      </c>
+      <c r="P645" s="1">
+        <f t="shared" si="106"/>
+        <v>44871514.089999996</v>
+      </c>
+      <c r="Q645">
+        <f>SUM($P$5:P645)</f>
+        <v>4333302802.0300007</v>
+      </c>
+      <c r="R645">
+        <f t="shared" si="107"/>
+        <v>1.0463386510631081</v>
+      </c>
+      <c r="Z645" s="2">
+        <v>640</v>
+      </c>
+      <c r="AA645" s="1">
+        <f t="shared" si="108"/>
+        <v>18000000</v>
+      </c>
+      <c r="AB645">
+        <f t="shared" si="109"/>
+        <v>18</v>
+      </c>
+      <c r="AC645" s="1">
+        <f>SUM($AA$5:AA645)</f>
+        <v>6054991900</v>
+      </c>
+    </row>
+    <row r="646" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L646" s="2">
+        <v>641</v>
+      </c>
+      <c r="M646" s="1">
+        <f t="shared" si="105"/>
+        <v>5384581700</v>
+      </c>
+      <c r="N646">
+        <v>1.01</v>
+      </c>
+      <c r="O646" s="1">
+        <f>SUM($M$5:M646)</f>
+        <v>519583708400</v>
+      </c>
+      <c r="P646" s="1">
+        <f t="shared" si="106"/>
+        <v>45320229.309999995</v>
+      </c>
+      <c r="Q646">
+        <f>SUM($P$5:P646)</f>
+        <v>4378623031.3400011</v>
+      </c>
+      <c r="R646">
+        <f t="shared" si="107"/>
+        <v>1.0458588144075571</v>
+      </c>
+      <c r="Z646" s="2">
+        <v>641</v>
+      </c>
+      <c r="AA646" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB646">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC646" s="1">
+        <f>SUM($AA$5:AA646)</f>
+        <v>6073991900</v>
+      </c>
+    </row>
+    <row r="647" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L647" s="2">
+        <v>642</v>
+      </c>
+      <c r="M647" s="1">
+        <f t="shared" si="105"/>
+        <v>5438427600</v>
+      </c>
+      <c r="N647">
+        <v>1.01</v>
+      </c>
+      <c r="O647" s="1">
+        <f>SUM($M$5:M647)</f>
+        <v>525022136000</v>
+      </c>
+      <c r="P647" s="1">
+        <f t="shared" si="106"/>
+        <v>45773432.299999997</v>
+      </c>
+      <c r="Q647">
+        <f>SUM($P$5:P647)</f>
+        <v>4424396463.6400013</v>
+      </c>
+      <c r="R647">
+        <f t="shared" si="107"/>
+        <v>1.0453841760840514</v>
+      </c>
+      <c r="Z647" s="2">
+        <v>642</v>
+      </c>
+      <c r="AA647" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB647">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC647" s="1">
+        <f>SUM($AA$5:AA647)</f>
+        <v>6092991900</v>
+      </c>
+    </row>
+    <row r="648" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L648" s="2">
+        <v>643</v>
+      </c>
+      <c r="M648" s="1">
+        <f t="shared" si="105"/>
+        <v>5492811900</v>
+      </c>
+      <c r="N648">
+        <v>1.01</v>
+      </c>
+      <c r="O648" s="1">
+        <f>SUM($M$5:M648)</f>
+        <v>530514947900</v>
+      </c>
+      <c r="P648" s="1">
+        <f t="shared" si="106"/>
+        <v>46231166.829999998</v>
+      </c>
+      <c r="Q648">
+        <f>SUM($P$5:P648)</f>
+        <v>4470627630.4700012</v>
+      </c>
+      <c r="R648">
+        <f t="shared" si="107"/>
+        <v>1.0449146501659803</v>
+      </c>
+      <c r="Z648" s="2">
+        <v>643</v>
+      </c>
+      <c r="AA648" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB648">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC648" s="1">
+        <f>SUM($AA$5:AA648)</f>
+        <v>6111991900</v>
+      </c>
+    </row>
+    <row r="649" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L649" s="2">
+        <v>644</v>
+      </c>
+      <c r="M649" s="1">
+        <f t="shared" si="105"/>
+        <v>5547740100</v>
+      </c>
+      <c r="N649">
+        <v>1.01</v>
+      </c>
+      <c r="O649" s="1">
+        <f>SUM($M$5:M649)</f>
+        <v>536062688000</v>
+      </c>
+      <c r="P649" s="1">
+        <f t="shared" si="106"/>
+        <v>46693479.18</v>
+      </c>
+      <c r="Q649">
+        <f>SUM($P$5:P649)</f>
+        <v>4517321109.6500015</v>
+      </c>
+      <c r="R649">
+        <f t="shared" si="107"/>
+        <v>1.0444501989330608</v>
+      </c>
+      <c r="Z649" s="2">
+        <v>644</v>
+      </c>
+      <c r="AA649" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB649">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC649" s="1">
+        <f>SUM($AA$5:AA649)</f>
+        <v>6130991900</v>
+      </c>
+    </row>
+    <row r="650" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L650" s="2">
+        <v>645</v>
+      </c>
+      <c r="M650" s="1">
+        <f t="shared" si="105"/>
+        <v>5603217600</v>
+      </c>
+      <c r="N650">
+        <v>1.01</v>
+      </c>
+      <c r="O650" s="1">
+        <f>SUM($M$5:M650)</f>
+        <v>541665905600</v>
+      </c>
+      <c r="P650" s="1">
+        <f t="shared" si="106"/>
+        <v>47160414.799999997</v>
+      </c>
+      <c r="Q650">
+        <f>SUM($P$5:P650)</f>
+        <v>4564481524.4500017</v>
+      </c>
+      <c r="R650">
+        <f t="shared" si="107"/>
+        <v>1.0439907559206953</v>
+      </c>
+      <c r="Z650" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA650" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB650">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC650" s="1">
+        <f>SUM($AA$5:AA650)</f>
+        <v>6149991900</v>
+      </c>
+    </row>
+    <row r="651" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L651" s="2">
+        <v>646</v>
+      </c>
+      <c r="M651" s="1">
+        <f t="shared" si="105"/>
+        <v>5659249800</v>
+      </c>
+      <c r="N651">
+        <v>1.01</v>
+      </c>
+      <c r="O651" s="1">
+        <f>SUM($M$5:M651)</f>
+        <v>547325155400</v>
+      </c>
+      <c r="P651" s="1">
+        <f t="shared" si="106"/>
+        <v>47632019.149999999</v>
+      </c>
+      <c r="Q651">
+        <f>SUM($P$5:P651)</f>
+        <v>4612113543.6000013</v>
+      </c>
+      <c r="R651">
+        <f t="shared" si="107"/>
+        <v>1.0435362460085551</v>
+      </c>
+      <c r="Z651" s="2">
+        <v>646</v>
+      </c>
+      <c r="AA651" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB651">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC651" s="1">
+        <f>SUM($AA$5:AA651)</f>
+        <v>6168991900</v>
+      </c>
+    </row>
+    <row r="652" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L652" s="2">
+        <v>647</v>
+      </c>
+      <c r="M652" s="1">
+        <f t="shared" si="105"/>
+        <v>5715842300</v>
+      </c>
+      <c r="N652">
+        <v>1.01</v>
+      </c>
+      <c r="O652" s="1">
+        <f>SUM($M$5:M652)</f>
+        <v>553040997700</v>
+      </c>
+      <c r="P652" s="1">
+        <f t="shared" si="106"/>
+        <v>48108339.359999999</v>
+      </c>
+      <c r="Q652">
+        <f>SUM($P$5:P652)</f>
+        <v>4660221882.960001</v>
+      </c>
+      <c r="R652">
+        <f t="shared" si="107"/>
+        <v>1.0430866218971817</v>
+      </c>
+      <c r="Z652" s="2">
+        <v>647</v>
+      </c>
+      <c r="AA652" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB652">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC652" s="1">
+        <f>SUM($AA$5:AA652)</f>
+        <v>6187991900</v>
+      </c>
+    </row>
+    <row r="653" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L653" s="2">
+        <v>648</v>
+      </c>
+      <c r="M653" s="1">
+        <f t="shared" si="105"/>
+        <v>5773000800</v>
+      </c>
+      <c r="N653">
+        <v>1.01</v>
+      </c>
+      <c r="O653" s="1">
+        <f>SUM($M$5:M653)</f>
+        <v>558813998500</v>
+      </c>
+      <c r="P653" s="1">
+        <f t="shared" si="106"/>
+        <v>48589423.399999999</v>
+      </c>
+      <c r="Q653">
+        <f>SUM($P$5:P653)</f>
+        <v>4708811306.3600006</v>
+      </c>
+      <c r="R653">
+        <f t="shared" si="107"/>
+        <v>1.0426418445367542</v>
+      </c>
+      <c r="Z653" s="2">
+        <v>648</v>
+      </c>
+      <c r="AA653" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB653">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC653" s="1">
+        <f>SUM($AA$5:AA653)</f>
+        <v>6206991900</v>
+      </c>
+    </row>
+    <row r="654" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L654" s="2">
+        <v>649</v>
+      </c>
+      <c r="M654" s="1">
+        <f t="shared" si="105"/>
+        <v>5830730900</v>
+      </c>
+      <c r="N654">
+        <v>1.01</v>
+      </c>
+      <c r="O654" s="1">
+        <f>SUM($M$5:M654)</f>
+        <v>564644729400</v>
+      </c>
+      <c r="P654" s="1">
+        <f t="shared" si="106"/>
+        <v>49075318.409999996</v>
+      </c>
+      <c r="Q654">
+        <f>SUM($P$5:P654)</f>
+        <v>4757886624.7700005</v>
+      </c>
+      <c r="R654">
+        <f t="shared" si="107"/>
+        <v>1.0422018470715912</v>
+      </c>
+      <c r="Z654" s="2">
+        <v>649</v>
+      </c>
+      <c r="AA654" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB654">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC654" s="1">
+        <f>SUM($AA$5:AA654)</f>
+        <v>6225991900</v>
+      </c>
+    </row>
+    <row r="655" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L655" s="2">
+        <v>650</v>
+      </c>
+      <c r="M655" s="1">
+        <f t="shared" si="105"/>
+        <v>5889038300</v>
+      </c>
+      <c r="N655">
+        <v>1.01</v>
+      </c>
+      <c r="O655" s="1">
+        <f>SUM($M$5:M655)</f>
+        <v>570533767700</v>
+      </c>
+      <c r="P655" s="1">
+        <f t="shared" si="106"/>
+        <v>49566072.359999999</v>
+      </c>
+      <c r="Q655">
+        <f>SUM($P$5:P655)</f>
+        <v>4807452697.1300001</v>
+      </c>
+      <c r="R655">
+        <f t="shared" si="107"/>
+        <v>1.0417665713586799</v>
+      </c>
+      <c r="Z655" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA655" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB655">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC655" s="1">
+        <f>SUM($AA$5:AA655)</f>
+        <v>6244991900</v>
+      </c>
+    </row>
+    <row r="656" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L656" s="2">
+        <v>651</v>
+      </c>
+      <c r="M656" s="1">
+        <f t="shared" si="105"/>
+        <v>5947928700</v>
+      </c>
+      <c r="N656">
+        <v>1.01</v>
+      </c>
+      <c r="O656" s="1">
+        <f>SUM($M$5:M656)</f>
+        <v>576481696400</v>
+      </c>
+      <c r="P656" s="1">
+        <f t="shared" si="106"/>
+        <v>50061733.229999997</v>
+      </c>
+      <c r="Q656">
+        <f>SUM($P$5:P656)</f>
+        <v>4857514430.3599997</v>
+      </c>
+      <c r="R656">
+        <f t="shared" si="107"/>
+        <v>1.0413359503232529</v>
+      </c>
+      <c r="Z656" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA656" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB656">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC656" s="1">
+        <f>SUM($AA$5:AA656)</f>
+        <v>6263991900</v>
+      </c>
+    </row>
+    <row r="657" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L657" s="2">
+        <v>652</v>
+      </c>
+      <c r="M657" s="1">
+        <f t="shared" si="105"/>
+        <v>6007408000</v>
+      </c>
+      <c r="N657">
+        <v>1.01</v>
+      </c>
+      <c r="O657" s="1">
+        <f>SUM($M$5:M657)</f>
+        <v>582489104400</v>
+      </c>
+      <c r="P657" s="1">
+        <f t="shared" si="106"/>
+        <v>50562350.669999994</v>
+      </c>
+      <c r="Q657">
+        <f>SUM($P$5:P657)</f>
+        <v>4908076781.0299997</v>
+      </c>
+      <c r="R657">
+        <f t="shared" si="107"/>
+        <v>1.0409099426237383</v>
+      </c>
+      <c r="Z657" s="2">
+        <v>652</v>
+      </c>
+      <c r="AA657" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB657">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC657" s="1">
+        <f>SUM($AA$5:AA657)</f>
+        <v>6282991900</v>
+      </c>
+    </row>
+    <row r="658" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L658" s="2">
+        <v>653</v>
+      </c>
+      <c r="M658" s="1">
+        <f t="shared" si="105"/>
+        <v>6067482100</v>
+      </c>
+      <c r="N658">
+        <v>1.01</v>
+      </c>
+      <c r="O658" s="1">
+        <f>SUM($M$5:M658)</f>
+        <v>588556586500</v>
+      </c>
+      <c r="P658" s="1">
+        <f t="shared" si="106"/>
+        <v>51067974.350000001</v>
+      </c>
+      <c r="Q658">
+        <f>SUM($P$5:P658)</f>
+        <v>4959144755.3800001</v>
+      </c>
+      <c r="R658">
+        <f t="shared" si="107"/>
+        <v>1.0404884973963946</v>
+      </c>
+      <c r="Z658" s="2">
+        <v>653</v>
+      </c>
+      <c r="AA658" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB658">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC658" s="1">
+        <f>SUM($AA$5:AA658)</f>
+        <v>6301991900</v>
+      </c>
+    </row>
+    <row r="659" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L659" s="2">
+        <v>654</v>
+      </c>
+      <c r="M659" s="1">
+        <f t="shared" si="105"/>
+        <v>6128157000</v>
+      </c>
+      <c r="N659">
+        <v>1.01</v>
+      </c>
+      <c r="O659" s="1">
+        <f>SUM($M$5:M659)</f>
+        <v>594684743500</v>
+      </c>
+      <c r="P659" s="1">
+        <f t="shared" si="106"/>
+        <v>51578654.75</v>
+      </c>
+      <c r="Q659">
+        <f>SUM($P$5:P659)</f>
+        <v>5010723410.1300001</v>
+      </c>
+      <c r="R659">
+        <f t="shared" si="107"/>
+        <v>1.0400715706885577</v>
+      </c>
+      <c r="Z659" s="2">
+        <v>654</v>
+      </c>
+      <c r="AA659" s="1">
+        <f t="shared" si="108"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB659">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC659" s="1">
+        <f>SUM($AA$5:AA659)</f>
+        <v>6320991900</v>
+      </c>
+    </row>
+    <row r="660" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L660" s="2">
+        <v>655</v>
+      </c>
+      <c r="M660" s="1">
+        <f t="shared" si="105"/>
+        <v>6189438600</v>
+      </c>
+      <c r="N660">
+        <v>1.01</v>
+      </c>
+      <c r="O660" s="1">
+        <f>SUM($M$5:M660)</f>
+        <v>600874182100</v>
+      </c>
+      <c r="P660" s="1">
+        <f t="shared" si="106"/>
+        <v>52094441.549999997</v>
+      </c>
+      <c r="Q660">
+        <f>SUM($P$5:P660)</f>
+        <v>5062817851.6800003</v>
+      </c>
+      <c r="R660">
+        <f t="shared" si="107"/>
+        <v>1.0396590928304428</v>
+      </c>
+      <c r="Z660" s="2">
+        <v>655</v>
+      </c>
+      <c r="AA660" s="1">
+        <f t="shared" ref="AA660:AA704" si="110">$AA$86*AB660</f>
+        <v>19000000</v>
+      </c>
+      <c r="AB660">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC660" s="1">
+        <f>SUM($AA$5:AA660)</f>
+        <v>6339991900</v>
+      </c>
+    </row>
+    <row r="661" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L661" s="2">
+        <v>656</v>
+      </c>
+      <c r="M661" s="1">
+        <f t="shared" si="105"/>
+        <v>6251333000</v>
+      </c>
+      <c r="N661">
+        <v>1.01</v>
+      </c>
+      <c r="O661" s="1">
+        <f>SUM($M$5:M661)</f>
+        <v>607125515100</v>
+      </c>
+      <c r="P661" s="1">
+        <f t="shared" si="106"/>
+        <v>52615386.089999996</v>
+      </c>
+      <c r="Q661">
+        <f>SUM($P$5:P661)</f>
+        <v>5115433237.7700005</v>
+      </c>
+      <c r="R661">
+        <f t="shared" si="107"/>
+        <v>1.0392510185319177</v>
+      </c>
+      <c r="Z661" s="2">
+        <v>656</v>
+      </c>
+      <c r="AA661" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB661">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC661" s="1">
+        <f>SUM($AA$5:AA661)</f>
+        <v>6358991900</v>
+      </c>
+    </row>
+    <row r="662" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L662" s="2">
+        <v>657</v>
+      </c>
+      <c r="M662" s="1">
+        <f t="shared" si="105"/>
+        <v>6313846400</v>
+      </c>
+      <c r="N662">
+        <v>1.01</v>
+      </c>
+      <c r="O662" s="1">
+        <f>SUM($M$5:M662)</f>
+        <v>613439361500</v>
+      </c>
+      <c r="P662" s="1">
+        <f t="shared" si="106"/>
+        <v>53141540.539999999</v>
+      </c>
+      <c r="Q662">
+        <f>SUM($P$5:P662)</f>
+        <v>5168574778.3100004</v>
+      </c>
+      <c r="R662">
+        <f t="shared" si="107"/>
+        <v>1.0388473091121067</v>
+      </c>
+      <c r="Z662" s="2">
+        <v>657</v>
+      </c>
+      <c r="AA662" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB662">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC662" s="1">
+        <f>SUM($AA$5:AA662)</f>
+        <v>6377991900</v>
+      </c>
+    </row>
+    <row r="663" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L663" s="2">
+        <v>658</v>
+      </c>
+      <c r="M663" s="1">
+        <f t="shared" si="105"/>
+        <v>6376984900</v>
+      </c>
+      <c r="N663">
+        <v>1.01</v>
+      </c>
+      <c r="O663" s="1">
+        <f>SUM($M$5:M663)</f>
+        <v>619816346400</v>
+      </c>
+      <c r="P663" s="1">
+        <f t="shared" si="106"/>
+        <v>53672956.25</v>
+      </c>
+      <c r="Q663">
+        <f>SUM($P$5:P663)</f>
+        <v>5222247734.5600004</v>
+      </c>
+      <c r="R663">
+        <f t="shared" si="107"/>
+        <v>1.0384479000911304</v>
+      </c>
+      <c r="Z663" s="2">
+        <v>658</v>
+      </c>
+      <c r="AA663" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB663">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC663" s="1">
+        <f>SUM($AA$5:AA663)</f>
+        <v>6396991900</v>
+      </c>
+    </row>
+    <row r="664" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L664" s="2">
+        <v>659</v>
+      </c>
+      <c r="M664" s="1">
+        <f t="shared" si="105"/>
+        <v>6440754800</v>
+      </c>
+      <c r="N664">
+        <v>1.01</v>
+      </c>
+      <c r="O664" s="1">
+        <f>SUM($M$5:M664)</f>
+        <v>626257101200</v>
+      </c>
+      <c r="P664" s="1">
+        <f t="shared" si="106"/>
+        <v>54209686.239999995</v>
+      </c>
+      <c r="Q664">
+        <f>SUM($P$5:P664)</f>
+        <v>5276457420.8000002</v>
+      </c>
+      <c r="R664">
+        <f t="shared" si="107"/>
+        <v>1.0380527503750681</v>
+      </c>
+      <c r="Z664" s="2">
+        <v>659</v>
+      </c>
+      <c r="AA664" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB664">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC664" s="1">
+        <f>SUM($AA$5:AA664)</f>
+        <v>6415991900</v>
+      </c>
+    </row>
+    <row r="665" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L665" s="2">
+        <v>660</v>
+      </c>
+      <c r="M665" s="1">
+        <f t="shared" si="105"/>
+        <v>6505162400</v>
+      </c>
+      <c r="N665">
+        <v>1.01</v>
+      </c>
+      <c r="O665" s="1">
+        <f>SUM($M$5:M665)</f>
+        <v>632762263600</v>
+      </c>
+      <c r="P665" s="1">
+        <f t="shared" si="106"/>
+        <v>54751783.539999999</v>
+      </c>
+      <c r="Q665">
+        <f>SUM($P$5:P665)</f>
+        <v>5331209204.3400002</v>
+      </c>
+      <c r="R665">
+        <f t="shared" si="107"/>
+        <v>1.0376618093072505</v>
+      </c>
+      <c r="Z665" s="2">
+        <v>660</v>
+      </c>
+      <c r="AA665" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB665">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC665" s="1">
+        <f>SUM($AA$5:AA665)</f>
+        <v>6434991900</v>
+      </c>
+    </row>
+    <row r="666" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L666" s="2">
+        <v>661</v>
+      </c>
+      <c r="M666" s="1">
+        <f t="shared" si="105"/>
+        <v>6570214100</v>
+      </c>
+      <c r="N666">
+        <v>1.01</v>
+      </c>
+      <c r="O666" s="1">
+        <f>SUM($M$5:M666)</f>
+        <v>639332477700</v>
+      </c>
+      <c r="P666" s="1">
+        <f t="shared" si="106"/>
+        <v>55299302.009999998</v>
+      </c>
+      <c r="Q666">
+        <f>SUM($P$5:P666)</f>
+        <v>5386508506.3500004</v>
+      </c>
+      <c r="R666">
+        <f t="shared" si="107"/>
+        <v>1.0372750325570133</v>
+      </c>
+      <c r="Z666" s="2">
+        <v>661</v>
+      </c>
+      <c r="AA666" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB666">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC666" s="1">
+        <f>SUM($AA$5:AA666)</f>
+        <v>6453991900</v>
+      </c>
+    </row>
+    <row r="667" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L667" s="2">
+        <v>662</v>
+      </c>
+      <c r="M667" s="1">
+        <f t="shared" si="105"/>
+        <v>6635916300</v>
+      </c>
+      <c r="N667">
+        <v>1.01</v>
+      </c>
+      <c r="O667" s="1">
+        <f>SUM($M$5:M667)</f>
+        <v>645968394000</v>
+      </c>
+      <c r="P667" s="1">
+        <f t="shared" si="106"/>
+        <v>55852295.530000001</v>
+      </c>
+      <c r="Q667">
+        <f>SUM($P$5:P667)</f>
+        <v>5442360801.8800001</v>
+      </c>
+      <c r="R667">
+        <f t="shared" si="107"/>
+        <v>1.0368923666259333</v>
+      </c>
+      <c r="Z667" s="2">
+        <v>662</v>
+      </c>
+      <c r="AA667" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB667">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC667" s="1">
+        <f>SUM($AA$5:AA667)</f>
+        <v>6472991900</v>
+      </c>
+    </row>
+    <row r="668" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L668" s="2">
+        <v>663</v>
+      </c>
+      <c r="M668" s="1">
+        <f t="shared" si="105"/>
+        <v>6702275500</v>
+      </c>
+      <c r="N668">
+        <v>1.01</v>
+      </c>
+      <c r="O668" s="1">
+        <f>SUM($M$5:M668)</f>
+        <v>652670669500</v>
+      </c>
+      <c r="P668" s="1">
+        <f t="shared" si="106"/>
+        <v>56410818.799999997</v>
+      </c>
+      <c r="Q668">
+        <f>SUM($P$5:P668)</f>
+        <v>5498771620.6800003</v>
+      </c>
+      <c r="R668">
+        <f t="shared" si="107"/>
+        <v>1.0365137640362567</v>
+      </c>
+      <c r="Z668" s="2">
+        <v>663</v>
+      </c>
+      <c r="AA668" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB668">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC668" s="1">
+        <f>SUM($AA$5:AA668)</f>
+        <v>6491991900</v>
+      </c>
+    </row>
+    <row r="669" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L669" s="2">
+        <v>664</v>
+      </c>
+      <c r="M669" s="1">
+        <f t="shared" ref="M669:M704" si="111">ROUNDUP((M668)*N669,-2)</f>
+        <v>6769298300</v>
+      </c>
+      <c r="N669">
+        <v>1.01</v>
+      </c>
+      <c r="O669" s="1">
+        <f>SUM($M$5:M669)</f>
+        <v>659439967800</v>
+      </c>
+      <c r="P669" s="1">
+        <f t="shared" ref="P669:P704" si="112">IF(L669&lt;=$A$27,ROUNDUP(M669*N669/$B$26,2),IF(L669&lt;=$A$28,ROUNDUP(M669*N669/$B$27,2),IF(L669&lt;=$A$29,ROUNDUP(M669*N669/$B$28,2),IF(L669&lt;=$A$30,ROUNDUP(M669*N669/$B$29,2),IF(L669&lt;=$A$31,ROUNDUP(M669*N669/$B$30,2),ROUNDUP(M669*N669/$B$31,2))))))</f>
+        <v>56974927.359999999</v>
+      </c>
+      <c r="Q669">
+        <f>SUM($P$5:P669)</f>
+        <v>5555746548.04</v>
+      </c>
+      <c r="R669">
+        <f t="shared" ref="R669:R704" si="113">(Q669-Q668)*100/Q668</f>
+        <v>1.0361391832627866</v>
+      </c>
+      <c r="Z669" s="2">
+        <v>664</v>
+      </c>
+      <c r="AA669" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB669">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC669" s="1">
+        <f>SUM($AA$5:AA669)</f>
+        <v>6510991900</v>
+      </c>
+    </row>
+    <row r="670" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L670" s="2">
+        <v>665</v>
+      </c>
+      <c r="M670" s="1">
+        <f t="shared" si="111"/>
+        <v>6836991300</v>
+      </c>
+      <c r="N670">
+        <v>1.01</v>
+      </c>
+      <c r="O670" s="1">
+        <f>SUM($M$5:M670)</f>
+        <v>666276959100</v>
+      </c>
+      <c r="P670" s="1">
+        <f t="shared" si="112"/>
+        <v>57544676.780000001</v>
+      </c>
+      <c r="Q670">
+        <f>SUM($P$5:P670)</f>
+        <v>5613291224.8199997</v>
+      </c>
+      <c r="R670">
+        <f t="shared" si="113"/>
+        <v>1.0357685737176185</v>
+      </c>
+      <c r="Z670" s="2">
+        <v>665</v>
+      </c>
+      <c r="AA670" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB670">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="AC670" s="1">
+        <f>SUM($AA$5:AA670)</f>
+        <v>6529991900</v>
+      </c>
+    </row>
+    <row r="671" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L671" s="2">
+        <v>666</v>
+      </c>
+      <c r="M671" s="1">
+        <f t="shared" si="111"/>
+        <v>6905361300</v>
+      </c>
+      <c r="N671">
+        <v>1.01</v>
+      </c>
+      <c r="O671" s="1">
+        <f>SUM($M$5:M671)</f>
+        <v>673182320400</v>
+      </c>
+      <c r="P671" s="1">
+        <f t="shared" si="112"/>
+        <v>58120124.280000001</v>
+      </c>
+      <c r="Q671">
+        <f>SUM($P$5:P671)</f>
+        <v>5671411349.0999994</v>
+      </c>
+      <c r="R671">
+        <f t="shared" si="113"/>
+        <v>1.0354019050893526</v>
+      </c>
+      <c r="Z671" s="2">
+        <v>666</v>
+      </c>
+      <c r="AA671" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB671">
+        <f t="shared" ref="AB671:AB704" si="114">AB631+1</f>
+        <v>19</v>
+      </c>
+      <c r="AC671" s="1">
+        <f>SUM($AA$5:AA671)</f>
+        <v>6548991900</v>
+      </c>
+    </row>
+    <row r="672" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L672" s="2">
+        <v>667</v>
+      </c>
+      <c r="M672" s="1">
+        <f t="shared" si="111"/>
+        <v>6974415000</v>
+      </c>
+      <c r="N672">
+        <v>1.01</v>
+      </c>
+      <c r="O672" s="1">
+        <f>SUM($M$5:M672)</f>
+        <v>680156735400</v>
+      </c>
+      <c r="P672" s="1">
+        <f t="shared" si="112"/>
+        <v>58701326.25</v>
+      </c>
+      <c r="Q672">
+        <f>SUM($P$5:P672)</f>
+        <v>5730112675.3499994</v>
+      </c>
+      <c r="R672">
+        <f t="shared" si="113"/>
+        <v>1.035039122304457</v>
+      </c>
+      <c r="Z672" s="2">
+        <v>667</v>
+      </c>
+      <c r="AA672" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB672">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC672" s="1">
+        <f>SUM($AA$5:AA672)</f>
+        <v>6567991900</v>
+      </c>
+    </row>
+    <row r="673" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L673" s="2">
+        <v>668</v>
+      </c>
+      <c r="M673" s="1">
+        <f t="shared" si="111"/>
+        <v>7044159200</v>
+      </c>
+      <c r="N673">
+        <v>1.01</v>
+      </c>
+      <c r="O673" s="1">
+        <f>SUM($M$5:M673)</f>
+        <v>687200894600</v>
+      </c>
+      <c r="P673" s="1">
+        <f t="shared" si="112"/>
+        <v>59288339.939999998</v>
+      </c>
+      <c r="Q673">
+        <f>SUM($P$5:P673)</f>
+        <v>5789401015.289999</v>
+      </c>
+      <c r="R673">
+        <f t="shared" si="113"/>
+        <v>1.0346801764483315</v>
+      </c>
+      <c r="Z673" s="2">
+        <v>668</v>
+      </c>
+      <c r="AA673" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB673">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC673" s="1">
+        <f>SUM($AA$5:AA673)</f>
+        <v>6586991900</v>
+      </c>
+    </row>
+    <row r="674" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L674" s="2">
+        <v>669</v>
+      </c>
+      <c r="M674" s="1">
+        <f t="shared" si="111"/>
+        <v>7114600800</v>
+      </c>
+      <c r="N674">
+        <v>1.01</v>
+      </c>
+      <c r="O674" s="1">
+        <f>SUM($M$5:M674)</f>
+        <v>694315495400</v>
+      </c>
+      <c r="P674" s="1">
+        <f t="shared" si="112"/>
+        <v>59881223.399999999</v>
+      </c>
+      <c r="Q674">
+        <f>SUM($P$5:P674)</f>
+        <v>5849282238.6899986</v>
+      </c>
+      <c r="R674">
+        <f t="shared" si="113"/>
+        <v>1.0343250232943155</v>
+      </c>
+      <c r="Z674" s="2">
+        <v>669</v>
+      </c>
+      <c r="AA674" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB674">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC674" s="1">
+        <f>SUM($AA$5:AA674)</f>
+        <v>6605991900</v>
+      </c>
+    </row>
+    <row r="675" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L675" s="2">
+        <v>670</v>
+      </c>
+      <c r="M675" s="1">
+        <f t="shared" si="111"/>
+        <v>7185746900</v>
+      </c>
+      <c r="N675">
+        <v>1.01</v>
+      </c>
+      <c r="O675" s="1">
+        <f>SUM($M$5:M675)</f>
+        <v>701501242300</v>
+      </c>
+      <c r="P675" s="1">
+        <f t="shared" si="112"/>
+        <v>60480036.409999996</v>
+      </c>
+      <c r="Q675">
+        <f>SUM($P$5:P675)</f>
+        <v>5909762275.0999985</v>
+      </c>
+      <c r="R675">
+        <f t="shared" si="113"/>
+        <v>1.033973638850173</v>
+      </c>
+      <c r="Z675" s="2">
+        <v>670</v>
+      </c>
+      <c r="AA675" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB675">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC675" s="1">
+        <f>SUM($AA$5:AA675)</f>
+        <v>6624991900</v>
+      </c>
+    </row>
+    <row r="676" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L676" s="2">
+        <v>671</v>
+      </c>
+      <c r="M676" s="1">
+        <f t="shared" si="111"/>
+        <v>7257604400</v>
+      </c>
+      <c r="N676">
+        <v>1.01</v>
+      </c>
+      <c r="O676" s="1">
+        <f>SUM($M$5:M676)</f>
+        <v>708758846700</v>
+      </c>
+      <c r="P676" s="1">
+        <f t="shared" si="112"/>
+        <v>61084837.039999999</v>
+      </c>
+      <c r="Q676">
+        <f>SUM($P$5:P676)</f>
+        <v>5970847112.1399984</v>
+      </c>
+      <c r="R676">
+        <f t="shared" si="113"/>
+        <v>1.0336259598355224</v>
+      </c>
+      <c r="Z676" s="2">
+        <v>671</v>
+      </c>
+      <c r="AA676" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB676">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC676" s="1">
+        <f>SUM($AA$5:AA676)</f>
+        <v>6643991900</v>
+      </c>
+    </row>
+    <row r="677" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L677" s="2">
+        <v>672</v>
+      </c>
+      <c r="M677" s="1">
+        <f t="shared" si="111"/>
+        <v>7330180500</v>
+      </c>
+      <c r="N677">
+        <v>1.01</v>
+      </c>
+      <c r="O677" s="1">
+        <f>SUM($M$5:M677)</f>
+        <v>716089027200</v>
+      </c>
+      <c r="P677" s="1">
+        <f t="shared" si="112"/>
+        <v>61695685.879999995</v>
+      </c>
+      <c r="Q677">
+        <f>SUM($P$5:P677)</f>
+        <v>6032542798.0199986</v>
+      </c>
+      <c r="R677">
+        <f t="shared" si="113"/>
+        <v>1.033281956835902</v>
+      </c>
+      <c r="Z677" s="2">
+        <v>672</v>
+      </c>
+      <c r="AA677" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB677">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC677" s="1">
+        <f>SUM($AA$5:AA677)</f>
+        <v>6662991900</v>
+      </c>
+    </row>
+    <row r="678" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L678" s="2">
+        <v>673</v>
+      </c>
+      <c r="M678" s="1">
+        <f t="shared" si="111"/>
+        <v>7403482400</v>
+      </c>
+      <c r="N678">
+        <v>1.01</v>
+      </c>
+      <c r="O678" s="1">
+        <f>SUM($M$5:M678)</f>
+        <v>723492509600</v>
+      </c>
+      <c r="P678" s="1">
+        <f t="shared" si="112"/>
+        <v>62312643.539999999</v>
+      </c>
+      <c r="Q678">
+        <f>SUM($P$5:P678)</f>
+        <v>6094855441.5599985</v>
+      </c>
+      <c r="R678">
+        <f t="shared" si="113"/>
+        <v>1.0329415907410093</v>
+      </c>
+      <c r="Z678" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA678" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB678">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC678" s="1">
+        <f>SUM($AA$5:AA678)</f>
+        <v>6681991900</v>
+      </c>
+    </row>
+    <row r="679" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L679" s="2">
+        <v>674</v>
+      </c>
+      <c r="M679" s="1">
+        <f t="shared" si="111"/>
+        <v>7477517300</v>
+      </c>
+      <c r="N679">
+        <v>1.01</v>
+      </c>
+      <c r="O679" s="1">
+        <f>SUM($M$5:M679)</f>
+        <v>730970026900</v>
+      </c>
+      <c r="P679" s="1">
+        <f t="shared" si="112"/>
+        <v>62935770.609999999</v>
+      </c>
+      <c r="Q679">
+        <f>SUM($P$5:P679)</f>
+        <v>6157791212.1699982</v>
+      </c>
+      <c r="R679">
+        <f t="shared" si="113"/>
+        <v>1.0326048125907812</v>
+      </c>
+      <c r="Z679" s="2">
+        <v>674</v>
+      </c>
+      <c r="AA679" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB679">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC679" s="1">
+        <f>SUM($AA$5:AA679)</f>
+        <v>6700991900</v>
+      </c>
+    </row>
+    <row r="680" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L680" s="2">
+        <v>675</v>
+      </c>
+      <c r="M680" s="1">
+        <f t="shared" si="111"/>
+        <v>7552292500</v>
+      </c>
+      <c r="N680">
+        <v>1.01</v>
+      </c>
+      <c r="O680" s="1">
+        <f>SUM($M$5:M680)</f>
+        <v>738522319400</v>
+      </c>
+      <c r="P680" s="1">
+        <f t="shared" si="112"/>
+        <v>63565128.549999997</v>
+      </c>
+      <c r="Q680">
+        <f>SUM($P$5:P680)</f>
+        <v>6221356340.7199984</v>
+      </c>
+      <c r="R680">
+        <f t="shared" si="113"/>
+        <v>1.032271578555193</v>
+      </c>
+      <c r="Z680" s="2">
+        <v>675</v>
+      </c>
+      <c r="AA680" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB680">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC680" s="1">
+        <f>SUM($AA$5:AA680)</f>
+        <v>6719991900</v>
+      </c>
+    </row>
+    <row r="681" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L681" s="2">
+        <v>676</v>
+      </c>
+      <c r="M681" s="1">
+        <f t="shared" si="111"/>
+        <v>7627815500</v>
+      </c>
+      <c r="N681">
+        <v>1.01</v>
+      </c>
+      <c r="O681" s="1">
+        <f>SUM($M$5:M681)</f>
+        <v>746150134900</v>
+      </c>
+      <c r="P681" s="1">
+        <f t="shared" si="112"/>
+        <v>64200780.460000001</v>
+      </c>
+      <c r="Q681">
+        <f>SUM($P$5:P681)</f>
+        <v>6285557121.1799984</v>
+      </c>
+      <c r="R681">
+        <f t="shared" si="113"/>
+        <v>1.0319418619344038</v>
+      </c>
+      <c r="Z681" s="2">
+        <v>676</v>
+      </c>
+      <c r="AA681" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB681">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC681" s="1">
+        <f>SUM($AA$5:AA681)</f>
+        <v>6738991900</v>
+      </c>
+    </row>
+    <row r="682" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L682" s="2">
+        <v>677</v>
+      </c>
+      <c r="M682" s="1">
+        <f t="shared" si="111"/>
+        <v>7704093700</v>
+      </c>
+      <c r="N682">
+        <v>1.01</v>
+      </c>
+      <c r="O682" s="1">
+        <f>SUM($M$5:M682)</f>
+        <v>753854228600</v>
+      </c>
+      <c r="P682" s="1">
+        <f t="shared" si="112"/>
+        <v>64842788.649999999</v>
+      </c>
+      <c r="Q682">
+        <f>SUM($P$5:P682)</f>
+        <v>6350399909.829998</v>
+      </c>
+      <c r="R682">
+        <f t="shared" si="113"/>
+        <v>1.031615613379814</v>
+      </c>
+      <c r="Z682" s="2">
+        <v>677</v>
+      </c>
+      <c r="AA682" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB682">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC682" s="1">
+        <f>SUM($AA$5:AA682)</f>
+        <v>6757991900</v>
+      </c>
+    </row>
+    <row r="683" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L683" s="2">
+        <v>678</v>
+      </c>
+      <c r="M683" s="1">
+        <f t="shared" si="111"/>
+        <v>7781134700</v>
+      </c>
+      <c r="N683">
+        <v>1.01</v>
+      </c>
+      <c r="O683" s="1">
+        <f>SUM($M$5:M683)</f>
+        <v>761635363300</v>
+      </c>
+      <c r="P683" s="1">
+        <f t="shared" si="112"/>
+        <v>65491217.059999995</v>
+      </c>
+      <c r="Q683">
+        <f>SUM($P$5:P683)</f>
+        <v>6415891126.8899984</v>
+      </c>
+      <c r="R683">
+        <f t="shared" si="113"/>
+        <v>1.0312928002947399</v>
+      </c>
+      <c r="Z683" s="2">
+        <v>678</v>
+      </c>
+      <c r="AA683" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB683">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC683" s="1">
+        <f>SUM($AA$5:AA683)</f>
+        <v>6776991900</v>
+      </c>
+    </row>
+    <row r="684" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L684" s="2">
+        <v>679</v>
+      </c>
+      <c r="M684" s="1">
+        <f t="shared" si="111"/>
+        <v>7858946100</v>
+      </c>
+      <c r="N684">
+        <v>1.01</v>
+      </c>
+      <c r="O684" s="1">
+        <f>SUM($M$5:M684)</f>
+        <v>769494309400</v>
+      </c>
+      <c r="P684" s="1">
+        <f t="shared" si="112"/>
+        <v>66146129.68</v>
+      </c>
+      <c r="Q684">
+        <f>SUM($P$5:P684)</f>
+        <v>6482037256.5699987</v>
+      </c>
+      <c r="R684">
+        <f t="shared" si="113"/>
+        <v>1.0309733811219393</v>
+      </c>
+      <c r="Z684" s="2">
+        <v>679</v>
+      </c>
+      <c r="AA684" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB684">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC684" s="1">
+        <f>SUM($AA$5:AA684)</f>
+        <v>6795991900</v>
+      </c>
+    </row>
+    <row r="685" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L685" s="2">
+        <v>680</v>
+      </c>
+      <c r="M685" s="1">
+        <f t="shared" si="111"/>
+        <v>7937535600</v>
+      </c>
+      <c r="N685">
+        <v>1.01</v>
+      </c>
+      <c r="O685" s="1">
+        <f>SUM($M$5:M685)</f>
+        <v>777431845000</v>
+      </c>
+      <c r="P685" s="1">
+        <f t="shared" si="112"/>
+        <v>66807591.299999997</v>
+      </c>
+      <c r="Q685">
+        <f>SUM($P$5:P685)</f>
+        <v>6548844847.8699989</v>
+      </c>
+      <c r="R685">
+        <f t="shared" si="113"/>
+        <v>1.0306573173778972</v>
+      </c>
+      <c r="Z685" s="2">
+        <v>680</v>
+      </c>
+      <c r="AA685" s="1">
+        <f t="shared" si="110"/>
+        <v>19000000</v>
+      </c>
+      <c r="AB685">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AC685" s="1">
+        <f>SUM($AA$5:AA685)</f>
+        <v>6814991900</v>
+      </c>
+    </row>
+    <row r="686" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L686" s="2">
+        <v>681</v>
+      </c>
+      <c r="M686" s="1">
+        <f t="shared" si="111"/>
+        <v>8016911000</v>
+      </c>
+      <c r="N686">
+        <v>1.01</v>
+      </c>
+      <c r="O686" s="1">
+        <f>SUM($M$5:M686)</f>
+        <v>785448756000</v>
+      </c>
+      <c r="P686" s="1">
+        <f t="shared" si="112"/>
+        <v>67475667.590000004</v>
+      </c>
+      <c r="Q686">
+        <f>SUM($P$5:P686)</f>
+        <v>6616320515.4599991</v>
+      </c>
+      <c r="R686">
+        <f t="shared" si="113"/>
+        <v>1.0303445746152697</v>
+      </c>
+      <c r="Z686" s="2">
+        <v>681</v>
+      </c>
+      <c r="AA686" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB686">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC686" s="1">
+        <f>SUM($AA$5:AA686)</f>
+        <v>6834991900</v>
+      </c>
+    </row>
+    <row r="687" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L687" s="2">
+        <v>682</v>
+      </c>
+      <c r="M687" s="1">
+        <f t="shared" si="111"/>
+        <v>8097080200</v>
+      </c>
+      <c r="N687">
+        <v>1.01</v>
+      </c>
+      <c r="O687" s="1">
+        <f>SUM($M$5:M687)</f>
+        <v>793545836200</v>
+      </c>
+      <c r="P687" s="1">
+        <f t="shared" si="112"/>
+        <v>68150425.020000011</v>
+      </c>
+      <c r="Q687">
+        <f>SUM($P$5:P687)</f>
+        <v>6684470940.4799995</v>
+      </c>
+      <c r="R687">
+        <f t="shared" si="113"/>
+        <v>1.0300351208916956</v>
+      </c>
+      <c r="Z687" s="2">
+        <v>682</v>
+      </c>
+      <c r="AA687" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB687">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC687" s="1">
+        <f>SUM($AA$5:AA687)</f>
+        <v>6854991900</v>
+      </c>
+    </row>
+    <row r="688" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L688" s="2">
+        <v>683</v>
+      </c>
+      <c r="M688" s="1">
+        <f t="shared" si="111"/>
+        <v>8178051100</v>
+      </c>
+      <c r="N688">
+        <v>1.01</v>
+      </c>
+      <c r="O688" s="1">
+        <f>SUM($M$5:M688)</f>
+        <v>801723887300</v>
+      </c>
+      <c r="P688" s="1">
+        <f t="shared" si="112"/>
+        <v>68831930.100000009</v>
+      </c>
+      <c r="Q688">
+        <f>SUM($P$5:P688)</f>
+        <v>6753302870.5799999</v>
+      </c>
+      <c r="R688">
+        <f t="shared" si="113"/>
+        <v>1.0297289151661371</v>
+      </c>
+      <c r="Z688" s="2">
+        <v>683</v>
+      </c>
+      <c r="AA688" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB688">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC688" s="1">
+        <f>SUM($AA$5:AA688)</f>
+        <v>6874991900</v>
+      </c>
+    </row>
+    <row r="689" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L689" s="2">
+        <v>684</v>
+      </c>
+      <c r="M689" s="1">
+        <f t="shared" si="111"/>
+        <v>8259831700</v>
+      </c>
+      <c r="N689">
+        <v>1.01</v>
+      </c>
+      <c r="O689" s="1">
+        <f>SUM($M$5:M689)</f>
+        <v>809983719000</v>
+      </c>
+      <c r="P689" s="1">
+        <f t="shared" si="112"/>
+        <v>69520250.150000006</v>
+      </c>
+      <c r="Q689">
+        <f>SUM($P$5:P689)</f>
+        <v>6822823120.7299995</v>
+      </c>
+      <c r="R689">
+        <f t="shared" si="113"/>
+        <v>1.0294259191729238</v>
+      </c>
+      <c r="Z689" s="2">
+        <v>684</v>
+      </c>
+      <c r="AA689" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB689">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC689" s="1">
+        <f>SUM($AA$5:AA689)</f>
+        <v>6894991900</v>
+      </c>
+    </row>
+    <row r="690" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L690" s="2">
+        <v>685</v>
+      </c>
+      <c r="M690" s="1">
+        <f t="shared" si="111"/>
+        <v>8342430100</v>
+      </c>
+      <c r="N690">
+        <v>1.01</v>
+      </c>
+      <c r="O690" s="1">
+        <f>SUM($M$5:M690)</f>
+        <v>818326149100</v>
+      </c>
+      <c r="P690" s="1">
+        <f t="shared" si="112"/>
+        <v>70215453.350000009</v>
+      </c>
+      <c r="Q690">
+        <f>SUM($P$5:P690)</f>
+        <v>6893038574.0799999</v>
+      </c>
+      <c r="R690">
+        <f t="shared" si="113"/>
+        <v>1.0291260979148433</v>
+      </c>
+      <c r="Z690" s="2">
+        <v>685</v>
+      </c>
+      <c r="AA690" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB690">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC690" s="1">
+        <f>SUM($AA$5:AA690)</f>
+        <v>6914991900</v>
+      </c>
+    </row>
+    <row r="691" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L691" s="2">
+        <v>686</v>
+      </c>
+      <c r="M691" s="1">
+        <f t="shared" si="111"/>
+        <v>8425854500</v>
+      </c>
+      <c r="N691">
+        <v>1.01</v>
+      </c>
+      <c r="O691" s="1">
+        <f>SUM($M$5:M691)</f>
+        <v>826752003600</v>
+      </c>
+      <c r="P691" s="1">
+        <f t="shared" si="112"/>
+        <v>70917608.710000008</v>
+      </c>
+      <c r="Q691">
+        <f>SUM($P$5:P691)</f>
+        <v>6963956182.79</v>
+      </c>
+      <c r="R691">
+        <f t="shared" si="113"/>
+        <v>1.0288294189542566</v>
+      </c>
+      <c r="Z691" s="2">
+        <v>686</v>
+      </c>
+      <c r="AA691" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB691">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC691" s="1">
+        <f>SUM($AA$5:AA691)</f>
+        <v>6934991900</v>
+      </c>
+    </row>
+    <row r="692" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L692" s="2">
+        <v>687</v>
+      </c>
+      <c r="M692" s="1">
+        <f t="shared" si="111"/>
+        <v>8510113100</v>
+      </c>
+      <c r="N692">
+        <v>1.01</v>
+      </c>
+      <c r="O692" s="1">
+        <f>SUM($M$5:M692)</f>
+        <v>835262116700</v>
+      </c>
+      <c r="P692" s="1">
+        <f t="shared" si="112"/>
+        <v>71626785.260000005</v>
+      </c>
+      <c r="Q692">
+        <f>SUM($P$5:P692)</f>
+        <v>7035582968.0500002</v>
+      </c>
+      <c r="R692">
+        <f t="shared" si="113"/>
+        <v>1.0285358405472345</v>
+      </c>
+      <c r="Z692" s="2">
+        <v>687</v>
+      </c>
+      <c r="AA692" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB692">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC692" s="1">
+        <f>SUM($AA$5:AA692)</f>
+        <v>6954991900</v>
+      </c>
+    </row>
+    <row r="693" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L693" s="2">
+        <v>688</v>
+      </c>
+      <c r="M693" s="1">
+        <f t="shared" si="111"/>
+        <v>8595214300</v>
+      </c>
+      <c r="N693">
+        <v>1.01</v>
+      </c>
+      <c r="O693" s="1">
+        <f>SUM($M$5:M693)</f>
+        <v>843857331000</v>
+      </c>
+      <c r="P693" s="1">
+        <f t="shared" si="112"/>
+        <v>72343053.700000003</v>
+      </c>
+      <c r="Q693">
+        <f>SUM($P$5:P693)</f>
+        <v>7107926021.75</v>
+      </c>
+      <c r="R693">
+        <f t="shared" si="113"/>
+        <v>1.0282453355823418</v>
+      </c>
+      <c r="Z693" s="2">
+        <v>688</v>
+      </c>
+      <c r="AA693" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB693">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC693" s="1">
+        <f>SUM($AA$5:AA693)</f>
+        <v>6974991900</v>
+      </c>
+    </row>
+    <row r="694" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L694" s="2">
+        <v>689</v>
+      </c>
+      <c r="M694" s="1">
+        <f t="shared" si="111"/>
+        <v>8681166500</v>
+      </c>
+      <c r="N694">
+        <v>1.01</v>
+      </c>
+      <c r="O694" s="1">
+        <f>SUM($M$5:M694)</f>
+        <v>852538497500</v>
+      </c>
+      <c r="P694" s="1">
+        <f t="shared" si="112"/>
+        <v>73066484.710000008</v>
+      </c>
+      <c r="Q694">
+        <f>SUM($P$5:P694)</f>
+        <v>7180992506.46</v>
+      </c>
+      <c r="R694">
+        <f t="shared" si="113"/>
+        <v>1.0279578668435658</v>
+      </c>
+      <c r="Z694" s="2">
+        <v>689</v>
+      </c>
+      <c r="AA694" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB694">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC694" s="1">
+        <f>SUM($AA$5:AA694)</f>
+        <v>6994991900</v>
+      </c>
+    </row>
+    <row r="695" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L695" s="2">
+        <v>690</v>
+      </c>
+      <c r="M695" s="1">
+        <f t="shared" si="111"/>
+        <v>8767978200</v>
+      </c>
+      <c r="N695">
+        <v>1.01</v>
+      </c>
+      <c r="O695" s="1">
+        <f>SUM($M$5:M695)</f>
+        <v>861306475700</v>
+      </c>
+      <c r="P695" s="1">
+        <f t="shared" si="112"/>
+        <v>73797149.849999994</v>
+      </c>
+      <c r="Q695">
+        <f>SUM($P$5:P695)</f>
+        <v>7254789656.3100004</v>
+      </c>
+      <c r="R695">
+        <f t="shared" si="113"/>
+        <v>1.0276734000712671</v>
+      </c>
+      <c r="Z695" s="2">
+        <v>690</v>
+      </c>
+      <c r="AA695" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB695">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC695" s="1">
+        <f>SUM($AA$5:AA695)</f>
+        <v>7014991900</v>
+      </c>
+    </row>
+    <row r="696" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L696" s="2">
+        <v>691</v>
+      </c>
+      <c r="M696" s="1">
+        <f t="shared" si="111"/>
+        <v>8855658000</v>
+      </c>
+      <c r="N696">
+        <v>1.01</v>
+      </c>
+      <c r="O696" s="1">
+        <f>SUM($M$5:M696)</f>
+        <v>870162133700</v>
+      </c>
+      <c r="P696" s="1">
+        <f t="shared" si="112"/>
+        <v>74535121.5</v>
+      </c>
+      <c r="Q696">
+        <f>SUM($P$5:P696)</f>
+        <v>7329324777.8100004</v>
+      </c>
+      <c r="R696">
+        <f t="shared" si="113"/>
+        <v>1.0273919028813132</v>
+      </c>
+      <c r="Z696" s="2">
+        <v>691</v>
+      </c>
+      <c r="AA696" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB696">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC696" s="1">
+        <f>SUM($AA$5:AA696)</f>
+        <v>7034991900</v>
+      </c>
+    </row>
+    <row r="697" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L697" s="2">
+        <v>692</v>
+      </c>
+      <c r="M697" s="1">
+        <f t="shared" si="111"/>
+        <v>8944214600</v>
+      </c>
+      <c r="N697">
+        <v>1.01</v>
+      </c>
+      <c r="O697" s="1">
+        <f>SUM($M$5:M697)</f>
+        <v>879106348300</v>
+      </c>
+      <c r="P697" s="1">
+        <f t="shared" si="112"/>
+        <v>75280472.890000001</v>
+      </c>
+      <c r="Q697">
+        <f>SUM($P$5:P697)</f>
+        <v>7404605250.7000008</v>
+      </c>
+      <c r="R697">
+        <f t="shared" si="113"/>
+        <v>1.0271133449825662</v>
+      </c>
+      <c r="Z697" s="2">
+        <v>692</v>
+      </c>
+      <c r="AA697" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB697">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC697" s="1">
+        <f>SUM($AA$5:AA697)</f>
+        <v>7054991900</v>
+      </c>
+    </row>
+    <row r="698" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L698" s="2">
+        <v>693</v>
+      </c>
+      <c r="M698" s="1">
+        <f t="shared" si="111"/>
+        <v>9033656800</v>
+      </c>
+      <c r="N698">
+        <v>1.01</v>
+      </c>
+      <c r="O698" s="1">
+        <f>SUM($M$5:M698)</f>
+        <v>888140005100</v>
+      </c>
+      <c r="P698" s="1">
+        <f t="shared" si="112"/>
+        <v>76033278.070000008</v>
+      </c>
+      <c r="Q698">
+        <f>SUM($P$5:P698)</f>
+        <v>7480638528.7700005</v>
+      </c>
+      <c r="R698">
+        <f t="shared" si="113"/>
+        <v>1.0268376975641182</v>
+      </c>
+      <c r="Z698" s="2">
+        <v>693</v>
+      </c>
+      <c r="AA698" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB698">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC698" s="1">
+        <f>SUM($AA$5:AA698)</f>
+        <v>7074991900</v>
+      </c>
+    </row>
+    <row r="699" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L699" s="2">
+        <v>694</v>
+      </c>
+      <c r="M699" s="1">
+        <f t="shared" si="111"/>
+        <v>9123993400</v>
+      </c>
+      <c r="N699">
+        <v>1.01</v>
+      </c>
+      <c r="O699" s="1">
+        <f>SUM($M$5:M699)</f>
+        <v>897263998500</v>
+      </c>
+      <c r="P699" s="1">
+        <f t="shared" si="112"/>
+        <v>76793611.120000005</v>
+      </c>
+      <c r="Q699">
+        <f>SUM($P$5:P699)</f>
+        <v>7557432139.8900003</v>
+      </c>
+      <c r="R699">
+        <f t="shared" si="113"/>
+        <v>1.0265649225618529</v>
+      </c>
+      <c r="Z699" s="2">
+        <v>694</v>
+      </c>
+      <c r="AA699" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB699">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC699" s="1">
+        <f>SUM($AA$5:AA699)</f>
+        <v>7094991900</v>
+      </c>
+    </row>
+    <row r="700" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L700" s="2">
+        <v>695</v>
+      </c>
+      <c r="M700" s="1">
+        <f t="shared" si="111"/>
+        <v>9215233400</v>
+      </c>
+      <c r="N700">
+        <v>1.01</v>
+      </c>
+      <c r="O700" s="1">
+        <f>SUM($M$5:M700)</f>
+        <v>906479231900</v>
+      </c>
+      <c r="P700" s="1">
+        <f t="shared" si="112"/>
+        <v>77561547.790000007</v>
+      </c>
+      <c r="Q700">
+        <f>SUM($P$5:P700)</f>
+        <v>7634993687.6800003</v>
+      </c>
+      <c r="R700">
+        <f t="shared" si="113"/>
+        <v>1.0262949948384039</v>
+      </c>
+      <c r="Z700" s="2">
+        <v>695</v>
+      </c>
+      <c r="AA700" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB700">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC700" s="1">
+        <f>SUM($AA$5:AA700)</f>
+        <v>7114991900</v>
+      </c>
+    </row>
+    <row r="701" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L701" s="2">
+        <v>696</v>
+      </c>
+      <c r="M701" s="1">
+        <f t="shared" si="111"/>
+        <v>9307385800</v>
+      </c>
+      <c r="N701">
+        <v>1.01</v>
+      </c>
+      <c r="O701" s="1">
+        <f>SUM($M$5:M701)</f>
+        <v>915786617700</v>
+      </c>
+      <c r="P701" s="1">
+        <f t="shared" si="112"/>
+        <v>78337163.820000008</v>
+      </c>
+      <c r="Q701">
+        <f>SUM($P$5:P701)</f>
+        <v>7713330851.5</v>
+      </c>
+      <c r="R701">
+        <f t="shared" si="113"/>
+        <v>1.0260278793210573</v>
+      </c>
+      <c r="Z701" s="2">
+        <v>696</v>
+      </c>
+      <c r="AA701" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB701">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC701" s="1">
+        <f>SUM($AA$5:AA701)</f>
+        <v>7134991900</v>
+      </c>
+    </row>
+    <row r="702" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L702" s="2">
+        <v>697</v>
+      </c>
+      <c r="M702" s="1">
+        <f t="shared" si="111"/>
+        <v>9400459700</v>
+      </c>
+      <c r="N702">
+        <v>1.01</v>
+      </c>
+      <c r="O702" s="1">
+        <f>SUM($M$5:M702)</f>
+        <v>925187077400</v>
+      </c>
+      <c r="P702" s="1">
+        <f t="shared" si="112"/>
+        <v>79120535.810000002</v>
+      </c>
+      <c r="Q702">
+        <f>SUM($P$5:P702)</f>
+        <v>7792451387.3100004</v>
+      </c>
+      <c r="R702">
+        <f t="shared" si="113"/>
+        <v>1.0257635427970002</v>
+      </c>
+      <c r="Z702" s="2">
+        <v>697</v>
+      </c>
+      <c r="AA702" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB702">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC702" s="1">
+        <f>SUM($AA$5:AA702)</f>
+        <v>7154991900</v>
+      </c>
+    </row>
+    <row r="703" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L703" s="2">
+        <v>698</v>
+      </c>
+      <c r="M703" s="1">
+        <f t="shared" si="111"/>
+        <v>9494464300</v>
+      </c>
+      <c r="N703">
+        <v>1.01</v>
+      </c>
+      <c r="O703" s="1">
+        <f>SUM($M$5:M703)</f>
+        <v>934681541700</v>
+      </c>
+      <c r="P703" s="1">
+        <f t="shared" si="112"/>
+        <v>79911741.200000003</v>
+      </c>
+      <c r="Q703">
+        <f>SUM($P$5:P703)</f>
+        <v>7872363128.5100002</v>
+      </c>
+      <c r="R703">
+        <f t="shared" si="113"/>
+        <v>1.0255019534691741</v>
+      </c>
+      <c r="Z703" s="2">
+        <v>698</v>
+      </c>
+      <c r="AA703" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB703">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC703" s="1">
+        <f>SUM($AA$5:AA703)</f>
+        <v>7174991900</v>
+      </c>
+    </row>
+    <row r="704" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L704" s="2">
+        <v>699</v>
+      </c>
+      <c r="M704" s="1">
+        <f t="shared" si="111"/>
+        <v>9589409000</v>
+      </c>
+      <c r="N704">
+        <v>1.01</v>
+      </c>
+      <c r="O704" s="1">
+        <f>SUM($M$5:M704)</f>
+        <v>944270950700</v>
+      </c>
+      <c r="P704" s="1">
+        <f t="shared" si="112"/>
+        <v>80710859.090000004</v>
+      </c>
+      <c r="Q704">
+        <f>SUM($P$5:P704)</f>
+        <v>7953073987.6000004</v>
+      </c>
+      <c r="R704">
+        <f t="shared" si="113"/>
+        <v>1.0252430912098471</v>
+      </c>
+      <c r="Z704" s="2">
+        <v>699</v>
+      </c>
+      <c r="AA704" s="1">
+        <f t="shared" si="110"/>
+        <v>20000000</v>
+      </c>
+      <c r="AB704">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+      <c r="AC704" s="1">
+        <f>SUM($AA$5:AA704)</f>
+        <v>7194991900</v>
       </c>
     </row>
   </sheetData>
@@ -55657,8 +62855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638257D-541B-42BC-9621-10FB1B767C19}">
   <dimension ref="B1:AC155"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
